--- a/documentos/datos.xlsx
+++ b/documentos/datos.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/io/Documents/Desarrollo/prototipo2/documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itanortegaortega/Documents/Desarrollo/prototipo2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="460" windowWidth="15420" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="2" r:id="rId1"/>
     <sheet name="en" sheetId="1" r:id="rId2"/>
     <sheet name="signos1" sheetId="4" r:id="rId3"/>
-    <sheet name="Datos Signos" sheetId="3" r:id="rId4"/>
-    <sheet name="compatibilidad" sheetId="6" r:id="rId5"/>
-    <sheet name="compatibiliad resultado" sheetId="7" r:id="rId6"/>
-    <sheet name="diario" sheetId="5" r:id="rId7"/>
+    <sheet name="iniciales" sheetId="8" r:id="rId4"/>
+    <sheet name="Datos Signos" sheetId="3" r:id="rId5"/>
+    <sheet name="compatibilidad" sheetId="6" r:id="rId6"/>
+    <sheet name="compatibiliad resultado" sheetId="7" r:id="rId7"/>
+    <sheet name="diario" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="595">
   <si>
     <t>app_name</t>
   </si>
@@ -1770,6 +1771,54 @@
   </si>
   <si>
     <t>piscis_acuario=39%</t>
+  </si>
+  <si>
+    <t>compatibilidad.json</t>
+  </si>
+  <si>
+    <t>signos.json</t>
+  </si>
+  <si>
+    <t>acuario.png</t>
+  </si>
+  <si>
+    <t>aries.png</t>
+  </si>
+  <si>
+    <t>cancer.png</t>
+  </si>
+  <si>
+    <t>capricornio.png</t>
+  </si>
+  <si>
+    <t>escorpio.png</t>
+  </si>
+  <si>
+    <t>geminis.png</t>
+  </si>
+  <si>
+    <t>leo.png</t>
+  </si>
+  <si>
+    <t>libra.png</t>
+  </si>
+  <si>
+    <t>piscis.png</t>
+  </si>
+  <si>
+    <t>sagitario.png</t>
+  </si>
+  <si>
+    <t>taruro.png</t>
+  </si>
+  <si>
+    <t>virgo.png</t>
+  </si>
+  <si>
+    <t>archivos</t>
+  </si>
+  <si>
+    <t>imágenes</t>
   </si>
 </sst>
 </file>
@@ -4627,7 +4676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4735,6 +4784,235 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1" t="str">
+        <f>B1&amp;"["&amp;A1&amp;"]   archivo="&amp;C1</f>
+        <v>archivos[0]   archivo=compatibilidad.json</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D14" si="0">B2&amp;"["&amp;A2&amp;"]   archivo="&amp;C2</f>
+        <v>archivos[1]   archivo=signos.json</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[0]   archivo=acuario.png</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[1]   archivo=aries.png</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[2]   archivo=cancer.png</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[3]   archivo=capricornio.png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[4]   archivo=escorpio.png</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" t="s">
+        <v>586</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[5]   archivo=geminis.png</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[6]   archivo=leo.png</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" t="s">
+        <v>588</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[7]   archivo=libra.png</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C11" t="s">
+        <v>589</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[8]   archivo=piscis.png</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>594</v>
+      </c>
+      <c r="C12" t="s">
+        <v>590</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[9]   archivo=sagitario.png</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>594</v>
+      </c>
+      <c r="C13" t="s">
+        <v>591</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[10]   archivo=taruro.png</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>594</v>
+      </c>
+      <c r="C14" t="s">
+        <v>592</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[11]   archivo=virgo.png</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F131"/>
   <sheetViews>
@@ -7211,7 +7489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
@@ -8711,7 +8989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A144"/>
   <sheetViews>
@@ -9446,7 +9724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>

--- a/documentos/datos.xlsx
+++ b/documentos/datos.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="607">
   <si>
     <t>app_name</t>
   </si>
@@ -1809,9 +1809,6 @@
     <t>sagitario.png</t>
   </si>
   <si>
-    <t>taruro.png</t>
-  </si>
-  <si>
     <t>virgo.png</t>
   </si>
   <si>
@@ -1819,6 +1816,45 @@
   </si>
   <si>
     <t>imágenes</t>
+  </si>
+  <si>
+    <t>tauro.png</t>
+  </si>
+  <si>
+    <t>acuario_fondo.png</t>
+  </si>
+  <si>
+    <t>aries_fondo.png</t>
+  </si>
+  <si>
+    <t>cancer_fondo.png</t>
+  </si>
+  <si>
+    <t>capricornio_fondo.png</t>
+  </si>
+  <si>
+    <t>escorpio_fondo.png</t>
+  </si>
+  <si>
+    <t>geminis_fondo.png</t>
+  </si>
+  <si>
+    <t>leo_fondo.png</t>
+  </si>
+  <si>
+    <t>libra_fondo.png</t>
+  </si>
+  <si>
+    <t>piscis_fondo.png</t>
+  </si>
+  <si>
+    <t>sagitario_fondo.png</t>
+  </si>
+  <si>
+    <t>tauro_fondo.png</t>
+  </si>
+  <si>
+    <t>virgo_fondo.png</t>
   </si>
 </sst>
 </file>
@@ -4785,10 +4821,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D14"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4802,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C1" t="s">
         <v>579</v>
@@ -4817,13 +4853,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C2" t="s">
         <v>580</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D14" si="0">B2&amp;"["&amp;A2&amp;"]   archivo="&amp;C2</f>
+        <f t="shared" ref="D2:D26" si="0">B2&amp;"["&amp;A2&amp;"]   archivo="&amp;C2</f>
         <v>archivos[1]   archivo=signos.json</v>
       </c>
     </row>
@@ -4832,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C3" t="s">
         <v>581</v>
@@ -4847,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C4" t="s">
         <v>582</v>
@@ -4862,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C5" t="s">
         <v>583</v>
@@ -4877,7 +4913,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
         <v>584</v>
@@ -4892,7 +4928,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C7" t="s">
         <v>585</v>
@@ -4907,7 +4943,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C8" t="s">
         <v>586</v>
@@ -4922,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C9" t="s">
         <v>587</v>
@@ -4937,7 +4973,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C10" t="s">
         <v>588</v>
@@ -4952,7 +4988,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C11" t="s">
         <v>589</v>
@@ -4967,7 +5003,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C12" t="s">
         <v>590</v>
@@ -4982,14 +5018,14 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>593</v>
+      </c>
+      <c r="C13" t="s">
         <v>594</v>
-      </c>
-      <c r="C13" t="s">
-        <v>591</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>imágenes[10]   archivo=taruro.png</v>
+        <v>imágenes[10]   archivo=tauro.png</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4997,14 +5033,194 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>imágenes[11]   archivo=virgo.png</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[12]   archivo=acuario_fondo.png</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C16" t="s">
+        <v>596</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[13]   archivo=aries_fondo.png</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>593</v>
+      </c>
+      <c r="C17" t="s">
+        <v>597</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[14]   archivo=cancer_fondo.png</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>593</v>
+      </c>
+      <c r="C18" t="s">
+        <v>598</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[15]   archivo=capricornio_fondo.png</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>593</v>
+      </c>
+      <c r="C19" t="s">
+        <v>599</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[16]   archivo=escorpio_fondo.png</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>593</v>
+      </c>
+      <c r="C20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[17]   archivo=geminis_fondo.png</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>593</v>
+      </c>
+      <c r="C21" t="s">
+        <v>601</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[18]   archivo=leo_fondo.png</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>593</v>
+      </c>
+      <c r="C22" t="s">
+        <v>602</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[19]   archivo=libra_fondo.png</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>593</v>
+      </c>
+      <c r="C23" t="s">
+        <v>603</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[20]   archivo=piscis_fondo.png</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>593</v>
+      </c>
+      <c r="C24" t="s">
+        <v>604</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[21]   archivo=sagitario_fondo.png</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>593</v>
+      </c>
+      <c r="C25" t="s">
+        <v>605</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[22]   archivo=tauro_fondo.png</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>593</v>
+      </c>
+      <c r="C26" t="s">
+        <v>606</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[23]   archivo=virgo_fondo.png</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/datos.xlsx
+++ b/documentos/datos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="616">
   <si>
     <t>app_name</t>
   </si>
@@ -1855,6 +1855,33 @@
   </si>
   <si>
     <t>virgo_fondo.png</t>
+  </si>
+  <si>
+    <t>iucesmag.png</t>
+  </si>
+  <si>
+    <t>caldas.png</t>
+  </si>
+  <si>
+    <t>baloto.png</t>
+  </si>
+  <si>
+    <t>chance.png</t>
+  </si>
+  <si>
+    <t>num.png</t>
+  </si>
+  <si>
+    <t>circulofn.png</t>
+  </si>
+  <si>
+    <t>numeros</t>
+  </si>
+  <si>
+    <t>pnl</t>
+  </si>
+  <si>
+    <t>pnl1; pnl2</t>
   </si>
 </sst>
 </file>
@@ -4710,108 +4737,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -4821,10 +4887,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4859,7 +4925,7 @@
         <v>580</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D26" si="0">B2&amp;"["&amp;A2&amp;"]   archivo="&amp;C2</f>
+        <f t="shared" ref="D2:D32" si="0">B2&amp;"["&amp;A2&amp;"]   archivo="&amp;C2</f>
         <v>archivos[1]   archivo=signos.json</v>
       </c>
     </row>
@@ -5221,6 +5287,96 @@
       <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>imágenes[23]   archivo=virgo_fondo.png</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>593</v>
+      </c>
+      <c r="C27" t="s">
+        <v>607</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[24]   archivo=iucesmag.png</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>593</v>
+      </c>
+      <c r="C28" t="s">
+        <v>608</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[25]   archivo=caldas.png</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>593</v>
+      </c>
+      <c r="C29" t="s">
+        <v>609</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[26]   archivo=baloto.png</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>593</v>
+      </c>
+      <c r="C30" t="s">
+        <v>610</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[27]   archivo=chance.png</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>593</v>
+      </c>
+      <c r="C31" t="s">
+        <v>611</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[28]   archivo=num.png</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>593</v>
+      </c>
+      <c r="C32" t="s">
+        <v>612</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>imágenes[29]   archivo=circulofn.png</v>
       </c>
     </row>
   </sheetData>
@@ -9942,595 +10098,2696 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D2:D37"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <f>C1+B1</f>
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(5,7)</f>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f ca="1">RANDBETWEEN(8,9)</f>
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(1000,9999)</f>
+        <v>5453</v>
+      </c>
+      <c r="E2">
+        <f ca="1">RANDBETWEEN(100000,999999)</f>
+        <v>616810</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">A2&amp;","&amp;B2&amp;" y "&amp;C2&amp;"; "&amp;D2&amp;"; "&amp;E2</f>
+        <v>4,5 y 9; 5453; 616810</v>
+      </c>
+      <c r="K2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f t="shared" ref="A3:A62" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B62" ca="1" si="1">RANDBETWEEN(5,7)</f>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C62" ca="1" si="2">RANDBETWEEN(8,9)</f>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D62" ca="1" si="3">RANDBETWEEN(1000,9999)</f>
+        <v>9402</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E62" ca="1" si="4">RANDBETWEEN(100000,999999)</f>
+        <v>330111</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F62" ca="1" si="5">A3&amp;","&amp;B3&amp;" y "&amp;C3&amp;"; "&amp;D3&amp;"; "&amp;E3</f>
+        <v>2,6 y 9; 9402; 330111</v>
+      </c>
+      <c r="G3" t="str">
+        <f>VLOOKUP(H3,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <f>VLOOKUP(A2,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I3" t="str">
+        <f>VLOOKUP(H3,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J3" t="s">
         <v>433</v>
       </c>
-      <c r="D2" t="str">
-        <f>IF(C2="es","  "&amp;B2&amp;"_"&amp;C2&amp;"="&amp;VLOOKUP(B2&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C2="en","  "&amp;B2&amp;"_"&amp;C2&amp;"="&amp;VLOOKUP(B2&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A2&amp;"]"))</f>
+      <c r="K3" t="str">
+        <f>IF(J3="es","  "&amp;I3&amp;"_"&amp;J3&amp;"="&amp;VLOOKUP(I3&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J3="en","  "&amp;I3&amp;"_"&amp;J3&amp;"="&amp;VLOOKUP(I3&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J3="indice",$K$2&amp;"["&amp;H3&amp;"]",IF(J3="pnl","  pnl="&amp;G3,"  num="&amp;F3))))</f>
         <v>horoscopo[0]</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="3"/>
+        <v>6827</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="4"/>
+        <v>349433</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,6 y 9; 6827; 349433</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(H4,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="B3" t="str">
-        <f>VLOOKUP(A3,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I4" t="str">
+        <f>VLOOKUP(H4,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J4" t="s">
+        <v>613</v>
+      </c>
+      <c r="K4" t="str">
+        <f ca="1">IF(J4="es","  "&amp;I4&amp;"_"&amp;J4&amp;"="&amp;VLOOKUP(I4&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J4="en","  "&amp;I4&amp;"_"&amp;J4&amp;"="&amp;VLOOKUP(I4&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J4="indice",$K$2&amp;"["&amp;H4&amp;"]",IF(J4="pnl","  pnl="&amp;G4,"  num="&amp;F4))))</f>
+        <v xml:space="preserve">  num=3,6 y 9; 6827; 349433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="3"/>
+        <v>6041</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="4"/>
+        <v>673213</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,5 y 8; 6041; 673213</v>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(H5,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <f>VLOOKUP(H5,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>aries</v>
+      </c>
+      <c r="J5" t="s">
+        <v>614</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(J5="es","  "&amp;I5&amp;"_"&amp;J5&amp;"="&amp;VLOOKUP(I5&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J5="en","  "&amp;I5&amp;"_"&amp;J5&amp;"="&amp;VLOOKUP(I5&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J5="indice",$K$2&amp;"["&amp;H5&amp;"]",IF(J5="pnl","  pnl="&amp;G5,"  num="&amp;F5))))</f>
+        <v xml:space="preserve">  pnl=pnl1; pnl2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="3"/>
+        <v>3042</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="4"/>
+        <v>985349</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,6 y 9; 3042; 985349</v>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(H6,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f>VLOOKUP(H6,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>aries</v>
+      </c>
+      <c r="J6" t="s">
         <v>126</v>
       </c>
-      <c r="D3" t="str">
-        <f>IF(C3="es","  "&amp;B3&amp;"_"&amp;C3&amp;"="&amp;VLOOKUP(B3&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C3="en","  "&amp;B3&amp;"_"&amp;C3&amp;"="&amp;VLOOKUP(B3&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A3&amp;"]"))</f>
+      <c r="K6" t="str">
+        <f>IF(J6="es","  "&amp;I6&amp;"_"&amp;J6&amp;"="&amp;VLOOKUP(I6&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J6="en","  "&amp;I6&amp;"_"&amp;J6&amp;"="&amp;VLOOKUP(I6&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J6="indice",$K$2&amp;"["&amp;H6&amp;"]",IF(J6="pnl","  pnl="&amp;G6,"  num="&amp;F6))))</f>
         <v xml:space="preserve">  aries_es=Los planetas te respaldan todo lo que hace falta corta tus ataduras y ve al fondo de las cosas hoy. Los planetas te están creando cierta resistencia para los temas de la carrera puedes pensar que no progresas tanto como quisieras. No tienes paciencia para ponerte en línea hoy. Tu atención debe volcarse hacia un proyecto creativo o de negocios las condiciones son particularmente propicias ahora y no debes perder la oportunidad. Vas aprisa en tu carrera y te vuelve loco lo que haces Tienes tiempo para algo más y corres peligro de que las cosas pierdan el equilibrio.</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="3"/>
+        <v>8723</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="4"/>
+        <v>563421</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,7 y 8; 8723; 563421</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(H7,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="B4" t="str">
-        <f>VLOOKUP(A4,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I7" t="str">
+        <f>VLOOKUP(H7,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J7" t="s">
         <v>432</v>
       </c>
-      <c r="D4" t="str">
-        <f>IF(C4="es","  "&amp;B4&amp;"_"&amp;C4&amp;"="&amp;VLOOKUP(B4&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C4="en","  "&amp;B4&amp;"_"&amp;C4&amp;"="&amp;VLOOKUP(B4&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A4&amp;"]"))</f>
+      <c r="K7" t="str">
+        <f>IF(J7="es","  "&amp;I7&amp;"_"&amp;J7&amp;"="&amp;VLOOKUP(I7&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J7="en","  "&amp;I7&amp;"_"&amp;J7&amp;"="&amp;VLOOKUP(I7&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J7="indice",$K$2&amp;"["&amp;H7&amp;"]",IF(J7="pnl","  pnl="&amp;G7,"  num="&amp;F7))))</f>
         <v xml:space="preserve">  aries_en=Planets support you all you need to cut your ties and go to the bottom of things today. The planets are creating some resistance for the subjects of the race you can think that you do not progress as much as you would like. You do not have the patience to get online today. Your attention should be turned towards a creative or business project. The conditions are particularly propitious now and you should not miss the opportunity. You go fast in your career and it drives you crazy what you do. You have time for something else and you run the risk of things losing their balance.</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="3"/>
+        <v>5118</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="4"/>
+        <v>493152</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,5 y 8; 5118; 493152</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(H8,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="B5" t="str">
-        <f>VLOOKUP(A5,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I8" t="str">
+        <f>VLOOKUP(H8,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J8" t="s">
         <v>433</v>
       </c>
-      <c r="D5" t="str">
-        <f>IF(C5="es","  "&amp;B5&amp;"_"&amp;C5&amp;"="&amp;VLOOKUP(B5&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C5="en","  "&amp;B5&amp;"_"&amp;C5&amp;"="&amp;VLOOKUP(B5&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A5&amp;"]"))</f>
+      <c r="K8" t="str">
+        <f>IF(J8="es","  "&amp;I8&amp;"_"&amp;J8&amp;"="&amp;VLOOKUP(I8&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J8="en","  "&amp;I8&amp;"_"&amp;J8&amp;"="&amp;VLOOKUP(I8&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J8="indice",$K$2&amp;"["&amp;H8&amp;"]",IF(J8="pnl","  pnl="&amp;G8,"  num="&amp;F8))))</f>
         <v>horoscopo[1]</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="3"/>
+        <v>7572</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="4"/>
+        <v>908457</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,5 y 9; 7572; 908457</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(H9,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="B6" t="str">
-        <f>VLOOKUP(A6,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I9" t="str">
+        <f>VLOOKUP(H9,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="C6" t="s">
+      <c r="J9" t="s">
+        <v>613</v>
+      </c>
+      <c r="K9" t="str">
+        <f ca="1">IF(J9="es","  "&amp;I9&amp;"_"&amp;J9&amp;"="&amp;VLOOKUP(I9&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J9="en","  "&amp;I9&amp;"_"&amp;J9&amp;"="&amp;VLOOKUP(I9&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J9="indice",$K$2&amp;"["&amp;H9&amp;"]",IF(J9="pnl","  pnl="&amp;G9,"  num="&amp;F9))))</f>
+        <v xml:space="preserve">  num=3,5 y 9; 7572; 908457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="3"/>
+        <v>4059</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="4"/>
+        <v>368826</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,5 y 8; 4059; 368826</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(H10,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f>VLOOKUP(H10,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>tauro</v>
+      </c>
+      <c r="J10" t="s">
+        <v>614</v>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(J10="es","  "&amp;I10&amp;"_"&amp;J10&amp;"="&amp;VLOOKUP(I10&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J10="en","  "&amp;I10&amp;"_"&amp;J10&amp;"="&amp;VLOOKUP(I10&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J10="indice",$K$2&amp;"["&amp;H10&amp;"]",IF(J10="pnl","  pnl="&amp;G10,"  num="&amp;F10))))</f>
+        <v xml:space="preserve">  pnl=pnl1; pnl2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="3"/>
+        <v>7022</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="4"/>
+        <v>357716</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,5 y 9; 7022; 357716</v>
+      </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP(H11,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f>VLOOKUP(H11,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>tauro</v>
+      </c>
+      <c r="J11" t="s">
         <v>126</v>
       </c>
-      <c r="D6" t="str">
-        <f>IF(C6="es","  "&amp;B6&amp;"_"&amp;C6&amp;"="&amp;VLOOKUP(B6&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C6="en","  "&amp;B6&amp;"_"&amp;C6&amp;"="&amp;VLOOKUP(B6&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A6&amp;"]"))</f>
+      <c r="K11" t="str">
+        <f>IF(J11="es","  "&amp;I11&amp;"_"&amp;J11&amp;"="&amp;VLOOKUP(I11&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J11="en","  "&amp;I11&amp;"_"&amp;J11&amp;"="&amp;VLOOKUP(I11&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J11="indice",$K$2&amp;"["&amp;H11&amp;"]",IF(J11="pnl","  pnl="&amp;G11,"  num="&amp;F11))))</f>
         <v xml:space="preserve">  tauro_es=Se honesto contigo mismo y con los demás hoy independientemente de las presiones que sientas. Sólo pensar en dinero te causa disgusto pero meter la cabeza en la arena no es una solución. Tu ánimo vuelve luego de un pequeño periodo de incertidumbre Se optimista y tus planes de carrera despegarán. Es posible que tenga que descubrir algún engaño o fraude dentro de su lugar de trabajo, por lo que es importante estar alerta y tener un plan de acción. La cuadratura que hacen la Luna y Marte no te pone las cosas fáciles en este sentido.</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="3"/>
+        <v>6038</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="4"/>
+        <v>456633</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,5 y 8; 6038; 456633</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(H12,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="B7" t="str">
-        <f>VLOOKUP(A7,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I12" t="str">
+        <f>VLOOKUP(H12,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="C7" t="s">
+      <c r="J12" t="s">
         <v>432</v>
       </c>
-      <c r="D7" t="str">
-        <f>IF(C7="es","  "&amp;B7&amp;"_"&amp;C7&amp;"="&amp;VLOOKUP(B7&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C7="en","  "&amp;B7&amp;"_"&amp;C7&amp;"="&amp;VLOOKUP(B7&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A7&amp;"]"))</f>
+      <c r="K12" t="str">
+        <f>IF(J12="es","  "&amp;I12&amp;"_"&amp;J12&amp;"="&amp;VLOOKUP(I12&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J12="en","  "&amp;I12&amp;"_"&amp;J12&amp;"="&amp;VLOOKUP(I12&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J12="indice",$K$2&amp;"["&amp;H12&amp;"]",IF(J12="pnl","  pnl="&amp;G12,"  num="&amp;F12))))</f>
         <v xml:space="preserve">  tauro_en=Be honest with yourself and with others today regardless of the pressures you feel. Just thinking about money causes you disgust but putting your head in the sand is not a solution. Your mood returns after a short period of uncertainty. Be optimistic and your career plans will take off. You may have to discover some deception or fraud within your workplace, so it is important to be alert and have an action plan. The square made by the Moon and Mars does not make things easy for you in this regard.</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="3"/>
+        <v>5609</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="4"/>
+        <v>995038</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,6 y 8; 5609; 995038</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(H13,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="B8" t="str">
-        <f>VLOOKUP(A8,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I13" t="str">
+        <f>VLOOKUP(H13,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="C8" t="s">
+      <c r="J13" t="s">
         <v>433</v>
       </c>
-      <c r="D8" t="str">
-        <f>IF(C8="es","  "&amp;B8&amp;"_"&amp;C8&amp;"="&amp;VLOOKUP(B8&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C8="en","  "&amp;B8&amp;"_"&amp;C8&amp;"="&amp;VLOOKUP(B8&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A8&amp;"]"))</f>
+      <c r="K13" t="str">
+        <f>IF(J13="es","  "&amp;I13&amp;"_"&amp;J13&amp;"="&amp;VLOOKUP(I13&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J13="en","  "&amp;I13&amp;"_"&amp;J13&amp;"="&amp;VLOOKUP(I13&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J13="indice",$K$2&amp;"["&amp;H13&amp;"]",IF(J13="pnl","  pnl="&amp;G13,"  num="&amp;F13))))</f>
         <v>horoscopo[2]</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="3"/>
+        <v>6412</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="4"/>
+        <v>718273</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,6 y 8; 6412; 718273</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(H14,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="B9" t="str">
-        <f>VLOOKUP(A9,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I14" t="str">
+        <f>VLOOKUP(H14,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="C9" t="s">
+      <c r="J14" t="s">
+        <v>613</v>
+      </c>
+      <c r="K14" t="str">
+        <f ca="1">IF(J14="es","  "&amp;I14&amp;"_"&amp;J14&amp;"="&amp;VLOOKUP(I14&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J14="en","  "&amp;I14&amp;"_"&amp;J14&amp;"="&amp;VLOOKUP(I14&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J14="indice",$K$2&amp;"["&amp;H14&amp;"]",IF(J14="pnl","  pnl="&amp;G14,"  num="&amp;F14))))</f>
+        <v xml:space="preserve">  num=3,6 y 8; 6412; 718273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6457</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="4"/>
+        <v>393322</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,5 y 9; 6457; 393322</v>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(H15,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="str">
+        <f>VLOOKUP(H15,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>geminis</v>
+      </c>
+      <c r="J15" t="s">
+        <v>614</v>
+      </c>
+      <c r="K15" t="str">
+        <f>IF(J15="es","  "&amp;I15&amp;"_"&amp;J15&amp;"="&amp;VLOOKUP(I15&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J15="en","  "&amp;I15&amp;"_"&amp;J15&amp;"="&amp;VLOOKUP(I15&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J15="indice",$K$2&amp;"["&amp;H15&amp;"]",IF(J15="pnl","  pnl="&amp;G15,"  num="&amp;F15))))</f>
+        <v xml:space="preserve">  pnl=pnl1; pnl2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="3"/>
+        <v>7814</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="4"/>
+        <v>276431</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,6 y 9; 7814; 276431</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(H16,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="str">
+        <f>VLOOKUP(H16,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>geminis</v>
+      </c>
+      <c r="J16" t="s">
         <v>126</v>
       </c>
-      <c r="D9" t="str">
-        <f>IF(C9="es","  "&amp;B9&amp;"_"&amp;C9&amp;"="&amp;VLOOKUP(B9&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C9="en","  "&amp;B9&amp;"_"&amp;C9&amp;"="&amp;VLOOKUP(B9&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A9&amp;"]"))</f>
+      <c r="K16" t="str">
+        <f>IF(J16="es","  "&amp;I16&amp;"_"&amp;J16&amp;"="&amp;VLOOKUP(I16&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J16="en","  "&amp;I16&amp;"_"&amp;J16&amp;"="&amp;VLOOKUP(I16&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J16="indice",$K$2&amp;"["&amp;H16&amp;"]",IF(J16="pnl","  pnl="&amp;G16,"  num="&amp;F16))))</f>
         <v xml:space="preserve">  geminis_es=Hay buenos prospectos para asumir un reto a largo plazo No importa la difícil que sea, serás capaz de salir adelante. Es momento de aceptar que loes tiempos han cambiado Ya la pelota no está en el mismo patio, Las reglas son nuevas y te las tienes que aprender de memoria. Una inesperada oportunidad puede aparecer en una situación profesional, significando esto que debes estar preparado para saltar hacia cualquier oportunidad. Si sigues manteniendo tu fe en ti mismo con tus logros a la vista las cosas se conciliarán y no podrán salirte mal. Y no lo hará por amor, sino por orgullo puro y duro.</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="3"/>
+        <v>7004</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="4"/>
+        <v>261229</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,7 y 9; 7004; 261229</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(H17,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="B10" t="str">
-        <f>VLOOKUP(A10,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I17" t="str">
+        <f>VLOOKUP(H17,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="C10" t="s">
+      <c r="J17" t="s">
         <v>432</v>
       </c>
-      <c r="D10" t="str">
-        <f>IF(C10="es","  "&amp;B10&amp;"_"&amp;C10&amp;"="&amp;VLOOKUP(B10&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C10="en","  "&amp;B10&amp;"_"&amp;C10&amp;"="&amp;VLOOKUP(B10&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A10&amp;"]"))</f>
+      <c r="K17" t="str">
+        <f>IF(J17="es","  "&amp;I17&amp;"_"&amp;J17&amp;"="&amp;VLOOKUP(I17&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J17="en","  "&amp;I17&amp;"_"&amp;J17&amp;"="&amp;VLOOKUP(I17&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J17="indice",$K$2&amp;"["&amp;H17&amp;"]",IF(J17="pnl","  pnl="&amp;G17,"  num="&amp;F17))))</f>
         <v xml:space="preserve">  geminis_en=There are good prospects to take on a long-term challenge No matter how difficult it may be, you will be able to get ahead. It\'s time to accept that times have changed. The ball is not in the same yard anymore. The rules are new and you have to learn them by heart. An unexpected opportunity can appear in a professional situation, meaning that you must be prepared to jump to any opportunity. If you keep your faith in yourself with your achievements in sight things will be reconciled and can not go wrong. And he will not do it out of love, but out of pure and hard pride.</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" t="str">
-        <f>VLOOKUP(A11,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="3"/>
+        <v>2945</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="4"/>
+        <v>213344</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,5 y 8; 2945; 213344</v>
+      </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP(H18,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" t="str">
+        <f>VLOOKUP(H18,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="C11" t="s">
+      <c r="J18" t="s">
         <v>433</v>
       </c>
-      <c r="D11" t="str">
-        <f>IF(C11="es","  "&amp;B11&amp;"_"&amp;C11&amp;"="&amp;VLOOKUP(B11&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C11="en","  "&amp;B11&amp;"_"&amp;C11&amp;"="&amp;VLOOKUP(B11&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A11&amp;"]"))</f>
+      <c r="K18" t="str">
+        <f>IF(J18="es","  "&amp;I18&amp;"_"&amp;J18&amp;"="&amp;VLOOKUP(I18&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J18="en","  "&amp;I18&amp;"_"&amp;J18&amp;"="&amp;VLOOKUP(I18&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J18="indice",$K$2&amp;"["&amp;H18&amp;"]",IF(J18="pnl","  pnl="&amp;G18,"  num="&amp;F18))))</f>
         <v>horoscopo[3]</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="3"/>
+        <v>2634</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="4"/>
+        <v>939264</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2,7 y 8; 2634; 939264</v>
+      </c>
+      <c r="G19" t="str">
+        <f>VLOOKUP(H19,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H19">
         <v>3</v>
       </c>
-      <c r="B12" t="str">
-        <f>VLOOKUP(A12,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I19" t="str">
+        <f>VLOOKUP(H19,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="C12" t="s">
+      <c r="J19" t="s">
+        <v>613</v>
+      </c>
+      <c r="K19" t="str">
+        <f ca="1">IF(J19="es","  "&amp;I19&amp;"_"&amp;J19&amp;"="&amp;VLOOKUP(I19&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J19="en","  "&amp;I19&amp;"_"&amp;J19&amp;"="&amp;VLOOKUP(I19&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J19="indice",$K$2&amp;"["&amp;H19&amp;"]",IF(J19="pnl","  pnl="&amp;G19,"  num="&amp;F19))))</f>
+        <v xml:space="preserve">  num=2,7 y 8; 2634; 939264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="3"/>
+        <v>7098</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="4"/>
+        <v>636283</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,6 y 8; 7098; 636283</v>
+      </c>
+      <c r="G20" t="str">
+        <f>VLOOKUP(H20,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" t="str">
+        <f>VLOOKUP(H20,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>cancer</v>
+      </c>
+      <c r="J20" t="s">
+        <v>614</v>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(J20="es","  "&amp;I20&amp;"_"&amp;J20&amp;"="&amp;VLOOKUP(I20&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J20="en","  "&amp;I20&amp;"_"&amp;J20&amp;"="&amp;VLOOKUP(I20&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J20="indice",$K$2&amp;"["&amp;H20&amp;"]",IF(J20="pnl","  pnl="&amp;G20,"  num="&amp;F20))))</f>
+        <v xml:space="preserve">  pnl=pnl1; pnl2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="3"/>
+        <v>7184</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="4"/>
+        <v>310224</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,6 y 8; 7184; 310224</v>
+      </c>
+      <c r="G21" t="str">
+        <f>VLOOKUP(H21,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" t="str">
+        <f>VLOOKUP(H21,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>cancer</v>
+      </c>
+      <c r="J21" t="s">
         <v>126</v>
       </c>
-      <c r="D12" t="str">
-        <f>IF(C12="es","  "&amp;B12&amp;"_"&amp;C12&amp;"="&amp;VLOOKUP(B12&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C12="en","  "&amp;B12&amp;"_"&amp;C12&amp;"="&amp;VLOOKUP(B12&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A12&amp;"]"))</f>
+      <c r="K21" t="str">
+        <f>IF(J21="es","  "&amp;I21&amp;"_"&amp;J21&amp;"="&amp;VLOOKUP(I21&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J21="en","  "&amp;I21&amp;"_"&amp;J21&amp;"="&amp;VLOOKUP(I21&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J21="indice",$K$2&amp;"["&amp;H21&amp;"]",IF(J21="pnl","  pnl="&amp;G21,"  num="&amp;F21))))</f>
         <v xml:space="preserve">  cancer_es=Espera cambios sumamente positivos en lo tocante al trabajo te encontrarás en una situación laboral nueva cada vez más satisfactoria. Este es uno de esos momentos. Son buenas las condiciones para un riesgo bajo inversiones a largo plazo, ventas de propiedades y herencias. No te lances con la primera persona que se atraviese en tu camino solo porque necesites afecto o atención. Hacer ejercicio le da muchísima pereza, pero ¿tiene idea de lo que le va a alegrar ser capaz de hacer tantos abdominales? Fuera la pereza y a rejuvenecer su salud.</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" t="str">
-        <f>VLOOKUP(A13,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="3"/>
+        <v>4192</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="4"/>
+        <v>824453</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,6 y 9; 4192; 824453</v>
+      </c>
+      <c r="G22" t="str">
+        <f>VLOOKUP(H22,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="str">
+        <f>VLOOKUP(H22,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="C13" t="s">
+      <c r="J22" t="s">
         <v>432</v>
       </c>
-      <c r="D13" t="str">
-        <f>IF(C13="es","  "&amp;B13&amp;"_"&amp;C13&amp;"="&amp;VLOOKUP(B13&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C13="en","  "&amp;B13&amp;"_"&amp;C13&amp;"="&amp;VLOOKUP(B13&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A13&amp;"]"))</f>
+      <c r="K22" t="str">
+        <f>IF(J22="es","  "&amp;I22&amp;"_"&amp;J22&amp;"="&amp;VLOOKUP(I22&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J22="en","  "&amp;I22&amp;"_"&amp;J22&amp;"="&amp;VLOOKUP(I22&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J22="indice",$K$2&amp;"["&amp;H22&amp;"]",IF(J22="pnl","  pnl="&amp;G22,"  num="&amp;F22))))</f>
         <v xml:space="preserve">  cancer_en=Expect very positive changes with regard to work you will find yourself in a new work situation more and more satisfactory. this is one of those moments. The conditions for a risk under long-term investments, property sales and inheritances are good. Do not throw yourself with the first person who crosses your path just because you need affection or attention. Exercising gives him a lot of laziness, but do you have any idea what will make him happy to be able to do so many abs? Out of laziness and to rejuvenate your health.</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="3"/>
+        <v>5244</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="4"/>
+        <v>738783</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,6 y 8; 5244; 738783</v>
+      </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(H23,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H23">
         <v>4</v>
       </c>
-      <c r="B14" t="str">
-        <f>VLOOKUP(A14,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I23" t="str">
+        <f>VLOOKUP(H23,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="C14" t="s">
+      <c r="J23" t="s">
         <v>433</v>
       </c>
-      <c r="D14" t="str">
-        <f>IF(C14="es","  "&amp;B14&amp;"_"&amp;C14&amp;"="&amp;VLOOKUP(B14&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C14="en","  "&amp;B14&amp;"_"&amp;C14&amp;"="&amp;VLOOKUP(B14&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A14&amp;"]"))</f>
+      <c r="K23" t="str">
+        <f>IF(J23="es","  "&amp;I23&amp;"_"&amp;J23&amp;"="&amp;VLOOKUP(I23&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J23="en","  "&amp;I23&amp;"_"&amp;J23&amp;"="&amp;VLOOKUP(I23&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J23="indice",$K$2&amp;"["&amp;H23&amp;"]",IF(J23="pnl","  pnl="&amp;G23,"  num="&amp;F23))))</f>
         <v>horoscopo[4]</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="3"/>
+        <v>8006</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="4"/>
+        <v>566884</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,5 y 9; 8006; 566884</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(H24,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H24">
         <v>4</v>
       </c>
-      <c r="B15" t="str">
-        <f>VLOOKUP(A15,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I24" t="str">
+        <f>VLOOKUP(H24,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="C15" t="s">
+      <c r="J24" t="s">
+        <v>613</v>
+      </c>
+      <c r="K24" t="str">
+        <f ca="1">IF(J24="es","  "&amp;I24&amp;"_"&amp;J24&amp;"="&amp;VLOOKUP(I24&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J24="en","  "&amp;I24&amp;"_"&amp;J24&amp;"="&amp;VLOOKUP(I24&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J24="indice",$K$2&amp;"["&amp;H24&amp;"]",IF(J24="pnl","  pnl="&amp;G24,"  num="&amp;F24))))</f>
+        <v xml:space="preserve">  num=1,5 y 9; 8006; 566884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="3"/>
+        <v>2343</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="4"/>
+        <v>678368</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2,5 y 8; 2343; 678368</v>
+      </c>
+      <c r="G25" t="str">
+        <f>VLOOKUP(H25,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25" t="str">
+        <f>VLOOKUP(H25,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>leo</v>
+      </c>
+      <c r="J25" t="s">
+        <v>614</v>
+      </c>
+      <c r="K25" t="str">
+        <f>IF(J25="es","  "&amp;I25&amp;"_"&amp;J25&amp;"="&amp;VLOOKUP(I25&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J25="en","  "&amp;I25&amp;"_"&amp;J25&amp;"="&amp;VLOOKUP(I25&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J25="indice",$K$2&amp;"["&amp;H25&amp;"]",IF(J25="pnl","  pnl="&amp;G25,"  num="&amp;F25))))</f>
+        <v xml:space="preserve">  pnl=pnl1; pnl2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="3"/>
+        <v>9761</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="4"/>
+        <v>483497</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2,6 y 9; 9761; 483497</v>
+      </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(H26,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" t="str">
+        <f>VLOOKUP(H26,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>leo</v>
+      </c>
+      <c r="J26" t="s">
         <v>126</v>
       </c>
-      <c r="D15" t="str">
-        <f>IF(C15="es","  "&amp;B15&amp;"_"&amp;C15&amp;"="&amp;VLOOKUP(B15&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C15="en","  "&amp;B15&amp;"_"&amp;C15&amp;"="&amp;VLOOKUP(B15&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A15&amp;"]"))</f>
+      <c r="K26" t="str">
+        <f>IF(J26="es","  "&amp;I26&amp;"_"&amp;J26&amp;"="&amp;VLOOKUP(I26&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J26="en","  "&amp;I26&amp;"_"&amp;J26&amp;"="&amp;VLOOKUP(I26&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J26="indice",$K$2&amp;"["&amp;H26&amp;"]",IF(J26="pnl","  pnl="&amp;G26,"  num="&amp;F26))))</f>
         <v xml:space="preserve">  leo_es=Hay competencia en el trabajo un superior está jugando el juego de un rival tuyo. ese intento de provocación puede ser una oferta de amor disfrazada. Muéstrate firme y establece claramente que no estás dispuesto a soportarlo de brazos cruzados. Es una especie de carrera contra el tiempo ahora entonces cuando alguien te pida ayuda se la negarás. La acción por impulso está excluída hoy te colocará en una posición incomoda.</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="3"/>
+        <v>3664</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="4"/>
+        <v>364313</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2,7 y 8; 3664; 364313</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(H27,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H27">
         <v>4</v>
       </c>
-      <c r="B16" t="str">
-        <f>VLOOKUP(A16,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I27" t="str">
+        <f>VLOOKUP(H27,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="C16" t="s">
+      <c r="J27" t="s">
         <v>432</v>
       </c>
-      <c r="D16" t="str">
-        <f>IF(C16="es","  "&amp;B16&amp;"_"&amp;C16&amp;"="&amp;VLOOKUP(B16&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C16="en","  "&amp;B16&amp;"_"&amp;C16&amp;"="&amp;VLOOKUP(B16&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A16&amp;"]"))</f>
+      <c r="K27" t="str">
+        <f>IF(J27="es","  "&amp;I27&amp;"_"&amp;J27&amp;"="&amp;VLOOKUP(I27&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J27="en","  "&amp;I27&amp;"_"&amp;J27&amp;"="&amp;VLOOKUP(I27&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J27="indice",$K$2&amp;"["&amp;H27&amp;"]",IF(J27="pnl","  pnl="&amp;G27,"  num="&amp;F27))))</f>
         <v xml:space="preserve">  leo_en=There is competition at work a superior is playing the game of a rival of yours. that attempt at provocation can be an offer of love in disguise. Be firm and clearly state that you are not willing to stand with folded arms. It is a kind of race against time now when someone asks you for help you will deny it. The action by impulse is excluded today will place you in an uncomfortable position.</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="3"/>
+        <v>1390</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="4"/>
+        <v>672766</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2,7 y 8; 1390; 672766</v>
+      </c>
+      <c r="G28" t="str">
+        <f>VLOOKUP(H28,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H28">
         <v>5</v>
       </c>
-      <c r="B17" t="str">
-        <f>VLOOKUP(A17,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I28" t="str">
+        <f>VLOOKUP(H28,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="C17" t="s">
+      <c r="J28" t="s">
         <v>433</v>
       </c>
-      <c r="D17" t="str">
-        <f>IF(C17="es","  "&amp;B17&amp;"_"&amp;C17&amp;"="&amp;VLOOKUP(B17&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C17="en","  "&amp;B17&amp;"_"&amp;C17&amp;"="&amp;VLOOKUP(B17&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A17&amp;"]"))</f>
+      <c r="K28" t="str">
+        <f>IF(J28="es","  "&amp;I28&amp;"_"&amp;J28&amp;"="&amp;VLOOKUP(I28&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J28="en","  "&amp;I28&amp;"_"&amp;J28&amp;"="&amp;VLOOKUP(I28&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J28="indice",$K$2&amp;"["&amp;H28&amp;"]",IF(J28="pnl","  pnl="&amp;G28,"  num="&amp;F28))))</f>
         <v>horoscopo[5]</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="3"/>
+        <v>1335</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="4"/>
+        <v>393834</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,6 y 8; 1335; 393834</v>
+      </c>
+      <c r="G29" t="str">
+        <f>VLOOKUP(H29,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H29">
         <v>5</v>
       </c>
-      <c r="B18" t="str">
-        <f>VLOOKUP(A18,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I29" t="str">
+        <f>VLOOKUP(H29,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="C18" t="s">
+      <c r="J29" t="s">
+        <v>613</v>
+      </c>
+      <c r="K29" t="str">
+        <f ca="1">IF(J29="es","  "&amp;I29&amp;"_"&amp;J29&amp;"="&amp;VLOOKUP(I29&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J29="en","  "&amp;I29&amp;"_"&amp;J29&amp;"="&amp;VLOOKUP(I29&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J29="indice",$K$2&amp;"["&amp;H29&amp;"]",IF(J29="pnl","  pnl="&amp;G29,"  num="&amp;F29))))</f>
+        <v xml:space="preserve">  num=4,6 y 8; 1335; 393834</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="3"/>
+        <v>4976</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="4"/>
+        <v>216430</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,7 y 9; 4976; 216430</v>
+      </c>
+      <c r="G30" t="str">
+        <f>VLOOKUP(H30,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30" t="str">
+        <f>VLOOKUP(H30,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>virgo</v>
+      </c>
+      <c r="J30" t="s">
+        <v>614</v>
+      </c>
+      <c r="K30" t="str">
+        <f>IF(J30="es","  "&amp;I30&amp;"_"&amp;J30&amp;"="&amp;VLOOKUP(I30&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J30="en","  "&amp;I30&amp;"_"&amp;J30&amp;"="&amp;VLOOKUP(I30&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J30="indice",$K$2&amp;"["&amp;H30&amp;"]",IF(J30="pnl","  pnl="&amp;G30,"  num="&amp;F30))))</f>
+        <v xml:space="preserve">  pnl=pnl1; pnl2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="3"/>
+        <v>6861</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="4"/>
+        <v>325313</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,5 y 9; 6861; 325313</v>
+      </c>
+      <c r="G31" t="str">
+        <f>VLOOKUP(H31,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31" t="str">
+        <f>VLOOKUP(H31,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>virgo</v>
+      </c>
+      <c r="J31" t="s">
         <v>126</v>
       </c>
-      <c r="D18" t="str">
-        <f>IF(C18="es","  "&amp;B18&amp;"_"&amp;C18&amp;"="&amp;VLOOKUP(B18&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C18="en","  "&amp;B18&amp;"_"&amp;C18&amp;"="&amp;VLOOKUP(B18&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A18&amp;"]"))</f>
+      <c r="K31" t="str">
+        <f>IF(J31="es","  "&amp;I31&amp;"_"&amp;J31&amp;"="&amp;VLOOKUP(I31&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J31="en","  "&amp;I31&amp;"_"&amp;J31&amp;"="&amp;VLOOKUP(I31&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J31="indice",$K$2&amp;"["&amp;H31&amp;"]",IF(J31="pnl","  pnl="&amp;G31,"  num="&amp;F31))))</f>
         <v xml:space="preserve">  virgo_es=Vigila de cerca tus finanzas. Puedes llegar a conflicto con alguien que puede interrumpirte tu progreso al menos por el momento. Hay síntomas seguros de que estas quemando etapas En un minuto aprendes nuevas trampas y en el otro se las estás enseñando a otros. Los asuntos profesionales se presentan cargados, incluso agobiantes debes sacarlos adelante en la medida de tus posibilidades. Créelo o no pese a tu esp+irita independiente mejor unes fuerzas con alguien por razones profesionales.</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="3"/>
+        <v>5103</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="4"/>
+        <v>856290</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,6 y 8; 5103; 856290</v>
+      </c>
+      <c r="G32" t="str">
+        <f>VLOOKUP(H32,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="B19" t="str">
-        <f>VLOOKUP(A19,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I32" t="str">
+        <f>VLOOKUP(H32,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="C19" t="s">
+      <c r="J32" t="s">
         <v>432</v>
       </c>
-      <c r="D19" t="str">
-        <f>IF(C19="es","  "&amp;B19&amp;"_"&amp;C19&amp;"="&amp;VLOOKUP(B19&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C19="en","  "&amp;B19&amp;"_"&amp;C19&amp;"="&amp;VLOOKUP(B19&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A19&amp;"]"))</f>
+      <c r="K32" t="str">
+        <f>IF(J32="es","  "&amp;I32&amp;"_"&amp;J32&amp;"="&amp;VLOOKUP(I32&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J32="en","  "&amp;I32&amp;"_"&amp;J32&amp;"="&amp;VLOOKUP(I32&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J32="indice",$K$2&amp;"["&amp;H32&amp;"]",IF(J32="pnl","  pnl="&amp;G32,"  num="&amp;F32))))</f>
         <v xml:space="preserve">  virgo_en=Keep a close eye on your finances. You can come into conflict with someone who can interrupt your progress at least for the time being. There are sure symptoms that you are burning stages In one minute you learn new traps and in the other you are teaching them to others. Professional matters are charged, even overwhelming, you must take them forward to the best of your ability. Believe it or not despite your esp + irita independent you better join forces with someone for professional reasons.</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="B20" t="str">
-        <f>VLOOKUP(A20,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="C33">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="3"/>
+        <v>4539</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="4"/>
+        <v>688969</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,6 y 9; 4539; 688969</v>
+      </c>
+      <c r="G33" t="str">
+        <f>VLOOKUP(H33,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33" t="str">
+        <f>VLOOKUP(H33,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="C20" t="s">
+      <c r="J33" t="s">
         <v>433</v>
       </c>
-      <c r="D20" t="str">
-        <f>IF(C20="es","  "&amp;B20&amp;"_"&amp;C20&amp;"="&amp;VLOOKUP(B20&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C20="en","  "&amp;B20&amp;"_"&amp;C20&amp;"="&amp;VLOOKUP(B20&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A20&amp;"]"))</f>
+      <c r="K33" t="str">
+        <f>IF(J33="es","  "&amp;I33&amp;"_"&amp;J33&amp;"="&amp;VLOOKUP(I33&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J33="en","  "&amp;I33&amp;"_"&amp;J33&amp;"="&amp;VLOOKUP(I33&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J33="indice",$K$2&amp;"["&amp;H33&amp;"]",IF(J33="pnl","  pnl="&amp;G33,"  num="&amp;F33))))</f>
         <v>horoscopo[6]</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="3"/>
+        <v>4483</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="4"/>
+        <v>450557</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,7 y 9; 4483; 450557</v>
+      </c>
+      <c r="G34" t="str">
+        <f>VLOOKUP(H34,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H34">
         <v>6</v>
       </c>
-      <c r="B21" t="str">
-        <f>VLOOKUP(A21,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I34" t="str">
+        <f>VLOOKUP(H34,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="C21" t="s">
+      <c r="J34" t="s">
+        <v>613</v>
+      </c>
+      <c r="K34" t="str">
+        <f ca="1">IF(J34="es","  "&amp;I34&amp;"_"&amp;J34&amp;"="&amp;VLOOKUP(I34&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J34="en","  "&amp;I34&amp;"_"&amp;J34&amp;"="&amp;VLOOKUP(I34&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J34="indice",$K$2&amp;"["&amp;H34&amp;"]",IF(J34="pnl","  pnl="&amp;G34,"  num="&amp;F34))))</f>
+        <v xml:space="preserve">  num=1,7 y 9; 4483; 450557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>8808</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="4"/>
+        <v>106597</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,6 y 8; 8808; 106597</v>
+      </c>
+      <c r="G35" t="str">
+        <f>VLOOKUP(H35,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35" t="str">
+        <f>VLOOKUP(H35,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>libra</v>
+      </c>
+      <c r="J35" t="s">
+        <v>614</v>
+      </c>
+      <c r="K35" t="str">
+        <f>IF(J35="es","  "&amp;I35&amp;"_"&amp;J35&amp;"="&amp;VLOOKUP(I35&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J35="en","  "&amp;I35&amp;"_"&amp;J35&amp;"="&amp;VLOOKUP(I35&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J35="indice",$K$2&amp;"["&amp;H35&amp;"]",IF(J35="pnl","  pnl="&amp;G35,"  num="&amp;F35))))</f>
+        <v xml:space="preserve">  pnl=pnl1; pnl2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>9027</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="4"/>
+        <v>426452</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2,5 y 9; 9027; 426452</v>
+      </c>
+      <c r="G36" t="str">
+        <f>VLOOKUP(H36,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36" t="str">
+        <f>VLOOKUP(H36,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>libra</v>
+      </c>
+      <c r="J36" t="s">
         <v>126</v>
       </c>
-      <c r="D21" t="str">
-        <f>IF(C21="es","  "&amp;B21&amp;"_"&amp;C21&amp;"="&amp;VLOOKUP(B21&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C21="en","  "&amp;B21&amp;"_"&amp;C21&amp;"="&amp;VLOOKUP(B21&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A21&amp;"]"))</f>
+      <c r="K36" t="str">
+        <f>IF(J36="es","  "&amp;I36&amp;"_"&amp;J36&amp;"="&amp;VLOOKUP(I36&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J36="en","  "&amp;I36&amp;"_"&amp;J36&amp;"="&amp;VLOOKUP(I36&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J36="indice",$K$2&amp;"["&amp;H36&amp;"]",IF(J36="pnl","  pnl="&amp;G36,"  num="&amp;F36))))</f>
         <v xml:space="preserve">  libra_es=Hay grandes cambios en puerta para tí en todos los aspectos en los próximos meses estás fuertemente avisado para que lo tomes con calma y te prepares para tiempos difíciles. El la vida hay algo mas que sòlo trabajo, trabajo y trabajo Algo ocurre hoy que te recuerda que es hora de espabilarte y gozar de la vida. Los viajes, la carrera y las finanzas están íntimamente vinculados puede ser que se presente una oportunidad en la carrera. Las finanzas juegan un creciente papel en tu actual línea de pensamiento Toma ventaja de la situación y mira a ver cómo puedes mejorar tu seguridad a largo plazo. Hoy es un día para recuperar recuerdos.</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="B22" t="str">
-        <f>VLOOKUP(A22,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="C37">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="3"/>
+        <v>7173</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="4"/>
+        <v>662035</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,6 y 9; 7173; 662035</v>
+      </c>
+      <c r="G37" t="str">
+        <f>VLOOKUP(H37,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37" t="str">
+        <f>VLOOKUP(H37,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="C22" t="s">
+      <c r="J37" t="s">
         <v>432</v>
       </c>
-      <c r="D22" t="str">
-        <f>IF(C22="es","  "&amp;B22&amp;"_"&amp;C22&amp;"="&amp;VLOOKUP(B22&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C22="en","  "&amp;B22&amp;"_"&amp;C22&amp;"="&amp;VLOOKUP(B22&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A22&amp;"]"))</f>
+      <c r="K37" t="str">
+        <f>IF(J37="es","  "&amp;I37&amp;"_"&amp;J37&amp;"="&amp;VLOOKUP(I37&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J37="en","  "&amp;I37&amp;"_"&amp;J37&amp;"="&amp;VLOOKUP(I37&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J37="indice",$K$2&amp;"["&amp;H37&amp;"]",IF(J37="pnl","  pnl="&amp;G37,"  num="&amp;F37))))</f>
         <v xml:space="preserve">  libra_en=Hay grandes cambios en puerta para tí en todos los aspectos en los próximos meses estás fuertemente avisado para que lo tomes con calma y te prepares para tiempos difíciles. El la vida hay algo mas que sòlo trabajo, trabajo y trabajo Algo ocurre hoy que te recuerda que es hora de espabilarte y gozar de la vida. Los viajes, la carrera y las finanzas están íntimamente vinculados puede ser que se presente una oportunidad en la carrera. Las finanzas juegan un creciente papel en tu actual línea de pensamiento Toma ventaja de la situación y mira a ver cómo puedes mejorar tu seguridad a largo plazo. Hoy es un día para recuperar recuerdos.</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="3"/>
+        <v>7866</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="4"/>
+        <v>482905</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,5 y 8; 7866; 482905</v>
+      </c>
+      <c r="G38" t="str">
+        <f>VLOOKUP(H38,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H38">
         <v>7</v>
       </c>
-      <c r="B23" t="str">
-        <f>VLOOKUP(A23,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I38" t="str">
+        <f>VLOOKUP(H38,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="C23" t="s">
+      <c r="J38" t="s">
         <v>433</v>
       </c>
-      <c r="D23" t="str">
-        <f>IF(C23="es","  "&amp;B23&amp;"_"&amp;C23&amp;"="&amp;VLOOKUP(B23&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C23="en","  "&amp;B23&amp;"_"&amp;C23&amp;"="&amp;VLOOKUP(B23&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A23&amp;"]"))</f>
+      <c r="K38" t="str">
+        <f>IF(J38="es","  "&amp;I38&amp;"_"&amp;J38&amp;"="&amp;VLOOKUP(I38&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J38="en","  "&amp;I38&amp;"_"&amp;J38&amp;"="&amp;VLOOKUP(I38&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J38="indice",$K$2&amp;"["&amp;H38&amp;"]",IF(J38="pnl","  pnl="&amp;G38,"  num="&amp;F38))))</f>
         <v>horoscopo[7]</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
+        <v>4386</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="4"/>
+        <v>458065</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,6 y 8; 4386; 458065</v>
+      </c>
+      <c r="G39" t="str">
+        <f>VLOOKUP(H39,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H39">
         <v>7</v>
       </c>
-      <c r="B24" t="str">
-        <f>VLOOKUP(A24,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I39" t="str">
+        <f>VLOOKUP(H39,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="C24" t="s">
+      <c r="J39" t="s">
+        <v>613</v>
+      </c>
+      <c r="K39" t="str">
+        <f ca="1">IF(J39="es","  "&amp;I39&amp;"_"&amp;J39&amp;"="&amp;VLOOKUP(I39&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J39="en","  "&amp;I39&amp;"_"&amp;J39&amp;"="&amp;VLOOKUP(I39&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J39="indice",$K$2&amp;"["&amp;H39&amp;"]",IF(J39="pnl","  pnl="&amp;G39,"  num="&amp;F39))))</f>
+        <v xml:space="preserve">  num=4,6 y 8; 4386; 458065</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="3"/>
+        <v>4819</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="4"/>
+        <v>671878</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,7 y 8; 4819; 671878</v>
+      </c>
+      <c r="G40" t="str">
+        <f>VLOOKUP(H40,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40" t="str">
+        <f>VLOOKUP(H40,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>escorpio</v>
+      </c>
+      <c r="J40" t="s">
+        <v>614</v>
+      </c>
+      <c r="K40" t="str">
+        <f>IF(J40="es","  "&amp;I40&amp;"_"&amp;J40&amp;"="&amp;VLOOKUP(I40&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J40="en","  "&amp;I40&amp;"_"&amp;J40&amp;"="&amp;VLOOKUP(I40&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J40="indice",$K$2&amp;"["&amp;H40&amp;"]",IF(J40="pnl","  pnl="&amp;G40,"  num="&amp;F40))))</f>
+        <v xml:space="preserve">  pnl=pnl1; pnl2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>6651</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="4"/>
+        <v>379262</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,6 y 9; 6651; 379262</v>
+      </c>
+      <c r="G41" t="str">
+        <f>VLOOKUP(H41,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41" t="str">
+        <f>VLOOKUP(H41,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>escorpio</v>
+      </c>
+      <c r="J41" t="s">
         <v>126</v>
       </c>
-      <c r="D24" t="str">
-        <f>IF(C24="es","  "&amp;B24&amp;"_"&amp;C24&amp;"="&amp;VLOOKUP(B24&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C24="en","  "&amp;B24&amp;"_"&amp;C24&amp;"="&amp;VLOOKUP(B24&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A24&amp;"]"))</f>
+      <c r="K41" t="str">
+        <f>IF(J41="es","  "&amp;I41&amp;"_"&amp;J41&amp;"="&amp;VLOOKUP(I41&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J41="en","  "&amp;I41&amp;"_"&amp;J41&amp;"="&amp;VLOOKUP(I41&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J41="indice",$K$2&amp;"["&amp;H41&amp;"]",IF(J41="pnl","  pnl="&amp;G41,"  num="&amp;F41))))</f>
         <v xml:space="preserve">  escorpio_es=Estás en disposición de admitir que has cometido un error No tienes que publicarlo. Otros harán que las cosas se vean a su manera No vas a empecinarte pero sí a mantener tus posiciones. Con sólo desear, esperar y soñar no es suficiente para ir a donde deseas Toma una acción concreta. Las decisiones financieras hechas el día de hoy pueden resultar ser una excelente inversión para el futuro. Si te apetece, adelante, no lo pienses.</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>1625</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="4"/>
+        <v>105799</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,6 y 8; 1625; 105799</v>
+      </c>
+      <c r="G42" t="str">
+        <f>VLOOKUP(H42,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H42">
         <v>7</v>
       </c>
-      <c r="B25" t="str">
-        <f>VLOOKUP(A25,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I42" t="str">
+        <f>VLOOKUP(H42,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="C25" t="s">
+      <c r="J42" t="s">
         <v>432</v>
       </c>
-      <c r="D25" t="str">
-        <f>IF(C25="es","  "&amp;B25&amp;"_"&amp;C25&amp;"="&amp;VLOOKUP(B25&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C25="en","  "&amp;B25&amp;"_"&amp;C25&amp;"="&amp;VLOOKUP(B25&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A25&amp;"]"))</f>
+      <c r="K42" t="str">
+        <f>IF(J42="es","  "&amp;I42&amp;"_"&amp;J42&amp;"="&amp;VLOOKUP(I42&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J42="en","  "&amp;I42&amp;"_"&amp;J42&amp;"="&amp;VLOOKUP(I42&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J42="indice",$K$2&amp;"["&amp;H42&amp;"]",IF(J42="pnl","  pnl="&amp;G42,"  num="&amp;F42))))</f>
         <v xml:space="preserve">  escorpio_en=You are willing to admit that you have made a mistake. You do not have to publish it. Others will make things look their way You will not stubbornly but you will keep your positions. Just wanting, waiting and dreaming is not enough to go where you want Take a concrete action. Financial decisions made today can prove to be an excellent investment for the future. If you feel like it, go ahead, do not think about it.</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>7544</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="4"/>
+        <v>726750</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,6 y 9; 7544; 726750</v>
+      </c>
+      <c r="G43" t="str">
+        <f>VLOOKUP(H43,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H43">
         <v>8</v>
       </c>
-      <c r="B26" t="str">
-        <f>VLOOKUP(A26,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I43" t="str">
+        <f>VLOOKUP(H43,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="C26" t="s">
+      <c r="J43" t="s">
         <v>433</v>
       </c>
-      <c r="D26" t="str">
-        <f>IF(C26="es","  "&amp;B26&amp;"_"&amp;C26&amp;"="&amp;VLOOKUP(B26&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C26="en","  "&amp;B26&amp;"_"&amp;C26&amp;"="&amp;VLOOKUP(B26&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A26&amp;"]"))</f>
+      <c r="K43" t="str">
+        <f>IF(J43="es","  "&amp;I43&amp;"_"&amp;J43&amp;"="&amp;VLOOKUP(I43&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J43="en","  "&amp;I43&amp;"_"&amp;J43&amp;"="&amp;VLOOKUP(I43&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J43="indice",$K$2&amp;"["&amp;H43&amp;"]",IF(J43="pnl","  pnl="&amp;G43,"  num="&amp;F43))))</f>
         <v>horoscopo[8]</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>2293</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="4"/>
+        <v>190951</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,6 y 9; 2293; 190951</v>
+      </c>
+      <c r="G44" t="str">
+        <f>VLOOKUP(H44,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H44">
         <v>8</v>
       </c>
-      <c r="B27" t="str">
-        <f>VLOOKUP(A27,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I44" t="str">
+        <f>VLOOKUP(H44,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="C27" t="s">
+      <c r="J44" t="s">
+        <v>613</v>
+      </c>
+      <c r="K44" t="str">
+        <f ca="1">IF(J44="es","  "&amp;I44&amp;"_"&amp;J44&amp;"="&amp;VLOOKUP(I44&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J44="en","  "&amp;I44&amp;"_"&amp;J44&amp;"="&amp;VLOOKUP(I44&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J44="indice",$K$2&amp;"["&amp;H44&amp;"]",IF(J44="pnl","  pnl="&amp;G44,"  num="&amp;F44))))</f>
+        <v xml:space="preserve">  num=1,6 y 9; 2293; 190951</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>5784</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="4"/>
+        <v>512159</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,6 y 9; 5784; 512159</v>
+      </c>
+      <c r="G45" t="str">
+        <f>VLOOKUP(H45,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45" t="str">
+        <f>VLOOKUP(H45,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>sagitario</v>
+      </c>
+      <c r="J45" t="s">
+        <v>614</v>
+      </c>
+      <c r="K45" t="str">
+        <f>IF(J45="es","  "&amp;I45&amp;"_"&amp;J45&amp;"="&amp;VLOOKUP(I45&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J45="en","  "&amp;I45&amp;"_"&amp;J45&amp;"="&amp;VLOOKUP(I45&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J45="indice",$K$2&amp;"["&amp;H45&amp;"]",IF(J45="pnl","  pnl="&amp;G45,"  num="&amp;F45))))</f>
+        <v xml:space="preserve">  pnl=pnl1; pnl2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>6428</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="4"/>
+        <v>697745</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,6 y 8; 6428; 697745</v>
+      </c>
+      <c r="G46" t="str">
+        <f>VLOOKUP(H46,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46" t="str">
+        <f>VLOOKUP(H46,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>sagitario</v>
+      </c>
+      <c r="J46" t="s">
         <v>126</v>
       </c>
-      <c r="D27" t="str">
-        <f>IF(C27="es","  "&amp;B27&amp;"_"&amp;C27&amp;"="&amp;VLOOKUP(B27&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C27="en","  "&amp;B27&amp;"_"&amp;C27&amp;"="&amp;VLOOKUP(B27&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A27&amp;"]"))</f>
+      <c r="K46" t="str">
+        <f>IF(J46="es","  "&amp;I46&amp;"_"&amp;J46&amp;"="&amp;VLOOKUP(I46&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J46="en","  "&amp;I46&amp;"_"&amp;J46&amp;"="&amp;VLOOKUP(I46&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J46="indice",$K$2&amp;"["&amp;H46&amp;"]",IF(J46="pnl","  pnl="&amp;G46,"  num="&amp;F46))))</f>
         <v xml:space="preserve">  sagitario_es=Si actúas movida por el capricho, acabarás adquiriendo algo a sobreprecio o que no vale la pena Se necesita algo de contención por lo menos en las cuestiones de dinero. Tienes una fuente infinita de coraje que te ayudará en momentos duros. Las fuerzas astrales te animan a olvidar tus obligaciones hoy puedes estimar que los compromises con tu carrera son un fardo, y tu atención se desvía con facilidad. Se puede resolver un dilema si así te lo propones aplica tus poderes de concentración y análisis. Unos encuentros agradables le devolverán la confianza en los demás</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>1812</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="4"/>
+        <v>743805</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,7 y 9; 1812; 743805</v>
+      </c>
+      <c r="G47" t="str">
+        <f>VLOOKUP(H47,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H47">
         <v>8</v>
       </c>
-      <c r="B28" t="str">
-        <f>VLOOKUP(A28,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I47" t="str">
+        <f>VLOOKUP(H47,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="C28" t="s">
+      <c r="J47" t="s">
         <v>432</v>
       </c>
-      <c r="D28" t="str">
-        <f>IF(C28="es","  "&amp;B28&amp;"_"&amp;C28&amp;"="&amp;VLOOKUP(B28&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C28="en","  "&amp;B28&amp;"_"&amp;C28&amp;"="&amp;VLOOKUP(B28&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A28&amp;"]"))</f>
+      <c r="K47" t="str">
+        <f>IF(J47="es","  "&amp;I47&amp;"_"&amp;J47&amp;"="&amp;VLOOKUP(I47&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J47="en","  "&amp;I47&amp;"_"&amp;J47&amp;"="&amp;VLOOKUP(I47&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J47="indice",$K$2&amp;"["&amp;H47&amp;"]",IF(J47="pnl","  pnl="&amp;G47,"  num="&amp;F47))))</f>
         <v xml:space="preserve">  sagitario_en=If you act on a whim, you will end up acquiring something at a premium or that it is not worth it. Some restraint is needed, at least in matters of money. You have an infinite source of courage that will help you in hard times. The astral forces encourage you to forget your obligations today you can estimate that the compromises with your career are a burden, and your attention deviates easily. A dilemma can be resolved if you propose to apply your powers of concentration and analysis. Pleasant encounters will restore confidence in others</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-      <c r="B29" t="str">
-        <f>VLOOKUP(A29,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="D48">
+        <f t="shared" ca="1" si="3"/>
+        <v>4411</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="4"/>
+        <v>901729</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,5 y 9; 4411; 901729</v>
+      </c>
+      <c r="G48" t="str">
+        <f>VLOOKUP(H48,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+      <c r="I48" t="str">
+        <f>VLOOKUP(H48,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="C29" t="s">
+      <c r="J48" t="s">
         <v>433</v>
       </c>
-      <c r="D29" t="str">
-        <f>IF(C29="es","  "&amp;B29&amp;"_"&amp;C29&amp;"="&amp;VLOOKUP(B29&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C29="en","  "&amp;B29&amp;"_"&amp;C29&amp;"="&amp;VLOOKUP(B29&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A29&amp;"]"))</f>
+      <c r="K48" t="str">
+        <f>IF(J48="es","  "&amp;I48&amp;"_"&amp;J48&amp;"="&amp;VLOOKUP(I48&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J48="en","  "&amp;I48&amp;"_"&amp;J48&amp;"="&amp;VLOOKUP(I48&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J48="indice",$K$2&amp;"["&amp;H48&amp;"]",IF(J48="pnl","  pnl="&amp;G48,"  num="&amp;F48))))</f>
         <v>horoscopo[9]</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-      <c r="B30" t="str">
-        <f>VLOOKUP(A30,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="D49">
+        <f t="shared" ca="1" si="3"/>
+        <v>6966</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="4"/>
+        <v>277107</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,6 y 9; 6966; 277107</v>
+      </c>
+      <c r="G49" t="str">
+        <f>VLOOKUP(H49,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H49">
+        <v>9</v>
+      </c>
+      <c r="I49" t="str">
+        <f>VLOOKUP(H49,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="C30" t="s">
+      <c r="J49" t="s">
+        <v>613</v>
+      </c>
+      <c r="K49" t="str">
+        <f ca="1">IF(J49="es","  "&amp;I49&amp;"_"&amp;J49&amp;"="&amp;VLOOKUP(I49&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J49="en","  "&amp;I49&amp;"_"&amp;J49&amp;"="&amp;VLOOKUP(I49&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J49="indice",$K$2&amp;"["&amp;H49&amp;"]",IF(J49="pnl","  pnl="&amp;G49,"  num="&amp;F49))))</f>
+        <v xml:space="preserve">  num=3,6 y 9; 6966; 277107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="3"/>
+        <v>6033</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="4"/>
+        <v>179074</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,5 y 9; 6033; 179074</v>
+      </c>
+      <c r="G50" t="str">
+        <f>VLOOKUP(H50,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="I50" t="str">
+        <f>VLOOKUP(H50,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>capricornio</v>
+      </c>
+      <c r="J50" t="s">
+        <v>614</v>
+      </c>
+      <c r="K50" t="str">
+        <f>IF(J50="es","  "&amp;I50&amp;"_"&amp;J50&amp;"="&amp;VLOOKUP(I50&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J50="en","  "&amp;I50&amp;"_"&amp;J50&amp;"="&amp;VLOOKUP(I50&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J50="indice",$K$2&amp;"["&amp;H50&amp;"]",IF(J50="pnl","  pnl="&amp;G50,"  num="&amp;F50))))</f>
+        <v xml:space="preserve">  pnl=pnl1; pnl2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="3"/>
+        <v>6446</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="4"/>
+        <v>566389</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2,6 y 9; 6446; 566389</v>
+      </c>
+      <c r="G51" t="str">
+        <f>VLOOKUP(H51,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51" t="str">
+        <f>VLOOKUP(H51,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>capricornio</v>
+      </c>
+      <c r="J51" t="s">
         <v>126</v>
       </c>
-      <c r="D30" t="str">
-        <f>IF(C30="es","  "&amp;B30&amp;"_"&amp;C30&amp;"="&amp;VLOOKUP(B30&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C30="en","  "&amp;B30&amp;"_"&amp;C30&amp;"="&amp;VLOOKUP(B30&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A30&amp;"]"))</f>
+      <c r="K51" t="str">
+        <f>IF(J51="es","  "&amp;I51&amp;"_"&amp;J51&amp;"="&amp;VLOOKUP(I51&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J51="en","  "&amp;I51&amp;"_"&amp;J51&amp;"="&amp;VLOOKUP(I51&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J51="indice",$K$2&amp;"["&amp;H51&amp;"]",IF(J51="pnl","  pnl="&amp;G51,"  num="&amp;F51))))</f>
         <v xml:space="preserve">  capricornio_es=Estás radiante, conquistas y tu actitud vital es tan positiva y optimista que todos queremos arrimarnos a ti por si se nos pega algo de tu energía. En tu Casa cinco sacará a relucir al jugador competitivo e impetuoso que apuesta hasta la ropa interior en el terreno del amor. Esto incrementará tu popularidad hasta llegar a producir efectos que te sorprenderán. Quizá venga de la mano de un trabajo que complemente al que ya tienes. Estás tocado por la varita mágica de la palabra, así que aprovéchalo.</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-      <c r="B31" t="str">
-        <f>VLOOKUP(A31,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="D52">
+        <f t="shared" ca="1" si="3"/>
+        <v>4113</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="4"/>
+        <v>752041</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2,7 y 9; 4113; 752041</v>
+      </c>
+      <c r="G52" t="str">
+        <f>VLOOKUP(H52,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
+      </c>
+      <c r="I52" t="str">
+        <f>VLOOKUP(H52,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="C31" t="s">
+      <c r="J52" t="s">
         <v>432</v>
       </c>
-      <c r="D31" t="str">
-        <f>IF(C31="es","  "&amp;B31&amp;"_"&amp;C31&amp;"="&amp;VLOOKUP(B31&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C31="en","  "&amp;B31&amp;"_"&amp;C31&amp;"="&amp;VLOOKUP(B31&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A31&amp;"]"))</f>
+      <c r="K52" t="str">
+        <f>IF(J52="es","  "&amp;I52&amp;"_"&amp;J52&amp;"="&amp;VLOOKUP(I52&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J52="en","  "&amp;I52&amp;"_"&amp;J52&amp;"="&amp;VLOOKUP(I52&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J52="indice",$K$2&amp;"["&amp;H52&amp;"]",IF(J52="pnl","  pnl="&amp;G52,"  num="&amp;F52))))</f>
         <v xml:space="preserve">  capricornio_en=You are radiant, you conquer and your vital attitude is so positive and optimistic that we all want to get close to you in case some of your energy hits us. In your House five will bring up the competitive and impetuous player who bets up underwear in the field of love. This will increase your popularity to produce effects that will surprise you. Maybe it comes from the hand of a job that complements the one you already have. You are touched by the magic wand of the word, so take advantage of it.</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="3"/>
+        <v>7708</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="4"/>
+        <v>268635</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,5 y 8; 7708; 268635</v>
+      </c>
+      <c r="G53" t="str">
+        <f>VLOOKUP(H53,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H53">
         <v>10</v>
       </c>
-      <c r="B32" t="str">
-        <f>VLOOKUP(A32,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I53" t="str">
+        <f>VLOOKUP(H53,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="C32" t="s">
+      <c r="J53" t="s">
         <v>433</v>
       </c>
-      <c r="D32" t="str">
-        <f>IF(C32="es","  "&amp;B32&amp;"_"&amp;C32&amp;"="&amp;VLOOKUP(B32&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C32="en","  "&amp;B32&amp;"_"&amp;C32&amp;"="&amp;VLOOKUP(B32&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A32&amp;"]"))</f>
+      <c r="K53" t="str">
+        <f>IF(J53="es","  "&amp;I53&amp;"_"&amp;J53&amp;"="&amp;VLOOKUP(I53&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J53="en","  "&amp;I53&amp;"_"&amp;J53&amp;"="&amp;VLOOKUP(I53&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J53="indice",$K$2&amp;"["&amp;H53&amp;"]",IF(J53="pnl","  pnl="&amp;G53,"  num="&amp;F53))))</f>
         <v>horoscopo[10]</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="3"/>
+        <v>5696</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="4"/>
+        <v>351239</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,5 y 9; 5696; 351239</v>
+      </c>
+      <c r="G54" t="str">
+        <f>VLOOKUP(H54,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H54">
         <v>10</v>
       </c>
-      <c r="B33" t="str">
-        <f>VLOOKUP(A33,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I54" t="str">
+        <f>VLOOKUP(H54,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="C33" t="s">
+      <c r="J54" t="s">
+        <v>613</v>
+      </c>
+      <c r="K54" t="str">
+        <f ca="1">IF(J54="es","  "&amp;I54&amp;"_"&amp;J54&amp;"="&amp;VLOOKUP(I54&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J54="en","  "&amp;I54&amp;"_"&amp;J54&amp;"="&amp;VLOOKUP(I54&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J54="indice",$K$2&amp;"["&amp;H54&amp;"]",IF(J54="pnl","  pnl="&amp;G54,"  num="&amp;F54))))</f>
+        <v xml:space="preserve">  num=3,5 y 9; 5696; 351239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="3"/>
+        <v>2202</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="4"/>
+        <v>404306</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,7 y 8; 2202; 404306</v>
+      </c>
+      <c r="G55" t="str">
+        <f>VLOOKUP(H55,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55" t="str">
+        <f>VLOOKUP(H55,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>acuario</v>
+      </c>
+      <c r="J55" t="s">
+        <v>614</v>
+      </c>
+      <c r="K55" t="str">
+        <f>IF(J55="es","  "&amp;I55&amp;"_"&amp;J55&amp;"="&amp;VLOOKUP(I55&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J55="en","  "&amp;I55&amp;"_"&amp;J55&amp;"="&amp;VLOOKUP(I55&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J55="indice",$K$2&amp;"["&amp;H55&amp;"]",IF(J55="pnl","  pnl="&amp;G55,"  num="&amp;F55))))</f>
+        <v xml:space="preserve">  pnl=pnl1; pnl2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="3"/>
+        <v>1385</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="4"/>
+        <v>904022</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,5 y 9; 1385; 904022</v>
+      </c>
+      <c r="G56" t="str">
+        <f>VLOOKUP(H56,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56" t="str">
+        <f>VLOOKUP(H56,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>acuario</v>
+      </c>
+      <c r="J56" t="s">
         <v>126</v>
       </c>
-      <c r="D33" t="str">
-        <f>IF(C33="es","  "&amp;B33&amp;"_"&amp;C33&amp;"="&amp;VLOOKUP(B33&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C33="en","  "&amp;B33&amp;"_"&amp;C33&amp;"="&amp;VLOOKUP(B33&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A33&amp;"]"))</f>
+      <c r="K56" t="str">
+        <f>IF(J56="es","  "&amp;I56&amp;"_"&amp;J56&amp;"="&amp;VLOOKUP(I56&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J56="en","  "&amp;I56&amp;"_"&amp;J56&amp;"="&amp;VLOOKUP(I56&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J56="indice",$K$2&amp;"["&amp;H56&amp;"]",IF(J56="pnl","  pnl="&amp;G56,"  num="&amp;F56))))</f>
         <v xml:space="preserve">  acuario_es=Quires salir adelante pero también quieres hacer feliz a otros Eso significa un duro equilibrio y la avenencia es imprescindible. Puede que otros hagan mas ruido que tú pero tu eres dueño de tu serenidad y de tu independencia. Es más fácil de lo que crees. Agradece las cosas buenas que tienes y las habrá mejores. Si los demás no le reconocen abiertamente, usted se sentirá decepcionado y asumirá la posición y los privilegios que considera que le corresponden.</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="3"/>
+        <v>7541</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="4"/>
+        <v>927148</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2,7 y 9; 7541; 927148</v>
+      </c>
+      <c r="G57" t="str">
+        <f>VLOOKUP(H57,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H57">
         <v>10</v>
       </c>
-      <c r="B34" t="str">
-        <f>VLOOKUP(A34,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I57" t="str">
+        <f>VLOOKUP(H57,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="C34" t="s">
+      <c r="J57" t="s">
         <v>432</v>
       </c>
-      <c r="D34" t="str">
-        <f>IF(C34="es","  "&amp;B34&amp;"_"&amp;C34&amp;"="&amp;VLOOKUP(B34&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C34="en","  "&amp;B34&amp;"_"&amp;C34&amp;"="&amp;VLOOKUP(B34&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A34&amp;"]"))</f>
+      <c r="K57" t="str">
+        <f>IF(J57="es","  "&amp;I57&amp;"_"&amp;J57&amp;"="&amp;VLOOKUP(I57&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J57="en","  "&amp;I57&amp;"_"&amp;J57&amp;"="&amp;VLOOKUP(I57&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J57="indice",$K$2&amp;"["&amp;H57&amp;"]",IF(J57="pnl","  pnl="&amp;G57,"  num="&amp;F57))))</f>
         <v xml:space="preserve">  acuario_en=You want to get ahead but you also want to make others happy. That means a hard balance and compromise is essential. Others may make more noise than you but you are the owner of your serenity and independence. It is easier than you think. Thanks for the good things you have and there will be better things. If others do not openly acknowledge you, you will be disappointed and assume the position and privileges that you consider appropriate.</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="3"/>
+        <v>2853</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="4"/>
+        <v>436249</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1,7 y 8; 2853; 436249</v>
+      </c>
+      <c r="G58" t="str">
+        <f>VLOOKUP(H58,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H58">
         <v>11</v>
       </c>
-      <c r="B35" t="str">
-        <f>VLOOKUP(A35,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I58" t="str">
+        <f>VLOOKUP(H58,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="C35" t="s">
+      <c r="J58" t="s">
         <v>433</v>
       </c>
-      <c r="D35" t="str">
-        <f>IF(C35="es","  "&amp;B35&amp;"_"&amp;C35&amp;"="&amp;VLOOKUP(B35&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C35="en","  "&amp;B35&amp;"_"&amp;C35&amp;"="&amp;VLOOKUP(B35&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A35&amp;"]"))</f>
+      <c r="K58" t="str">
+        <f>IF(J58="es","  "&amp;I58&amp;"_"&amp;J58&amp;"="&amp;VLOOKUP(I58&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J58="en","  "&amp;I58&amp;"_"&amp;J58&amp;"="&amp;VLOOKUP(I58&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J58="indice",$K$2&amp;"["&amp;H58&amp;"]",IF(J58="pnl","  pnl="&amp;G58,"  num="&amp;F58))))</f>
         <v>horoscopo[11]</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="3"/>
+        <v>4222</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="4"/>
+        <v>868025</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3,6 y 8; 4222; 868025</v>
+      </c>
+      <c r="G59" t="str">
+        <f>VLOOKUP(H59,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H59">
         <v>11</v>
       </c>
-      <c r="B36" t="str">
-        <f>VLOOKUP(A36,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I59" t="str">
+        <f>VLOOKUP(H59,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="C36" t="s">
+      <c r="J59" t="s">
+        <v>613</v>
+      </c>
+      <c r="K59" t="str">
+        <f ca="1">IF(J59="es","  "&amp;I59&amp;"_"&amp;J59&amp;"="&amp;VLOOKUP(I59&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J59="en","  "&amp;I59&amp;"_"&amp;J59&amp;"="&amp;VLOOKUP(I59&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J59="indice",$K$2&amp;"["&amp;H59&amp;"]",IF(J59="pnl","  pnl="&amp;G59,"  num="&amp;F59))))</f>
+        <v xml:space="preserve">  num=3,6 y 8; 4222; 868025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="3"/>
+        <v>4311</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="4"/>
+        <v>536719</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,5 y 9; 4311; 536719</v>
+      </c>
+      <c r="G60" t="str">
+        <f>VLOOKUP(H60,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H60">
+        <v>11</v>
+      </c>
+      <c r="I60" t="str">
+        <f>VLOOKUP(H60,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>piscis</v>
+      </c>
+      <c r="J60" t="s">
+        <v>614</v>
+      </c>
+      <c r="K60" t="str">
+        <f>IF(J60="es","  "&amp;I60&amp;"_"&amp;J60&amp;"="&amp;VLOOKUP(I60&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J60="en","  "&amp;I60&amp;"_"&amp;J60&amp;"="&amp;VLOOKUP(I60&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J60="indice",$K$2&amp;"["&amp;H60&amp;"]",IF(J60="pnl","  pnl="&amp;G60,"  num="&amp;F60))))</f>
+        <v xml:space="preserve">  pnl=pnl1; pnl2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="3"/>
+        <v>9279</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="4"/>
+        <v>739930</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4,5 y 9; 9279; 739930</v>
+      </c>
+      <c r="G61" t="str">
+        <f>VLOOKUP(H61,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H61">
+        <v>11</v>
+      </c>
+      <c r="I61" t="str">
+        <f>VLOOKUP(H61,signos1!$A$1:$B$12,2,FALSE)</f>
+        <v>piscis</v>
+      </c>
+      <c r="J61" t="s">
         <v>126</v>
       </c>
-      <c r="D36" t="str">
-        <f>IF(C36="es","  "&amp;B36&amp;"_"&amp;C36&amp;"="&amp;VLOOKUP(B36&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C36="en","  "&amp;B36&amp;"_"&amp;C36&amp;"="&amp;VLOOKUP(B36&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A36&amp;"]"))</f>
+      <c r="K61" t="str">
+        <f>IF(J61="es","  "&amp;I61&amp;"_"&amp;J61&amp;"="&amp;VLOOKUP(I61&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J61="en","  "&amp;I61&amp;"_"&amp;J61&amp;"="&amp;VLOOKUP(I61&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J61="indice",$K$2&amp;"["&amp;H61&amp;"]",IF(J61="pnl","  pnl="&amp;G61,"  num="&amp;F61))))</f>
         <v xml:space="preserve">  piscis_es=Carga las baterías y asegúrate que tu apariencia es la mejor. Cuando se te vengan encima nuevas responsabilidades no temas Eres más que capaz de asumirlas y habrá alguien también dispuesto a echarte una mano si hace falta. Se acabó la diversión por un rato debes dedicarte ahora a un antiguo y duro trabajo. Actúa y recoge los beneficios. Necesitan tiempo y paciencia.</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="3"/>
+        <v>2659</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="4"/>
+        <v>871274</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2,6 y 8; 2659; 871274</v>
+      </c>
+      <c r="G62" t="str">
+        <f>VLOOKUP(H62,signos1!$A$1:$C$12,3,FALSE)</f>
+        <v>pnl1; pnl2</v>
+      </c>
+      <c r="H62">
         <v>11</v>
       </c>
-      <c r="B37" t="str">
-        <f>VLOOKUP(A37,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I62" t="str">
+        <f>VLOOKUP(H62,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="C37" t="s">
+      <c r="J62" t="s">
         <v>432</v>
       </c>
-      <c r="D37" t="str">
-        <f>IF(C37="es","  "&amp;B37&amp;"_"&amp;C37&amp;"="&amp;VLOOKUP(B37&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(C37="en","  "&amp;B37&amp;"_"&amp;C37&amp;"="&amp;VLOOKUP(B37&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),$D$1&amp;"["&amp;A37&amp;"]"))</f>
+      <c r="K62" t="str">
+        <f>IF(J62="es","  "&amp;I62&amp;"_"&amp;J62&amp;"="&amp;VLOOKUP(I62&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J62="en","  "&amp;I62&amp;"_"&amp;J62&amp;"="&amp;VLOOKUP(I62&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J62="indice",$K$2&amp;"["&amp;H62&amp;"]",IF(J62="pnl","  pnl="&amp;G62,"  num="&amp;F62))))</f>
         <v xml:space="preserve">  piscis_en=Charge the batteries and make sure your appearance is the best. When new responsibilities come to you, do not fear. You are more than capable of assuming them and there will be someone willing to lend a hand if necessary. The fun is over for a while now you must dedicate yourself to an old and hard work. Acts and collects the benefits. They need time and patience.</v>
       </c>
     </row>

--- a/documentos/datos.xlsx
+++ b/documentos/datos.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="617">
   <si>
     <t>app_name</t>
   </si>
@@ -1882,6 +1882,9 @@
   </si>
   <si>
     <t>pnl1; pnl2</t>
+  </si>
+  <si>
+    <t>pnl3;pnl4</t>
   </si>
 </sst>
 </file>
@@ -4737,10 +4740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C12"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4748,7 +4751,7 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4758,8 +4761,11 @@
       <c r="C1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4769,8 +4775,11 @@
       <c r="C2" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4780,8 +4789,11 @@
       <c r="C3" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4791,8 +4803,11 @@
       <c r="C4" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4802,8 +4817,11 @@
       <c r="C5" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4813,8 +4831,11 @@
       <c r="C6" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4824,8 +4845,11 @@
       <c r="C7" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4835,8 +4859,11 @@
       <c r="C8" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4846,8 +4873,11 @@
       <c r="C9" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4857,8 +4887,11 @@
       <c r="C10" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4868,8 +4901,11 @@
       <c r="C11" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4878,6 +4914,9 @@
       </c>
       <c r="C12" t="s">
         <v>615</v>
+      </c>
+      <c r="D12" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -10098,19 +10137,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K62"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
         <f>C1+B1</f>
         <v>6</v>
@@ -10122,7 +10161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
@@ -10137,28 +10176,28 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>5453</v>
+        <v>8952</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100000,999999)</f>
-        <v>616810</v>
+        <v>427423</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">A2&amp;","&amp;B2&amp;" y "&amp;C2&amp;"; "&amp;D2&amp;"; "&amp;E2</f>
-        <v>4,5 y 9; 5453; 616810</v>
-      </c>
-      <c r="K2" t="s">
+        <v>4,5 y 9; 8952; 427423</v>
+      </c>
+      <c r="L2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A62" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B62" ca="1" si="1">RANDBETWEEN(5,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C62" ca="1" si="2">RANDBETWEEN(8,9)</f>
@@ -10166,87 +10205,95 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D62" ca="1" si="3">RANDBETWEEN(1000,9999)</f>
-        <v>9402</v>
+        <v>1294</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E62" ca="1" si="4">RANDBETWEEN(100000,999999)</f>
-        <v>330111</v>
+        <v>559100</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F62" ca="1" si="5">A3&amp;","&amp;B3&amp;" y "&amp;C3&amp;"; "&amp;D3&amp;"; "&amp;E3</f>
-        <v>2,6 y 9; 9402; 330111</v>
+        <v>1,7 y 9; 1294; 559100</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP(H3,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I3,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="str">
+        <f>VLOOKUP(I3,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="I3" t="str">
-        <f>VLOOKUP(H3,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J3" t="str">
+        <f>VLOOKUP(I3,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>433</v>
       </c>
-      <c r="K3" t="str">
-        <f>IF(J3="es","  "&amp;I3&amp;"_"&amp;J3&amp;"="&amp;VLOOKUP(I3&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J3="en","  "&amp;I3&amp;"_"&amp;J3&amp;"="&amp;VLOOKUP(I3&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J3="indice",$K$2&amp;"["&amp;H3&amp;"]",IF(J3="pnl","  pnl="&amp;G3,"  num="&amp;F3))))</f>
+      <c r="L3" t="str">
+        <f>IF(K3="es","  "&amp;J3&amp;"_"&amp;K3&amp;"="&amp;VLOOKUP(J3&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K3="en","  "&amp;J3&amp;"_"&amp;K3&amp;"="&amp;VLOOKUP(J3&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K3="indice",$L$2&amp;"["&amp;I3&amp;"]",IF(K3="pnl","  pnl="&amp;G3,"  num="&amp;F3))))</f>
         <v>horoscopo[0]</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>6827</v>
+        <v>7350</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>349433</v>
+        <v>472653</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 9; 6827; 349433</v>
+        <v>4,5 y 8; 7350; 472653</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(H4,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I4,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="str">
+        <f>VLOOKUP(I4,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4" t="str">
-        <f>VLOOKUP(H4,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J4" t="str">
+        <f>VLOOKUP(I4,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>613</v>
       </c>
-      <c r="K4" t="str">
-        <f ca="1">IF(J4="es","  "&amp;I4&amp;"_"&amp;J4&amp;"="&amp;VLOOKUP(I4&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J4="en","  "&amp;I4&amp;"_"&amp;J4&amp;"="&amp;VLOOKUP(I4&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J4="indice",$K$2&amp;"["&amp;H4&amp;"]",IF(J4="pnl","  pnl="&amp;G4,"  num="&amp;F4))))</f>
-        <v xml:space="preserve">  num=3,6 y 9; 6827; 349433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="str">
+        <f ca="1">IF(K4="es","  "&amp;J4&amp;"_"&amp;K4&amp;"="&amp;VLOOKUP(J4&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K4="en","  "&amp;J4&amp;"_"&amp;K4&amp;"="&amp;VLOOKUP(J4&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K4="indice",$L$2&amp;"["&amp;I4&amp;"]",IF(K4="pnl","  pnl="&amp;G4,"  num="&amp;F4))))</f>
+        <v xml:space="preserve">  num=4,5 y 8; 7350; 472653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
@@ -10254,83 +10301,91 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>6041</v>
+        <v>9893</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>673213</v>
+        <v>146735</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 8; 6041; 673213</v>
+        <v>1,7 y 8; 9893; 146735</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(H5,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I5,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="str">
+        <f>VLOOKUP(I5,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5" t="str">
-        <f>VLOOKUP(H5,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J5" t="str">
+        <f>VLOOKUP(I5,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>614</v>
       </c>
-      <c r="K5" t="str">
-        <f>IF(J5="es","  "&amp;I5&amp;"_"&amp;J5&amp;"="&amp;VLOOKUP(I5&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J5="en","  "&amp;I5&amp;"_"&amp;J5&amp;"="&amp;VLOOKUP(I5&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J5="indice",$K$2&amp;"["&amp;H5&amp;"]",IF(J5="pnl","  pnl="&amp;G5,"  num="&amp;F5))))</f>
+      <c r="L5" t="str">
+        <f>IF(K5="es","  "&amp;J5&amp;"_"&amp;K5&amp;"="&amp;VLOOKUP(J5&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K5="en","  "&amp;J5&amp;"_"&amp;K5&amp;"="&amp;VLOOKUP(J5&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K5="indice",$L$2&amp;"["&amp;I5&amp;"]",IF(K5="pnl","  pnl="&amp;G5,"  num="&amp;F5))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>3042</v>
+        <v>4392</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>985349</v>
+        <v>434271</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 3042; 985349</v>
+        <v>1,7 y 8; 4392; 434271</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(H6,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I6,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="str">
+        <f>VLOOKUP(I6,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="I6" t="str">
-        <f>VLOOKUP(H6,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J6" t="str">
+        <f>VLOOKUP(I6,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>126</v>
       </c>
-      <c r="K6" t="str">
-        <f>IF(J6="es","  "&amp;I6&amp;"_"&amp;J6&amp;"="&amp;VLOOKUP(I6&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J6="en","  "&amp;I6&amp;"_"&amp;J6&amp;"="&amp;VLOOKUP(I6&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J6="indice",$K$2&amp;"["&amp;H6&amp;"]",IF(J6="pnl","  pnl="&amp;G6,"  num="&amp;F6))))</f>
+      <c r="L6" t="str">
+        <f>IF(K6="es","  "&amp;J6&amp;"_"&amp;K6&amp;"="&amp;VLOOKUP(J6&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K6="en","  "&amp;J6&amp;"_"&amp;K6&amp;"="&amp;VLOOKUP(J6&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K6="indice",$L$2&amp;"["&amp;I6&amp;"]",IF(K6="pnl","  pnl="&amp;G6,"  num="&amp;F6))))</f>
         <v xml:space="preserve">  aries_es=Los planetas te respaldan todo lo que hace falta corta tus ataduras y ve al fondo de las cosas hoy. Los planetas te están creando cierta resistencia para los temas de la carrera puedes pensar que no progresas tanto como quisieras. No tienes paciencia para ponerte en línea hoy. Tu atención debe volcarse hacia un proyecto creativo o de negocios las condiciones son particularmente propicias ahora y no debes perder la oportunidad. Vas aprisa en tu carrera y te vuelve loco lo que haces Tienes tiempo para algo más y corres peligro de que las cosas pierdan el equilibrio.</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
@@ -10338,43 +10393,47 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>8723</v>
+        <v>5471</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>563421</v>
+        <v>586854</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 8; 8723; 563421</v>
+        <v>1,7 y 9; 5471; 586854</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(H7,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I7,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="str">
+        <f>VLOOKUP(I7,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7" t="str">
-        <f>VLOOKUP(H7,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J7" t="str">
+        <f>VLOOKUP(I7,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>432</v>
       </c>
-      <c r="K7" t="str">
-        <f>IF(J7="es","  "&amp;I7&amp;"_"&amp;J7&amp;"="&amp;VLOOKUP(I7&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J7="en","  "&amp;I7&amp;"_"&amp;J7&amp;"="&amp;VLOOKUP(I7&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J7="indice",$K$2&amp;"["&amp;H7&amp;"]",IF(J7="pnl","  pnl="&amp;G7,"  num="&amp;F7))))</f>
+      <c r="L7" t="str">
+        <f>IF(K7="es","  "&amp;J7&amp;"_"&amp;K7&amp;"="&amp;VLOOKUP(J7&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K7="en","  "&amp;J7&amp;"_"&amp;K7&amp;"="&amp;VLOOKUP(J7&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K7="indice",$L$2&amp;"["&amp;I7&amp;"]",IF(K7="pnl","  pnl="&amp;G7,"  num="&amp;F7))))</f>
         <v xml:space="preserve">  aries_en=Planets support you all you need to cut your ties and go to the bottom of things today. The planets are creating some resistance for the subjects of the race you can think that you do not progress as much as you would like. You do not have the patience to get online today. Your attention should be turned towards a creative or business project. The conditions are particularly propitious now and you should not miss the opportunity. You go fast in your career and it drives you crazy what you do. You have time for something else and you run the risk of things losing their balance.</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
@@ -10382,47 +10441,51 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>5118</v>
+        <v>2275</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>493152</v>
+        <v>280392</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 8; 5118; 493152</v>
+        <v>4,5 y 9; 2275; 280392</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(H8,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I8,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="str">
+        <f>VLOOKUP(I8,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="I8" t="str">
-        <f>VLOOKUP(H8,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J8" t="str">
+        <f>VLOOKUP(I8,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>433</v>
       </c>
-      <c r="K8" t="str">
-        <f>IF(J8="es","  "&amp;I8&amp;"_"&amp;J8&amp;"="&amp;VLOOKUP(I8&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J8="en","  "&amp;I8&amp;"_"&amp;J8&amp;"="&amp;VLOOKUP(I8&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J8="indice",$K$2&amp;"["&amp;H8&amp;"]",IF(J8="pnl","  pnl="&amp;G8,"  num="&amp;F8))))</f>
+      <c r="L8" t="str">
+        <f>IF(K8="es","  "&amp;J8&amp;"_"&amp;K8&amp;"="&amp;VLOOKUP(J8&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K8="en","  "&amp;J8&amp;"_"&amp;K8&amp;"="&amp;VLOOKUP(J8&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K8="indice",$L$2&amp;"["&amp;I8&amp;"]",IF(K8="pnl","  pnl="&amp;G8,"  num="&amp;F8))))</f>
         <v>horoscopo[1]</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
@@ -10430,43 +10493,47 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>7572</v>
+        <v>8696</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>908457</v>
+        <v>397346</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 9; 7572; 908457</v>
+        <v>3,6 y 9; 8696; 397346</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(H9,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I9,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="str">
+        <f>VLOOKUP(I9,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="I9" t="str">
-        <f>VLOOKUP(H9,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J9" t="str">
+        <f>VLOOKUP(I9,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>613</v>
       </c>
-      <c r="K9" t="str">
-        <f ca="1">IF(J9="es","  "&amp;I9&amp;"_"&amp;J9&amp;"="&amp;VLOOKUP(I9&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J9="en","  "&amp;I9&amp;"_"&amp;J9&amp;"="&amp;VLOOKUP(I9&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J9="indice",$K$2&amp;"["&amp;H9&amp;"]",IF(J9="pnl","  pnl="&amp;G9,"  num="&amp;F9))))</f>
-        <v xml:space="preserve">  num=3,5 y 9; 7572; 908457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="str">
+        <f ca="1">IF(K9="es","  "&amp;J9&amp;"_"&amp;K9&amp;"="&amp;VLOOKUP(J9&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K9="en","  "&amp;J9&amp;"_"&amp;K9&amp;"="&amp;VLOOKUP(J9&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K9="indice",$L$2&amp;"["&amp;I9&amp;"]",IF(K9="pnl","  pnl="&amp;G9,"  num="&amp;F9))))</f>
+        <v xml:space="preserve">  num=3,6 y 9; 8696; 397346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
@@ -10474,43 +10541,47 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>4059</v>
+        <v>3192</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>368826</v>
+        <v>556037</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 8; 4059; 368826</v>
+        <v>1,6 y 8; 3192; 556037</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(H10,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I10,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="str">
+        <f>VLOOKUP(I10,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10" t="str">
-        <f>VLOOKUP(H10,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J10" t="str">
+        <f>VLOOKUP(I10,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>614</v>
       </c>
-      <c r="K10" t="str">
-        <f>IF(J10="es","  "&amp;I10&amp;"_"&amp;J10&amp;"="&amp;VLOOKUP(I10&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J10="en","  "&amp;I10&amp;"_"&amp;J10&amp;"="&amp;VLOOKUP(I10&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J10="indice",$K$2&amp;"["&amp;H10&amp;"]",IF(J10="pnl","  pnl="&amp;G10,"  num="&amp;F10))))</f>
+      <c r="L10" t="str">
+        <f>IF(K10="es","  "&amp;J10&amp;"_"&amp;K10&amp;"="&amp;VLOOKUP(J10&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K10="en","  "&amp;J10&amp;"_"&amp;K10&amp;"="&amp;VLOOKUP(J10&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K10="indice",$L$2&amp;"["&amp;I10&amp;"]",IF(K10="pnl","  pnl="&amp;G10,"  num="&amp;F10))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
@@ -10518,127 +10589,139 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>7022</v>
+        <v>9491</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>357716</v>
+        <v>834234</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 7022; 357716</v>
+        <v>2,6 y 9; 9491; 834234</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(H11,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I11,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="str">
+        <f>VLOOKUP(I11,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="I11" t="str">
-        <f>VLOOKUP(H11,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J11" t="str">
+        <f>VLOOKUP(I11,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>126</v>
       </c>
-      <c r="K11" t="str">
-        <f>IF(J11="es","  "&amp;I11&amp;"_"&amp;J11&amp;"="&amp;VLOOKUP(I11&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J11="en","  "&amp;I11&amp;"_"&amp;J11&amp;"="&amp;VLOOKUP(I11&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J11="indice",$K$2&amp;"["&amp;H11&amp;"]",IF(J11="pnl","  pnl="&amp;G11,"  num="&amp;F11))))</f>
+      <c r="L11" t="str">
+        <f>IF(K11="es","  "&amp;J11&amp;"_"&amp;K11&amp;"="&amp;VLOOKUP(J11&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K11="en","  "&amp;J11&amp;"_"&amp;K11&amp;"="&amp;VLOOKUP(J11&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K11="indice",$L$2&amp;"["&amp;I11&amp;"]",IF(K11="pnl","  pnl="&amp;G11,"  num="&amp;F11))))</f>
         <v xml:space="preserve">  tauro_es=Se honesto contigo mismo y con los demás hoy independientemente de las presiones que sientas. Sólo pensar en dinero te causa disgusto pero meter la cabeza en la arena no es una solución. Tu ánimo vuelve luego de un pequeño periodo de incertidumbre Se optimista y tus planes de carrera despegarán. Es posible que tenga que descubrir algún engaño o fraude dentro de su lugar de trabajo, por lo que es importante estar alerta y tener un plan de acción. La cuadratura que hacen la Luna y Marte no te pone las cosas fáciles en este sentido.</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>6038</v>
+        <v>3160</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>456633</v>
+        <v>566540</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 8; 6038; 456633</v>
+        <v>2,7 y 9; 3160; 566540</v>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(H12,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I12,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="str">
+        <f>VLOOKUP(I12,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="I12" t="str">
-        <f>VLOOKUP(H12,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J12" t="str">
+        <f>VLOOKUP(I12,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>432</v>
       </c>
-      <c r="K12" t="str">
-        <f>IF(J12="es","  "&amp;I12&amp;"_"&amp;J12&amp;"="&amp;VLOOKUP(I12&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J12="en","  "&amp;I12&amp;"_"&amp;J12&amp;"="&amp;VLOOKUP(I12&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J12="indice",$K$2&amp;"["&amp;H12&amp;"]",IF(J12="pnl","  pnl="&amp;G12,"  num="&amp;F12))))</f>
+      <c r="L12" t="str">
+        <f>IF(K12="es","  "&amp;J12&amp;"_"&amp;K12&amp;"="&amp;VLOOKUP(J12&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K12="en","  "&amp;J12&amp;"_"&amp;K12&amp;"="&amp;VLOOKUP(J12&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K12="indice",$L$2&amp;"["&amp;I12&amp;"]",IF(K12="pnl","  pnl="&amp;G12,"  num="&amp;F12))))</f>
         <v xml:space="preserve">  tauro_en=Be honest with yourself and with others today regardless of the pressures you feel. Just thinking about money causes you disgust but putting your head in the sand is not a solution. Your mood returns after a short period of uncertainty. Be optimistic and your career plans will take off. You may have to discover some deception or fraud within your workplace, so it is important to be alert and have an action plan. The square made by the Moon and Mars does not make things easy for you in this regard.</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>5609</v>
+        <v>7725</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>995038</v>
+        <v>493288</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 8; 5609; 995038</v>
+        <v>4,7 y 9; 7725; 493288</v>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(H13,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I13,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="str">
+        <f>VLOOKUP(I13,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="I13" t="str">
-        <f>VLOOKUP(H13,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J13" t="str">
+        <f>VLOOKUP(I13,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>433</v>
       </c>
-      <c r="K13" t="str">
-        <f>IF(J13="es","  "&amp;I13&amp;"_"&amp;J13&amp;"="&amp;VLOOKUP(I13&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J13="en","  "&amp;I13&amp;"_"&amp;J13&amp;"="&amp;VLOOKUP(I13&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J13="indice",$K$2&amp;"["&amp;H13&amp;"]",IF(J13="pnl","  pnl="&amp;G13,"  num="&amp;F13))))</f>
+      <c r="L13" t="str">
+        <f>IF(K13="es","  "&amp;J13&amp;"_"&amp;K13&amp;"="&amp;VLOOKUP(J13&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K13="en","  "&amp;J13&amp;"_"&amp;K13&amp;"="&amp;VLOOKUP(J13&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K13="indice",$L$2&amp;"["&amp;I13&amp;"]",IF(K13="pnl","  pnl="&amp;G13,"  num="&amp;F13))))</f>
         <v>horoscopo[2]</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
@@ -10646,43 +10729,47 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>6412</v>
+        <v>8736</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>718273</v>
+        <v>218769</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 8; 6412; 718273</v>
+        <v>1,6 y 9; 8736; 218769</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(H14,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I14,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="str">
+        <f>VLOOKUP(I14,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="I14" t="str">
-        <f>VLOOKUP(H14,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J14" t="str">
+        <f>VLOOKUP(I14,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>613</v>
       </c>
-      <c r="K14" t="str">
-        <f ca="1">IF(J14="es","  "&amp;I14&amp;"_"&amp;J14&amp;"="&amp;VLOOKUP(I14&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J14="en","  "&amp;I14&amp;"_"&amp;J14&amp;"="&amp;VLOOKUP(I14&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J14="indice",$K$2&amp;"["&amp;H14&amp;"]",IF(J14="pnl","  pnl="&amp;G14,"  num="&amp;F14))))</f>
-        <v xml:space="preserve">  num=3,6 y 8; 6412; 718273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="str">
+        <f ca="1">IF(K14="es","  "&amp;J14&amp;"_"&amp;K14&amp;"="&amp;VLOOKUP(J14&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K14="en","  "&amp;J14&amp;"_"&amp;K14&amp;"="&amp;VLOOKUP(J14&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K14="indice",$L$2&amp;"["&amp;I14&amp;"]",IF(K14="pnl","  pnl="&amp;G14,"  num="&amp;F14))))</f>
+        <v xml:space="preserve">  num=1,6 y 9; 8736; 218769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
@@ -10694,83 +10781,91 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>6457</v>
+        <v>2823</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>393322</v>
+        <v>897173</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 9; 6457; 393322</v>
+        <v>2,5 y 9; 2823; 897173</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(H15,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I15,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="str">
+        <f>VLOOKUP(I15,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="I15" t="str">
-        <f>VLOOKUP(H15,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J15" t="str">
+        <f>VLOOKUP(I15,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>614</v>
       </c>
-      <c r="K15" t="str">
-        <f>IF(J15="es","  "&amp;I15&amp;"_"&amp;J15&amp;"="&amp;VLOOKUP(I15&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J15="en","  "&amp;I15&amp;"_"&amp;J15&amp;"="&amp;VLOOKUP(I15&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J15="indice",$K$2&amp;"["&amp;H15&amp;"]",IF(J15="pnl","  pnl="&amp;G15,"  num="&amp;F15))))</f>
+      <c r="L15" t="str">
+        <f>IF(K15="es","  "&amp;J15&amp;"_"&amp;K15&amp;"="&amp;VLOOKUP(J15&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K15="en","  "&amp;J15&amp;"_"&amp;K15&amp;"="&amp;VLOOKUP(J15&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K15="indice",$L$2&amp;"["&amp;I15&amp;"]",IF(K15="pnl","  pnl="&amp;G15,"  num="&amp;F15))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>7814</v>
+        <v>1933</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>276431</v>
+        <v>452934</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 7814; 276431</v>
+        <v>4,5 y 8; 1933; 452934</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(H16,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I16,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="str">
+        <f>VLOOKUP(I16,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="I16" t="str">
-        <f>VLOOKUP(H16,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J16" t="str">
+        <f>VLOOKUP(I16,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>126</v>
       </c>
-      <c r="K16" t="str">
-        <f>IF(J16="es","  "&amp;I16&amp;"_"&amp;J16&amp;"="&amp;VLOOKUP(I16&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J16="en","  "&amp;I16&amp;"_"&amp;J16&amp;"="&amp;VLOOKUP(I16&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J16="indice",$K$2&amp;"["&amp;H16&amp;"]",IF(J16="pnl","  pnl="&amp;G16,"  num="&amp;F16))))</f>
+      <c r="L16" t="str">
+        <f>IF(K16="es","  "&amp;J16&amp;"_"&amp;K16&amp;"="&amp;VLOOKUP(J16&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K16="en","  "&amp;J16&amp;"_"&amp;K16&amp;"="&amp;VLOOKUP(J16&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K16="indice",$L$2&amp;"["&amp;I16&amp;"]",IF(K16="pnl","  pnl="&amp;G16,"  num="&amp;F16))))</f>
         <v xml:space="preserve">  geminis_es=Hay buenos prospectos para asumir un reto a largo plazo No importa la difícil que sea, serás capaz de salir adelante. Es momento de aceptar que loes tiempos han cambiado Ya la pelota no está en el mismo patio, Las reglas son nuevas y te las tienes que aprender de memoria. Una inesperada oportunidad puede aparecer en una situación profesional, significando esto que debes estar preparado para saltar hacia cualquier oportunidad. Si sigues manteniendo tu fe en ti mismo con tus logros a la vista las cosas se conciliarán y no podrán salirte mal. Y no lo hará por amor, sino por orgullo puro y duro.</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
@@ -10778,84 +10873,92 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>7004</v>
+        <v>8317</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>261229</v>
+        <v>283511</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 9; 7004; 261229</v>
+        <v>1,7 y 8; 8317; 283511</v>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP(H17,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I17,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="str">
+        <f>VLOOKUP(I17,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="I17" t="str">
-        <f>VLOOKUP(H17,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J17" t="str">
+        <f>VLOOKUP(I17,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>432</v>
       </c>
-      <c r="K17" t="str">
-        <f>IF(J17="es","  "&amp;I17&amp;"_"&amp;J17&amp;"="&amp;VLOOKUP(I17&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J17="en","  "&amp;I17&amp;"_"&amp;J17&amp;"="&amp;VLOOKUP(I17&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J17="indice",$K$2&amp;"["&amp;H17&amp;"]",IF(J17="pnl","  pnl="&amp;G17,"  num="&amp;F17))))</f>
+      <c r="L17" t="str">
+        <f>IF(K17="es","  "&amp;J17&amp;"_"&amp;K17&amp;"="&amp;VLOOKUP(J17&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K17="en","  "&amp;J17&amp;"_"&amp;K17&amp;"="&amp;VLOOKUP(J17&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K17="indice",$L$2&amp;"["&amp;I17&amp;"]",IF(K17="pnl","  pnl="&amp;G17,"  num="&amp;F17))))</f>
         <v xml:space="preserve">  geminis_en=There are good prospects to take on a long-term challenge No matter how difficult it may be, you will be able to get ahead. It\'s time to accept that times have changed. The ball is not in the same yard anymore. The rules are new and you have to learn them by heart. An unexpected opportunity can appear in a professional situation, meaning that you must be prepared to jump to any opportunity. If you keep your faith in yourself with your achievements in sight things will be reconciled and can not go wrong. And he will not do it out of love, but out of pure and hard pride.</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>2945</v>
+        <v>3767</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>213344</v>
+        <v>559016</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 8; 2945; 213344</v>
+        <v>1,7 y 9; 3767; 559016</v>
       </c>
       <c r="G18" t="str">
-        <f>VLOOKUP(H18,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I18,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="str">
+        <f>VLOOKUP(I18,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I18">
         <v>3</v>
       </c>
-      <c r="I18" t="str">
-        <f>VLOOKUP(H18,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J18" t="str">
+        <f>VLOOKUP(I18,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>433</v>
       </c>
-      <c r="K18" t="str">
-        <f>IF(J18="es","  "&amp;I18&amp;"_"&amp;J18&amp;"="&amp;VLOOKUP(I18&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J18="en","  "&amp;I18&amp;"_"&amp;J18&amp;"="&amp;VLOOKUP(I18&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J18="indice",$K$2&amp;"["&amp;H18&amp;"]",IF(J18="pnl","  pnl="&amp;G18,"  num="&amp;F18))))</f>
+      <c r="L18" t="str">
+        <f>IF(K18="es","  "&amp;J18&amp;"_"&amp;K18&amp;"="&amp;VLOOKUP(J18&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K18="en","  "&amp;J18&amp;"_"&amp;K18&amp;"="&amp;VLOOKUP(J18&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K18="indice",$L$2&amp;"["&amp;I18&amp;"]",IF(K18="pnl","  pnl="&amp;G18,"  num="&amp;F18))))</f>
         <v>horoscopo[3]</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
@@ -10866,43 +10969,47 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>2634</v>
+        <v>2891</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>939264</v>
+        <v>291781</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 8; 2634; 939264</v>
+        <v>2,7 y 9; 2891; 291781</v>
       </c>
       <c r="G19" t="str">
-        <f>VLOOKUP(H19,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I19,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="str">
+        <f>VLOOKUP(I19,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="I19" t="str">
-        <f>VLOOKUP(H19,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J19" t="str">
+        <f>VLOOKUP(I19,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>613</v>
       </c>
-      <c r="K19" t="str">
-        <f ca="1">IF(J19="es","  "&amp;I19&amp;"_"&amp;J19&amp;"="&amp;VLOOKUP(I19&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J19="en","  "&amp;I19&amp;"_"&amp;J19&amp;"="&amp;VLOOKUP(I19&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J19="indice",$K$2&amp;"["&amp;H19&amp;"]",IF(J19="pnl","  pnl="&amp;G19,"  num="&amp;F19))))</f>
-        <v xml:space="preserve">  num=2,7 y 8; 2634; 939264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="str">
+        <f ca="1">IF(K19="es","  "&amp;J19&amp;"_"&amp;K19&amp;"="&amp;VLOOKUP(J19&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K19="en","  "&amp;J19&amp;"_"&amp;K19&amp;"="&amp;VLOOKUP(J19&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K19="indice",$L$2&amp;"["&amp;I19&amp;"]",IF(K19="pnl","  pnl="&amp;G19,"  num="&amp;F19))))</f>
+        <v xml:space="preserve">  num=2,7 y 9; 2891; 291781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
@@ -10914,131 +11021,143 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>7098</v>
+        <v>9126</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
-        <v>636283</v>
+        <v>597085</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 8; 7098; 636283</v>
+        <v>2,6 y 8; 9126; 597085</v>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(H20,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I20,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="str">
+        <f>VLOOKUP(I20,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I20">
         <v>3</v>
       </c>
-      <c r="I20" t="str">
-        <f>VLOOKUP(H20,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J20" t="str">
+        <f>VLOOKUP(I20,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>614</v>
       </c>
-      <c r="K20" t="str">
-        <f>IF(J20="es","  "&amp;I20&amp;"_"&amp;J20&amp;"="&amp;VLOOKUP(I20&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J20="en","  "&amp;I20&amp;"_"&amp;J20&amp;"="&amp;VLOOKUP(I20&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J20="indice",$K$2&amp;"["&amp;H20&amp;"]",IF(J20="pnl","  pnl="&amp;G20,"  num="&amp;F20))))</f>
+      <c r="L20" t="str">
+        <f>IF(K20="es","  "&amp;J20&amp;"_"&amp;K20&amp;"="&amp;VLOOKUP(J20&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K20="en","  "&amp;J20&amp;"_"&amp;K20&amp;"="&amp;VLOOKUP(J20&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K20="indice",$L$2&amp;"["&amp;I20&amp;"]",IF(K20="pnl","  pnl="&amp;G20,"  num="&amp;F20))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>7184</v>
+        <v>6892</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>310224</v>
+        <v>281362</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 8; 7184; 310224</v>
+        <v>3,7 y 9; 6892; 281362</v>
       </c>
       <c r="G21" t="str">
-        <f>VLOOKUP(H21,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I21,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="str">
+        <f>VLOOKUP(I21,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="I21" t="str">
-        <f>VLOOKUP(H21,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J21" t="str">
+        <f>VLOOKUP(I21,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>126</v>
       </c>
-      <c r="K21" t="str">
-        <f>IF(J21="es","  "&amp;I21&amp;"_"&amp;J21&amp;"="&amp;VLOOKUP(I21&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J21="en","  "&amp;I21&amp;"_"&amp;J21&amp;"="&amp;VLOOKUP(I21&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J21="indice",$K$2&amp;"["&amp;H21&amp;"]",IF(J21="pnl","  pnl="&amp;G21,"  num="&amp;F21))))</f>
+      <c r="L21" t="str">
+        <f>IF(K21="es","  "&amp;J21&amp;"_"&amp;K21&amp;"="&amp;VLOOKUP(J21&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K21="en","  "&amp;J21&amp;"_"&amp;K21&amp;"="&amp;VLOOKUP(J21&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K21="indice",$L$2&amp;"["&amp;I21&amp;"]",IF(K21="pnl","  pnl="&amp;G21,"  num="&amp;F21))))</f>
         <v xml:space="preserve">  cancer_es=Espera cambios sumamente positivos en lo tocante al trabajo te encontrarás en una situación laboral nueva cada vez más satisfactoria. Este es uno de esos momentos. Son buenas las condiciones para un riesgo bajo inversiones a largo plazo, ventas de propiedades y herencias. No te lances con la primera persona que se atraviese en tu camino solo porque necesites afecto o atención. Hacer ejercicio le da muchísima pereza, pero ¿tiene idea de lo que le va a alegrar ser capaz de hacer tantos abdominales? Fuera la pereza y a rejuvenecer su salud.</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>4192</v>
+        <v>8250</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>824453</v>
+        <v>508139</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 9; 4192; 824453</v>
+        <v>3,7 y 8; 8250; 508139</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(H22,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I22,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="str">
+        <f>VLOOKUP(I22,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22" t="str">
-        <f>VLOOKUP(H22,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J22" t="str">
+        <f>VLOOKUP(I22,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>432</v>
       </c>
-      <c r="K22" t="str">
-        <f>IF(J22="es","  "&amp;I22&amp;"_"&amp;J22&amp;"="&amp;VLOOKUP(I22&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J22="en","  "&amp;I22&amp;"_"&amp;J22&amp;"="&amp;VLOOKUP(I22&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J22="indice",$K$2&amp;"["&amp;H22&amp;"]",IF(J22="pnl","  pnl="&amp;G22,"  num="&amp;F22))))</f>
+      <c r="L22" t="str">
+        <f>IF(K22="es","  "&amp;J22&amp;"_"&amp;K22&amp;"="&amp;VLOOKUP(J22&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K22="en","  "&amp;J22&amp;"_"&amp;K22&amp;"="&amp;VLOOKUP(J22&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K22="indice",$L$2&amp;"["&amp;I22&amp;"]",IF(K22="pnl","  pnl="&amp;G22,"  num="&amp;F22))))</f>
         <v xml:space="preserve">  cancer_en=Expect very positive changes with regard to work you will find yourself in a new work situation more and more satisfactory. this is one of those moments. The conditions for a risk under long-term investments, property sales and inheritances are good. Do not throw yourself with the first person who crosses your path just because you need affection or attention. Exercising gives him a lot of laziness, but do you have any idea what will make him happy to be able to do so many abs? Out of laziness and to rejuvenate your health.</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
@@ -11046,43 +11165,47 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>5244</v>
+        <v>5344</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>738783</v>
+        <v>309818</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 8; 5244; 738783</v>
+        <v>4,5 y 8; 5344; 309818</v>
       </c>
       <c r="G23" t="str">
-        <f>VLOOKUP(H23,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I23,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="str">
+        <f>VLOOKUP(I23,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I23">
         <v>4</v>
       </c>
-      <c r="I23" t="str">
-        <f>VLOOKUP(H23,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J23" t="str">
+        <f>VLOOKUP(I23,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>433</v>
       </c>
-      <c r="K23" t="str">
-        <f>IF(J23="es","  "&amp;I23&amp;"_"&amp;J23&amp;"="&amp;VLOOKUP(I23&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J23="en","  "&amp;I23&amp;"_"&amp;J23&amp;"="&amp;VLOOKUP(I23&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J23="indice",$K$2&amp;"["&amp;H23&amp;"]",IF(J23="pnl","  pnl="&amp;G23,"  num="&amp;F23))))</f>
+      <c r="L23" t="str">
+        <f>IF(K23="es","  "&amp;J23&amp;"_"&amp;K23&amp;"="&amp;VLOOKUP(J23&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K23="en","  "&amp;J23&amp;"_"&amp;K23&amp;"="&amp;VLOOKUP(J23&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K23="indice",$L$2&amp;"["&amp;I23&amp;"]",IF(K23="pnl","  pnl="&amp;G23,"  num="&amp;F23))))</f>
         <v>horoscopo[4]</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
@@ -11090,39 +11213,43 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>8006</v>
+        <v>8799</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>566884</v>
+        <v>472337</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 9; 8006; 566884</v>
+        <v>4,7 y 9; 8799; 472337</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(H24,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I24,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="str">
+        <f>VLOOKUP(I24,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I24">
         <v>4</v>
       </c>
-      <c r="I24" t="str">
-        <f>VLOOKUP(H24,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J24" t="str">
+        <f>VLOOKUP(I24,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>613</v>
       </c>
-      <c r="K24" t="str">
-        <f ca="1">IF(J24="es","  "&amp;I24&amp;"_"&amp;J24&amp;"="&amp;VLOOKUP(I24&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J24="en","  "&amp;I24&amp;"_"&amp;J24&amp;"="&amp;VLOOKUP(I24&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J24="indice",$K$2&amp;"["&amp;H24&amp;"]",IF(J24="pnl","  pnl="&amp;G24,"  num="&amp;F24))))</f>
-        <v xml:space="preserve">  num=1,5 y 9; 8006; 566884</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="str">
+        <f ca="1">IF(K24="es","  "&amp;J24&amp;"_"&amp;K24&amp;"="&amp;VLOOKUP(J24&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K24="en","  "&amp;J24&amp;"_"&amp;K24&amp;"="&amp;VLOOKUP(J24&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K24="indice",$L$2&amp;"["&amp;I24&amp;"]",IF(K24="pnl","  pnl="&amp;G24,"  num="&amp;F24))))</f>
+        <v xml:space="preserve">  num=4,7 y 9; 8799; 472337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
@@ -11130,47 +11257,51 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>2343</v>
+        <v>2882</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>678368</v>
+        <v>299591</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 8; 2343; 678368</v>
+        <v>3,5 y 9; 2882; 299591</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(H25,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I25,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="str">
+        <f>VLOOKUP(I25,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I25">
         <v>4</v>
       </c>
-      <c r="I25" t="str">
-        <f>VLOOKUP(H25,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J25" t="str">
+        <f>VLOOKUP(I25,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>614</v>
       </c>
-      <c r="K25" t="str">
-        <f>IF(J25="es","  "&amp;I25&amp;"_"&amp;J25&amp;"="&amp;VLOOKUP(I25&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J25="en","  "&amp;I25&amp;"_"&amp;J25&amp;"="&amp;VLOOKUP(I25&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J25="indice",$K$2&amp;"["&amp;H25&amp;"]",IF(J25="pnl","  pnl="&amp;G25,"  num="&amp;F25))))</f>
+      <c r="L25" t="str">
+        <f>IF(K25="es","  "&amp;J25&amp;"_"&amp;K25&amp;"="&amp;VLOOKUP(J25&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K25="en","  "&amp;J25&amp;"_"&amp;K25&amp;"="&amp;VLOOKUP(J25&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K25="indice",$L$2&amp;"["&amp;I25&amp;"]",IF(K25="pnl","  pnl="&amp;G25,"  num="&amp;F25))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
@@ -11178,39 +11309,43 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>9761</v>
+        <v>6957</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>483497</v>
+        <v>996879</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 9761; 483497</v>
+        <v>2,7 y 9; 6957; 996879</v>
       </c>
       <c r="G26" t="str">
-        <f>VLOOKUP(H26,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I26,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="str">
+        <f>VLOOKUP(I26,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I26">
         <v>4</v>
       </c>
-      <c r="I26" t="str">
-        <f>VLOOKUP(H26,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J26" t="str">
+        <f>VLOOKUP(I26,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>126</v>
       </c>
-      <c r="K26" t="str">
-        <f>IF(J26="es","  "&amp;I26&amp;"_"&amp;J26&amp;"="&amp;VLOOKUP(I26&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J26="en","  "&amp;I26&amp;"_"&amp;J26&amp;"="&amp;VLOOKUP(I26&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J26="indice",$K$2&amp;"["&amp;H26&amp;"]",IF(J26="pnl","  pnl="&amp;G26,"  num="&amp;F26))))</f>
+      <c r="L26" t="str">
+        <f>IF(K26="es","  "&amp;J26&amp;"_"&amp;K26&amp;"="&amp;VLOOKUP(J26&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K26="en","  "&amp;J26&amp;"_"&amp;K26&amp;"="&amp;VLOOKUP(J26&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K26="indice",$L$2&amp;"["&amp;I26&amp;"]",IF(K26="pnl","  pnl="&amp;G26,"  num="&amp;F26))))</f>
         <v xml:space="preserve">  leo_es=Hay competencia en el trabajo un superior está jugando el juego de un rival tuyo. ese intento de provocación puede ser una oferta de amor disfrazada. Muéstrate firme y establece claramente que no estás dispuesto a soportarlo de brazos cruzados. Es una especie de carrera contra el tiempo ahora entonces cuando alguien te pida ayuda se la negarás. La acción por impulso está excluída hoy te colocará en una posición incomoda.</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
@@ -11222,36 +11357,40 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>3664</v>
+        <v>3204</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>364313</v>
+        <v>521730</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 8; 3664; 364313</v>
+        <v>3,7 y 8; 3204; 521730</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(H27,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I27,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="str">
+        <f>VLOOKUP(I27,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I27">
         <v>4</v>
       </c>
-      <c r="I27" t="str">
-        <f>VLOOKUP(H27,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J27" t="str">
+        <f>VLOOKUP(I27,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>432</v>
       </c>
-      <c r="K27" t="str">
-        <f>IF(J27="es","  "&amp;I27&amp;"_"&amp;J27&amp;"="&amp;VLOOKUP(I27&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J27="en","  "&amp;I27&amp;"_"&amp;J27&amp;"="&amp;VLOOKUP(I27&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J27="indice",$K$2&amp;"["&amp;H27&amp;"]",IF(J27="pnl","  pnl="&amp;G27,"  num="&amp;F27))))</f>
+      <c r="L27" t="str">
+        <f>IF(K27="es","  "&amp;J27&amp;"_"&amp;K27&amp;"="&amp;VLOOKUP(J27&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K27="en","  "&amp;J27&amp;"_"&amp;K27&amp;"="&amp;VLOOKUP(J27&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K27="indice",$L$2&amp;"["&amp;I27&amp;"]",IF(K27="pnl","  pnl="&amp;G27,"  num="&amp;F27))))</f>
         <v xml:space="preserve">  leo_en=There is competition at work a superior is playing the game of a rival of yours. that attempt at provocation can be an offer of love in disguise. Be firm and clearly state that you are not willing to stand with folded arms. It is a kind of race against time now when someone asks you for help you will deny it. The action by impulse is excluded today will place you in an uncomfortable position.</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
@@ -11262,91 +11401,99 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>1390</v>
+        <v>7429</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>672766</v>
+        <v>211908</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 8; 1390; 672766</v>
+        <v>2,7 y 9; 7429; 211908</v>
       </c>
       <c r="G28" t="str">
-        <f>VLOOKUP(H28,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I28,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="str">
+        <f>VLOOKUP(I28,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I28">
         <v>5</v>
       </c>
-      <c r="I28" t="str">
-        <f>VLOOKUP(H28,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J28" t="str">
+        <f>VLOOKUP(I28,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>433</v>
       </c>
-      <c r="K28" t="str">
-        <f>IF(J28="es","  "&amp;I28&amp;"_"&amp;J28&amp;"="&amp;VLOOKUP(I28&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J28="en","  "&amp;I28&amp;"_"&amp;J28&amp;"="&amp;VLOOKUP(I28&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J28="indice",$K$2&amp;"["&amp;H28&amp;"]",IF(J28="pnl","  pnl="&amp;G28,"  num="&amp;F28))))</f>
+      <c r="L28" t="str">
+        <f>IF(K28="es","  "&amp;J28&amp;"_"&amp;K28&amp;"="&amp;VLOOKUP(J28&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K28="en","  "&amp;J28&amp;"_"&amp;K28&amp;"="&amp;VLOOKUP(J28&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K28="indice",$L$2&amp;"["&amp;I28&amp;"]",IF(K28="pnl","  pnl="&amp;G28,"  num="&amp;F28))))</f>
         <v>horoscopo[5]</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>1335</v>
+        <v>7801</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>393834</v>
+        <v>315021</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 8; 1335; 393834</v>
+        <v>4,7 y 9; 7801; 315021</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(H29,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I29,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="str">
+        <f>VLOOKUP(I29,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I29">
         <v>5</v>
       </c>
-      <c r="I29" t="str">
-        <f>VLOOKUP(H29,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J29" t="str">
+        <f>VLOOKUP(I29,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>613</v>
       </c>
-      <c r="K29" t="str">
-        <f ca="1">IF(J29="es","  "&amp;I29&amp;"_"&amp;J29&amp;"="&amp;VLOOKUP(I29&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J29="en","  "&amp;I29&amp;"_"&amp;J29&amp;"="&amp;VLOOKUP(I29&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J29="indice",$K$2&amp;"["&amp;H29&amp;"]",IF(J29="pnl","  pnl="&amp;G29,"  num="&amp;F29))))</f>
-        <v xml:space="preserve">  num=4,6 y 8; 1335; 393834</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" t="str">
+        <f ca="1">IF(K29="es","  "&amp;J29&amp;"_"&amp;K29&amp;"="&amp;VLOOKUP(J29&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K29="en","  "&amp;J29&amp;"_"&amp;K29&amp;"="&amp;VLOOKUP(J29&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K29="indice",$L$2&amp;"["&amp;I29&amp;"]",IF(K29="pnl","  pnl="&amp;G29,"  num="&amp;F29))))</f>
+        <v xml:space="preserve">  num=4,7 y 9; 7801; 315021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
@@ -11354,36 +11501,40 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>4976</v>
+        <v>6890</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>216430</v>
+        <v>633694</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 9; 4976; 216430</v>
+        <v>2,5 y 9; 6890; 633694</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(H30,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I30,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="str">
+        <f>VLOOKUP(I30,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I30">
         <v>5</v>
       </c>
-      <c r="I30" t="str">
-        <f>VLOOKUP(H30,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J30" t="str">
+        <f>VLOOKUP(I30,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>614</v>
       </c>
-      <c r="K30" t="str">
-        <f>IF(J30="es","  "&amp;I30&amp;"_"&amp;J30&amp;"="&amp;VLOOKUP(I30&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J30="en","  "&amp;I30&amp;"_"&amp;J30&amp;"="&amp;VLOOKUP(I30&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J30="indice",$K$2&amp;"["&amp;H30&amp;"]",IF(J30="pnl","  pnl="&amp;G30,"  num="&amp;F30))))</f>
+      <c r="L30" t="str">
+        <f>IF(K30="es","  "&amp;J30&amp;"_"&amp;K30&amp;"="&amp;VLOOKUP(J30&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K30="en","  "&amp;J30&amp;"_"&amp;K30&amp;"="&amp;VLOOKUP(J30&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K30="indice",$L$2&amp;"["&amp;I30&amp;"]",IF(K30="pnl","  pnl="&amp;G30,"  num="&amp;F30))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -11398,43 +11549,47 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>6861</v>
+        <v>5207</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>325313</v>
+        <v>735230</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 9; 6861; 325313</v>
+        <v>1,5 y 9; 5207; 735230</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(H31,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I31,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="str">
+        <f>VLOOKUP(I31,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I31">
         <v>5</v>
       </c>
-      <c r="I31" t="str">
-        <f>VLOOKUP(H31,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J31" t="str">
+        <f>VLOOKUP(I31,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>126</v>
       </c>
-      <c r="K31" t="str">
-        <f>IF(J31="es","  "&amp;I31&amp;"_"&amp;J31&amp;"="&amp;VLOOKUP(I31&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J31="en","  "&amp;I31&amp;"_"&amp;J31&amp;"="&amp;VLOOKUP(I31&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J31="indice",$K$2&amp;"["&amp;H31&amp;"]",IF(J31="pnl","  pnl="&amp;G31,"  num="&amp;F31))))</f>
+      <c r="L31" t="str">
+        <f>IF(K31="es","  "&amp;J31&amp;"_"&amp;K31&amp;"="&amp;VLOOKUP(J31&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K31="en","  "&amp;J31&amp;"_"&amp;K31&amp;"="&amp;VLOOKUP(J31&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K31="indice",$L$2&amp;"["&amp;I31&amp;"]",IF(K31="pnl","  pnl="&amp;G31,"  num="&amp;F31))))</f>
         <v xml:space="preserve">  virgo_es=Vigila de cerca tus finanzas. Puedes llegar a conflicto con alguien que puede interrumpirte tu progreso al menos por el momento. Hay síntomas seguros de que estas quemando etapas En un minuto aprendes nuevas trampas y en el otro se las estás enseñando a otros. Los asuntos profesionales se presentan cargados, incluso agobiantes debes sacarlos adelante en la medida de tus posibilidades. Créelo o no pese a tu esp+irita independiente mejor unes fuerzas con alguien por razones profesionales.</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
@@ -11442,39 +11597,43 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>5103</v>
+        <v>2896</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>856290</v>
+        <v>588318</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 8; 5103; 856290</v>
+        <v>4,7 y 8; 2896; 588318</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(H32,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I32,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="str">
+        <f>VLOOKUP(I32,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I32">
         <v>5</v>
       </c>
-      <c r="I32" t="str">
-        <f>VLOOKUP(H32,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J32" t="str">
+        <f>VLOOKUP(I32,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>432</v>
       </c>
-      <c r="K32" t="str">
-        <f>IF(J32="es","  "&amp;I32&amp;"_"&amp;J32&amp;"="&amp;VLOOKUP(I32&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J32="en","  "&amp;I32&amp;"_"&amp;J32&amp;"="&amp;VLOOKUP(I32&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J32="indice",$K$2&amp;"["&amp;H32&amp;"]",IF(J32="pnl","  pnl="&amp;G32,"  num="&amp;F32))))</f>
+      <c r="L32" t="str">
+        <f>IF(K32="es","  "&amp;J32&amp;"_"&amp;K32&amp;"="&amp;VLOOKUP(J32&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K32="en","  "&amp;J32&amp;"_"&amp;K32&amp;"="&amp;VLOOKUP(J32&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K32="indice",$L$2&amp;"["&amp;I32&amp;"]",IF(K32="pnl","  pnl="&amp;G32,"  num="&amp;F32))))</f>
         <v xml:space="preserve">  virgo_en=Keep a close eye on your finances. You can come into conflict with someone who can interrupt your progress at least for the time being. There are sure symptoms that you are burning stages In one minute you learn new traps and in the other you are teaching them to others. Professional matters are charged, even overwhelming, you must take them forward to the best of your ability. Believe it or not despite your esp + irita independent you better join forces with someone for professional reasons.</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
@@ -11482,47 +11641,51 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="3"/>
-        <v>4539</v>
+        <v>4677</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>688969</v>
+        <v>610891</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 9; 4539; 688969</v>
+        <v>2,6 y 8; 4677; 610891</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(H33,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I33,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="str">
+        <f>VLOOKUP(I33,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I33">
         <v>6</v>
       </c>
-      <c r="I33" t="str">
-        <f>VLOOKUP(H33,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J33" t="str">
+        <f>VLOOKUP(I33,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>433</v>
       </c>
-      <c r="K33" t="str">
-        <f>IF(J33="es","  "&amp;I33&amp;"_"&amp;J33&amp;"="&amp;VLOOKUP(I33&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J33="en","  "&amp;I33&amp;"_"&amp;J33&amp;"="&amp;VLOOKUP(I33&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J33="indice",$K$2&amp;"["&amp;H33&amp;"]",IF(J33="pnl","  pnl="&amp;G33,"  num="&amp;F33))))</f>
+      <c r="L33" t="str">
+        <f>IF(K33="es","  "&amp;J33&amp;"_"&amp;K33&amp;"="&amp;VLOOKUP(J33&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K33="en","  "&amp;J33&amp;"_"&amp;K33&amp;"="&amp;VLOOKUP(J33&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K33="indice",$L$2&amp;"["&amp;I33&amp;"]",IF(K33="pnl","  pnl="&amp;G33,"  num="&amp;F33))))</f>
         <v>horoscopo[6]</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
@@ -11530,43 +11693,47 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>4483</v>
+        <v>5548</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>450557</v>
+        <v>195383</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 9; 4483; 450557</v>
+        <v>4,5 y 9; 5548; 195383</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(H34,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I34,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="str">
+        <f>VLOOKUP(I34,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I34">
         <v>6</v>
       </c>
-      <c r="I34" t="str">
-        <f>VLOOKUP(H34,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J34" t="str">
+        <f>VLOOKUP(I34,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>613</v>
       </c>
-      <c r="K34" t="str">
-        <f ca="1">IF(J34="es","  "&amp;I34&amp;"_"&amp;J34&amp;"="&amp;VLOOKUP(I34&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J34="en","  "&amp;I34&amp;"_"&amp;J34&amp;"="&amp;VLOOKUP(I34&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J34="indice",$K$2&amp;"["&amp;H34&amp;"]",IF(J34="pnl","  pnl="&amp;G34,"  num="&amp;F34))))</f>
-        <v xml:space="preserve">  num=1,7 y 9; 4483; 450557</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" t="str">
+        <f ca="1">IF(K34="es","  "&amp;J34&amp;"_"&amp;K34&amp;"="&amp;VLOOKUP(J34&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K34="en","  "&amp;J34&amp;"_"&amp;K34&amp;"="&amp;VLOOKUP(J34&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K34="indice",$L$2&amp;"["&amp;I34&amp;"]",IF(K34="pnl","  pnl="&amp;G34,"  num="&amp;F34))))</f>
+        <v xml:space="preserve">  num=4,5 y 9; 5548; 195383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
@@ -11574,83 +11741,91 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>8808</v>
+        <v>4246</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>106597</v>
+        <v>388791</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 8; 8808; 106597</v>
+        <v>2,5 y 8; 4246; 388791</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(H35,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I35,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="str">
+        <f>VLOOKUP(I35,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I35">
         <v>6</v>
       </c>
-      <c r="I35" t="str">
-        <f>VLOOKUP(H35,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J35" t="str">
+        <f>VLOOKUP(I35,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>614</v>
       </c>
-      <c r="K35" t="str">
-        <f>IF(J35="es","  "&amp;I35&amp;"_"&amp;J35&amp;"="&amp;VLOOKUP(I35&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J35="en","  "&amp;I35&amp;"_"&amp;J35&amp;"="&amp;VLOOKUP(I35&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J35="indice",$K$2&amp;"["&amp;H35&amp;"]",IF(J35="pnl","  pnl="&amp;G35,"  num="&amp;F35))))</f>
+      <c r="L35" t="str">
+        <f>IF(K35="es","  "&amp;J35&amp;"_"&amp;K35&amp;"="&amp;VLOOKUP(J35&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K35="en","  "&amp;J35&amp;"_"&amp;K35&amp;"="&amp;VLOOKUP(J35&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K35="indice",$L$2&amp;"["&amp;I35&amp;"]",IF(K35="pnl","  pnl="&amp;G35,"  num="&amp;F35))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>9027</v>
+        <v>5238</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>426452</v>
+        <v>138521</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 9; 9027; 426452</v>
+        <v>1,7 y 8; 5238; 138521</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(H36,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I36,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="str">
+        <f>VLOOKUP(I36,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I36">
         <v>6</v>
       </c>
-      <c r="I36" t="str">
-        <f>VLOOKUP(H36,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J36" t="str">
+        <f>VLOOKUP(I36,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>126</v>
       </c>
-      <c r="K36" t="str">
-        <f>IF(J36="es","  "&amp;I36&amp;"_"&amp;J36&amp;"="&amp;VLOOKUP(I36&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J36="en","  "&amp;I36&amp;"_"&amp;J36&amp;"="&amp;VLOOKUP(I36&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J36="indice",$K$2&amp;"["&amp;H36&amp;"]",IF(J36="pnl","  pnl="&amp;G36,"  num="&amp;F36))))</f>
+      <c r="L36" t="str">
+        <f>IF(K36="es","  "&amp;J36&amp;"_"&amp;K36&amp;"="&amp;VLOOKUP(J36&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K36="en","  "&amp;J36&amp;"_"&amp;K36&amp;"="&amp;VLOOKUP(J36&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K36="indice",$L$2&amp;"["&amp;I36&amp;"]",IF(K36="pnl","  pnl="&amp;G36,"  num="&amp;F36))))</f>
         <v xml:space="preserve">  libra_es=Hay grandes cambios en puerta para tí en todos los aspectos en los próximos meses estás fuertemente avisado para que lo tomes con calma y te prepares para tiempos difíciles. El la vida hay algo mas que sòlo trabajo, trabajo y trabajo Algo ocurre hoy que te recuerda que es hora de espabilarte y gozar de la vida. Los viajes, la carrera y las finanzas están íntimamente vinculados puede ser que se presente una oportunidad en la carrera. Las finanzas juegan un creciente papel en tu actual línea de pensamiento Toma ventaja de la situación y mira a ver cómo puedes mejorar tu seguridad a largo plazo. Hoy es un día para recuperar recuerdos.</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
@@ -11658,47 +11833,51 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>7173</v>
+        <v>4142</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>662035</v>
+        <v>813232</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 7173; 662035</v>
+        <v>3,6 y 8; 4142; 813232</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(H37,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I37,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="str">
+        <f>VLOOKUP(I37,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I37">
         <v>6</v>
       </c>
-      <c r="I37" t="str">
-        <f>VLOOKUP(H37,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J37" t="str">
+        <f>VLOOKUP(I37,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>432</v>
       </c>
-      <c r="K37" t="str">
-        <f>IF(J37="es","  "&amp;I37&amp;"_"&amp;J37&amp;"="&amp;VLOOKUP(I37&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J37="en","  "&amp;I37&amp;"_"&amp;J37&amp;"="&amp;VLOOKUP(I37&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J37="indice",$K$2&amp;"["&amp;H37&amp;"]",IF(J37="pnl","  pnl="&amp;G37,"  num="&amp;F37))))</f>
+      <c r="L37" t="str">
+        <f>IF(K37="es","  "&amp;J37&amp;"_"&amp;K37&amp;"="&amp;VLOOKUP(J37&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K37="en","  "&amp;J37&amp;"_"&amp;K37&amp;"="&amp;VLOOKUP(J37&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K37="indice",$L$2&amp;"["&amp;I37&amp;"]",IF(K37="pnl","  pnl="&amp;G37,"  num="&amp;F37))))</f>
         <v xml:space="preserve">  libra_en=Hay grandes cambios en puerta para tí en todos los aspectos en los próximos meses estás fuertemente avisado para que lo tomes con calma y te prepares para tiempos difíciles. El la vida hay algo mas que sòlo trabajo, trabajo y trabajo Algo ocurre hoy que te recuerda que es hora de espabilarte y gozar de la vida. Los viajes, la carrera y las finanzas están íntimamente vinculados puede ser que se presente una oportunidad en la carrera. Las finanzas juegan un creciente papel en tu actual línea de pensamiento Toma ventaja de la situación y mira a ver cómo puedes mejorar tu seguridad a largo plazo. Hoy es un día para recuperar recuerdos.</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
@@ -11706,43 +11885,47 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>7866</v>
+        <v>5279</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>482905</v>
+        <v>641206</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 8; 7866; 482905</v>
+        <v>2,6 y 8; 5279; 641206</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(H38,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I38,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="str">
+        <f>VLOOKUP(I38,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I38">
         <v>7</v>
       </c>
-      <c r="I38" t="str">
-        <f>VLOOKUP(H38,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J38" t="str">
+        <f>VLOOKUP(I38,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>433</v>
       </c>
-      <c r="K38" t="str">
-        <f>IF(J38="es","  "&amp;I38&amp;"_"&amp;J38&amp;"="&amp;VLOOKUP(I38&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J38="en","  "&amp;I38&amp;"_"&amp;J38&amp;"="&amp;VLOOKUP(I38&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J38="indice",$K$2&amp;"["&amp;H38&amp;"]",IF(J38="pnl","  pnl="&amp;G38,"  num="&amp;F38))))</f>
+      <c r="L38" t="str">
+        <f>IF(K38="es","  "&amp;J38&amp;"_"&amp;K38&amp;"="&amp;VLOOKUP(J38&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K38="en","  "&amp;J38&amp;"_"&amp;K38&amp;"="&amp;VLOOKUP(J38&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K38="indice",$L$2&amp;"["&amp;I38&amp;"]",IF(K38="pnl","  pnl="&amp;G38,"  num="&amp;F38))))</f>
         <v>horoscopo[7]</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
@@ -11750,43 +11933,47 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>4386</v>
+        <v>9722</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>458065</v>
+        <v>590579</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 8; 4386; 458065</v>
+        <v>3,5 y 8; 9722; 590579</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(H39,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I39,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="str">
+        <f>VLOOKUP(I39,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I39">
         <v>7</v>
       </c>
-      <c r="I39" t="str">
-        <f>VLOOKUP(H39,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J39" t="str">
+        <f>VLOOKUP(I39,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>613</v>
       </c>
-      <c r="K39" t="str">
-        <f ca="1">IF(J39="es","  "&amp;I39&amp;"_"&amp;J39&amp;"="&amp;VLOOKUP(I39&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J39="en","  "&amp;I39&amp;"_"&amp;J39&amp;"="&amp;VLOOKUP(I39&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J39="indice",$K$2&amp;"["&amp;H39&amp;"]",IF(J39="pnl","  pnl="&amp;G39,"  num="&amp;F39))))</f>
-        <v xml:space="preserve">  num=4,6 y 8; 4386; 458065</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" t="str">
+        <f ca="1">IF(K39="es","  "&amp;J39&amp;"_"&amp;K39&amp;"="&amp;VLOOKUP(J39&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K39="en","  "&amp;J39&amp;"_"&amp;K39&amp;"="&amp;VLOOKUP(J39&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K39="indice",$L$2&amp;"["&amp;I39&amp;"]",IF(K39="pnl","  pnl="&amp;G39,"  num="&amp;F39))))</f>
+        <v xml:space="preserve">  num=3,5 y 8; 9722; 590579</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
@@ -11794,43 +11981,47 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>4819</v>
+        <v>4692</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>671878</v>
+        <v>198457</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 8; 4819; 671878</v>
+        <v>1,5 y 8; 4692; 198457</v>
       </c>
       <c r="G40" t="str">
-        <f>VLOOKUP(H40,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I40,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="str">
+        <f>VLOOKUP(I40,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I40">
         <v>7</v>
       </c>
-      <c r="I40" t="str">
-        <f>VLOOKUP(H40,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J40" t="str">
+        <f>VLOOKUP(I40,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>614</v>
       </c>
-      <c r="K40" t="str">
-        <f>IF(J40="es","  "&amp;I40&amp;"_"&amp;J40&amp;"="&amp;VLOOKUP(I40&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J40="en","  "&amp;I40&amp;"_"&amp;J40&amp;"="&amp;VLOOKUP(I40&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J40="indice",$K$2&amp;"["&amp;H40&amp;"]",IF(J40="pnl","  pnl="&amp;G40,"  num="&amp;F40))))</f>
+      <c r="L40" t="str">
+        <f>IF(K40="es","  "&amp;J40&amp;"_"&amp;K40&amp;"="&amp;VLOOKUP(J40&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K40="en","  "&amp;J40&amp;"_"&amp;K40&amp;"="&amp;VLOOKUP(J40&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K40="indice",$L$2&amp;"["&amp;I40&amp;"]",IF(K40="pnl","  pnl="&amp;G40,"  num="&amp;F40))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
@@ -11838,39 +12029,43 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>6651</v>
+        <v>9004</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>379262</v>
+        <v>239152</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 6651; 379262</v>
+        <v>2,5 y 9; 9004; 239152</v>
       </c>
       <c r="G41" t="str">
-        <f>VLOOKUP(H41,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I41,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="str">
+        <f>VLOOKUP(I41,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I41">
         <v>7</v>
       </c>
-      <c r="I41" t="str">
-        <f>VLOOKUP(H41,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J41" t="str">
+        <f>VLOOKUP(I41,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>126</v>
       </c>
-      <c r="K41" t="str">
-        <f>IF(J41="es","  "&amp;I41&amp;"_"&amp;J41&amp;"="&amp;VLOOKUP(I41&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J41="en","  "&amp;I41&amp;"_"&amp;J41&amp;"="&amp;VLOOKUP(I41&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J41="indice",$K$2&amp;"["&amp;H41&amp;"]",IF(J41="pnl","  pnl="&amp;G41,"  num="&amp;F41))))</f>
+      <c r="L41" t="str">
+        <f>IF(K41="es","  "&amp;J41&amp;"_"&amp;K41&amp;"="&amp;VLOOKUP(J41&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K41="en","  "&amp;J41&amp;"_"&amp;K41&amp;"="&amp;VLOOKUP(J41&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K41="indice",$L$2&amp;"["&amp;I41&amp;"]",IF(K41="pnl","  pnl="&amp;G41,"  num="&amp;F41))))</f>
         <v xml:space="preserve">  escorpio_es=Estás en disposición de admitir que has cometido un error No tienes que publicarlo. Otros harán que las cosas se vean a su manera No vas a empecinarte pero sí a mantener tus posiciones. Con sólo desear, esperar y soñar no es suficiente para ir a donde deseas Toma una acción concreta. Las decisiones financieras hechas el día de hoy pueden resultar ser una excelente inversión para el futuro. Si te apetece, adelante, no lo pienses.</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
@@ -11882,80 +12077,88 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>1625</v>
+        <v>6788</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>105799</v>
+        <v>991587</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 8; 1625; 105799</v>
+        <v>4,6 y 8; 6788; 991587</v>
       </c>
       <c r="G42" t="str">
-        <f>VLOOKUP(H42,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I42,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="str">
+        <f>VLOOKUP(I42,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I42">
         <v>7</v>
       </c>
-      <c r="I42" t="str">
-        <f>VLOOKUP(H42,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J42" t="str">
+        <f>VLOOKUP(I42,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>432</v>
       </c>
-      <c r="K42" t="str">
-        <f>IF(J42="es","  "&amp;I42&amp;"_"&amp;J42&amp;"="&amp;VLOOKUP(I42&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J42="en","  "&amp;I42&amp;"_"&amp;J42&amp;"="&amp;VLOOKUP(I42&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J42="indice",$K$2&amp;"["&amp;H42&amp;"]",IF(J42="pnl","  pnl="&amp;G42,"  num="&amp;F42))))</f>
+      <c r="L42" t="str">
+        <f>IF(K42="es","  "&amp;J42&amp;"_"&amp;K42&amp;"="&amp;VLOOKUP(J42&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K42="en","  "&amp;J42&amp;"_"&amp;K42&amp;"="&amp;VLOOKUP(J42&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K42="indice",$L$2&amp;"["&amp;I42&amp;"]",IF(K42="pnl","  pnl="&amp;G42,"  num="&amp;F42))))</f>
         <v xml:space="preserve">  escorpio_en=You are willing to admit that you have made a mistake. You do not have to publish it. Others will make things look their way You will not stubbornly but you will keep your positions. Just wanting, waiting and dreaming is not enough to go where you want Take a concrete action. Financial decisions made today can prove to be an excellent investment for the future. If you feel like it, go ahead, do not think about it.</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>7544</v>
+        <v>3517</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>726750</v>
+        <v>878411</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 7544; 726750</v>
+        <v>3,5 y 8; 3517; 878411</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(H43,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I43,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="str">
+        <f>VLOOKUP(I43,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I43">
         <v>8</v>
       </c>
-      <c r="I43" t="str">
-        <f>VLOOKUP(H43,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J43" t="str">
+        <f>VLOOKUP(I43,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>433</v>
       </c>
-      <c r="K43" t="str">
-        <f>IF(J43="es","  "&amp;I43&amp;"_"&amp;J43&amp;"="&amp;VLOOKUP(I43&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J43="en","  "&amp;I43&amp;"_"&amp;J43&amp;"="&amp;VLOOKUP(I43&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J43="indice",$K$2&amp;"["&amp;H43&amp;"]",IF(J43="pnl","  pnl="&amp;G43,"  num="&amp;F43))))</f>
+      <c r="L43" t="str">
+        <f>IF(K43="es","  "&amp;J43&amp;"_"&amp;K43&amp;"="&amp;VLOOKUP(J43&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K43="en","  "&amp;J43&amp;"_"&amp;K43&amp;"="&amp;VLOOKUP(J43&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K43="indice",$L$2&amp;"["&amp;I43&amp;"]",IF(K43="pnl","  pnl="&amp;G43,"  num="&amp;F43))))</f>
         <v>horoscopo[8]</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -11970,87 +12173,95 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>2293</v>
+        <v>1107</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>190951</v>
+        <v>562002</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 2293; 190951</v>
+        <v>1,6 y 9; 1107; 562002</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(H44,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I44,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="str">
+        <f>VLOOKUP(I44,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I44">
         <v>8</v>
       </c>
-      <c r="I44" t="str">
-        <f>VLOOKUP(H44,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J44" t="str">
+        <f>VLOOKUP(I44,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>613</v>
       </c>
-      <c r="K44" t="str">
-        <f ca="1">IF(J44="es","  "&amp;I44&amp;"_"&amp;J44&amp;"="&amp;VLOOKUP(I44&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J44="en","  "&amp;I44&amp;"_"&amp;J44&amp;"="&amp;VLOOKUP(I44&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J44="indice",$K$2&amp;"["&amp;H44&amp;"]",IF(J44="pnl","  pnl="&amp;G44,"  num="&amp;F44))))</f>
-        <v xml:space="preserve">  num=1,6 y 9; 2293; 190951</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" t="str">
+        <f ca="1">IF(K44="es","  "&amp;J44&amp;"_"&amp;K44&amp;"="&amp;VLOOKUP(J44&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K44="en","  "&amp;J44&amp;"_"&amp;K44&amp;"="&amp;VLOOKUP(J44&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K44="indice",$L$2&amp;"["&amp;I44&amp;"]",IF(K44="pnl","  pnl="&amp;G44,"  num="&amp;F44))))</f>
+        <v xml:space="preserve">  num=1,6 y 9; 1107; 562002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>5784</v>
+        <v>6984</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>512159</v>
+        <v>994189</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 9; 5784; 512159</v>
+        <v>3,5 y 8; 6984; 994189</v>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(H45,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I45,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="str">
+        <f>VLOOKUP(I45,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I45">
         <v>8</v>
       </c>
-      <c r="I45" t="str">
-        <f>VLOOKUP(H45,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J45" t="str">
+        <f>VLOOKUP(I45,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>614</v>
       </c>
-      <c r="K45" t="str">
-        <f>IF(J45="es","  "&amp;I45&amp;"_"&amp;J45&amp;"="&amp;VLOOKUP(I45&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J45="en","  "&amp;I45&amp;"_"&amp;J45&amp;"="&amp;VLOOKUP(I45&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J45="indice",$K$2&amp;"["&amp;H45&amp;"]",IF(J45="pnl","  pnl="&amp;G45,"  num="&amp;F45))))</f>
+      <c r="L45" t="str">
+        <f>IF(K45="es","  "&amp;J45&amp;"_"&amp;K45&amp;"="&amp;VLOOKUP(J45&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K45="en","  "&amp;J45&amp;"_"&amp;K45&amp;"="&amp;VLOOKUP(J45&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K45="indice",$L$2&amp;"["&amp;I45&amp;"]",IF(K45="pnl","  pnl="&amp;G45,"  num="&amp;F45))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
@@ -12058,43 +12269,47 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>6428</v>
+        <v>3516</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>697745</v>
+        <v>515162</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 8; 6428; 697745</v>
+        <v>1,5 y 8; 3516; 515162</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(H46,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I46,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="str">
+        <f>VLOOKUP(I46,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I46">
         <v>8</v>
       </c>
-      <c r="I46" t="str">
-        <f>VLOOKUP(H46,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J46" t="str">
+        <f>VLOOKUP(I46,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>126</v>
       </c>
-      <c r="K46" t="str">
-        <f>IF(J46="es","  "&amp;I46&amp;"_"&amp;J46&amp;"="&amp;VLOOKUP(I46&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J46="en","  "&amp;I46&amp;"_"&amp;J46&amp;"="&amp;VLOOKUP(I46&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J46="indice",$K$2&amp;"["&amp;H46&amp;"]",IF(J46="pnl","  pnl="&amp;G46,"  num="&amp;F46))))</f>
+      <c r="L46" t="str">
+        <f>IF(K46="es","  "&amp;J46&amp;"_"&amp;K46&amp;"="&amp;VLOOKUP(J46&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K46="en","  "&amp;J46&amp;"_"&amp;K46&amp;"="&amp;VLOOKUP(J46&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K46="indice",$L$2&amp;"["&amp;I46&amp;"]",IF(K46="pnl","  pnl="&amp;G46,"  num="&amp;F46))))</f>
         <v xml:space="preserve">  sagitario_es=Si actúas movida por el capricho, acabarás adquiriendo algo a sobreprecio o que no vale la pena Se necesita algo de contención por lo menos en las cuestiones de dinero. Tienes una fuente infinita de coraje que te ayudará en momentos duros. Las fuerzas astrales te animan a olvidar tus obligaciones hoy puedes estimar que los compromises con tu carrera son un fardo, y tu atención se desvía con facilidad. Se puede resolver un dilema si así te lo propones aplica tus poderes de concentración y análisis. Unos encuentros agradables le devolverán la confianza en los demás</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
@@ -12102,87 +12317,95 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>1812</v>
+        <v>5216</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>743805</v>
+        <v>733121</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 9; 1812; 743805</v>
+        <v>1,5 y 9; 5216; 733121</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(H47,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I47,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="str">
+        <f>VLOOKUP(I47,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I47">
         <v>8</v>
       </c>
-      <c r="I47" t="str">
-        <f>VLOOKUP(H47,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J47" t="str">
+        <f>VLOOKUP(I47,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>432</v>
       </c>
-      <c r="K47" t="str">
-        <f>IF(J47="es","  "&amp;I47&amp;"_"&amp;J47&amp;"="&amp;VLOOKUP(I47&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J47="en","  "&amp;I47&amp;"_"&amp;J47&amp;"="&amp;VLOOKUP(I47&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J47="indice",$K$2&amp;"["&amp;H47&amp;"]",IF(J47="pnl","  pnl="&amp;G47,"  num="&amp;F47))))</f>
+      <c r="L47" t="str">
+        <f>IF(K47="es","  "&amp;J47&amp;"_"&amp;K47&amp;"="&amp;VLOOKUP(J47&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K47="en","  "&amp;J47&amp;"_"&amp;K47&amp;"="&amp;VLOOKUP(J47&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K47="indice",$L$2&amp;"["&amp;I47&amp;"]",IF(K47="pnl","  pnl="&amp;G47,"  num="&amp;F47))))</f>
         <v xml:space="preserve">  sagitario_en=If you act on a whim, you will end up acquiring something at a premium or that it is not worth it. Some restraint is needed, at least in matters of money. You have an infinite source of courage that will help you in hard times. The astral forces encourage you to forget your obligations today you can estimate that the compromises with your career are a burden, and your attention deviates easily. A dilemma can be resolved if you propose to apply your powers of concentration and analysis. Pleasant encounters will restore confidence in others</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>4411</v>
+        <v>3234</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>901729</v>
+        <v>637478</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 4411; 901729</v>
+        <v>4,7 y 8; 3234; 637478</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(H48,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I48,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="str">
+        <f>VLOOKUP(I48,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I48">
         <v>9</v>
       </c>
-      <c r="I48" t="str">
-        <f>VLOOKUP(H48,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J48" t="str">
+        <f>VLOOKUP(I48,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>433</v>
       </c>
-      <c r="K48" t="str">
-        <f>IF(J48="es","  "&amp;I48&amp;"_"&amp;J48&amp;"="&amp;VLOOKUP(I48&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J48="en","  "&amp;I48&amp;"_"&amp;J48&amp;"="&amp;VLOOKUP(I48&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J48="indice",$K$2&amp;"["&amp;H48&amp;"]",IF(J48="pnl","  pnl="&amp;G48,"  num="&amp;F48))))</f>
+      <c r="L48" t="str">
+        <f>IF(K48="es","  "&amp;J48&amp;"_"&amp;K48&amp;"="&amp;VLOOKUP(J48&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K48="en","  "&amp;J48&amp;"_"&amp;K48&amp;"="&amp;VLOOKUP(J48&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K48="indice",$L$2&amp;"["&amp;I48&amp;"]",IF(K48="pnl","  pnl="&amp;G48,"  num="&amp;F48))))</f>
         <v>horoscopo[9]</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
@@ -12190,39 +12413,43 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>6966</v>
+        <v>3400</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>277107</v>
+        <v>748549</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 9; 6966; 277107</v>
+        <v>4,5 y 9; 3400; 748549</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(H49,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I49,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="str">
+        <f>VLOOKUP(I49,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I49">
         <v>9</v>
       </c>
-      <c r="I49" t="str">
-        <f>VLOOKUP(H49,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J49" t="str">
+        <f>VLOOKUP(I49,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>613</v>
       </c>
-      <c r="K49" t="str">
-        <f ca="1">IF(J49="es","  "&amp;I49&amp;"_"&amp;J49&amp;"="&amp;VLOOKUP(I49&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J49="en","  "&amp;I49&amp;"_"&amp;J49&amp;"="&amp;VLOOKUP(I49&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J49="indice",$K$2&amp;"["&amp;H49&amp;"]",IF(J49="pnl","  pnl="&amp;G49,"  num="&amp;F49))))</f>
-        <v xml:space="preserve">  num=3,6 y 9; 6966; 277107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" t="str">
+        <f ca="1">IF(K49="es","  "&amp;J49&amp;"_"&amp;K49&amp;"="&amp;VLOOKUP(J49&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K49="en","  "&amp;J49&amp;"_"&amp;K49&amp;"="&amp;VLOOKUP(J49&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K49="indice",$L$2&amp;"["&amp;I49&amp;"]",IF(K49="pnl","  pnl="&amp;G49,"  num="&amp;F49))))</f>
+        <v xml:space="preserve">  num=4,5 y 9; 3400; 748549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
@@ -12230,43 +12457,47 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>6033</v>
+        <v>5115</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>179074</v>
+        <v>416770</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 9; 6033; 179074</v>
+        <v>3,5 y 8; 5115; 416770</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(H50,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I50,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="str">
+        <f>VLOOKUP(I50,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I50">
         <v>9</v>
       </c>
-      <c r="I50" t="str">
-        <f>VLOOKUP(H50,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J50" t="str">
+        <f>VLOOKUP(I50,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>614</v>
       </c>
-      <c r="K50" t="str">
-        <f>IF(J50="es","  "&amp;I50&amp;"_"&amp;J50&amp;"="&amp;VLOOKUP(I50&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J50="en","  "&amp;I50&amp;"_"&amp;J50&amp;"="&amp;VLOOKUP(I50&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J50="indice",$K$2&amp;"["&amp;H50&amp;"]",IF(J50="pnl","  pnl="&amp;G50,"  num="&amp;F50))))</f>
+      <c r="L50" t="str">
+        <f>IF(K50="es","  "&amp;J50&amp;"_"&amp;K50&amp;"="&amp;VLOOKUP(J50&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K50="en","  "&amp;J50&amp;"_"&amp;K50&amp;"="&amp;VLOOKUP(J50&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K50="indice",$L$2&amp;"["&amp;I50&amp;"]",IF(K50="pnl","  pnl="&amp;G50,"  num="&amp;F50))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
@@ -12274,47 +12505,51 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="3"/>
-        <v>6446</v>
+        <v>2867</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>566389</v>
+        <v>679935</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 6446; 566389</v>
+        <v>4,6 y 8; 2867; 679935</v>
       </c>
       <c r="G51" t="str">
-        <f>VLOOKUP(H51,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I51,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="str">
+        <f>VLOOKUP(I51,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I51">
         <v>9</v>
       </c>
-      <c r="I51" t="str">
-        <f>VLOOKUP(H51,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J51" t="str">
+        <f>VLOOKUP(I51,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>126</v>
       </c>
-      <c r="K51" t="str">
-        <f>IF(J51="es","  "&amp;I51&amp;"_"&amp;J51&amp;"="&amp;VLOOKUP(I51&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J51="en","  "&amp;I51&amp;"_"&amp;J51&amp;"="&amp;VLOOKUP(I51&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J51="indice",$K$2&amp;"["&amp;H51&amp;"]",IF(J51="pnl","  pnl="&amp;G51,"  num="&amp;F51))))</f>
+      <c r="L51" t="str">
+        <f>IF(K51="es","  "&amp;J51&amp;"_"&amp;K51&amp;"="&amp;VLOOKUP(J51&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K51="en","  "&amp;J51&amp;"_"&amp;K51&amp;"="&amp;VLOOKUP(J51&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K51="indice",$L$2&amp;"["&amp;I51&amp;"]",IF(K51="pnl","  pnl="&amp;G51,"  num="&amp;F51))))</f>
         <v xml:space="preserve">  capricornio_es=Estás radiante, conquistas y tu actitud vital es tan positiva y optimista que todos queremos arrimarnos a ti por si se nos pega algo de tu energía. En tu Casa cinco sacará a relucir al jugador competitivo e impetuoso que apuesta hasta la ropa interior en el terreno del amor. Esto incrementará tu popularidad hasta llegar a producir efectos que te sorprenderán. Quizá venga de la mano de un trabajo que complemente al que ya tienes. Estás tocado por la varita mágica de la palabra, así que aprovéchalo.</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
@@ -12322,127 +12557,139 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="3"/>
-        <v>4113</v>
+        <v>1167</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>752041</v>
+        <v>638309</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 9; 4113; 752041</v>
+        <v>3,5 y 9; 1167; 638309</v>
       </c>
       <c r="G52" t="str">
-        <f>VLOOKUP(H52,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I52,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="str">
+        <f>VLOOKUP(I52,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I52">
         <v>9</v>
       </c>
-      <c r="I52" t="str">
-        <f>VLOOKUP(H52,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J52" t="str">
+        <f>VLOOKUP(I52,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>432</v>
       </c>
-      <c r="K52" t="str">
-        <f>IF(J52="es","  "&amp;I52&amp;"_"&amp;J52&amp;"="&amp;VLOOKUP(I52&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J52="en","  "&amp;I52&amp;"_"&amp;J52&amp;"="&amp;VLOOKUP(I52&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J52="indice",$K$2&amp;"["&amp;H52&amp;"]",IF(J52="pnl","  pnl="&amp;G52,"  num="&amp;F52))))</f>
+      <c r="L52" t="str">
+        <f>IF(K52="es","  "&amp;J52&amp;"_"&amp;K52&amp;"="&amp;VLOOKUP(J52&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K52="en","  "&amp;J52&amp;"_"&amp;K52&amp;"="&amp;VLOOKUP(J52&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K52="indice",$L$2&amp;"["&amp;I52&amp;"]",IF(K52="pnl","  pnl="&amp;G52,"  num="&amp;F52))))</f>
         <v xml:space="preserve">  capricornio_en=You are radiant, you conquer and your vital attitude is so positive and optimistic that we all want to get close to you in case some of your energy hits us. In your House five will bring up the competitive and impetuous player who bets up underwear in the field of love. This will increase your popularity to produce effects that will surprise you. Maybe it comes from the hand of a job that complements the one you already have. You are touched by the magic wand of the word, so take advantage of it.</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="3"/>
-        <v>7708</v>
+        <v>8620</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>268635</v>
+        <v>691480</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 8; 7708; 268635</v>
+        <v>3,7 y 9; 8620; 691480</v>
       </c>
       <c r="G53" t="str">
-        <f>VLOOKUP(H53,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I53,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="str">
+        <f>VLOOKUP(I53,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I53">
         <v>10</v>
       </c>
-      <c r="I53" t="str">
-        <f>VLOOKUP(H53,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J53" t="str">
+        <f>VLOOKUP(I53,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>433</v>
       </c>
-      <c r="K53" t="str">
-        <f>IF(J53="es","  "&amp;I53&amp;"_"&amp;J53&amp;"="&amp;VLOOKUP(I53&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J53="en","  "&amp;I53&amp;"_"&amp;J53&amp;"="&amp;VLOOKUP(I53&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J53="indice",$K$2&amp;"["&amp;H53&amp;"]",IF(J53="pnl","  pnl="&amp;G53,"  num="&amp;F53))))</f>
+      <c r="L53" t="str">
+        <f>IF(K53="es","  "&amp;J53&amp;"_"&amp;K53&amp;"="&amp;VLOOKUP(J53&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K53="en","  "&amp;J53&amp;"_"&amp;K53&amp;"="&amp;VLOOKUP(J53&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K53="indice",$L$2&amp;"["&amp;I53&amp;"]",IF(K53="pnl","  pnl="&amp;G53,"  num="&amp;F53))))</f>
         <v>horoscopo[10]</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="3"/>
-        <v>5696</v>
+        <v>8786</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>351239</v>
+        <v>799653</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 9; 5696; 351239</v>
+        <v>1,6 y 8; 8786; 799653</v>
       </c>
       <c r="G54" t="str">
-        <f>VLOOKUP(H54,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I54,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="str">
+        <f>VLOOKUP(I54,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I54">
         <v>10</v>
       </c>
-      <c r="I54" t="str">
-        <f>VLOOKUP(H54,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J54" t="str">
+        <f>VLOOKUP(I54,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>613</v>
       </c>
-      <c r="K54" t="str">
-        <f ca="1">IF(J54="es","  "&amp;I54&amp;"_"&amp;J54&amp;"="&amp;VLOOKUP(I54&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J54="en","  "&amp;I54&amp;"_"&amp;J54&amp;"="&amp;VLOOKUP(I54&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J54="indice",$K$2&amp;"["&amp;H54&amp;"]",IF(J54="pnl","  pnl="&amp;G54,"  num="&amp;F54))))</f>
-        <v xml:space="preserve">  num=3,5 y 9; 5696; 351239</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" t="str">
+        <f ca="1">IF(K54="es","  "&amp;J54&amp;"_"&amp;K54&amp;"="&amp;VLOOKUP(J54&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K54="en","  "&amp;J54&amp;"_"&amp;K54&amp;"="&amp;VLOOKUP(J54&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K54="indice",$L$2&amp;"["&amp;I54&amp;"]",IF(K54="pnl","  pnl="&amp;G54,"  num="&amp;F54))))</f>
+        <v xml:space="preserve">  num=1,6 y 8; 8786; 799653</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
@@ -12450,40 +12697,44 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="3"/>
-        <v>2202</v>
+        <v>6785</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>404306</v>
+        <v>450142</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 8; 2202; 404306</v>
+        <v>3,7 y 9; 6785; 450142</v>
       </c>
       <c r="G55" t="str">
-        <f>VLOOKUP(H55,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I55,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="str">
+        <f>VLOOKUP(I55,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I55">
         <v>10</v>
       </c>
-      <c r="I55" t="str">
-        <f>VLOOKUP(H55,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J55" t="str">
+        <f>VLOOKUP(I55,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>614</v>
       </c>
-      <c r="K55" t="str">
-        <f>IF(J55="es","  "&amp;I55&amp;"_"&amp;J55&amp;"="&amp;VLOOKUP(I55&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J55="en","  "&amp;I55&amp;"_"&amp;J55&amp;"="&amp;VLOOKUP(I55&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J55="indice",$K$2&amp;"["&amp;H55&amp;"]",IF(J55="pnl","  pnl="&amp;G55,"  num="&amp;F55))))</f>
+      <c r="L55" t="str">
+        <f>IF(K55="es","  "&amp;J55&amp;"_"&amp;K55&amp;"="&amp;VLOOKUP(J55&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K55="en","  "&amp;J55&amp;"_"&amp;K55&amp;"="&amp;VLOOKUP(J55&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K55="indice",$L$2&amp;"["&amp;I55&amp;"]",IF(K55="pnl","  pnl="&amp;G55,"  num="&amp;F55))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
@@ -12494,43 +12745,47 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="3"/>
-        <v>1385</v>
+        <v>2884</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>904022</v>
+        <v>133485</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 1385; 904022</v>
+        <v>4,5 y 8; 2884; 133485</v>
       </c>
       <c r="G56" t="str">
-        <f>VLOOKUP(H56,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I56,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="str">
+        <f>VLOOKUP(I56,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I56">
         <v>10</v>
       </c>
-      <c r="I56" t="str">
-        <f>VLOOKUP(H56,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J56" t="str">
+        <f>VLOOKUP(I56,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>126</v>
       </c>
-      <c r="K56" t="str">
-        <f>IF(J56="es","  "&amp;I56&amp;"_"&amp;J56&amp;"="&amp;VLOOKUP(I56&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J56="en","  "&amp;I56&amp;"_"&amp;J56&amp;"="&amp;VLOOKUP(I56&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J56="indice",$K$2&amp;"["&amp;H56&amp;"]",IF(J56="pnl","  pnl="&amp;G56,"  num="&amp;F56))))</f>
+      <c r="L56" t="str">
+        <f>IF(K56="es","  "&amp;J56&amp;"_"&amp;K56&amp;"="&amp;VLOOKUP(J56&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K56="en","  "&amp;J56&amp;"_"&amp;K56&amp;"="&amp;VLOOKUP(J56&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K56="indice",$L$2&amp;"["&amp;I56&amp;"]",IF(K56="pnl","  pnl="&amp;G56,"  num="&amp;F56))))</f>
         <v xml:space="preserve">  acuario_es=Quires salir adelante pero también quieres hacer feliz a otros Eso significa un duro equilibrio y la avenencia es imprescindible. Puede que otros hagan mas ruido que tú pero tu eres dueño de tu serenidad y de tu independencia. Es más fácil de lo que crees. Agradece las cosas buenas que tienes y las habrá mejores. Si los demás no le reconocen abiertamente, usted se sentirá decepcionado y asumirá la posición y los privilegios que considera que le corresponden.</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
@@ -12542,39 +12797,43 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="3"/>
-        <v>7541</v>
+        <v>4918</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>927148</v>
+        <v>301202</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 9; 7541; 927148</v>
+        <v>4,7 y 9; 4918; 301202</v>
       </c>
       <c r="G57" t="str">
-        <f>VLOOKUP(H57,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I57,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="str">
+        <f>VLOOKUP(I57,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I57">
         <v>10</v>
       </c>
-      <c r="I57" t="str">
-        <f>VLOOKUP(H57,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J57" t="str">
+        <f>VLOOKUP(I57,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>432</v>
       </c>
-      <c r="K57" t="str">
-        <f>IF(J57="es","  "&amp;I57&amp;"_"&amp;J57&amp;"="&amp;VLOOKUP(I57&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J57="en","  "&amp;I57&amp;"_"&amp;J57&amp;"="&amp;VLOOKUP(I57&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J57="indice",$K$2&amp;"["&amp;H57&amp;"]",IF(J57="pnl","  pnl="&amp;G57,"  num="&amp;F57))))</f>
+      <c r="L57" t="str">
+        <f>IF(K57="es","  "&amp;J57&amp;"_"&amp;K57&amp;"="&amp;VLOOKUP(J57&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K57="en","  "&amp;J57&amp;"_"&amp;K57&amp;"="&amp;VLOOKUP(J57&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K57="indice",$L$2&amp;"["&amp;I57&amp;"]",IF(K57="pnl","  pnl="&amp;G57,"  num="&amp;F57))))</f>
         <v xml:space="preserve">  acuario_en=You want to get ahead but you also want to make others happy. That means a hard balance and compromise is essential. Others may make more noise than you but you are the owner of your serenity and independence. It is easier than you think. Thanks for the good things you have and there will be better things. If others do not openly acknowledge you, you will be disappointed and assume the position and privileges that you consider appropriate.</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
@@ -12582,212 +12841,232 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="3"/>
-        <v>2853</v>
+        <v>6265</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>436249</v>
+        <v>473641</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 8; 2853; 436249</v>
+        <v>4,7 y 9; 6265; 473641</v>
       </c>
       <c r="G58" t="str">
-        <f>VLOOKUP(H58,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I58,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="str">
+        <f>VLOOKUP(I58,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I58">
         <v>11</v>
       </c>
-      <c r="I58" t="str">
-        <f>VLOOKUP(H58,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J58" t="str">
+        <f>VLOOKUP(I58,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>433</v>
       </c>
-      <c r="K58" t="str">
-        <f>IF(J58="es","  "&amp;I58&amp;"_"&amp;J58&amp;"="&amp;VLOOKUP(I58&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J58="en","  "&amp;I58&amp;"_"&amp;J58&amp;"="&amp;VLOOKUP(I58&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J58="indice",$K$2&amp;"["&amp;H58&amp;"]",IF(J58="pnl","  pnl="&amp;G58,"  num="&amp;F58))))</f>
+      <c r="L58" t="str">
+        <f>IF(K58="es","  "&amp;J58&amp;"_"&amp;K58&amp;"="&amp;VLOOKUP(J58&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K58="en","  "&amp;J58&amp;"_"&amp;K58&amp;"="&amp;VLOOKUP(J58&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K58="indice",$L$2&amp;"["&amp;I58&amp;"]",IF(K58="pnl","  pnl="&amp;G58,"  num="&amp;F58))))</f>
         <v>horoscopo[11]</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="3"/>
-        <v>4222</v>
+        <v>3998</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>868025</v>
+        <v>155940</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 8; 4222; 868025</v>
+        <v>4,5 y 9; 3998; 155940</v>
       </c>
       <c r="G59" t="str">
-        <f>VLOOKUP(H59,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I59,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="str">
+        <f>VLOOKUP(I59,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I59">
         <v>11</v>
       </c>
-      <c r="I59" t="str">
-        <f>VLOOKUP(H59,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J59" t="str">
+        <f>VLOOKUP(I59,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>613</v>
       </c>
-      <c r="K59" t="str">
-        <f ca="1">IF(J59="es","  "&amp;I59&amp;"_"&amp;J59&amp;"="&amp;VLOOKUP(I59&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J59="en","  "&amp;I59&amp;"_"&amp;J59&amp;"="&amp;VLOOKUP(I59&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J59="indice",$K$2&amp;"["&amp;H59&amp;"]",IF(J59="pnl","  pnl="&amp;G59,"  num="&amp;F59))))</f>
-        <v xml:space="preserve">  num=3,6 y 8; 4222; 868025</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" t="str">
+        <f ca="1">IF(K59="es","  "&amp;J59&amp;"_"&amp;K59&amp;"="&amp;VLOOKUP(J59&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K59="en","  "&amp;J59&amp;"_"&amp;K59&amp;"="&amp;VLOOKUP(J59&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K59="indice",$L$2&amp;"["&amp;I59&amp;"]",IF(K59="pnl","  pnl="&amp;G59,"  num="&amp;F59))))</f>
+        <v xml:space="preserve">  num=4,5 y 9; 3998; 155940</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="3"/>
-        <v>4311</v>
+        <v>5435</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>536719</v>
+        <v>223971</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 4311; 536719</v>
+        <v>3,6 y 8; 5435; 223971</v>
       </c>
       <c r="G60" t="str">
-        <f>VLOOKUP(H60,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I60,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="str">
+        <f>VLOOKUP(I60,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I60">
         <v>11</v>
       </c>
-      <c r="I60" t="str">
-        <f>VLOOKUP(H60,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J60" t="str">
+        <f>VLOOKUP(I60,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>614</v>
       </c>
-      <c r="K60" t="str">
-        <f>IF(J60="es","  "&amp;I60&amp;"_"&amp;J60&amp;"="&amp;VLOOKUP(I60&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J60="en","  "&amp;I60&amp;"_"&amp;J60&amp;"="&amp;VLOOKUP(I60&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J60="indice",$K$2&amp;"["&amp;H60&amp;"]",IF(J60="pnl","  pnl="&amp;G60,"  num="&amp;F60))))</f>
+      <c r="L60" t="str">
+        <f>IF(K60="es","  "&amp;J60&amp;"_"&amp;K60&amp;"="&amp;VLOOKUP(J60&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K60="en","  "&amp;J60&amp;"_"&amp;K60&amp;"="&amp;VLOOKUP(J60&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K60="indice",$L$2&amp;"["&amp;I60&amp;"]",IF(K60="pnl","  pnl="&amp;G60,"  num="&amp;F60))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="3"/>
-        <v>9279</v>
+        <v>8747</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>739930</v>
+        <v>343110</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 9279; 739930</v>
+        <v>1,6 y 8; 8747; 343110</v>
       </c>
       <c r="G61" t="str">
-        <f>VLOOKUP(H61,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I61,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="str">
+        <f>VLOOKUP(I61,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I61">
         <v>11</v>
       </c>
-      <c r="I61" t="str">
-        <f>VLOOKUP(H61,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J61" t="str">
+        <f>VLOOKUP(I61,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>126</v>
       </c>
-      <c r="K61" t="str">
-        <f>IF(J61="es","  "&amp;I61&amp;"_"&amp;J61&amp;"="&amp;VLOOKUP(I61&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J61="en","  "&amp;I61&amp;"_"&amp;J61&amp;"="&amp;VLOOKUP(I61&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J61="indice",$K$2&amp;"["&amp;H61&amp;"]",IF(J61="pnl","  pnl="&amp;G61,"  num="&amp;F61))))</f>
+      <c r="L61" t="str">
+        <f>IF(K61="es","  "&amp;J61&amp;"_"&amp;K61&amp;"="&amp;VLOOKUP(J61&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K61="en","  "&amp;J61&amp;"_"&amp;K61&amp;"="&amp;VLOOKUP(J61&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K61="indice",$L$2&amp;"["&amp;I61&amp;"]",IF(K61="pnl","  pnl="&amp;G61,"  num="&amp;F61))))</f>
         <v xml:space="preserve">  piscis_es=Carga las baterías y asegúrate que tu apariencia es la mejor. Cuando se te vengan encima nuevas responsabilidades no temas Eres más que capaz de asumirlas y habrá alguien también dispuesto a echarte una mano si hace falta. Se acabó la diversión por un rato debes dedicarte ahora a un antiguo y duro trabajo. Actúa y recoge los beneficios. Necesitan tiempo y paciencia.</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="3"/>
-        <v>2659</v>
+        <v>2692</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>871274</v>
+        <v>375578</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 8; 2659; 871274</v>
+        <v>2,5 y 9; 2692; 375578</v>
       </c>
       <c r="G62" t="str">
-        <f>VLOOKUP(H62,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(I62,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="str">
+        <f>VLOOKUP(I62,signos1!$A$1:$D$12,4,FALSE)</f>
+        <v>pnl3;pnl4</v>
+      </c>
+      <c r="I62">
         <v>11</v>
       </c>
-      <c r="I62" t="str">
-        <f>VLOOKUP(H62,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="J62" t="str">
+        <f>VLOOKUP(I62,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>432</v>
       </c>
-      <c r="K62" t="str">
-        <f>IF(J62="es","  "&amp;I62&amp;"_"&amp;J62&amp;"="&amp;VLOOKUP(I62&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J62="en","  "&amp;I62&amp;"_"&amp;J62&amp;"="&amp;VLOOKUP(I62&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J62="indice",$K$2&amp;"["&amp;H62&amp;"]",IF(J62="pnl","  pnl="&amp;G62,"  num="&amp;F62))))</f>
+      <c r="L62" t="str">
+        <f>IF(K62="es","  "&amp;J62&amp;"_"&amp;K62&amp;"="&amp;VLOOKUP(J62&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K62="en","  "&amp;J62&amp;"_"&amp;K62&amp;"="&amp;VLOOKUP(J62&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K62="indice",$L$2&amp;"["&amp;I62&amp;"]",IF(K62="pnl","  pnl="&amp;G62,"  num="&amp;F62))))</f>
         <v xml:space="preserve">  piscis_en=Charge the batteries and make sure your appearance is the best. When new responsibilities come to you, do not fear. You are more than capable of assuming them and there will be someone willing to lend a hand if necessary. The fun is over for a while now you must dedicate yourself to an old and hard work. Acts and collects the benefits. They need time and patience.</v>
       </c>
     </row>

--- a/documentos/datos.xlsx
+++ b/documentos/datos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="2" r:id="rId1"/>
@@ -4742,7 +4742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
@@ -10137,19 +10137,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1">
         <f>C1+B1</f>
         <v>6</v>
@@ -10161,43 +10161,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(5,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(8,9)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>8952</v>
+        <v>4576</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100000,999999)</f>
-        <v>427423</v>
+        <v>930969</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">A2&amp;","&amp;B2&amp;" y "&amp;C2&amp;"; "&amp;D2&amp;"; "&amp;E2</f>
-        <v>4,5 y 9; 8952; 427423</v>
-      </c>
-      <c r="L2" t="s">
+        <v>1,7 y 8; 4576; 930969</v>
+      </c>
+      <c r="K2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A62" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B62" ca="1" si="1">RANDBETWEEN(5,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C62" ca="1" si="2">RANDBETWEEN(8,9)</f>
@@ -10205,95 +10205,87 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D62" ca="1" si="3">RANDBETWEEN(1000,9999)</f>
-        <v>1294</v>
+        <v>8088</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E62" ca="1" si="4">RANDBETWEEN(100000,999999)</f>
-        <v>559100</v>
+        <v>936655</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F62" ca="1" si="5">A3&amp;","&amp;B3&amp;" y "&amp;C3&amp;"; "&amp;D3&amp;"; "&amp;E3</f>
-        <v>1,7 y 9; 1294; 559100</v>
+        <v>4,6 y 9; 8088; 936655</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP(I3,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H3,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H3" t="str">
-        <f>VLOOKUP(I3,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="J3" t="str">
-        <f>VLOOKUP(I3,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I3" t="str">
+        <f>VLOOKUP(H3,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>433</v>
       </c>
-      <c r="L3" t="str">
-        <f>IF(K3="es","  "&amp;J3&amp;"_"&amp;K3&amp;"="&amp;VLOOKUP(J3&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K3="en","  "&amp;J3&amp;"_"&amp;K3&amp;"="&amp;VLOOKUP(J3&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K3="indice",$L$2&amp;"["&amp;I3&amp;"]",IF(K3="pnl","  pnl="&amp;G3,"  num="&amp;F3))))</f>
+      <c r="K3" t="str">
+        <f>IF(J3="es","  "&amp;I3&amp;"_"&amp;J3&amp;"="&amp;VLOOKUP(I3&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J3="en","  "&amp;I3&amp;"_"&amp;J3&amp;"="&amp;VLOOKUP(I3&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J3="indice",$K$2&amp;"["&amp;H3&amp;"]",IF(J3="pnl","  pnl="&amp;G3,"  num="&amp;F3))))</f>
         <v>horoscopo[0]</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>7350</v>
+        <v>9687</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>472653</v>
+        <v>203552</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 8; 7350; 472653</v>
+        <v>2,6 y 9; 9687; 203552</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(I4,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H4,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H4" t="str">
-        <f>VLOOKUP(I4,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I4">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="J4" t="str">
-        <f>VLOOKUP(I4,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I4" t="str">
+        <f>VLOOKUP(H4,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>613</v>
       </c>
-      <c r="L4" t="str">
-        <f ca="1">IF(K4="es","  "&amp;J4&amp;"_"&amp;K4&amp;"="&amp;VLOOKUP(J4&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K4="en","  "&amp;J4&amp;"_"&amp;K4&amp;"="&amp;VLOOKUP(J4&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K4="indice",$L$2&amp;"["&amp;I4&amp;"]",IF(K4="pnl","  pnl="&amp;G4,"  num="&amp;F4))))</f>
-        <v xml:space="preserve">  num=4,5 y 8; 7350; 472653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K4" t="str">
+        <f ca="1">IF(J4="es","  "&amp;I4&amp;"_"&amp;J4&amp;"="&amp;VLOOKUP(I4&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J4="en","  "&amp;I4&amp;"_"&amp;J4&amp;"="&amp;VLOOKUP(I4&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J4="indice",$K$2&amp;"["&amp;H4&amp;"]",IF(J4="pnl","  pnl="&amp;G4,"  num="&amp;F4))))</f>
+        <v xml:space="preserve">  num=2,6 y 9; 9687; 203552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
@@ -10301,47 +10293,43 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>9893</v>
+        <v>2805</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>146735</v>
+        <v>331014</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 8; 9893; 146735</v>
+        <v>2,5 y 8; 2805; 331014</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(I5,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H5,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H5" t="str">
-        <f>VLOOKUP(I5,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I5">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="J5" t="str">
-        <f>VLOOKUP(I5,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I5" t="str">
+        <f>VLOOKUP(H5,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>614</v>
       </c>
-      <c r="L5" t="str">
-        <f>IF(K5="es","  "&amp;J5&amp;"_"&amp;K5&amp;"="&amp;VLOOKUP(J5&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K5="en","  "&amp;J5&amp;"_"&amp;K5&amp;"="&amp;VLOOKUP(J5&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K5="indice",$L$2&amp;"["&amp;I5&amp;"]",IF(K5="pnl","  pnl="&amp;G5,"  num="&amp;F5))))</f>
+      <c r="K5" t="str">
+        <f>IF(J5="es","  "&amp;I5&amp;"_"&amp;J5&amp;"="&amp;VLOOKUP(I5&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J5="en","  "&amp;I5&amp;"_"&amp;J5&amp;"="&amp;VLOOKUP(I5&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J5="indice",$K$2&amp;"["&amp;H5&amp;"]",IF(J5="pnl","  pnl="&amp;G5,"  num="&amp;F5))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
@@ -10349,95 +10337,87 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>4392</v>
+        <v>1288</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>434271</v>
+        <v>128357</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 8; 4392; 434271</v>
+        <v>2,5 y 8; 1288; 128357</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(I6,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H6,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H6" t="str">
-        <f>VLOOKUP(I6,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I6">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="J6" t="str">
-        <f>VLOOKUP(I6,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I6" t="str">
+        <f>VLOOKUP(H6,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
         <v>126</v>
       </c>
-      <c r="L6" t="str">
-        <f>IF(K6="es","  "&amp;J6&amp;"_"&amp;K6&amp;"="&amp;VLOOKUP(J6&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K6="en","  "&amp;J6&amp;"_"&amp;K6&amp;"="&amp;VLOOKUP(J6&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K6="indice",$L$2&amp;"["&amp;I6&amp;"]",IF(K6="pnl","  pnl="&amp;G6,"  num="&amp;F6))))</f>
+      <c r="K6" t="str">
+        <f>IF(J6="es","  "&amp;I6&amp;"_"&amp;J6&amp;"="&amp;VLOOKUP(I6&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J6="en","  "&amp;I6&amp;"_"&amp;J6&amp;"="&amp;VLOOKUP(I6&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J6="indice",$K$2&amp;"["&amp;H6&amp;"]",IF(J6="pnl","  pnl="&amp;G6,"  num="&amp;F6))))</f>
         <v xml:space="preserve">  aries_es=Los planetas te respaldan todo lo que hace falta corta tus ataduras y ve al fondo de las cosas hoy. Los planetas te están creando cierta resistencia para los temas de la carrera puedes pensar que no progresas tanto como quisieras. No tienes paciencia para ponerte en línea hoy. Tu atención debe volcarse hacia un proyecto creativo o de negocios las condiciones son particularmente propicias ahora y no debes perder la oportunidad. Vas aprisa en tu carrera y te vuelve loco lo que haces Tienes tiempo para algo más y corres peligro de que las cosas pierdan el equilibrio.</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>5471</v>
+        <v>5887</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>586854</v>
+        <v>506296</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 9; 5471; 586854</v>
+        <v>4,5 y 8; 5887; 506296</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(I7,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H7,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H7" t="str">
-        <f>VLOOKUP(I7,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I7">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="J7" t="str">
-        <f>VLOOKUP(I7,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I7" t="str">
+        <f>VLOOKUP(H7,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>aries</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
         <v>432</v>
       </c>
-      <c r="L7" t="str">
-        <f>IF(K7="es","  "&amp;J7&amp;"_"&amp;K7&amp;"="&amp;VLOOKUP(J7&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K7="en","  "&amp;J7&amp;"_"&amp;K7&amp;"="&amp;VLOOKUP(J7&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K7="indice",$L$2&amp;"["&amp;I7&amp;"]",IF(K7="pnl","  pnl="&amp;G7,"  num="&amp;F7))))</f>
+      <c r="K7" t="str">
+        <f>IF(J7="es","  "&amp;I7&amp;"_"&amp;J7&amp;"="&amp;VLOOKUP(I7&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J7="en","  "&amp;I7&amp;"_"&amp;J7&amp;"="&amp;VLOOKUP(I7&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J7="indice",$K$2&amp;"["&amp;H7&amp;"]",IF(J7="pnl","  pnl="&amp;G7,"  num="&amp;F7))))</f>
         <v xml:space="preserve">  aries_en=Planets support you all you need to cut your ties and go to the bottom of things today. The planets are creating some resistance for the subjects of the race you can think that you do not progress as much as you would like. You do not have the patience to get online today. Your attention should be turned towards a creative or business project. The conditions are particularly propitious now and you should not miss the opportunity. You go fast in your career and it drives you crazy what you do. You have time for something else and you run the risk of things losing their balance.</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
@@ -10445,91 +10425,83 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>2275</v>
+        <v>4286</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>280392</v>
+        <v>370196</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 2275; 280392</v>
+        <v>1,7 y 9; 4286; 370196</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(I8,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H8,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H8" t="str">
-        <f>VLOOKUP(I8,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I8">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="J8" t="str">
-        <f>VLOOKUP(I8,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I8" t="str">
+        <f>VLOOKUP(H8,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
         <v>433</v>
       </c>
-      <c r="L8" t="str">
-        <f>IF(K8="es","  "&amp;J8&amp;"_"&amp;K8&amp;"="&amp;VLOOKUP(J8&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K8="en","  "&amp;J8&amp;"_"&amp;K8&amp;"="&amp;VLOOKUP(J8&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K8="indice",$L$2&amp;"["&amp;I8&amp;"]",IF(K8="pnl","  pnl="&amp;G8,"  num="&amp;F8))))</f>
+      <c r="K8" t="str">
+        <f>IF(J8="es","  "&amp;I8&amp;"_"&amp;J8&amp;"="&amp;VLOOKUP(I8&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J8="en","  "&amp;I8&amp;"_"&amp;J8&amp;"="&amp;VLOOKUP(I8&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J8="indice",$K$2&amp;"["&amp;H8&amp;"]",IF(J8="pnl","  pnl="&amp;G8,"  num="&amp;F8))))</f>
         <v>horoscopo[1]</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>8696</v>
+        <v>7301</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>397346</v>
+        <v>389530</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 9; 8696; 397346</v>
+        <v>1,5 y 8; 7301; 389530</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(I9,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H9,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H9" t="str">
-        <f>VLOOKUP(I9,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I9">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="J9" t="str">
-        <f>VLOOKUP(I9,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I9" t="str">
+        <f>VLOOKUP(H9,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
         <v>613</v>
       </c>
-      <c r="L9" t="str">
-        <f ca="1">IF(K9="es","  "&amp;J9&amp;"_"&amp;K9&amp;"="&amp;VLOOKUP(J9&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K9="en","  "&amp;J9&amp;"_"&amp;K9&amp;"="&amp;VLOOKUP(J9&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K9="indice",$L$2&amp;"["&amp;I9&amp;"]",IF(K9="pnl","  pnl="&amp;G9,"  num="&amp;F9))))</f>
-        <v xml:space="preserve">  num=3,6 y 9; 8696; 397346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K9" t="str">
+        <f ca="1">IF(J9="es","  "&amp;I9&amp;"_"&amp;J9&amp;"="&amp;VLOOKUP(I9&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J9="en","  "&amp;I9&amp;"_"&amp;J9&amp;"="&amp;VLOOKUP(I9&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J9="indice",$K$2&amp;"["&amp;H9&amp;"]",IF(J9="pnl","  pnl="&amp;G9,"  num="&amp;F9))))</f>
+        <v xml:space="preserve">  num=1,5 y 8; 7301; 389530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
@@ -10537,147 +10509,135 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>3192</v>
+        <v>8167</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>556037</v>
+        <v>694183</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 8; 3192; 556037</v>
+        <v>4,6 y 9; 8167; 694183</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(I10,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H10,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H10" t="str">
-        <f>VLOOKUP(I10,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I10">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="J10" t="str">
-        <f>VLOOKUP(I10,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I10" t="str">
+        <f>VLOOKUP(H10,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
         <v>614</v>
       </c>
-      <c r="L10" t="str">
-        <f>IF(K10="es","  "&amp;J10&amp;"_"&amp;K10&amp;"="&amp;VLOOKUP(J10&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K10="en","  "&amp;J10&amp;"_"&amp;K10&amp;"="&amp;VLOOKUP(J10&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K10="indice",$L$2&amp;"["&amp;I10&amp;"]",IF(K10="pnl","  pnl="&amp;G10,"  num="&amp;F10))))</f>
+      <c r="K10" t="str">
+        <f>IF(J10="es","  "&amp;I10&amp;"_"&amp;J10&amp;"="&amp;VLOOKUP(I10&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J10="en","  "&amp;I10&amp;"_"&amp;J10&amp;"="&amp;VLOOKUP(I10&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J10="indice",$K$2&amp;"["&amp;H10&amp;"]",IF(J10="pnl","  pnl="&amp;G10,"  num="&amp;F10))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>9491</v>
+        <v>4557</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>834234</v>
+        <v>400164</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 9491; 834234</v>
+        <v>4,7 y 8; 4557; 400164</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(I11,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H11,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H11" t="str">
-        <f>VLOOKUP(I11,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I11">
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="J11" t="str">
-        <f>VLOOKUP(I11,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I11" t="str">
+        <f>VLOOKUP(H11,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
         <v>126</v>
       </c>
-      <c r="L11" t="str">
-        <f>IF(K11="es","  "&amp;J11&amp;"_"&amp;K11&amp;"="&amp;VLOOKUP(J11&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K11="en","  "&amp;J11&amp;"_"&amp;K11&amp;"="&amp;VLOOKUP(J11&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K11="indice",$L$2&amp;"["&amp;I11&amp;"]",IF(K11="pnl","  pnl="&amp;G11,"  num="&amp;F11))))</f>
+      <c r="K11" t="str">
+        <f>IF(J11="es","  "&amp;I11&amp;"_"&amp;J11&amp;"="&amp;VLOOKUP(I11&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J11="en","  "&amp;I11&amp;"_"&amp;J11&amp;"="&amp;VLOOKUP(I11&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J11="indice",$K$2&amp;"["&amp;H11&amp;"]",IF(J11="pnl","  pnl="&amp;G11,"  num="&amp;F11))))</f>
         <v xml:space="preserve">  tauro_es=Se honesto contigo mismo y con los demás hoy independientemente de las presiones que sientas. Sólo pensar en dinero te causa disgusto pero meter la cabeza en la arena no es una solución. Tu ánimo vuelve luego de un pequeño periodo de incertidumbre Se optimista y tus planes de carrera despegarán. Es posible que tenga que descubrir algún engaño o fraude dentro de su lugar de trabajo, por lo que es importante estar alerta y tener un plan de acción. La cuadratura que hacen la Luna y Marte no te pone las cosas fáciles en este sentido.</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>3160</v>
+        <v>2947</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>566540</v>
+        <v>310157</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 9; 3160; 566540</v>
+        <v>3,5 y 8; 2947; 310157</v>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(I12,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H12,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H12" t="str">
-        <f>VLOOKUP(I12,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I12">
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="J12" t="str">
-        <f>VLOOKUP(I12,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I12" t="str">
+        <f>VLOOKUP(H12,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>tauro</v>
       </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
         <v>432</v>
       </c>
-      <c r="L12" t="str">
-        <f>IF(K12="es","  "&amp;J12&amp;"_"&amp;K12&amp;"="&amp;VLOOKUP(J12&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K12="en","  "&amp;J12&amp;"_"&amp;K12&amp;"="&amp;VLOOKUP(J12&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K12="indice",$L$2&amp;"["&amp;I12&amp;"]",IF(K12="pnl","  pnl="&amp;G12,"  num="&amp;F12))))</f>
+      <c r="K12" t="str">
+        <f>IF(J12="es","  "&amp;I12&amp;"_"&amp;J12&amp;"="&amp;VLOOKUP(I12&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J12="en","  "&amp;I12&amp;"_"&amp;J12&amp;"="&amp;VLOOKUP(I12&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J12="indice",$K$2&amp;"["&amp;H12&amp;"]",IF(J12="pnl","  pnl="&amp;G12,"  num="&amp;F12))))</f>
         <v xml:space="preserve">  tauro_en=Be honest with yourself and with others today regardless of the pressures you feel. Just thinking about money causes you disgust but putting your head in the sand is not a solution. Your mood returns after a short period of uncertainty. Be optimistic and your career plans will take off. You may have to discover some deception or fraud within your workplace, so it is important to be alert and have an action plan. The square made by the Moon and Mars does not make things easy for you in this regard.</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
@@ -10685,40 +10645,36 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>7725</v>
+        <v>7057</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>493288</v>
+        <v>527353</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 9; 7725; 493288</v>
+        <v>4,6 y 9; 7057; 527353</v>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(I13,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H13,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H13" t="str">
-        <f>VLOOKUP(I13,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I13">
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="J13" t="str">
-        <f>VLOOKUP(I13,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I13" t="str">
+        <f>VLOOKUP(H13,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
         <v>433</v>
       </c>
-      <c r="L13" t="str">
-        <f>IF(K13="es","  "&amp;J13&amp;"_"&amp;K13&amp;"="&amp;VLOOKUP(J13&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K13="en","  "&amp;J13&amp;"_"&amp;K13&amp;"="&amp;VLOOKUP(J13&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K13="indice",$L$2&amp;"["&amp;I13&amp;"]",IF(K13="pnl","  pnl="&amp;G13,"  num="&amp;F13))))</f>
+      <c r="K13" t="str">
+        <f>IF(J13="es","  "&amp;I13&amp;"_"&amp;J13&amp;"="&amp;VLOOKUP(I13&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J13="en","  "&amp;I13&amp;"_"&amp;J13&amp;"="&amp;VLOOKUP(I13&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J13="indice",$K$2&amp;"["&amp;H13&amp;"]",IF(J13="pnl","  pnl="&amp;G13,"  num="&amp;F13))))</f>
         <v>horoscopo[2]</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -10733,43 +10689,39 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>8736</v>
+        <v>7249</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>218769</v>
+        <v>685589</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 8736; 218769</v>
+        <v>1,6 y 9; 7249; 685589</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(I14,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H14,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H14" t="str">
-        <f>VLOOKUP(I14,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I14">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="J14" t="str">
-        <f>VLOOKUP(I14,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I14" t="str">
+        <f>VLOOKUP(H14,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
         <v>613</v>
       </c>
-      <c r="L14" t="str">
-        <f ca="1">IF(K14="es","  "&amp;J14&amp;"_"&amp;K14&amp;"="&amp;VLOOKUP(J14&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K14="en","  "&amp;J14&amp;"_"&amp;K14&amp;"="&amp;VLOOKUP(J14&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K14="indice",$L$2&amp;"["&amp;I14&amp;"]",IF(K14="pnl","  pnl="&amp;G14,"  num="&amp;F14))))</f>
-        <v xml:space="preserve">  num=1,6 y 9; 8736; 218769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" t="str">
+        <f ca="1">IF(J14="es","  "&amp;I14&amp;"_"&amp;J14&amp;"="&amp;VLOOKUP(I14&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J14="en","  "&amp;I14&amp;"_"&amp;J14&amp;"="&amp;VLOOKUP(I14&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J14="indice",$K$2&amp;"["&amp;H14&amp;"]",IF(J14="pnl","  pnl="&amp;G14,"  num="&amp;F14))))</f>
+        <v xml:space="preserve">  num=1,6 y 9; 7249; 685589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
@@ -10781,47 +10733,43 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>2823</v>
+        <v>3029</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>897173</v>
+        <v>672550</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 9; 2823; 897173</v>
+        <v>3,5 y 9; 3029; 672550</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(I15,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H15,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H15" t="str">
-        <f>VLOOKUP(I15,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I15">
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="J15" t="str">
-        <f>VLOOKUP(I15,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I15" t="str">
+        <f>VLOOKUP(H15,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="K15" t="s">
+      <c r="J15" t="s">
         <v>614</v>
       </c>
-      <c r="L15" t="str">
-        <f>IF(K15="es","  "&amp;J15&amp;"_"&amp;K15&amp;"="&amp;VLOOKUP(J15&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K15="en","  "&amp;J15&amp;"_"&amp;K15&amp;"="&amp;VLOOKUP(J15&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K15="indice",$L$2&amp;"["&amp;I15&amp;"]",IF(K15="pnl","  pnl="&amp;G15,"  num="&amp;F15))))</f>
+      <c r="K15" t="str">
+        <f>IF(J15="es","  "&amp;I15&amp;"_"&amp;J15&amp;"="&amp;VLOOKUP(I15&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J15="en","  "&amp;I15&amp;"_"&amp;J15&amp;"="&amp;VLOOKUP(I15&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J15="indice",$K$2&amp;"["&amp;H15&amp;"]",IF(J15="pnl","  pnl="&amp;G15,"  num="&amp;F15))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
@@ -10829,47 +10777,43 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>1933</v>
+        <v>4258</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>452934</v>
+        <v>131544</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 8; 1933; 452934</v>
+        <v>2,7 y 8; 4258; 131544</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(I16,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H16,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H16" t="str">
-        <f>VLOOKUP(I16,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I16">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="J16" t="str">
-        <f>VLOOKUP(I16,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I16" t="str">
+        <f>VLOOKUP(H16,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="K16" t="s">
+      <c r="J16" t="s">
         <v>126</v>
       </c>
-      <c r="L16" t="str">
-        <f>IF(K16="es","  "&amp;J16&amp;"_"&amp;K16&amp;"="&amp;VLOOKUP(J16&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K16="en","  "&amp;J16&amp;"_"&amp;K16&amp;"="&amp;VLOOKUP(J16&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K16="indice",$L$2&amp;"["&amp;I16&amp;"]",IF(K16="pnl","  pnl="&amp;G16,"  num="&amp;F16))))</f>
+      <c r="K16" t="str">
+        <f>IF(J16="es","  "&amp;I16&amp;"_"&amp;J16&amp;"="&amp;VLOOKUP(I16&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J16="en","  "&amp;I16&amp;"_"&amp;J16&amp;"="&amp;VLOOKUP(I16&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J16="indice",$K$2&amp;"["&amp;H16&amp;"]",IF(J16="pnl","  pnl="&amp;G16,"  num="&amp;F16))))</f>
         <v xml:space="preserve">  geminis_es=Hay buenos prospectos para asumir un reto a largo plazo No importa la difícil que sea, serás capaz de salir adelante. Es momento de aceptar que loes tiempos han cambiado Ya la pelota no está en el mismo patio, Las reglas son nuevas y te las tienes que aprender de memoria. Una inesperada oportunidad puede aparecer en una situación profesional, significando esto que debes estar preparado para saltar hacia cualquier oportunidad. Si sigues manteniendo tu fe en ti mismo con tus logros a la vista las cosas se conciliarán y no podrán salirte mal. Y no lo hará por amor, sino por orgullo puro y duro.</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
@@ -10877,47 +10821,43 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>8317</v>
+        <v>7672</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>283511</v>
+        <v>212514</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 8; 8317; 283511</v>
+        <v>3,6 y 8; 7672; 212514</v>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP(I17,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H17,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H17" t="str">
-        <f>VLOOKUP(I17,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I17">
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="J17" t="str">
-        <f>VLOOKUP(I17,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I17" t="str">
+        <f>VLOOKUP(H17,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>geminis</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J17" t="s">
         <v>432</v>
       </c>
-      <c r="L17" t="str">
-        <f>IF(K17="es","  "&amp;J17&amp;"_"&amp;K17&amp;"="&amp;VLOOKUP(J17&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K17="en","  "&amp;J17&amp;"_"&amp;K17&amp;"="&amp;VLOOKUP(J17&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K17="indice",$L$2&amp;"["&amp;I17&amp;"]",IF(K17="pnl","  pnl="&amp;G17,"  num="&amp;F17))))</f>
+      <c r="K17" t="str">
+        <f>IF(J17="es","  "&amp;I17&amp;"_"&amp;J17&amp;"="&amp;VLOOKUP(I17&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J17="en","  "&amp;I17&amp;"_"&amp;J17&amp;"="&amp;VLOOKUP(I17&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J17="indice",$K$2&amp;"["&amp;H17&amp;"]",IF(J17="pnl","  pnl="&amp;G17,"  num="&amp;F17))))</f>
         <v xml:space="preserve">  geminis_en=There are good prospects to take on a long-term challenge No matter how difficult it may be, you will be able to get ahead. It\'s time to accept that times have changed. The ball is not in the same yard anymore. The rules are new and you have to learn them by heart. An unexpected opportunity can appear in a professional situation, meaning that you must be prepared to jump to any opportunity. If you keep your faith in yourself with your achievements in sight things will be reconciled and can not go wrong. And he will not do it out of love, but out of pure and hard pride.</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
@@ -10925,47 +10865,43 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>3767</v>
+        <v>9677</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>559016</v>
+        <v>395628</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 9; 3767; 559016</v>
+        <v>2,5 y 9; 9677; 395628</v>
       </c>
       <c r="G18" t="str">
-        <f>VLOOKUP(I18,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H18,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H18" t="str">
-        <f>VLOOKUP(I18,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I18">
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="J18" t="str">
-        <f>VLOOKUP(I18,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I18" t="str">
+        <f>VLOOKUP(H18,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="K18" t="s">
+      <c r="J18" t="s">
         <v>433</v>
       </c>
-      <c r="L18" t="str">
-        <f>IF(K18="es","  "&amp;J18&amp;"_"&amp;K18&amp;"="&amp;VLOOKUP(J18&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K18="en","  "&amp;J18&amp;"_"&amp;K18&amp;"="&amp;VLOOKUP(J18&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K18="indice",$L$2&amp;"["&amp;I18&amp;"]",IF(K18="pnl","  pnl="&amp;G18,"  num="&amp;F18))))</f>
+      <c r="K18" t="str">
+        <f>IF(J18="es","  "&amp;I18&amp;"_"&amp;J18&amp;"="&amp;VLOOKUP(I18&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J18="en","  "&amp;I18&amp;"_"&amp;J18&amp;"="&amp;VLOOKUP(I18&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J18="indice",$K$2&amp;"["&amp;H18&amp;"]",IF(J18="pnl","  pnl="&amp;G18,"  num="&amp;F18))))</f>
         <v>horoscopo[3]</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
@@ -10973,95 +10909,87 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>2891</v>
+        <v>4095</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>291781</v>
+        <v>712141</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 9; 2891; 291781</v>
+        <v>2,6 y 9; 4095; 712141</v>
       </c>
       <c r="G19" t="str">
-        <f>VLOOKUP(I19,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H19,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H19" t="str">
-        <f>VLOOKUP(I19,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I19">
+      <c r="H19">
         <v>3</v>
       </c>
-      <c r="J19" t="str">
-        <f>VLOOKUP(I19,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I19" t="str">
+        <f>VLOOKUP(H19,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19" t="s">
         <v>613</v>
       </c>
-      <c r="L19" t="str">
-        <f ca="1">IF(K19="es","  "&amp;J19&amp;"_"&amp;K19&amp;"="&amp;VLOOKUP(J19&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K19="en","  "&amp;J19&amp;"_"&amp;K19&amp;"="&amp;VLOOKUP(J19&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K19="indice",$L$2&amp;"["&amp;I19&amp;"]",IF(K19="pnl","  pnl="&amp;G19,"  num="&amp;F19))))</f>
-        <v xml:space="preserve">  num=2,7 y 9; 2891; 291781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K19" t="str">
+        <f ca="1">IF(J19="es","  "&amp;I19&amp;"_"&amp;J19&amp;"="&amp;VLOOKUP(I19&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J19="en","  "&amp;I19&amp;"_"&amp;J19&amp;"="&amp;VLOOKUP(I19&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J19="indice",$K$2&amp;"["&amp;H19&amp;"]",IF(J19="pnl","  pnl="&amp;G19,"  num="&amp;F19))))</f>
+        <v xml:space="preserve">  num=2,6 y 9; 4095; 712141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>9126</v>
+        <v>4500</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
-        <v>597085</v>
+        <v>478699</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 8; 9126; 597085</v>
+        <v>1,7 y 9; 4500; 478699</v>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(I20,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H20,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H20" t="str">
-        <f>VLOOKUP(I20,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I20">
+      <c r="H20">
         <v>3</v>
       </c>
-      <c r="J20" t="str">
-        <f>VLOOKUP(I20,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I20" t="str">
+        <f>VLOOKUP(H20,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="K20" t="s">
+      <c r="J20" t="s">
         <v>614</v>
       </c>
-      <c r="L20" t="str">
-        <f>IF(K20="es","  "&amp;J20&amp;"_"&amp;K20&amp;"="&amp;VLOOKUP(J20&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K20="en","  "&amp;J20&amp;"_"&amp;K20&amp;"="&amp;VLOOKUP(J20&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K20="indice",$L$2&amp;"["&amp;I20&amp;"]",IF(K20="pnl","  pnl="&amp;G20,"  num="&amp;F20))))</f>
+      <c r="K20" t="str">
+        <f>IF(J20="es","  "&amp;I20&amp;"_"&amp;J20&amp;"="&amp;VLOOKUP(I20&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J20="en","  "&amp;I20&amp;"_"&amp;J20&amp;"="&amp;VLOOKUP(I20&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J20="indice",$K$2&amp;"["&amp;H20&amp;"]",IF(J20="pnl","  pnl="&amp;G20,"  num="&amp;F20))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
@@ -11069,235 +10997,215 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>6892</v>
+        <v>2091</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>281362</v>
+        <v>277082</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 9; 6892; 281362</v>
+        <v>3,6 y 9; 2091; 277082</v>
       </c>
       <c r="G21" t="str">
-        <f>VLOOKUP(I21,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H21,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H21" t="str">
-        <f>VLOOKUP(I21,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I21">
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="J21" t="str">
-        <f>VLOOKUP(I21,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I21" t="str">
+        <f>VLOOKUP(H21,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="K21" t="s">
+      <c r="J21" t="s">
         <v>126</v>
       </c>
-      <c r="L21" t="str">
-        <f>IF(K21="es","  "&amp;J21&amp;"_"&amp;K21&amp;"="&amp;VLOOKUP(J21&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K21="en","  "&amp;J21&amp;"_"&amp;K21&amp;"="&amp;VLOOKUP(J21&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K21="indice",$L$2&amp;"["&amp;I21&amp;"]",IF(K21="pnl","  pnl="&amp;G21,"  num="&amp;F21))))</f>
+      <c r="K21" t="str">
+        <f>IF(J21="es","  "&amp;I21&amp;"_"&amp;J21&amp;"="&amp;VLOOKUP(I21&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J21="en","  "&amp;I21&amp;"_"&amp;J21&amp;"="&amp;VLOOKUP(I21&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J21="indice",$K$2&amp;"["&amp;H21&amp;"]",IF(J21="pnl","  pnl="&amp;G21,"  num="&amp;F21))))</f>
         <v xml:space="preserve">  cancer_es=Espera cambios sumamente positivos en lo tocante al trabajo te encontrarás en una situación laboral nueva cada vez más satisfactoria. Este es uno de esos momentos. Son buenas las condiciones para un riesgo bajo inversiones a largo plazo, ventas de propiedades y herencias. No te lances con la primera persona que se atraviese en tu camino solo porque necesites afecto o atención. Hacer ejercicio le da muchísima pereza, pero ¿tiene idea de lo que le va a alegrar ser capaz de hacer tantos abdominales? Fuera la pereza y a rejuvenecer su salud.</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>8250</v>
+        <v>5514</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>508139</v>
+        <v>226074</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 8; 8250; 508139</v>
+        <v>3,5 y 9; 5514; 226074</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(I22,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H22,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H22" t="str">
-        <f>VLOOKUP(I22,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I22">
+      <c r="H22">
         <v>3</v>
       </c>
-      <c r="J22" t="str">
-        <f>VLOOKUP(I22,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I22" t="str">
+        <f>VLOOKUP(H22,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>cancer</v>
       </c>
-      <c r="K22" t="s">
+      <c r="J22" t="s">
         <v>432</v>
       </c>
-      <c r="L22" t="str">
-        <f>IF(K22="es","  "&amp;J22&amp;"_"&amp;K22&amp;"="&amp;VLOOKUP(J22&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K22="en","  "&amp;J22&amp;"_"&amp;K22&amp;"="&amp;VLOOKUP(J22&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K22="indice",$L$2&amp;"["&amp;I22&amp;"]",IF(K22="pnl","  pnl="&amp;G22,"  num="&amp;F22))))</f>
+      <c r="K22" t="str">
+        <f>IF(J22="es","  "&amp;I22&amp;"_"&amp;J22&amp;"="&amp;VLOOKUP(I22&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J22="en","  "&amp;I22&amp;"_"&amp;J22&amp;"="&amp;VLOOKUP(I22&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J22="indice",$K$2&amp;"["&amp;H22&amp;"]",IF(J22="pnl","  pnl="&amp;G22,"  num="&amp;F22))))</f>
         <v xml:space="preserve">  cancer_en=Expect very positive changes with regard to work you will find yourself in a new work situation more and more satisfactory. this is one of those moments. The conditions for a risk under long-term investments, property sales and inheritances are good. Do not throw yourself with the first person who crosses your path just because you need affection or attention. Exercising gives him a lot of laziness, but do you have any idea what will make him happy to be able to do so many abs? Out of laziness and to rejuvenate your health.</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>5344</v>
+        <v>6542</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>309818</v>
+        <v>430995</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 8; 5344; 309818</v>
+        <v>3,6 y 9; 6542; 430995</v>
       </c>
       <c r="G23" t="str">
-        <f>VLOOKUP(I23,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H23,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H23" t="str">
-        <f>VLOOKUP(I23,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I23">
+      <c r="H23">
         <v>4</v>
       </c>
-      <c r="J23" t="str">
-        <f>VLOOKUP(I23,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I23" t="str">
+        <f>VLOOKUP(H23,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="K23" t="s">
+      <c r="J23" t="s">
         <v>433</v>
       </c>
-      <c r="L23" t="str">
-        <f>IF(K23="es","  "&amp;J23&amp;"_"&amp;K23&amp;"="&amp;VLOOKUP(J23&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K23="en","  "&amp;J23&amp;"_"&amp;K23&amp;"="&amp;VLOOKUP(J23&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K23="indice",$L$2&amp;"["&amp;I23&amp;"]",IF(K23="pnl","  pnl="&amp;G23,"  num="&amp;F23))))</f>
+      <c r="K23" t="str">
+        <f>IF(J23="es","  "&amp;I23&amp;"_"&amp;J23&amp;"="&amp;VLOOKUP(I23&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J23="en","  "&amp;I23&amp;"_"&amp;J23&amp;"="&amp;VLOOKUP(I23&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J23="indice",$K$2&amp;"["&amp;H23&amp;"]",IF(J23="pnl","  pnl="&amp;G23,"  num="&amp;F23))))</f>
         <v>horoscopo[4]</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>8799</v>
+        <v>9745</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>472337</v>
+        <v>885838</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 9; 8799; 472337</v>
+        <v>2,6 y 8; 9745; 885838</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(I24,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H24,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H24" t="str">
-        <f>VLOOKUP(I24,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
         <v>4</v>
       </c>
-      <c r="J24" t="str">
-        <f>VLOOKUP(I24,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I24" t="str">
+        <f>VLOOKUP(H24,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J24" t="s">
         <v>613</v>
       </c>
-      <c r="L24" t="str">
-        <f ca="1">IF(K24="es","  "&amp;J24&amp;"_"&amp;K24&amp;"="&amp;VLOOKUP(J24&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K24="en","  "&amp;J24&amp;"_"&amp;K24&amp;"="&amp;VLOOKUP(J24&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K24="indice",$L$2&amp;"["&amp;I24&amp;"]",IF(K24="pnl","  pnl="&amp;G24,"  num="&amp;F24))))</f>
-        <v xml:space="preserve">  num=4,7 y 9; 8799; 472337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K24" t="str">
+        <f ca="1">IF(J24="es","  "&amp;I24&amp;"_"&amp;J24&amp;"="&amp;VLOOKUP(I24&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J24="en","  "&amp;I24&amp;"_"&amp;J24&amp;"="&amp;VLOOKUP(I24&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J24="indice",$K$2&amp;"["&amp;H24&amp;"]",IF(J24="pnl","  pnl="&amp;G24,"  num="&amp;F24))))</f>
+        <v xml:space="preserve">  num=2,6 y 8; 9745; 885838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>2882</v>
+        <v>4840</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>299591</v>
+        <v>272613</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 9; 2882; 299591</v>
+        <v>4,6 y 8; 4840; 272613</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(I25,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H25,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H25" t="str">
-        <f>VLOOKUP(I25,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I25">
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="J25" t="str">
-        <f>VLOOKUP(I25,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I25" t="str">
+        <f>VLOOKUP(H25,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="K25" t="s">
+      <c r="J25" t="s">
         <v>614</v>
       </c>
-      <c r="L25" t="str">
-        <f>IF(K25="es","  "&amp;J25&amp;"_"&amp;K25&amp;"="&amp;VLOOKUP(J25&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K25="en","  "&amp;J25&amp;"_"&amp;K25&amp;"="&amp;VLOOKUP(J25&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K25="indice",$L$2&amp;"["&amp;I25&amp;"]",IF(K25="pnl","  pnl="&amp;G25,"  num="&amp;F25))))</f>
+      <c r="K25" t="str">
+        <f>IF(J25="es","  "&amp;I25&amp;"_"&amp;J25&amp;"="&amp;VLOOKUP(I25&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J25="en","  "&amp;I25&amp;"_"&amp;J25&amp;"="&amp;VLOOKUP(I25&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J25="indice",$K$2&amp;"["&amp;H25&amp;"]",IF(J25="pnl","  pnl="&amp;G25,"  num="&amp;F25))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
@@ -11309,95 +11217,87 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>6957</v>
+        <v>4412</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>996879</v>
+        <v>244504</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 9; 6957; 996879</v>
+        <v>3,7 y 9; 4412; 244504</v>
       </c>
       <c r="G26" t="str">
-        <f>VLOOKUP(I26,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H26,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H26" t="str">
-        <f>VLOOKUP(I26,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I26">
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="J26" t="str">
-        <f>VLOOKUP(I26,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I26" t="str">
+        <f>VLOOKUP(H26,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="K26" t="s">
+      <c r="J26" t="s">
         <v>126</v>
       </c>
-      <c r="L26" t="str">
-        <f>IF(K26="es","  "&amp;J26&amp;"_"&amp;K26&amp;"="&amp;VLOOKUP(J26&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K26="en","  "&amp;J26&amp;"_"&amp;K26&amp;"="&amp;VLOOKUP(J26&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K26="indice",$L$2&amp;"["&amp;I26&amp;"]",IF(K26="pnl","  pnl="&amp;G26,"  num="&amp;F26))))</f>
+      <c r="K26" t="str">
+        <f>IF(J26="es","  "&amp;I26&amp;"_"&amp;J26&amp;"="&amp;VLOOKUP(I26&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J26="en","  "&amp;I26&amp;"_"&amp;J26&amp;"="&amp;VLOOKUP(I26&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J26="indice",$K$2&amp;"["&amp;H26&amp;"]",IF(J26="pnl","  pnl="&amp;G26,"  num="&amp;F26))))</f>
         <v xml:space="preserve">  leo_es=Hay competencia en el trabajo un superior está jugando el juego de un rival tuyo. ese intento de provocación puede ser una oferta de amor disfrazada. Muéstrate firme y establece claramente que no estás dispuesto a soportarlo de brazos cruzados. Es una especie de carrera contra el tiempo ahora entonces cuando alguien te pida ayuda se la negarás. La acción por impulso está excluída hoy te colocará en una posición incomoda.</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>3204</v>
+        <v>9688</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>521730</v>
+        <v>761681</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 8; 3204; 521730</v>
+        <v>1,6 y 9; 9688; 761681</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(I27,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H27,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H27" t="str">
-        <f>VLOOKUP(I27,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I27">
+      <c r="H27">
         <v>4</v>
       </c>
-      <c r="J27" t="str">
-        <f>VLOOKUP(I27,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I27" t="str">
+        <f>VLOOKUP(H27,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>leo</v>
       </c>
-      <c r="K27" t="s">
+      <c r="J27" t="s">
         <v>432</v>
       </c>
-      <c r="L27" t="str">
-        <f>IF(K27="es","  "&amp;J27&amp;"_"&amp;K27&amp;"="&amp;VLOOKUP(J27&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K27="en","  "&amp;J27&amp;"_"&amp;K27&amp;"="&amp;VLOOKUP(J27&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K27="indice",$L$2&amp;"["&amp;I27&amp;"]",IF(K27="pnl","  pnl="&amp;G27,"  num="&amp;F27))))</f>
+      <c r="K27" t="str">
+        <f>IF(J27="es","  "&amp;I27&amp;"_"&amp;J27&amp;"="&amp;VLOOKUP(I27&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J27="en","  "&amp;I27&amp;"_"&amp;J27&amp;"="&amp;VLOOKUP(I27&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J27="indice",$K$2&amp;"["&amp;H27&amp;"]",IF(J27="pnl","  pnl="&amp;G27,"  num="&amp;F27))))</f>
         <v xml:space="preserve">  leo_en=There is competition at work a superior is playing the game of a rival of yours. that attempt at provocation can be an offer of love in disguise. Be firm and clearly state that you are not willing to stand with folded arms. It is a kind of race against time now when someone asks you for help you will deny it. The action by impulse is excluded today will place you in an uncomfortable position.</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
@@ -11405,139 +11305,127 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>7429</v>
+        <v>6790</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>211908</v>
+        <v>157010</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 9; 7429; 211908</v>
+        <v>3,6 y 9; 6790; 157010</v>
       </c>
       <c r="G28" t="str">
-        <f>VLOOKUP(I28,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H28,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H28" t="str">
-        <f>VLOOKUP(I28,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I28">
+      <c r="H28">
         <v>5</v>
       </c>
-      <c r="J28" t="str">
-        <f>VLOOKUP(I28,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I28" t="str">
+        <f>VLOOKUP(H28,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="K28" t="s">
+      <c r="J28" t="s">
         <v>433</v>
       </c>
-      <c r="L28" t="str">
-        <f>IF(K28="es","  "&amp;J28&amp;"_"&amp;K28&amp;"="&amp;VLOOKUP(J28&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K28="en","  "&amp;J28&amp;"_"&amp;K28&amp;"="&amp;VLOOKUP(J28&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K28="indice",$L$2&amp;"["&amp;I28&amp;"]",IF(K28="pnl","  pnl="&amp;G28,"  num="&amp;F28))))</f>
+      <c r="K28" t="str">
+        <f>IF(J28="es","  "&amp;I28&amp;"_"&amp;J28&amp;"="&amp;VLOOKUP(I28&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J28="en","  "&amp;I28&amp;"_"&amp;J28&amp;"="&amp;VLOOKUP(I28&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J28="indice",$K$2&amp;"["&amp;H28&amp;"]",IF(J28="pnl","  pnl="&amp;G28,"  num="&amp;F28))))</f>
         <v>horoscopo[5]</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>7801</v>
+        <v>6954</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>315021</v>
+        <v>689506</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 9; 7801; 315021</v>
+        <v>4,5 y 8; 6954; 689506</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(I29,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H29,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H29" t="str">
-        <f>VLOOKUP(I29,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I29">
+      <c r="H29">
         <v>5</v>
       </c>
-      <c r="J29" t="str">
-        <f>VLOOKUP(I29,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I29" t="str">
+        <f>VLOOKUP(H29,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="K29" t="s">
+      <c r="J29" t="s">
         <v>613</v>
       </c>
-      <c r="L29" t="str">
-        <f ca="1">IF(K29="es","  "&amp;J29&amp;"_"&amp;K29&amp;"="&amp;VLOOKUP(J29&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K29="en","  "&amp;J29&amp;"_"&amp;K29&amp;"="&amp;VLOOKUP(J29&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K29="indice",$L$2&amp;"["&amp;I29&amp;"]",IF(K29="pnl","  pnl="&amp;G29,"  num="&amp;F29))))</f>
-        <v xml:space="preserve">  num=4,7 y 9; 7801; 315021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K29" t="str">
+        <f ca="1">IF(J29="es","  "&amp;I29&amp;"_"&amp;J29&amp;"="&amp;VLOOKUP(I29&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J29="en","  "&amp;I29&amp;"_"&amp;J29&amp;"="&amp;VLOOKUP(I29&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J29="indice",$K$2&amp;"["&amp;H29&amp;"]",IF(J29="pnl","  pnl="&amp;G29,"  num="&amp;F29))))</f>
+        <v xml:space="preserve">  num=4,5 y 8; 6954; 689506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>6890</v>
+        <v>2412</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>633694</v>
+        <v>994001</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 9; 6890; 633694</v>
+        <v>2,7 y 8; 2412; 994001</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(I30,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H30,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H30" t="str">
-        <f>VLOOKUP(I30,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I30">
+      <c r="H30">
         <v>5</v>
       </c>
-      <c r="J30" t="str">
-        <f>VLOOKUP(I30,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I30" t="str">
+        <f>VLOOKUP(H30,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="K30" t="s">
+      <c r="J30" t="s">
         <v>614</v>
       </c>
-      <c r="L30" t="str">
-        <f>IF(K30="es","  "&amp;J30&amp;"_"&amp;K30&amp;"="&amp;VLOOKUP(J30&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K30="en","  "&amp;J30&amp;"_"&amp;K30&amp;"="&amp;VLOOKUP(J30&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K30="indice",$L$2&amp;"["&amp;I30&amp;"]",IF(K30="pnl","  pnl="&amp;G30,"  num="&amp;F30))))</f>
+      <c r="K30" t="str">
+        <f>IF(J30="es","  "&amp;I30&amp;"_"&amp;J30&amp;"="&amp;VLOOKUP(I30&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J30="en","  "&amp;I30&amp;"_"&amp;J30&amp;"="&amp;VLOOKUP(I30&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J30="indice",$K$2&amp;"["&amp;H30&amp;"]",IF(J30="pnl","  pnl="&amp;G30,"  num="&amp;F30))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
@@ -11549,47 +11437,43 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>5207</v>
+        <v>6320</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>735230</v>
+        <v>605151</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 9; 5207; 735230</v>
+        <v>2,5 y 9; 6320; 605151</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(I31,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H31,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H31" t="str">
-        <f>VLOOKUP(I31,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I31">
+      <c r="H31">
         <v>5</v>
       </c>
-      <c r="J31" t="str">
-        <f>VLOOKUP(I31,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I31" t="str">
+        <f>VLOOKUP(H31,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="K31" t="s">
+      <c r="J31" t="s">
         <v>126</v>
       </c>
-      <c r="L31" t="str">
-        <f>IF(K31="es","  "&amp;J31&amp;"_"&amp;K31&amp;"="&amp;VLOOKUP(J31&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K31="en","  "&amp;J31&amp;"_"&amp;K31&amp;"="&amp;VLOOKUP(J31&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K31="indice",$L$2&amp;"["&amp;I31&amp;"]",IF(K31="pnl","  pnl="&amp;G31,"  num="&amp;F31))))</f>
+      <c r="K31" t="str">
+        <f>IF(J31="es","  "&amp;I31&amp;"_"&amp;J31&amp;"="&amp;VLOOKUP(I31&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J31="en","  "&amp;I31&amp;"_"&amp;J31&amp;"="&amp;VLOOKUP(I31&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J31="indice",$K$2&amp;"["&amp;H31&amp;"]",IF(J31="pnl","  pnl="&amp;G31,"  num="&amp;F31))))</f>
         <v xml:space="preserve">  virgo_es=Vigila de cerca tus finanzas. Puedes llegar a conflicto con alguien que puede interrumpirte tu progreso al menos por el momento. Hay síntomas seguros de que estas quemando etapas En un minuto aprendes nuevas trampas y en el otro se las estás enseñando a otros. Los asuntos profesionales se presentan cargados, incluso agobiantes debes sacarlos adelante en la medida de tus posibilidades. Créelo o no pese a tu esp+irita independiente mejor unes fuerzas con alguien por razones profesionales.</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
@@ -11597,47 +11481,43 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>2896</v>
+        <v>1817</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>588318</v>
+        <v>954420</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 8; 2896; 588318</v>
+        <v>1,6 y 8; 1817; 954420</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(I32,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H32,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H32" t="str">
-        <f>VLOOKUP(I32,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I32">
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="J32" t="str">
-        <f>VLOOKUP(I32,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I32" t="str">
+        <f>VLOOKUP(H32,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>virgo</v>
       </c>
-      <c r="K32" t="s">
+      <c r="J32" t="s">
         <v>432</v>
       </c>
-      <c r="L32" t="str">
-        <f>IF(K32="es","  "&amp;J32&amp;"_"&amp;K32&amp;"="&amp;VLOOKUP(J32&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K32="en","  "&amp;J32&amp;"_"&amp;K32&amp;"="&amp;VLOOKUP(J32&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K32="indice",$L$2&amp;"["&amp;I32&amp;"]",IF(K32="pnl","  pnl="&amp;G32,"  num="&amp;F32))))</f>
+      <c r="K32" t="str">
+        <f>IF(J32="es","  "&amp;I32&amp;"_"&amp;J32&amp;"="&amp;VLOOKUP(I32&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J32="en","  "&amp;I32&amp;"_"&amp;J32&amp;"="&amp;VLOOKUP(I32&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J32="indice",$K$2&amp;"["&amp;H32&amp;"]",IF(J32="pnl","  pnl="&amp;G32,"  num="&amp;F32))))</f>
         <v xml:space="preserve">  virgo_en=Keep a close eye on your finances. You can come into conflict with someone who can interrupt your progress at least for the time being. There are sure symptoms that you are burning stages In one minute you learn new traps and in the other you are teaching them to others. Professional matters are charged, even overwhelming, you must take them forward to the best of your ability. Believe it or not despite your esp + irita independent you better join forces with someone for professional reasons.</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
@@ -11645,47 +11525,43 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="3"/>
-        <v>4677</v>
+        <v>1228</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>610891</v>
+        <v>404754</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 8; 4677; 610891</v>
+        <v>1,5 y 8; 1228; 404754</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(I33,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H33,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H33" t="str">
-        <f>VLOOKUP(I33,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I33">
+      <c r="H33">
         <v>6</v>
       </c>
-      <c r="J33" t="str">
-        <f>VLOOKUP(I33,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I33" t="str">
+        <f>VLOOKUP(H33,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="K33" t="s">
+      <c r="J33" t="s">
         <v>433</v>
       </c>
-      <c r="L33" t="str">
-        <f>IF(K33="es","  "&amp;J33&amp;"_"&amp;K33&amp;"="&amp;VLOOKUP(J33&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K33="en","  "&amp;J33&amp;"_"&amp;K33&amp;"="&amp;VLOOKUP(J33&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K33="indice",$L$2&amp;"["&amp;I33&amp;"]",IF(K33="pnl","  pnl="&amp;G33,"  num="&amp;F33))))</f>
+      <c r="K33" t="str">
+        <f>IF(J33="es","  "&amp;I33&amp;"_"&amp;J33&amp;"="&amp;VLOOKUP(I33&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J33="en","  "&amp;I33&amp;"_"&amp;J33&amp;"="&amp;VLOOKUP(I33&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J33="indice",$K$2&amp;"["&amp;H33&amp;"]",IF(J33="pnl","  pnl="&amp;G33,"  num="&amp;F33))))</f>
         <v>horoscopo[6]</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
@@ -11693,187 +11569,171 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>5548</v>
+        <v>6882</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>195383</v>
+        <v>182471</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 5548; 195383</v>
+        <v>1,7 y 9; 6882; 182471</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(I34,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H34,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H34" t="str">
-        <f>VLOOKUP(I34,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I34">
+      <c r="H34">
         <v>6</v>
       </c>
-      <c r="J34" t="str">
-        <f>VLOOKUP(I34,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I34" t="str">
+        <f>VLOOKUP(H34,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="K34" t="s">
+      <c r="J34" t="s">
         <v>613</v>
       </c>
-      <c r="L34" t="str">
-        <f ca="1">IF(K34="es","  "&amp;J34&amp;"_"&amp;K34&amp;"="&amp;VLOOKUP(J34&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K34="en","  "&amp;J34&amp;"_"&amp;K34&amp;"="&amp;VLOOKUP(J34&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K34="indice",$L$2&amp;"["&amp;I34&amp;"]",IF(K34="pnl","  pnl="&amp;G34,"  num="&amp;F34))))</f>
-        <v xml:space="preserve">  num=4,5 y 9; 5548; 195383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K34" t="str">
+        <f ca="1">IF(J34="es","  "&amp;I34&amp;"_"&amp;J34&amp;"="&amp;VLOOKUP(I34&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J34="en","  "&amp;I34&amp;"_"&amp;J34&amp;"="&amp;VLOOKUP(I34&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J34="indice",$K$2&amp;"["&amp;H34&amp;"]",IF(J34="pnl","  pnl="&amp;G34,"  num="&amp;F34))))</f>
+        <v xml:space="preserve">  num=1,7 y 9; 6882; 182471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>4246</v>
+        <v>3910</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>388791</v>
+        <v>787198</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 8; 4246; 388791</v>
+        <v>3,7 y 9; 3910; 787198</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(I35,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H35,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H35" t="str">
-        <f>VLOOKUP(I35,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I35">
+      <c r="H35">
         <v>6</v>
       </c>
-      <c r="J35" t="str">
-        <f>VLOOKUP(I35,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I35" t="str">
+        <f>VLOOKUP(H35,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="K35" t="s">
+      <c r="J35" t="s">
         <v>614</v>
       </c>
-      <c r="L35" t="str">
-        <f>IF(K35="es","  "&amp;J35&amp;"_"&amp;K35&amp;"="&amp;VLOOKUP(J35&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K35="en","  "&amp;J35&amp;"_"&amp;K35&amp;"="&amp;VLOOKUP(J35&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K35="indice",$L$2&amp;"["&amp;I35&amp;"]",IF(K35="pnl","  pnl="&amp;G35,"  num="&amp;F35))))</f>
+      <c r="K35" t="str">
+        <f>IF(J35="es","  "&amp;I35&amp;"_"&amp;J35&amp;"="&amp;VLOOKUP(I35&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J35="en","  "&amp;I35&amp;"_"&amp;J35&amp;"="&amp;VLOOKUP(I35&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J35="indice",$K$2&amp;"["&amp;H35&amp;"]",IF(J35="pnl","  pnl="&amp;G35,"  num="&amp;F35))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>5238</v>
+        <v>5716</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>138521</v>
+        <v>566102</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 8; 5238; 138521</v>
+        <v>1,6 y 9; 5716; 566102</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(I36,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H36,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H36" t="str">
-        <f>VLOOKUP(I36,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I36">
+      <c r="H36">
         <v>6</v>
       </c>
-      <c r="J36" t="str">
-        <f>VLOOKUP(I36,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I36" t="str">
+        <f>VLOOKUP(H36,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="K36" t="s">
+      <c r="J36" t="s">
         <v>126</v>
       </c>
-      <c r="L36" t="str">
-        <f>IF(K36="es","  "&amp;J36&amp;"_"&amp;K36&amp;"="&amp;VLOOKUP(J36&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K36="en","  "&amp;J36&amp;"_"&amp;K36&amp;"="&amp;VLOOKUP(J36&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K36="indice",$L$2&amp;"["&amp;I36&amp;"]",IF(K36="pnl","  pnl="&amp;G36,"  num="&amp;F36))))</f>
+      <c r="K36" t="str">
+        <f>IF(J36="es","  "&amp;I36&amp;"_"&amp;J36&amp;"="&amp;VLOOKUP(I36&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J36="en","  "&amp;I36&amp;"_"&amp;J36&amp;"="&amp;VLOOKUP(I36&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J36="indice",$K$2&amp;"["&amp;H36&amp;"]",IF(J36="pnl","  pnl="&amp;G36,"  num="&amp;F36))))</f>
         <v xml:space="preserve">  libra_es=Hay grandes cambios en puerta para tí en todos los aspectos en los próximos meses estás fuertemente avisado para que lo tomes con calma y te prepares para tiempos difíciles. El la vida hay algo mas que sòlo trabajo, trabajo y trabajo Algo ocurre hoy que te recuerda que es hora de espabilarte y gozar de la vida. Los viajes, la carrera y las finanzas están íntimamente vinculados puede ser que se presente una oportunidad en la carrera. Las finanzas juegan un creciente papel en tu actual línea de pensamiento Toma ventaja de la situación y mira a ver cómo puedes mejorar tu seguridad a largo plazo. Hoy es un día para recuperar recuerdos.</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>4142</v>
+        <v>4013</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>813232</v>
+        <v>810761</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 8; 4142; 813232</v>
+        <v>4,5 y 9; 4013; 810761</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(I37,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H37,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H37" t="str">
-        <f>VLOOKUP(I37,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I37">
+      <c r="H37">
         <v>6</v>
       </c>
-      <c r="J37" t="str">
-        <f>VLOOKUP(I37,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I37" t="str">
+        <f>VLOOKUP(H37,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>libra</v>
       </c>
-      <c r="K37" t="s">
+      <c r="J37" t="s">
         <v>432</v>
       </c>
-      <c r="L37" t="str">
-        <f>IF(K37="es","  "&amp;J37&amp;"_"&amp;K37&amp;"="&amp;VLOOKUP(J37&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K37="en","  "&amp;J37&amp;"_"&amp;K37&amp;"="&amp;VLOOKUP(J37&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K37="indice",$L$2&amp;"["&amp;I37&amp;"]",IF(K37="pnl","  pnl="&amp;G37,"  num="&amp;F37))))</f>
+      <c r="K37" t="str">
+        <f>IF(J37="es","  "&amp;I37&amp;"_"&amp;J37&amp;"="&amp;VLOOKUP(I37&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J37="en","  "&amp;I37&amp;"_"&amp;J37&amp;"="&amp;VLOOKUP(I37&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J37="indice",$K$2&amp;"["&amp;H37&amp;"]",IF(J37="pnl","  pnl="&amp;G37,"  num="&amp;F37))))</f>
         <v xml:space="preserve">  libra_en=Hay grandes cambios en puerta para tí en todos los aspectos en los próximos meses estás fuertemente avisado para que lo tomes con calma y te prepares para tiempos difíciles. El la vida hay algo mas que sòlo trabajo, trabajo y trabajo Algo ocurre hoy que te recuerda que es hora de espabilarte y gozar de la vida. Los viajes, la carrera y las finanzas están íntimamente vinculados puede ser que se presente una oportunidad en la carrera. Las finanzas juegan un creciente papel en tu actual línea de pensamiento Toma ventaja de la situación y mira a ver cómo puedes mejorar tu seguridad a largo plazo. Hoy es un día para recuperar recuerdos.</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
@@ -11881,143 +11741,131 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>5279</v>
+        <v>7234</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>641206</v>
+        <v>453072</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 8; 5279; 641206</v>
+        <v>1,6 y 9; 7234; 453072</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(I38,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H38,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H38" t="str">
-        <f>VLOOKUP(I38,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I38">
+      <c r="H38">
         <v>7</v>
       </c>
-      <c r="J38" t="str">
-        <f>VLOOKUP(I38,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I38" t="str">
+        <f>VLOOKUP(H38,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="K38" t="s">
+      <c r="J38" t="s">
         <v>433</v>
       </c>
-      <c r="L38" t="str">
-        <f>IF(K38="es","  "&amp;J38&amp;"_"&amp;K38&amp;"="&amp;VLOOKUP(J38&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K38="en","  "&amp;J38&amp;"_"&amp;K38&amp;"="&amp;VLOOKUP(J38&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K38="indice",$L$2&amp;"["&amp;I38&amp;"]",IF(K38="pnl","  pnl="&amp;G38,"  num="&amp;F38))))</f>
+      <c r="K38" t="str">
+        <f>IF(J38="es","  "&amp;I38&amp;"_"&amp;J38&amp;"="&amp;VLOOKUP(I38&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J38="en","  "&amp;I38&amp;"_"&amp;J38&amp;"="&amp;VLOOKUP(I38&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J38="indice",$K$2&amp;"["&amp;H38&amp;"]",IF(J38="pnl","  pnl="&amp;G38,"  num="&amp;F38))))</f>
         <v>horoscopo[7]</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>9722</v>
+        <v>5028</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>590579</v>
+        <v>366483</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 8; 9722; 590579</v>
+        <v>1,7 y 9; 5028; 366483</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(I39,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H39,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H39" t="str">
-        <f>VLOOKUP(I39,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I39">
+      <c r="H39">
         <v>7</v>
       </c>
-      <c r="J39" t="str">
-        <f>VLOOKUP(I39,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I39" t="str">
+        <f>VLOOKUP(H39,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="K39" t="s">
+      <c r="J39" t="s">
         <v>613</v>
       </c>
-      <c r="L39" t="str">
-        <f ca="1">IF(K39="es","  "&amp;J39&amp;"_"&amp;K39&amp;"="&amp;VLOOKUP(J39&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K39="en","  "&amp;J39&amp;"_"&amp;K39&amp;"="&amp;VLOOKUP(J39&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K39="indice",$L$2&amp;"["&amp;I39&amp;"]",IF(K39="pnl","  pnl="&amp;G39,"  num="&amp;F39))))</f>
-        <v xml:space="preserve">  num=3,5 y 8; 9722; 590579</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K39" t="str">
+        <f ca="1">IF(J39="es","  "&amp;I39&amp;"_"&amp;J39&amp;"="&amp;VLOOKUP(I39&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J39="en","  "&amp;I39&amp;"_"&amp;J39&amp;"="&amp;VLOOKUP(I39&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J39="indice",$K$2&amp;"["&amp;H39&amp;"]",IF(J39="pnl","  pnl="&amp;G39,"  num="&amp;F39))))</f>
+        <v xml:space="preserve">  num=1,7 y 9; 5028; 366483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>4692</v>
+        <v>9489</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>198457</v>
+        <v>165576</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 8; 4692; 198457</v>
+        <v>4,6 y 9; 9489; 165576</v>
       </c>
       <c r="G40" t="str">
-        <f>VLOOKUP(I40,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H40,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H40" t="str">
-        <f>VLOOKUP(I40,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I40">
+      <c r="H40">
         <v>7</v>
       </c>
-      <c r="J40" t="str">
-        <f>VLOOKUP(I40,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I40" t="str">
+        <f>VLOOKUP(H40,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="K40" t="s">
+      <c r="J40" t="s">
         <v>614</v>
       </c>
-      <c r="L40" t="str">
-        <f>IF(K40="es","  "&amp;J40&amp;"_"&amp;K40&amp;"="&amp;VLOOKUP(J40&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K40="en","  "&amp;J40&amp;"_"&amp;K40&amp;"="&amp;VLOOKUP(J40&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K40="indice",$L$2&amp;"["&amp;I40&amp;"]",IF(K40="pnl","  pnl="&amp;G40,"  num="&amp;F40))))</f>
+      <c r="K40" t="str">
+        <f>IF(J40="es","  "&amp;I40&amp;"_"&amp;J40&amp;"="&amp;VLOOKUP(I40&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J40="en","  "&amp;I40&amp;"_"&amp;J40&amp;"="&amp;VLOOKUP(I40&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J40="indice",$K$2&amp;"["&amp;H40&amp;"]",IF(J40="pnl","  pnl="&amp;G40,"  num="&amp;F40))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
@@ -12025,147 +11873,135 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>9004</v>
+        <v>1823</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>239152</v>
+        <v>313697</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 9; 9004; 239152</v>
+        <v>4,5 y 8; 1823; 313697</v>
       </c>
       <c r="G41" t="str">
-        <f>VLOOKUP(I41,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H41,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H41" t="str">
-        <f>VLOOKUP(I41,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I41">
+      <c r="H41">
         <v>7</v>
       </c>
-      <c r="J41" t="str">
-        <f>VLOOKUP(I41,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I41" t="str">
+        <f>VLOOKUP(H41,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="K41" t="s">
+      <c r="J41" t="s">
         <v>126</v>
       </c>
-      <c r="L41" t="str">
-        <f>IF(K41="es","  "&amp;J41&amp;"_"&amp;K41&amp;"="&amp;VLOOKUP(J41&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K41="en","  "&amp;J41&amp;"_"&amp;K41&amp;"="&amp;VLOOKUP(J41&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K41="indice",$L$2&amp;"["&amp;I41&amp;"]",IF(K41="pnl","  pnl="&amp;G41,"  num="&amp;F41))))</f>
+      <c r="K41" t="str">
+        <f>IF(J41="es","  "&amp;I41&amp;"_"&amp;J41&amp;"="&amp;VLOOKUP(I41&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J41="en","  "&amp;I41&amp;"_"&amp;J41&amp;"="&amp;VLOOKUP(I41&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J41="indice",$K$2&amp;"["&amp;H41&amp;"]",IF(J41="pnl","  pnl="&amp;G41,"  num="&amp;F41))))</f>
         <v xml:space="preserve">  escorpio_es=Estás en disposición de admitir que has cometido un error No tienes que publicarlo. Otros harán que las cosas se vean a su manera No vas a empecinarte pero sí a mantener tus posiciones. Con sólo desear, esperar y soñar no es suficiente para ir a donde deseas Toma una acción concreta. Las decisiones financieras hechas el día de hoy pueden resultar ser una excelente inversión para el futuro. Si te apetece, adelante, no lo pienses.</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>6788</v>
+        <v>1890</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>991587</v>
+        <v>415815</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 8; 6788; 991587</v>
+        <v>1,7 y 9; 1890; 415815</v>
       </c>
       <c r="G42" t="str">
-        <f>VLOOKUP(I42,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H42,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H42" t="str">
-        <f>VLOOKUP(I42,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I42">
+      <c r="H42">
         <v>7</v>
       </c>
-      <c r="J42" t="str">
-        <f>VLOOKUP(I42,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I42" t="str">
+        <f>VLOOKUP(H42,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>escorpio</v>
       </c>
-      <c r="K42" t="s">
+      <c r="J42" t="s">
         <v>432</v>
       </c>
-      <c r="L42" t="str">
-        <f>IF(K42="es","  "&amp;J42&amp;"_"&amp;K42&amp;"="&amp;VLOOKUP(J42&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K42="en","  "&amp;J42&amp;"_"&amp;K42&amp;"="&amp;VLOOKUP(J42&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K42="indice",$L$2&amp;"["&amp;I42&amp;"]",IF(K42="pnl","  pnl="&amp;G42,"  num="&amp;F42))))</f>
+      <c r="K42" t="str">
+        <f>IF(J42="es","  "&amp;I42&amp;"_"&amp;J42&amp;"="&amp;VLOOKUP(I42&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J42="en","  "&amp;I42&amp;"_"&amp;J42&amp;"="&amp;VLOOKUP(I42&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J42="indice",$K$2&amp;"["&amp;H42&amp;"]",IF(J42="pnl","  pnl="&amp;G42,"  num="&amp;F42))))</f>
         <v xml:space="preserve">  escorpio_en=You are willing to admit that you have made a mistake. You do not have to publish it. Others will make things look their way You will not stubbornly but you will keep your positions. Just wanting, waiting and dreaming is not enough to go where you want Take a concrete action. Financial decisions made today can prove to be an excellent investment for the future. If you feel like it, go ahead, do not think about it.</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>3517</v>
+        <v>7034</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>878411</v>
+        <v>457712</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 8; 3517; 878411</v>
+        <v>1,6 y 9; 7034; 457712</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(I43,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H43,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H43" t="str">
-        <f>VLOOKUP(I43,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I43">
+      <c r="H43">
         <v>8</v>
       </c>
-      <c r="J43" t="str">
-        <f>VLOOKUP(I43,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I43" t="str">
+        <f>VLOOKUP(H43,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="K43" t="s">
+      <c r="J43" t="s">
         <v>433</v>
       </c>
-      <c r="L43" t="str">
-        <f>IF(K43="es","  "&amp;J43&amp;"_"&amp;K43&amp;"="&amp;VLOOKUP(J43&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K43="en","  "&amp;J43&amp;"_"&amp;K43&amp;"="&amp;VLOOKUP(J43&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K43="indice",$L$2&amp;"["&amp;I43&amp;"]",IF(K43="pnl","  pnl="&amp;G43,"  num="&amp;F43))))</f>
+      <c r="K43" t="str">
+        <f>IF(J43="es","  "&amp;I43&amp;"_"&amp;J43&amp;"="&amp;VLOOKUP(I43&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J43="en","  "&amp;I43&amp;"_"&amp;J43&amp;"="&amp;VLOOKUP(I43&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J43="indice",$K$2&amp;"["&amp;H43&amp;"]",IF(J43="pnl","  pnl="&amp;G43,"  num="&amp;F43))))</f>
         <v>horoscopo[8]</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
@@ -12173,91 +12009,83 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>1107</v>
+        <v>3158</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>562002</v>
+        <v>233648</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 1107; 562002</v>
+        <v>4,5 y 9; 3158; 233648</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(I44,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H44,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H44" t="str">
-        <f>VLOOKUP(I44,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I44">
+      <c r="H44">
         <v>8</v>
       </c>
-      <c r="J44" t="str">
-        <f>VLOOKUP(I44,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I44" t="str">
+        <f>VLOOKUP(H44,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="K44" t="s">
+      <c r="J44" t="s">
         <v>613</v>
       </c>
-      <c r="L44" t="str">
-        <f ca="1">IF(K44="es","  "&amp;J44&amp;"_"&amp;K44&amp;"="&amp;VLOOKUP(J44&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K44="en","  "&amp;J44&amp;"_"&amp;K44&amp;"="&amp;VLOOKUP(J44&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K44="indice",$L$2&amp;"["&amp;I44&amp;"]",IF(K44="pnl","  pnl="&amp;G44,"  num="&amp;F44))))</f>
-        <v xml:space="preserve">  num=1,6 y 9; 1107; 562002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K44" t="str">
+        <f ca="1">IF(J44="es","  "&amp;I44&amp;"_"&amp;J44&amp;"="&amp;VLOOKUP(I44&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J44="en","  "&amp;I44&amp;"_"&amp;J44&amp;"="&amp;VLOOKUP(I44&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J44="indice",$K$2&amp;"["&amp;H44&amp;"]",IF(J44="pnl","  pnl="&amp;G44,"  num="&amp;F44))))</f>
+        <v xml:space="preserve">  num=4,5 y 9; 3158; 233648</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>6984</v>
+        <v>7192</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>994189</v>
+        <v>170951</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 8; 6984; 994189</v>
+        <v>1,6 y 9; 7192; 170951</v>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(I45,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H45,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H45" t="str">
-        <f>VLOOKUP(I45,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I45">
+      <c r="H45">
         <v>8</v>
       </c>
-      <c r="J45" t="str">
-        <f>VLOOKUP(I45,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I45" t="str">
+        <f>VLOOKUP(H45,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="K45" t="s">
+      <c r="J45" t="s">
         <v>614</v>
       </c>
-      <c r="L45" t="str">
-        <f>IF(K45="es","  "&amp;J45&amp;"_"&amp;K45&amp;"="&amp;VLOOKUP(J45&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K45="en","  "&amp;J45&amp;"_"&amp;K45&amp;"="&amp;VLOOKUP(J45&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K45="indice",$L$2&amp;"["&amp;I45&amp;"]",IF(K45="pnl","  pnl="&amp;G45,"  num="&amp;F45))))</f>
+      <c r="K45" t="str">
+        <f>IF(J45="es","  "&amp;I45&amp;"_"&amp;J45&amp;"="&amp;VLOOKUP(I45&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J45="en","  "&amp;I45&amp;"_"&amp;J45&amp;"="&amp;VLOOKUP(I45&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J45="indice",$K$2&amp;"["&amp;H45&amp;"]",IF(J45="pnl","  pnl="&amp;G45,"  num="&amp;F45))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
@@ -12265,44 +12093,40 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>3516</v>
+        <v>7936</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>515162</v>
+        <v>200690</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 8; 3516; 515162</v>
+        <v>3,5 y 9; 7936; 200690</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(I46,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H46,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H46" t="str">
-        <f>VLOOKUP(I46,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I46">
+      <c r="H46">
         <v>8</v>
       </c>
-      <c r="J46" t="str">
-        <f>VLOOKUP(I46,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I46" t="str">
+        <f>VLOOKUP(H46,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="K46" t="s">
+      <c r="J46" t="s">
         <v>126</v>
       </c>
-      <c r="L46" t="str">
-        <f>IF(K46="es","  "&amp;J46&amp;"_"&amp;K46&amp;"="&amp;VLOOKUP(J46&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K46="en","  "&amp;J46&amp;"_"&amp;K46&amp;"="&amp;VLOOKUP(J46&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K46="indice",$L$2&amp;"["&amp;I46&amp;"]",IF(K46="pnl","  pnl="&amp;G46,"  num="&amp;F46))))</f>
+      <c r="K46" t="str">
+        <f>IF(J46="es","  "&amp;I46&amp;"_"&amp;J46&amp;"="&amp;VLOOKUP(I46&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J46="en","  "&amp;I46&amp;"_"&amp;J46&amp;"="&amp;VLOOKUP(I46&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J46="indice",$K$2&amp;"["&amp;H46&amp;"]",IF(J46="pnl","  pnl="&amp;G46,"  num="&amp;F46))))</f>
         <v xml:space="preserve">  sagitario_es=Si actúas movida por el capricho, acabarás adquiriendo algo a sobreprecio o que no vale la pena Se necesita algo de contención por lo menos en las cuestiones de dinero. Tienes una fuente infinita de coraje que te ayudará en momentos duros. Las fuerzas astrales te animan a olvidar tus obligaciones hoy puedes estimar que los compromises con tu carrera son un fardo, y tu atención se desvía con facilidad. Se puede resolver un dilema si así te lo propones aplica tus poderes de concentración y análisis. Unos encuentros agradables le devolverán la confianza en los demás</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -12313,291 +12137,267 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>5216</v>
+        <v>2776</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>733121</v>
+        <v>394756</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 9; 5216; 733121</v>
+        <v>1,5 y 8; 2776; 394756</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(I47,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H47,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H47" t="str">
-        <f>VLOOKUP(I47,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I47">
+      <c r="H47">
         <v>8</v>
       </c>
-      <c r="J47" t="str">
-        <f>VLOOKUP(I47,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I47" t="str">
+        <f>VLOOKUP(H47,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>sagitario</v>
       </c>
-      <c r="K47" t="s">
+      <c r="J47" t="s">
         <v>432</v>
       </c>
-      <c r="L47" t="str">
-        <f>IF(K47="es","  "&amp;J47&amp;"_"&amp;K47&amp;"="&amp;VLOOKUP(J47&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K47="en","  "&amp;J47&amp;"_"&amp;K47&amp;"="&amp;VLOOKUP(J47&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K47="indice",$L$2&amp;"["&amp;I47&amp;"]",IF(K47="pnl","  pnl="&amp;G47,"  num="&amp;F47))))</f>
+      <c r="K47" t="str">
+        <f>IF(J47="es","  "&amp;I47&amp;"_"&amp;J47&amp;"="&amp;VLOOKUP(I47&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J47="en","  "&amp;I47&amp;"_"&amp;J47&amp;"="&amp;VLOOKUP(I47&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J47="indice",$K$2&amp;"["&amp;H47&amp;"]",IF(J47="pnl","  pnl="&amp;G47,"  num="&amp;F47))))</f>
         <v xml:space="preserve">  sagitario_en=If you act on a whim, you will end up acquiring something at a premium or that it is not worth it. Some restraint is needed, at least in matters of money. You have an infinite source of courage that will help you in hard times. The astral forces encourage you to forget your obligations today you can estimate that the compromises with your career are a burden, and your attention deviates easily. A dilemma can be resolved if you propose to apply your powers of concentration and analysis. Pleasant encounters will restore confidence in others</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>3234</v>
+        <v>3106</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>637478</v>
+        <v>376488</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 8; 3234; 637478</v>
+        <v>1,6 y 9; 3106; 376488</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(I48,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H48,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H48" t="str">
-        <f>VLOOKUP(I48,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I48">
+      <c r="H48">
         <v>9</v>
       </c>
-      <c r="J48" t="str">
-        <f>VLOOKUP(I48,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I48" t="str">
+        <f>VLOOKUP(H48,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="K48" t="s">
+      <c r="J48" t="s">
         <v>433</v>
       </c>
-      <c r="L48" t="str">
-        <f>IF(K48="es","  "&amp;J48&amp;"_"&amp;K48&amp;"="&amp;VLOOKUP(J48&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K48="en","  "&amp;J48&amp;"_"&amp;K48&amp;"="&amp;VLOOKUP(J48&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K48="indice",$L$2&amp;"["&amp;I48&amp;"]",IF(K48="pnl","  pnl="&amp;G48,"  num="&amp;F48))))</f>
+      <c r="K48" t="str">
+        <f>IF(J48="es","  "&amp;I48&amp;"_"&amp;J48&amp;"="&amp;VLOOKUP(I48&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J48="en","  "&amp;I48&amp;"_"&amp;J48&amp;"="&amp;VLOOKUP(I48&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J48="indice",$K$2&amp;"["&amp;H48&amp;"]",IF(J48="pnl","  pnl="&amp;G48,"  num="&amp;F48))))</f>
         <v>horoscopo[9]</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>3400</v>
+        <v>8893</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>748549</v>
+        <v>518671</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 3400; 748549</v>
+        <v>3,7 y 8; 8893; 518671</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(I49,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H49,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H49" t="str">
-        <f>VLOOKUP(I49,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I49">
+      <c r="H49">
         <v>9</v>
       </c>
-      <c r="J49" t="str">
-        <f>VLOOKUP(I49,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I49" t="str">
+        <f>VLOOKUP(H49,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="K49" t="s">
+      <c r="J49" t="s">
         <v>613</v>
       </c>
-      <c r="L49" t="str">
-        <f ca="1">IF(K49="es","  "&amp;J49&amp;"_"&amp;K49&amp;"="&amp;VLOOKUP(J49&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K49="en","  "&amp;J49&amp;"_"&amp;K49&amp;"="&amp;VLOOKUP(J49&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K49="indice",$L$2&amp;"["&amp;I49&amp;"]",IF(K49="pnl","  pnl="&amp;G49,"  num="&amp;F49))))</f>
-        <v xml:space="preserve">  num=4,5 y 9; 3400; 748549</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K49" t="str">
+        <f ca="1">IF(J49="es","  "&amp;I49&amp;"_"&amp;J49&amp;"="&amp;VLOOKUP(I49&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J49="en","  "&amp;I49&amp;"_"&amp;J49&amp;"="&amp;VLOOKUP(I49&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J49="indice",$K$2&amp;"["&amp;H49&amp;"]",IF(J49="pnl","  pnl="&amp;G49,"  num="&amp;F49))))</f>
+        <v xml:space="preserve">  num=3,7 y 8; 8893; 518671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>5115</v>
+        <v>6109</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>416770</v>
+        <v>747900</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 8; 5115; 416770</v>
+        <v>2,6 y 9; 6109; 747900</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(I50,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H50,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H50" t="str">
-        <f>VLOOKUP(I50,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I50">
+      <c r="H50">
         <v>9</v>
       </c>
-      <c r="J50" t="str">
-        <f>VLOOKUP(I50,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I50" t="str">
+        <f>VLOOKUP(H50,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="K50" t="s">
+      <c r="J50" t="s">
         <v>614</v>
       </c>
-      <c r="L50" t="str">
-        <f>IF(K50="es","  "&amp;J50&amp;"_"&amp;K50&amp;"="&amp;VLOOKUP(J50&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K50="en","  "&amp;J50&amp;"_"&amp;K50&amp;"="&amp;VLOOKUP(J50&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K50="indice",$L$2&amp;"["&amp;I50&amp;"]",IF(K50="pnl","  pnl="&amp;G50,"  num="&amp;F50))))</f>
+      <c r="K50" t="str">
+        <f>IF(J50="es","  "&amp;I50&amp;"_"&amp;J50&amp;"="&amp;VLOOKUP(I50&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J50="en","  "&amp;I50&amp;"_"&amp;J50&amp;"="&amp;VLOOKUP(I50&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J50="indice",$K$2&amp;"["&amp;H50&amp;"]",IF(J50="pnl","  pnl="&amp;G50,"  num="&amp;F50))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="3"/>
-        <v>2867</v>
+        <v>5271</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>679935</v>
+        <v>574183</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 8; 2867; 679935</v>
+        <v>2,7 y 9; 5271; 574183</v>
       </c>
       <c r="G51" t="str">
-        <f>VLOOKUP(I51,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H51,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H51" t="str">
-        <f>VLOOKUP(I51,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I51">
+      <c r="H51">
         <v>9</v>
       </c>
-      <c r="J51" t="str">
-        <f>VLOOKUP(I51,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I51" t="str">
+        <f>VLOOKUP(H51,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="K51" t="s">
+      <c r="J51" t="s">
         <v>126</v>
       </c>
-      <c r="L51" t="str">
-        <f>IF(K51="es","  "&amp;J51&amp;"_"&amp;K51&amp;"="&amp;VLOOKUP(J51&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K51="en","  "&amp;J51&amp;"_"&amp;K51&amp;"="&amp;VLOOKUP(J51&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K51="indice",$L$2&amp;"["&amp;I51&amp;"]",IF(K51="pnl","  pnl="&amp;G51,"  num="&amp;F51))))</f>
+      <c r="K51" t="str">
+        <f>IF(J51="es","  "&amp;I51&amp;"_"&amp;J51&amp;"="&amp;VLOOKUP(I51&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J51="en","  "&amp;I51&amp;"_"&amp;J51&amp;"="&amp;VLOOKUP(I51&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J51="indice",$K$2&amp;"["&amp;H51&amp;"]",IF(J51="pnl","  pnl="&amp;G51,"  num="&amp;F51))))</f>
         <v xml:space="preserve">  capricornio_es=Estás radiante, conquistas y tu actitud vital es tan positiva y optimista que todos queremos arrimarnos a ti por si se nos pega algo de tu energía. En tu Casa cinco sacará a relucir al jugador competitivo e impetuoso que apuesta hasta la ropa interior en el terreno del amor. Esto incrementará tu popularidad hasta llegar a producir efectos que te sorprenderán. Quizá venga de la mano de un trabajo que complemente al que ya tienes. Estás tocado por la varita mágica de la palabra, así que aprovéchalo.</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="3"/>
-        <v>1167</v>
+        <v>5678</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>638309</v>
+        <v>495236</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 9; 1167; 638309</v>
+        <v>4,6 y 8; 5678; 495236</v>
       </c>
       <c r="G52" t="str">
-        <f>VLOOKUP(I52,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H52,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H52" t="str">
-        <f>VLOOKUP(I52,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I52">
+      <c r="H52">
         <v>9</v>
       </c>
-      <c r="J52" t="str">
-        <f>VLOOKUP(I52,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I52" t="str">
+        <f>VLOOKUP(H52,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>capricornio</v>
       </c>
-      <c r="K52" t="s">
+      <c r="J52" t="s">
         <v>432</v>
       </c>
-      <c r="L52" t="str">
-        <f>IF(K52="es","  "&amp;J52&amp;"_"&amp;K52&amp;"="&amp;VLOOKUP(J52&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K52="en","  "&amp;J52&amp;"_"&amp;K52&amp;"="&amp;VLOOKUP(J52&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K52="indice",$L$2&amp;"["&amp;I52&amp;"]",IF(K52="pnl","  pnl="&amp;G52,"  num="&amp;F52))))</f>
+      <c r="K52" t="str">
+        <f>IF(J52="es","  "&amp;I52&amp;"_"&amp;J52&amp;"="&amp;VLOOKUP(I52&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J52="en","  "&amp;I52&amp;"_"&amp;J52&amp;"="&amp;VLOOKUP(I52&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J52="indice",$K$2&amp;"["&amp;H52&amp;"]",IF(J52="pnl","  pnl="&amp;G52,"  num="&amp;F52))))</f>
         <v xml:space="preserve">  capricornio_en=You are radiant, you conquer and your vital attitude is so positive and optimistic that we all want to get close to you in case some of your energy hits us. In your House five will bring up the competitive and impetuous player who bets up underwear in the field of love. This will increase your popularity to produce effects that will surprise you. Maybe it comes from the hand of a job that complements the one you already have. You are touched by the magic wand of the word, so take advantage of it.</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
@@ -12605,91 +12405,83 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="3"/>
-        <v>8620</v>
+        <v>4644</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>691480</v>
+        <v>142330</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 9; 8620; 691480</v>
+        <v>2,6 y 9; 4644; 142330</v>
       </c>
       <c r="G53" t="str">
-        <f>VLOOKUP(I53,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H53,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H53" t="str">
-        <f>VLOOKUP(I53,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I53">
+      <c r="H53">
         <v>10</v>
       </c>
-      <c r="J53" t="str">
-        <f>VLOOKUP(I53,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I53" t="str">
+        <f>VLOOKUP(H53,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="K53" t="s">
+      <c r="J53" t="s">
         <v>433</v>
       </c>
-      <c r="L53" t="str">
-        <f>IF(K53="es","  "&amp;J53&amp;"_"&amp;K53&amp;"="&amp;VLOOKUP(J53&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K53="en","  "&amp;J53&amp;"_"&amp;K53&amp;"="&amp;VLOOKUP(J53&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K53="indice",$L$2&amp;"["&amp;I53&amp;"]",IF(K53="pnl","  pnl="&amp;G53,"  num="&amp;F53))))</f>
+      <c r="K53" t="str">
+        <f>IF(J53="es","  "&amp;I53&amp;"_"&amp;J53&amp;"="&amp;VLOOKUP(I53&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J53="en","  "&amp;I53&amp;"_"&amp;J53&amp;"="&amp;VLOOKUP(I53&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J53="indice",$K$2&amp;"["&amp;H53&amp;"]",IF(J53="pnl","  pnl="&amp;G53,"  num="&amp;F53))))</f>
         <v>horoscopo[10]</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="3"/>
-        <v>8786</v>
+        <v>2572</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>799653</v>
+        <v>727917</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 8; 8786; 799653</v>
+        <v>3,5 y 9; 2572; 727917</v>
       </c>
       <c r="G54" t="str">
-        <f>VLOOKUP(I54,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H54,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H54" t="str">
-        <f>VLOOKUP(I54,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I54">
+      <c r="H54">
         <v>10</v>
       </c>
-      <c r="J54" t="str">
-        <f>VLOOKUP(I54,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I54" t="str">
+        <f>VLOOKUP(H54,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="K54" t="s">
+      <c r="J54" t="s">
         <v>613</v>
       </c>
-      <c r="L54" t="str">
-        <f ca="1">IF(K54="es","  "&amp;J54&amp;"_"&amp;K54&amp;"="&amp;VLOOKUP(J54&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K54="en","  "&amp;J54&amp;"_"&amp;K54&amp;"="&amp;VLOOKUP(J54&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K54="indice",$L$2&amp;"["&amp;I54&amp;"]",IF(K54="pnl","  pnl="&amp;G54,"  num="&amp;F54))))</f>
-        <v xml:space="preserve">  num=1,6 y 8; 8786; 799653</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K54" t="str">
+        <f ca="1">IF(J54="es","  "&amp;I54&amp;"_"&amp;J54&amp;"="&amp;VLOOKUP(I54&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J54="en","  "&amp;I54&amp;"_"&amp;J54&amp;"="&amp;VLOOKUP(I54&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J54="indice",$K$2&amp;"["&amp;H54&amp;"]",IF(J54="pnl","  pnl="&amp;G54,"  num="&amp;F54))))</f>
+        <v xml:space="preserve">  num=3,5 y 9; 2572; 727917</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
@@ -12701,95 +12493,87 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="3"/>
-        <v>6785</v>
+        <v>5020</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>450142</v>
+        <v>640923</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 9; 6785; 450142</v>
+        <v>1,7 y 9; 5020; 640923</v>
       </c>
       <c r="G55" t="str">
-        <f>VLOOKUP(I55,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H55,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H55" t="str">
-        <f>VLOOKUP(I55,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I55">
+      <c r="H55">
         <v>10</v>
       </c>
-      <c r="J55" t="str">
-        <f>VLOOKUP(I55,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I55" t="str">
+        <f>VLOOKUP(H55,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="K55" t="s">
+      <c r="J55" t="s">
         <v>614</v>
       </c>
-      <c r="L55" t="str">
-        <f>IF(K55="es","  "&amp;J55&amp;"_"&amp;K55&amp;"="&amp;VLOOKUP(J55&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K55="en","  "&amp;J55&amp;"_"&amp;K55&amp;"="&amp;VLOOKUP(J55&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K55="indice",$L$2&amp;"["&amp;I55&amp;"]",IF(K55="pnl","  pnl="&amp;G55,"  num="&amp;F55))))</f>
+      <c r="K55" t="str">
+        <f>IF(J55="es","  "&amp;I55&amp;"_"&amp;J55&amp;"="&amp;VLOOKUP(I55&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J55="en","  "&amp;I55&amp;"_"&amp;J55&amp;"="&amp;VLOOKUP(I55&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J55="indice",$K$2&amp;"["&amp;H55&amp;"]",IF(J55="pnl","  pnl="&amp;G55,"  num="&amp;F55))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="3"/>
-        <v>2884</v>
+        <v>1389</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>133485</v>
+        <v>826046</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 8; 2884; 133485</v>
+        <v>3,6 y 9; 1389; 826046</v>
       </c>
       <c r="G56" t="str">
-        <f>VLOOKUP(I56,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H56,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H56" t="str">
-        <f>VLOOKUP(I56,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I56">
+      <c r="H56">
         <v>10</v>
       </c>
-      <c r="J56" t="str">
-        <f>VLOOKUP(I56,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I56" t="str">
+        <f>VLOOKUP(H56,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="K56" t="s">
+      <c r="J56" t="s">
         <v>126</v>
       </c>
-      <c r="L56" t="str">
-        <f>IF(K56="es","  "&amp;J56&amp;"_"&amp;K56&amp;"="&amp;VLOOKUP(J56&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K56="en","  "&amp;J56&amp;"_"&amp;K56&amp;"="&amp;VLOOKUP(J56&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K56="indice",$L$2&amp;"["&amp;I56&amp;"]",IF(K56="pnl","  pnl="&amp;G56,"  num="&amp;F56))))</f>
+      <c r="K56" t="str">
+        <f>IF(J56="es","  "&amp;I56&amp;"_"&amp;J56&amp;"="&amp;VLOOKUP(I56&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J56="en","  "&amp;I56&amp;"_"&amp;J56&amp;"="&amp;VLOOKUP(I56&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J56="indice",$K$2&amp;"["&amp;H56&amp;"]",IF(J56="pnl","  pnl="&amp;G56,"  num="&amp;F56))))</f>
         <v xml:space="preserve">  acuario_es=Quires salir adelante pero también quieres hacer feliz a otros Eso significa un duro equilibrio y la avenencia es imprescindible. Puede que otros hagan mas ruido que tú pero tu eres dueño de tu serenidad y de tu independencia. Es más fácil de lo que crees. Agradece las cosas buenas que tienes y las habrá mejores. Si los demás no le reconocen abiertamente, usted se sentirá decepcionado y asumirá la posición y los privilegios que considera que le corresponden.</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="2"/>
@@ -12797,40 +12581,36 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="3"/>
-        <v>4918</v>
+        <v>7896</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>301202</v>
+        <v>720387</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 9; 4918; 301202</v>
+        <v>4,6 y 9; 7896; 720387</v>
       </c>
       <c r="G57" t="str">
-        <f>VLOOKUP(I57,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H57,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H57" t="str">
-        <f>VLOOKUP(I57,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I57">
+      <c r="H57">
         <v>10</v>
       </c>
-      <c r="J57" t="str">
-        <f>VLOOKUP(I57,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I57" t="str">
+        <f>VLOOKUP(H57,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>acuario</v>
       </c>
-      <c r="K57" t="s">
+      <c r="J57" t="s">
         <v>432</v>
       </c>
-      <c r="L57" t="str">
-        <f>IF(K57="es","  "&amp;J57&amp;"_"&amp;K57&amp;"="&amp;VLOOKUP(J57&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K57="en","  "&amp;J57&amp;"_"&amp;K57&amp;"="&amp;VLOOKUP(J57&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K57="indice",$L$2&amp;"["&amp;I57&amp;"]",IF(K57="pnl","  pnl="&amp;G57,"  num="&amp;F57))))</f>
+      <c r="K57" t="str">
+        <f>IF(J57="es","  "&amp;I57&amp;"_"&amp;J57&amp;"="&amp;VLOOKUP(I57&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J57="en","  "&amp;I57&amp;"_"&amp;J57&amp;"="&amp;VLOOKUP(I57&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J57="indice",$K$2&amp;"["&amp;H57&amp;"]",IF(J57="pnl","  pnl="&amp;G57,"  num="&amp;F57))))</f>
         <v xml:space="preserve">  acuario_en=You want to get ahead but you also want to make others happy. That means a hard balance and compromise is essential. Others may make more noise than you but you are the owner of your serenity and independence. It is easier than you think. Thanks for the good things you have and there will be better things. If others do not openly acknowledge you, you will be disappointed and assume the position and privileges that you consider appropriate.</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
@@ -12845,47 +12625,43 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="3"/>
-        <v>6265</v>
+        <v>9291</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>473641</v>
+        <v>479240</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 9; 6265; 473641</v>
+        <v>4,7 y 9; 9291; 479240</v>
       </c>
       <c r="G58" t="str">
-        <f>VLOOKUP(I58,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H58,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H58" t="str">
-        <f>VLOOKUP(I58,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I58">
+      <c r="H58">
         <v>11</v>
       </c>
-      <c r="J58" t="str">
-        <f>VLOOKUP(I58,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I58" t="str">
+        <f>VLOOKUP(H58,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="K58" t="s">
+      <c r="J58" t="s">
         <v>433</v>
       </c>
-      <c r="L58" t="str">
-        <f>IF(K58="es","  "&amp;J58&amp;"_"&amp;K58&amp;"="&amp;VLOOKUP(J58&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K58="en","  "&amp;J58&amp;"_"&amp;K58&amp;"="&amp;VLOOKUP(J58&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K58="indice",$L$2&amp;"["&amp;I58&amp;"]",IF(K58="pnl","  pnl="&amp;G58,"  num="&amp;F58))))</f>
+      <c r="K58" t="str">
+        <f>IF(J58="es","  "&amp;I58&amp;"_"&amp;J58&amp;"="&amp;VLOOKUP(I58&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J58="en","  "&amp;I58&amp;"_"&amp;J58&amp;"="&amp;VLOOKUP(I58&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J58="indice",$K$2&amp;"["&amp;H58&amp;"]",IF(J58="pnl","  pnl="&amp;G58,"  num="&amp;F58))))</f>
         <v>horoscopo[11]</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
@@ -12893,43 +12669,39 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="3"/>
-        <v>3998</v>
+        <v>8673</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>155940</v>
+        <v>124735</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 3998; 155940</v>
+        <v>1,6 y 9; 8673; 124735</v>
       </c>
       <c r="G59" t="str">
-        <f>VLOOKUP(I59,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H59,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H59" t="str">
-        <f>VLOOKUP(I59,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I59">
+      <c r="H59">
         <v>11</v>
       </c>
-      <c r="J59" t="str">
-        <f>VLOOKUP(I59,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I59" t="str">
+        <f>VLOOKUP(H59,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="K59" t="s">
+      <c r="J59" t="s">
         <v>613</v>
       </c>
-      <c r="L59" t="str">
-        <f ca="1">IF(K59="es","  "&amp;J59&amp;"_"&amp;K59&amp;"="&amp;VLOOKUP(J59&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K59="en","  "&amp;J59&amp;"_"&amp;K59&amp;"="&amp;VLOOKUP(J59&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K59="indice",$L$2&amp;"["&amp;I59&amp;"]",IF(K59="pnl","  pnl="&amp;G59,"  num="&amp;F59))))</f>
-        <v xml:space="preserve">  num=4,5 y 9; 3998; 155940</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K59" t="str">
+        <f ca="1">IF(J59="es","  "&amp;I59&amp;"_"&amp;J59&amp;"="&amp;VLOOKUP(I59&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J59="en","  "&amp;I59&amp;"_"&amp;J59&amp;"="&amp;VLOOKUP(I59&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J59="indice",$K$2&amp;"["&amp;H59&amp;"]",IF(J59="pnl","  pnl="&amp;G59,"  num="&amp;F59))))</f>
+        <v xml:space="preserve">  num=1,6 y 9; 8673; 124735</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
@@ -12941,91 +12713,83 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="3"/>
-        <v>5435</v>
+        <v>5664</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>223971</v>
+        <v>667033</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 8; 5435; 223971</v>
+        <v>1,6 y 8; 5664; 667033</v>
       </c>
       <c r="G60" t="str">
-        <f>VLOOKUP(I60,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H60,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H60" t="str">
-        <f>VLOOKUP(I60,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I60">
+      <c r="H60">
         <v>11</v>
       </c>
-      <c r="J60" t="str">
-        <f>VLOOKUP(I60,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I60" t="str">
+        <f>VLOOKUP(H60,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="K60" t="s">
+      <c r="J60" t="s">
         <v>614</v>
       </c>
-      <c r="L60" t="str">
-        <f>IF(K60="es","  "&amp;J60&amp;"_"&amp;K60&amp;"="&amp;VLOOKUP(J60&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K60="en","  "&amp;J60&amp;"_"&amp;K60&amp;"="&amp;VLOOKUP(J60&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K60="indice",$L$2&amp;"["&amp;I60&amp;"]",IF(K60="pnl","  pnl="&amp;G60,"  num="&amp;F60))))</f>
+      <c r="K60" t="str">
+        <f>IF(J60="es","  "&amp;I60&amp;"_"&amp;J60&amp;"="&amp;VLOOKUP(I60&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J60="en","  "&amp;I60&amp;"_"&amp;J60&amp;"="&amp;VLOOKUP(I60&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J60="indice",$K$2&amp;"["&amp;H60&amp;"]",IF(J60="pnl","  pnl="&amp;G60,"  num="&amp;F60))))</f>
         <v xml:space="preserve">  pnl=pnl1; pnl2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="3"/>
-        <v>8747</v>
+        <v>7133</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>343110</v>
+        <v>996559</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 8; 8747; 343110</v>
+        <v>1,5 y 9; 7133; 996559</v>
       </c>
       <c r="G61" t="str">
-        <f>VLOOKUP(I61,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H61,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H61" t="str">
-        <f>VLOOKUP(I61,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I61">
+      <c r="H61">
         <v>11</v>
       </c>
-      <c r="J61" t="str">
-        <f>VLOOKUP(I61,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I61" t="str">
+        <f>VLOOKUP(H61,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="K61" t="s">
+      <c r="J61" t="s">
         <v>126</v>
       </c>
-      <c r="L61" t="str">
-        <f>IF(K61="es","  "&amp;J61&amp;"_"&amp;K61&amp;"="&amp;VLOOKUP(J61&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K61="en","  "&amp;J61&amp;"_"&amp;K61&amp;"="&amp;VLOOKUP(J61&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K61="indice",$L$2&amp;"["&amp;I61&amp;"]",IF(K61="pnl","  pnl="&amp;G61,"  num="&amp;F61))))</f>
+      <c r="K61" t="str">
+        <f>IF(J61="es","  "&amp;I61&amp;"_"&amp;J61&amp;"="&amp;VLOOKUP(I61&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J61="en","  "&amp;I61&amp;"_"&amp;J61&amp;"="&amp;VLOOKUP(I61&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J61="indice",$K$2&amp;"["&amp;H61&amp;"]",IF(J61="pnl","  pnl="&amp;G61,"  num="&amp;F61))))</f>
         <v xml:space="preserve">  piscis_es=Carga las baterías y asegúrate que tu apariencia es la mejor. Cuando se te vengan encima nuevas responsabilidades no temas Eres más que capaz de asumirlas y habrá alguien también dispuesto a echarte una mano si hace falta. Se acabó la diversión por un rato debes dedicarte ahora a un antiguo y duro trabajo. Actúa y recoge los beneficios. Necesitan tiempo y paciencia.</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
@@ -13037,36 +12801,32 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="3"/>
-        <v>2692</v>
+        <v>4545</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>375578</v>
+        <v>830332</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 9; 2692; 375578</v>
+        <v>3,5 y 9; 4545; 830332</v>
       </c>
       <c r="G62" t="str">
-        <f>VLOOKUP(I62,signos1!$A$1:$C$12,3,FALSE)</f>
+        <f>VLOOKUP(H62,signos1!$A$1:$C$12,3,FALSE)</f>
         <v>pnl1; pnl2</v>
       </c>
-      <c r="H62" t="str">
-        <f>VLOOKUP(I62,signos1!$A$1:$D$12,4,FALSE)</f>
-        <v>pnl3;pnl4</v>
-      </c>
-      <c r="I62">
+      <c r="H62">
         <v>11</v>
       </c>
-      <c r="J62" t="str">
-        <f>VLOOKUP(I62,signos1!$A$1:$B$12,2,FALSE)</f>
+      <c r="I62" t="str">
+        <f>VLOOKUP(H62,signos1!$A$1:$B$12,2,FALSE)</f>
         <v>piscis</v>
       </c>
-      <c r="K62" t="s">
+      <c r="J62" t="s">
         <v>432</v>
       </c>
-      <c r="L62" t="str">
-        <f>IF(K62="es","  "&amp;J62&amp;"_"&amp;K62&amp;"="&amp;VLOOKUP(J62&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(K62="en","  "&amp;J62&amp;"_"&amp;K62&amp;"="&amp;VLOOKUP(J62&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(K62="indice",$L$2&amp;"["&amp;I62&amp;"]",IF(K62="pnl","  pnl="&amp;G62,"  num="&amp;F62))))</f>
+      <c r="K62" t="str">
+        <f>IF(J62="es","  "&amp;I62&amp;"_"&amp;J62&amp;"="&amp;VLOOKUP(I62&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J62="en","  "&amp;I62&amp;"_"&amp;J62&amp;"="&amp;VLOOKUP(I62&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J62="indice",$K$2&amp;"["&amp;H62&amp;"]",IF(J62="pnl","  pnl="&amp;G62,"  num="&amp;F62))))</f>
         <v xml:space="preserve">  piscis_en=Charge the batteries and make sure your appearance is the best. When new responsibilities come to you, do not fear. You are more than capable of assuming them and there will be someone willing to lend a hand if necessary. The fun is over for a while now you must dedicate yourself to an old and hard work. Acts and collects the benefits. They need time and patience.</v>
       </c>
     </row>

--- a/documentos/datos.xlsx
+++ b/documentos/datos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itanortegaortega/Documents/Desarrollo/prototipo2/documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/io/Documents/Desarrollo/prototipo2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="2" r:id="rId1"/>
@@ -1341,438 +1341,6 @@
     <t>horoscopo</t>
   </si>
   <si>
-    <t>aries_aries=100%</t>
-  </si>
-  <si>
-    <t>aries_tauro=47%</t>
-  </si>
-  <si>
-    <t>aries_geminis=82%</t>
-  </si>
-  <si>
-    <t>aries_cancer=51%</t>
-  </si>
-  <si>
-    <t>aries_leo=63%</t>
-  </si>
-  <si>
-    <t>aries_virgo=28%</t>
-  </si>
-  <si>
-    <t>aries_libra=68%</t>
-  </si>
-  <si>
-    <t>aries_escorpio=18%</t>
-  </si>
-  <si>
-    <t>aries_sagitario=86%</t>
-  </si>
-  <si>
-    <t>aries_capricornio=51%</t>
-  </si>
-  <si>
-    <t>aries_acuario=35%</t>
-  </si>
-  <si>
-    <t>aries_piscis=47%</t>
-  </si>
-  <si>
-    <t>tauro_tauro=47%</t>
-  </si>
-  <si>
-    <t>tauro_geminis=28%</t>
-  </si>
-  <si>
-    <t>tauro_cancer=91%</t>
-  </si>
-  <si>
-    <t>tauro_leo=87%</t>
-  </si>
-  <si>
-    <t>tauro_virgo=57%</t>
-  </si>
-  <si>
-    <t>tauro_libra=34%</t>
-  </si>
-  <si>
-    <t>tauro_escorpio=2%</t>
-  </si>
-  <si>
-    <t>tauro_sagitario=73%</t>
-  </si>
-  <si>
-    <t>tauro_capricornio=77%</t>
-  </si>
-  <si>
-    <t>tauro_acuario=59%</t>
-  </si>
-  <si>
-    <t>tauro_piscis=56%</t>
-  </si>
-  <si>
-    <t>geminis_geminis=79%</t>
-  </si>
-  <si>
-    <t>geminis_cancer=86%</t>
-  </si>
-  <si>
-    <t>geminis_leo=93%</t>
-  </si>
-  <si>
-    <t>geminis_virgo=49%</t>
-  </si>
-  <si>
-    <t>geminis_libra=0%</t>
-  </si>
-  <si>
-    <t>geminis_escorpio=9%</t>
-  </si>
-  <si>
-    <t>geminis_sagitario=66%</t>
-  </si>
-  <si>
-    <t>geminis_capricornio=77%</t>
-  </si>
-  <si>
-    <t>geminis_acuario=17%</t>
-  </si>
-  <si>
-    <t>geminis_piscis=65%</t>
-  </si>
-  <si>
-    <t>cancer_cancer=82%</t>
-  </si>
-  <si>
-    <t>cancer_leo=80%</t>
-  </si>
-  <si>
-    <t>cancer_virgo=86%</t>
-  </si>
-  <si>
-    <t>cancer_libra=17%</t>
-  </si>
-  <si>
-    <t>cancer_escorpio=12%</t>
-  </si>
-  <si>
-    <t>cancer_sagitario=57%</t>
-  </si>
-  <si>
-    <t>cancer_capricornio=33%</t>
-  </si>
-  <si>
-    <t>cancer_acuario=59%</t>
-  </si>
-  <si>
-    <t>cancer_piscis=75%</t>
-  </si>
-  <si>
-    <t>leo_leo=18%</t>
-  </si>
-  <si>
-    <t>leo_virgo=39%</t>
-  </si>
-  <si>
-    <t>leo_libra=50%</t>
-  </si>
-  <si>
-    <t>leo_escorpio=21%</t>
-  </si>
-  <si>
-    <t>leo_sagitario=57%</t>
-  </si>
-  <si>
-    <t>leo_capricornio=87%</t>
-  </si>
-  <si>
-    <t>leo_acuario=29%</t>
-  </si>
-  <si>
-    <t>leo_piscis=58%</t>
-  </si>
-  <si>
-    <t>virgo_virgo=54%</t>
-  </si>
-  <si>
-    <t>virgo_libra=87%</t>
-  </si>
-  <si>
-    <t>virgo_escorpio=42%</t>
-  </si>
-  <si>
-    <t>virgo_sagitario=86%</t>
-  </si>
-  <si>
-    <t>virgo_capricornio=77%</t>
-  </si>
-  <si>
-    <t>virgo_acuario=83%</t>
-  </si>
-  <si>
-    <t>virgo_piscis=32%</t>
-  </si>
-  <si>
-    <t>libra_libra=52%</t>
-  </si>
-  <si>
-    <t>libra_escorpio=32%</t>
-  </si>
-  <si>
-    <t>libra_sagitario=44%</t>
-  </si>
-  <si>
-    <t>libra_capricornio=1%</t>
-  </si>
-  <si>
-    <t>libra_acuario=100%</t>
-  </si>
-  <si>
-    <t>libra_piscis=96%</t>
-  </si>
-  <si>
-    <t>escorpio_escorpio=50%</t>
-  </si>
-  <si>
-    <t>escorpio_sagitario=54%</t>
-  </si>
-  <si>
-    <t>escorpio_capricornio=93%</t>
-  </si>
-  <si>
-    <t>escorpio_acuario=41%</t>
-  </si>
-  <si>
-    <t>escorpio_piscis=100%</t>
-  </si>
-  <si>
-    <t>sagitario_sagitario=9%</t>
-  </si>
-  <si>
-    <t>sagitario_capricornio=15%</t>
-  </si>
-  <si>
-    <t>sagitario_acuario=52%</t>
-  </si>
-  <si>
-    <t>sagitario_piscis=14%</t>
-  </si>
-  <si>
-    <t>capricornio_capricornio=96%</t>
-  </si>
-  <si>
-    <t>capricornio_acuario=55%</t>
-  </si>
-  <si>
-    <t>capricornio_piscis=3%</t>
-  </si>
-  <si>
-    <t>acuario_acuario=41%</t>
-  </si>
-  <si>
-    <t>acuario_piscis=39%</t>
-  </si>
-  <si>
-    <t>piscis_piscis=83%</t>
-  </si>
-  <si>
-    <t>tauro_aries=47%</t>
-  </si>
-  <si>
-    <t>geminis_aries=82%</t>
-  </si>
-  <si>
-    <t>cancer_aries=51%</t>
-  </si>
-  <si>
-    <t>leo_aries=63%</t>
-  </si>
-  <si>
-    <t>virgo_aries=28%</t>
-  </si>
-  <si>
-    <t>libra_aries=68%</t>
-  </si>
-  <si>
-    <t>escorpio_aries=18%</t>
-  </si>
-  <si>
-    <t>sagitario_aries=86%</t>
-  </si>
-  <si>
-    <t>capricornio_aries=51%</t>
-  </si>
-  <si>
-    <t>acuario_aries=35%</t>
-  </si>
-  <si>
-    <t>piscis_aries=47%</t>
-  </si>
-  <si>
-    <t>geminis_tauro=28%</t>
-  </si>
-  <si>
-    <t>cancer_tauro=91%</t>
-  </si>
-  <si>
-    <t>leo_tauro=87%</t>
-  </si>
-  <si>
-    <t>virgo_tauro=57%</t>
-  </si>
-  <si>
-    <t>libra_tauro=34%</t>
-  </si>
-  <si>
-    <t>escorpio_tauro=2%</t>
-  </si>
-  <si>
-    <t>sagitario_tauro=73%</t>
-  </si>
-  <si>
-    <t>capricornio_tauro=77%</t>
-  </si>
-  <si>
-    <t>acuario_tauro=59%</t>
-  </si>
-  <si>
-    <t>piscis_tauro=56%</t>
-  </si>
-  <si>
-    <t>cancer_geminis=86%</t>
-  </si>
-  <si>
-    <t>leo_geminis=93%</t>
-  </si>
-  <si>
-    <t>virgo_geminis=49%</t>
-  </si>
-  <si>
-    <t>libra_geminis=0%</t>
-  </si>
-  <si>
-    <t>escorpio_geminis=9%</t>
-  </si>
-  <si>
-    <t>sagitario_geminis=66%</t>
-  </si>
-  <si>
-    <t>capricornio_geminis=77%</t>
-  </si>
-  <si>
-    <t>acuario_geminis=17%</t>
-  </si>
-  <si>
-    <t>piscis_geminis=65%</t>
-  </si>
-  <si>
-    <t>leo_cancer=80%</t>
-  </si>
-  <si>
-    <t>virgo_cancer=86%</t>
-  </si>
-  <si>
-    <t>libra_cancer=17%</t>
-  </si>
-  <si>
-    <t>escorpio_cancer=12%</t>
-  </si>
-  <si>
-    <t>sagitario_cancer=57%</t>
-  </si>
-  <si>
-    <t>capricornio_cancer=33%</t>
-  </si>
-  <si>
-    <t>acuario_cancer=59%</t>
-  </si>
-  <si>
-    <t>piscis_cancer=75%</t>
-  </si>
-  <si>
-    <t>virgo_leo=39%</t>
-  </si>
-  <si>
-    <t>libra_leo=50%</t>
-  </si>
-  <si>
-    <t>escorpio_leo=21%</t>
-  </si>
-  <si>
-    <t>sagitario_leo=57%</t>
-  </si>
-  <si>
-    <t>capricornio_leo=87%</t>
-  </si>
-  <si>
-    <t>acuario_leo=29%</t>
-  </si>
-  <si>
-    <t>piscis_leo=58%</t>
-  </si>
-  <si>
-    <t>libra_virgo=87%</t>
-  </si>
-  <si>
-    <t>escorpio_virgo=42%</t>
-  </si>
-  <si>
-    <t>sagitario_virgo=86%</t>
-  </si>
-  <si>
-    <t>capricornio_virgo=77%</t>
-  </si>
-  <si>
-    <t>acuario_virgo=83%</t>
-  </si>
-  <si>
-    <t>piscis_virgo=32%</t>
-  </si>
-  <si>
-    <t>escorpio_libra=32%</t>
-  </si>
-  <si>
-    <t>sagitario_libra=44%</t>
-  </si>
-  <si>
-    <t>capricornio_libra=1%</t>
-  </si>
-  <si>
-    <t>acuario_libra=100%</t>
-  </si>
-  <si>
-    <t>piscis_libra=96%</t>
-  </si>
-  <si>
-    <t>sagitario_escorpio=54%</t>
-  </si>
-  <si>
-    <t>capricornio_escorpio=93%</t>
-  </si>
-  <si>
-    <t>acuario_escorpio=41%</t>
-  </si>
-  <si>
-    <t>piscis_escorpio=100%</t>
-  </si>
-  <si>
-    <t>capricornio_sagitario=15%</t>
-  </si>
-  <si>
-    <t>acuario_sagitario=52%</t>
-  </si>
-  <si>
-    <t>piscis_sagitario=14%</t>
-  </si>
-  <si>
-    <t>acuario_capricornio=55%</t>
-  </si>
-  <si>
-    <t>piscis_capricornio=3%</t>
-  </si>
-  <si>
-    <t>piscis_acuario=39%</t>
-  </si>
-  <si>
     <t>compatibilidad.json</t>
   </si>
   <si>
@@ -1885,6 +1453,438 @@
   </si>
   <si>
     <t>pnl3;pnl4</t>
+  </si>
+  <si>
+    <t>1_1=100%</t>
+  </si>
+  <si>
+    <t>2_1=47%</t>
+  </si>
+  <si>
+    <t>3_1=82%</t>
+  </si>
+  <si>
+    <t>4_1=51%</t>
+  </si>
+  <si>
+    <t>5_1=63%</t>
+  </si>
+  <si>
+    <t>6_1=28%</t>
+  </si>
+  <si>
+    <t>7_1=68%</t>
+  </si>
+  <si>
+    <t>8_1=18%</t>
+  </si>
+  <si>
+    <t>9_1=86%</t>
+  </si>
+  <si>
+    <t>10_1=51%</t>
+  </si>
+  <si>
+    <t>11_1=35%</t>
+  </si>
+  <si>
+    <t>12_1=47%</t>
+  </si>
+  <si>
+    <t>2_2=47%</t>
+  </si>
+  <si>
+    <t>3_2=28%</t>
+  </si>
+  <si>
+    <t>4_2=91%</t>
+  </si>
+  <si>
+    <t>5_2=87%</t>
+  </si>
+  <si>
+    <t>6_2=57%</t>
+  </si>
+  <si>
+    <t>7_2=34%</t>
+  </si>
+  <si>
+    <t>8_2=2%</t>
+  </si>
+  <si>
+    <t>9_2=73%</t>
+  </si>
+  <si>
+    <t>10_2=77%</t>
+  </si>
+  <si>
+    <t>11_2=59%</t>
+  </si>
+  <si>
+    <t>12_2=56%</t>
+  </si>
+  <si>
+    <t>3_3=79%</t>
+  </si>
+  <si>
+    <t>4_3=86%</t>
+  </si>
+  <si>
+    <t>5_3=93%</t>
+  </si>
+  <si>
+    <t>6_3=49%</t>
+  </si>
+  <si>
+    <t>7_3=0%</t>
+  </si>
+  <si>
+    <t>8_3=9%</t>
+  </si>
+  <si>
+    <t>9_3=66%</t>
+  </si>
+  <si>
+    <t>10_3=77%</t>
+  </si>
+  <si>
+    <t>11_3=17%</t>
+  </si>
+  <si>
+    <t>12_3=65%</t>
+  </si>
+  <si>
+    <t>4_4=82%</t>
+  </si>
+  <si>
+    <t>5_4=80%</t>
+  </si>
+  <si>
+    <t>6_4=86%</t>
+  </si>
+  <si>
+    <t>7_4=17%</t>
+  </si>
+  <si>
+    <t>8_4=12%</t>
+  </si>
+  <si>
+    <t>9_4=57%</t>
+  </si>
+  <si>
+    <t>10_4=33%</t>
+  </si>
+  <si>
+    <t>11_4=59%</t>
+  </si>
+  <si>
+    <t>12_4=75%</t>
+  </si>
+  <si>
+    <t>5_5=18%</t>
+  </si>
+  <si>
+    <t>6_5=39%</t>
+  </si>
+  <si>
+    <t>7_5=50%</t>
+  </si>
+  <si>
+    <t>8_5=21%</t>
+  </si>
+  <si>
+    <t>9_5=57%</t>
+  </si>
+  <si>
+    <t>10_5=87%</t>
+  </si>
+  <si>
+    <t>11_5=29%</t>
+  </si>
+  <si>
+    <t>12_5=58%</t>
+  </si>
+  <si>
+    <t>6_6=54%</t>
+  </si>
+  <si>
+    <t>7_6=87%</t>
+  </si>
+  <si>
+    <t>8_6=42%</t>
+  </si>
+  <si>
+    <t>9_6=86%</t>
+  </si>
+  <si>
+    <t>10_6=77%</t>
+  </si>
+  <si>
+    <t>11_6=83%</t>
+  </si>
+  <si>
+    <t>12_6=32%</t>
+  </si>
+  <si>
+    <t>7_7=52%</t>
+  </si>
+  <si>
+    <t>8_7=32%</t>
+  </si>
+  <si>
+    <t>9_7=44%</t>
+  </si>
+  <si>
+    <t>10_7=1%</t>
+  </si>
+  <si>
+    <t>11_7=100%</t>
+  </si>
+  <si>
+    <t>12_7=96%</t>
+  </si>
+  <si>
+    <t>8_8=50%</t>
+  </si>
+  <si>
+    <t>9_8=54%</t>
+  </si>
+  <si>
+    <t>10_8=93%</t>
+  </si>
+  <si>
+    <t>11_8=41%</t>
+  </si>
+  <si>
+    <t>12_8=100%</t>
+  </si>
+  <si>
+    <t>9_9=9%</t>
+  </si>
+  <si>
+    <t>10_9=15%</t>
+  </si>
+  <si>
+    <t>11_9=52%</t>
+  </si>
+  <si>
+    <t>12_9=14%</t>
+  </si>
+  <si>
+    <t>10_10=96%</t>
+  </si>
+  <si>
+    <t>11_10=55%</t>
+  </si>
+  <si>
+    <t>12_10=3%</t>
+  </si>
+  <si>
+    <t>11_11=41%</t>
+  </si>
+  <si>
+    <t>12_11=39%</t>
+  </si>
+  <si>
+    <t>12_12=83%</t>
+  </si>
+  <si>
+    <t>1_2=47%</t>
+  </si>
+  <si>
+    <t>1_3=82%</t>
+  </si>
+  <si>
+    <t>1_4=51%</t>
+  </si>
+  <si>
+    <t>1_5=63%</t>
+  </si>
+  <si>
+    <t>1_6=28%</t>
+  </si>
+  <si>
+    <t>1_7=68%</t>
+  </si>
+  <si>
+    <t>1_8=18%</t>
+  </si>
+  <si>
+    <t>1_9=86%</t>
+  </si>
+  <si>
+    <t>1_10=51%</t>
+  </si>
+  <si>
+    <t>1_11=35%</t>
+  </si>
+  <si>
+    <t>1_12=47%</t>
+  </si>
+  <si>
+    <t>2_3=28%</t>
+  </si>
+  <si>
+    <t>2_4=91%</t>
+  </si>
+  <si>
+    <t>2_5=87%</t>
+  </si>
+  <si>
+    <t>2_6=57%</t>
+  </si>
+  <si>
+    <t>2_7=34%</t>
+  </si>
+  <si>
+    <t>2_8=2%</t>
+  </si>
+  <si>
+    <t>2_9=73%</t>
+  </si>
+  <si>
+    <t>2_10=77%</t>
+  </si>
+  <si>
+    <t>2_11=59%</t>
+  </si>
+  <si>
+    <t>2_12=56%</t>
+  </si>
+  <si>
+    <t>3_4=86%</t>
+  </si>
+  <si>
+    <t>3_5=93%</t>
+  </si>
+  <si>
+    <t>3_6=49%</t>
+  </si>
+  <si>
+    <t>3_7=0%</t>
+  </si>
+  <si>
+    <t>3_8=9%</t>
+  </si>
+  <si>
+    <t>3_9=66%</t>
+  </si>
+  <si>
+    <t>3_10=77%</t>
+  </si>
+  <si>
+    <t>3_11=17%</t>
+  </si>
+  <si>
+    <t>3_12=65%</t>
+  </si>
+  <si>
+    <t>4_5=80%</t>
+  </si>
+  <si>
+    <t>4_6=86%</t>
+  </si>
+  <si>
+    <t>4_7=17%</t>
+  </si>
+  <si>
+    <t>4_8=12%</t>
+  </si>
+  <si>
+    <t>4_9=57%</t>
+  </si>
+  <si>
+    <t>4_10=33%</t>
+  </si>
+  <si>
+    <t>4_11=59%</t>
+  </si>
+  <si>
+    <t>4_12=75%</t>
+  </si>
+  <si>
+    <t>5_6=39%</t>
+  </si>
+  <si>
+    <t>5_7=50%</t>
+  </si>
+  <si>
+    <t>5_8=21%</t>
+  </si>
+  <si>
+    <t>5_9=57%</t>
+  </si>
+  <si>
+    <t>5_10=87%</t>
+  </si>
+  <si>
+    <t>5_11=29%</t>
+  </si>
+  <si>
+    <t>5_12=58%</t>
+  </si>
+  <si>
+    <t>6_7=87%</t>
+  </si>
+  <si>
+    <t>6_8=42%</t>
+  </si>
+  <si>
+    <t>6_9=86%</t>
+  </si>
+  <si>
+    <t>6_10=77%</t>
+  </si>
+  <si>
+    <t>6_11=83%</t>
+  </si>
+  <si>
+    <t>6_12=32%</t>
+  </si>
+  <si>
+    <t>7_8=32%</t>
+  </si>
+  <si>
+    <t>7_9=44%</t>
+  </si>
+  <si>
+    <t>7_10=1%</t>
+  </si>
+  <si>
+    <t>7_11=100%</t>
+  </si>
+  <si>
+    <t>7_12=96%</t>
+  </si>
+  <si>
+    <t>8_9=54%</t>
+  </si>
+  <si>
+    <t>8_10=93%</t>
+  </si>
+  <si>
+    <t>8_11=41%</t>
+  </si>
+  <si>
+    <t>8_12=100%</t>
+  </si>
+  <si>
+    <t>9_10=15%</t>
+  </si>
+  <si>
+    <t>9_11=52%</t>
+  </si>
+  <si>
+    <t>9_12=14%</t>
+  </si>
+  <si>
+    <t>10_11=55%</t>
+  </si>
+  <si>
+    <t>10_12=3%</t>
+  </si>
+  <si>
+    <t>11_12=39%</t>
   </si>
 </sst>
 </file>
@@ -1952,8 +1952,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1977,7 +1981,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1986,6 +1990,8 @@
     <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1994,6 +2000,8 @@
     <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4740,10 +4748,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4751,7 +4759,7 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4759,13 +4767,17 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="D1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="E1">
+        <f>A1+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4773,13 +4785,17 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="D2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E12" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4787,13 +4803,17 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="D3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4801,13 +4821,17 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="D4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4815,13 +4839,17 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="D5" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4829,13 +4857,17 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="D6" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4843,13 +4875,17 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="D7" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4857,13 +4893,17 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="D8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4871,13 +4911,17 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="D9" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4885,13 +4929,17 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="D10" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4899,13 +4947,17 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="D11" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4913,10 +4965,14 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="D12" t="s">
-        <v>616</v>
+        <v>472</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4943,10 +4999,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>592</v>
+        <v>448</v>
       </c>
       <c r="C1" t="s">
-        <v>579</v>
+        <v>435</v>
       </c>
       <c r="D1" t="str">
         <f>B1&amp;"["&amp;A1&amp;"]   archivo="&amp;C1</f>
@@ -4958,10 +5014,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>448</v>
       </c>
       <c r="C2" t="s">
-        <v>580</v>
+        <v>436</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D32" si="0">B2&amp;"["&amp;A2&amp;"]   archivo="&amp;C2</f>
@@ -4973,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C3" t="s">
-        <v>581</v>
+        <v>437</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -4988,10 +5044,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C4" t="s">
-        <v>582</v>
+        <v>438</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -5003,10 +5059,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C5" t="s">
-        <v>583</v>
+        <v>439</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -5018,10 +5074,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
-        <v>584</v>
+        <v>440</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -5033,10 +5089,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C7" t="s">
-        <v>585</v>
+        <v>441</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -5048,10 +5104,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C8" t="s">
-        <v>586</v>
+        <v>442</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -5063,10 +5119,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C9" t="s">
-        <v>587</v>
+        <v>443</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -5078,10 +5134,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
-        <v>588</v>
+        <v>444</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -5093,10 +5149,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C11" t="s">
-        <v>589</v>
+        <v>445</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -5108,10 +5164,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C12" t="s">
-        <v>590</v>
+        <v>446</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -5123,10 +5179,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C13" t="s">
-        <v>594</v>
+        <v>450</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -5138,10 +5194,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C14" t="s">
-        <v>591</v>
+        <v>447</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -5153,10 +5209,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C15" t="s">
-        <v>595</v>
+        <v>451</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -5168,10 +5224,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C16" t="s">
-        <v>596</v>
+        <v>452</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -5183,10 +5239,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C17" t="s">
-        <v>597</v>
+        <v>453</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -5198,10 +5254,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C18" t="s">
-        <v>598</v>
+        <v>454</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -5213,10 +5269,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C19" t="s">
-        <v>599</v>
+        <v>455</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -5228,10 +5284,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C20" t="s">
-        <v>600</v>
+        <v>456</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -5243,10 +5299,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C21" t="s">
-        <v>601</v>
+        <v>457</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -5258,10 +5314,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C22" t="s">
-        <v>602</v>
+        <v>458</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -5273,10 +5329,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C23" t="s">
-        <v>603</v>
+        <v>459</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -5288,10 +5344,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C24" t="s">
-        <v>604</v>
+        <v>460</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -5303,10 +5359,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C25" t="s">
-        <v>605</v>
+        <v>461</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -5318,10 +5374,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C26" t="s">
-        <v>606</v>
+        <v>462</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -5333,10 +5389,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C27" t="s">
-        <v>607</v>
+        <v>463</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -5348,10 +5404,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C28" t="s">
-        <v>608</v>
+        <v>464</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -5363,10 +5419,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C29" t="s">
-        <v>609</v>
+        <v>465</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -5378,10 +5434,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C30" t="s">
-        <v>610</v>
+        <v>466</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -5393,10 +5449,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C31" t="s">
-        <v>611</v>
+        <v>467</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -5408,10 +5464,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="C32" t="s">
-        <v>612</v>
+        <v>468</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -7902,1497 +7958,2121 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E78"/>
+      <selection activeCell="G1" sqref="G1:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
+        <f>VLOOKUP(A1,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="3">
+        <f>VLOOKUP(B1,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E1">
         <v>100</v>
       </c>
-      <c r="D1" t="str">
-        <f>A1&amp;"_"&amp;B1&amp;"="&amp;C1&amp;"%"</f>
-        <v>aries_aries=100%</v>
-      </c>
-      <c r="E1" t="str">
-        <f>B1&amp;"_"&amp;A1&amp;"="&amp;C1&amp;"%"</f>
-        <v>aries_aries=100%</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="str">
+        <f>C1&amp;"_"&amp;D1&amp;"="&amp;E1&amp;"%"</f>
+        <v>1_1=100%</v>
+      </c>
+      <c r="G1" t="str">
+        <f>D1&amp;"_"&amp;C1&amp;"="&amp;E1&amp;"%"</f>
+        <v>1_1=100%</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
+        <f>VLOOKUP(A2,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f>VLOOKUP(B2,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>47</v>
       </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D65" si="0">A2&amp;"_"&amp;B2&amp;"="&amp;C2&amp;"%"</f>
-        <v>aries_tauro=47%</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E65" si="1">B2&amp;"_"&amp;A2&amp;"="&amp;C2&amp;"%"</f>
-        <v>tauro_aries=47%</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F65" si="0">C2&amp;"_"&amp;D2&amp;"="&amp;E2&amp;"%"</f>
+        <v>1_2=47%</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" si="1">D2&amp;"_"&amp;C2&amp;"="&amp;E2&amp;"%"</f>
+        <v>2_1=47%</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
+        <f>VLOOKUP(A3,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <f>VLOOKUP(B3,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
         <v>82</v>
       </c>
-      <c r="D3" t="str">
+      <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>aries_geminis=82%</v>
-      </c>
-      <c r="E3" t="str">
+        <v>1_3=82%</v>
+      </c>
+      <c r="G3" t="str">
         <f t="shared" si="1"/>
-        <v>geminis_aries=82%</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3_1=82%</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
+        <f>VLOOKUP(A4,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f>VLOOKUP(B4,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>51</v>
       </c>
-      <c r="D4" t="str">
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>aries_cancer=51%</v>
-      </c>
-      <c r="E4" t="str">
+        <v>1_4=51%</v>
+      </c>
+      <c r="G4" t="str">
         <f t="shared" si="1"/>
-        <v>cancer_aries=51%</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4_1=51%</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
+        <f>VLOOKUP(A5,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <f>VLOOKUP(B5,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E5">
         <v>63</v>
       </c>
-      <c r="D5" t="str">
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>aries_leo=63%</v>
-      </c>
-      <c r="E5" t="str">
+        <v>1_5=63%</v>
+      </c>
+      <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>leo_aries=63%</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5_1=63%</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
+        <f>VLOOKUP(A6,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f>VLOOKUP(B6,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E6">
         <v>28</v>
       </c>
-      <c r="D6" t="str">
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>aries_virgo=28%</v>
-      </c>
-      <c r="E6" t="str">
+        <v>1_6=28%</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>virgo_aries=28%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6_1=28%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
+        <f>VLOOKUP(A7,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <f>VLOOKUP(B7,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E7">
         <v>68</v>
       </c>
-      <c r="D7" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>aries_libra=68%</v>
-      </c>
-      <c r="E7" t="str">
+        <v>1_7=68%</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>libra_aries=68%</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7_1=68%</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
+        <f>VLOOKUP(A8,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f>VLOOKUP(B8,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E8">
         <v>18</v>
       </c>
-      <c r="D8" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>aries_escorpio=18%</v>
-      </c>
-      <c r="E8" t="str">
+        <v>1_8=18%</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>escorpio_aries=18%</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8_1=18%</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
+        <f>VLOOKUP(A9,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <f>VLOOKUP(B9,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E9">
         <v>86</v>
       </c>
-      <c r="D9" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>aries_sagitario=86%</v>
-      </c>
-      <c r="E9" t="str">
+        <v>1_9=86%</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>sagitario_aries=86%</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9_1=86%</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
+        <f>VLOOKUP(A10,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f>VLOOKUP(B10,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>51</v>
       </c>
-      <c r="D10" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>aries_capricornio=51%</v>
-      </c>
-      <c r="E10" t="str">
+        <v>1_10=51%</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>capricornio_aries=51%</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10_1=51%</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
+        <f>VLOOKUP(A11,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <f>VLOOKUP(B11,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E11">
         <v>35</v>
       </c>
-      <c r="D11" t="str">
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>aries_acuario=35%</v>
-      </c>
-      <c r="E11" t="str">
+        <v>1_11=35%</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>acuario_aries=35%</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11_1=35%</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
+        <f>VLOOKUP(A12,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f>VLOOKUP(B12,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E12">
         <v>47</v>
       </c>
-      <c r="D12" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>aries_piscis=47%</v>
-      </c>
-      <c r="E12" t="str">
+        <v>1_12=47%</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>piscis_aries=47%</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12_1=47%</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
+        <f>VLOOKUP(A13,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <f>VLOOKUP(B13,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E13">
         <v>47</v>
       </c>
-      <c r="D13" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>tauro_tauro=47%</v>
-      </c>
-      <c r="E13" t="str">
+        <v>2_2=47%</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>tauro_tauro=47%</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2_2=47%</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
+        <f>VLOOKUP(A14,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <f>VLOOKUP(B14,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E14">
         <v>28</v>
       </c>
-      <c r="D14" t="str">
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>tauro_geminis=28%</v>
-      </c>
-      <c r="E14" t="str">
+        <v>2_3=28%</v>
+      </c>
+      <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>geminis_tauro=28%</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3_2=28%</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
+        <f>VLOOKUP(A15,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <f>VLOOKUP(B15,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E15">
         <v>91</v>
       </c>
-      <c r="D15" t="str">
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>tauro_cancer=91%</v>
-      </c>
-      <c r="E15" t="str">
+        <v>2_4=91%</v>
+      </c>
+      <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>cancer_tauro=91%</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4_2=91%</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
+        <f>VLOOKUP(A16,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <f>VLOOKUP(B16,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E16">
         <v>87</v>
       </c>
-      <c r="D16" t="str">
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>tauro_leo=87%</v>
-      </c>
-      <c r="E16" t="str">
+        <v>2_5=87%</v>
+      </c>
+      <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>leo_tauro=87%</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5_2=87%</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
+        <f>VLOOKUP(A17,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <f>VLOOKUP(B17,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E17">
         <v>57</v>
       </c>
-      <c r="D17" t="str">
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>tauro_virgo=57%</v>
-      </c>
-      <c r="E17" t="str">
+        <v>2_6=57%</v>
+      </c>
+      <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>virgo_tauro=57%</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6_2=57%</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
+        <f>VLOOKUP(A18,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <f>VLOOKUP(B18,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E18">
         <v>34</v>
       </c>
-      <c r="D18" t="str">
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>tauro_libra=34%</v>
-      </c>
-      <c r="E18" t="str">
+        <v>2_7=34%</v>
+      </c>
+      <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>libra_tauro=34%</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7_2=34%</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
+        <f>VLOOKUP(A19,signos1!$B$1:$E$12,4,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="3">
+        <f>VLOOKUP(B19,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>tauro_escorpio=2%</v>
-      </c>
-      <c r="E19" t="str">
+        <v>2_8=2%</v>
+      </c>
+      <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>escorpio_tauro=2%</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8_2=2%</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
+        <f>VLOOKUP(A20,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <f>VLOOKUP(B20,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E20">
         <v>73</v>
       </c>
-      <c r="D20" t="str">
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>tauro_sagitario=73%</v>
-      </c>
-      <c r="E20" t="str">
+        <v>2_9=73%</v>
+      </c>
+      <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>sagitario_tauro=73%</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9_2=73%</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
+        <f>VLOOKUP(A21,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <f>VLOOKUP(B21,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E21">
         <v>77</v>
       </c>
-      <c r="D21" t="str">
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>tauro_capricornio=77%</v>
-      </c>
-      <c r="E21" t="str">
+        <v>2_10=77%</v>
+      </c>
+      <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>capricornio_tauro=77%</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10_2=77%</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
+        <f>VLOOKUP(A22,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <f>VLOOKUP(B22,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E22">
         <v>59</v>
       </c>
-      <c r="D22" t="str">
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>tauro_acuario=59%</v>
-      </c>
-      <c r="E22" t="str">
+        <v>2_11=59%</v>
+      </c>
+      <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>acuario_tauro=59%</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11_2=59%</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
+        <f>VLOOKUP(A23,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <f>VLOOKUP(B23,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E23">
         <v>56</v>
       </c>
-      <c r="D23" t="str">
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>tauro_piscis=56%</v>
-      </c>
-      <c r="E23" t="str">
+        <v>2_12=56%</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>piscis_tauro=56%</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12_2=56%</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
+        <f>VLOOKUP(A24,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <f>VLOOKUP(B24,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E24">
         <v>79</v>
       </c>
-      <c r="D24" t="str">
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>geminis_geminis=79%</v>
-      </c>
-      <c r="E24" t="str">
+        <v>3_3=79%</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>geminis_geminis=79%</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3_3=79%</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
+        <f>VLOOKUP(A25,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <f>VLOOKUP(B25,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E25">
         <v>86</v>
       </c>
-      <c r="D25" t="str">
+      <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>geminis_cancer=86%</v>
-      </c>
-      <c r="E25" t="str">
+        <v>3_4=86%</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>cancer_geminis=86%</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4_3=86%</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
+        <f>VLOOKUP(A26,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <f>VLOOKUP(B26,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E26">
         <v>93</v>
       </c>
-      <c r="D26" t="str">
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>geminis_leo=93%</v>
-      </c>
-      <c r="E26" t="str">
+        <v>3_5=93%</v>
+      </c>
+      <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>leo_geminis=93%</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5_3=93%</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
+        <f>VLOOKUP(A27,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
+        <f>VLOOKUP(B27,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E27">
         <v>49</v>
       </c>
-      <c r="D27" t="str">
+      <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>geminis_virgo=49%</v>
-      </c>
-      <c r="E27" t="str">
+        <v>3_6=49%</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>virgo_geminis=49%</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6_3=49%</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
+        <f>VLOOKUP(A28,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <f>VLOOKUP(B28,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E28">
         <v>0</v>
       </c>
-      <c r="D28" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>geminis_libra=0%</v>
-      </c>
-      <c r="E28" t="str">
+        <v>3_7=0%</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>libra_geminis=0%</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7_3=0%</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
+        <f>VLOOKUP(A29,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <f>VLOOKUP(B29,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E29">
         <v>9</v>
       </c>
-      <c r="D29" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>geminis_escorpio=9%</v>
-      </c>
-      <c r="E29" t="str">
+        <v>3_8=9%</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>escorpio_geminis=9%</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8_3=9%</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
+        <f>VLOOKUP(A30,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D30" s="3">
+        <f>VLOOKUP(B30,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E30">
         <v>66</v>
       </c>
-      <c r="D30" t="str">
+      <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>geminis_sagitario=66%</v>
-      </c>
-      <c r="E30" t="str">
+        <v>3_9=66%</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>sagitario_geminis=66%</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9_3=66%</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
+        <f>VLOOKUP(A31,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
+        <f>VLOOKUP(B31,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E31">
         <v>77</v>
       </c>
-      <c r="D31" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>geminis_capricornio=77%</v>
-      </c>
-      <c r="E31" t="str">
+        <v>3_10=77%</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>capricornio_geminis=77%</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10_3=77%</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
+        <f>VLOOKUP(A32,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D32" s="3">
+        <f>VLOOKUP(B32,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E32">
         <v>17</v>
       </c>
-      <c r="D32" t="str">
+      <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>geminis_acuario=17%</v>
-      </c>
-      <c r="E32" t="str">
+        <v>3_11=17%</v>
+      </c>
+      <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>acuario_geminis=17%</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11_3=17%</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
+        <f>VLOOKUP(A33,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D33" s="3">
+        <f>VLOOKUP(B33,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E33">
         <v>65</v>
       </c>
-      <c r="D33" t="str">
+      <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>geminis_piscis=65%</v>
-      </c>
-      <c r="E33" t="str">
+        <v>3_12=65%</v>
+      </c>
+      <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>piscis_geminis=65%</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12_3=65%</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
+        <f>VLOOKUP(A34,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D34" s="3">
+        <f>VLOOKUP(B34,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E34">
         <v>82</v>
       </c>
-      <c r="D34" t="str">
+      <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>cancer_cancer=82%</v>
-      </c>
-      <c r="E34" t="str">
+        <v>4_4=82%</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>cancer_cancer=82%</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4_4=82%</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
+        <f>VLOOKUP(A35,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D35" s="3">
+        <f>VLOOKUP(B35,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E35">
         <v>80</v>
       </c>
-      <c r="D35" t="str">
+      <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>cancer_leo=80%</v>
-      </c>
-      <c r="E35" t="str">
+        <v>4_5=80%</v>
+      </c>
+      <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>leo_cancer=80%</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5_4=80%</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
+        <f>VLOOKUP(A36,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <f>VLOOKUP(B36,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E36">
         <v>86</v>
       </c>
-      <c r="D36" t="str">
+      <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>cancer_virgo=86%</v>
-      </c>
-      <c r="E36" t="str">
+        <v>4_6=86%</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>virgo_cancer=86%</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6_4=86%</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
+        <f>VLOOKUP(A37,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <f>VLOOKUP(B37,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E37">
         <v>17</v>
       </c>
-      <c r="D37" t="str">
+      <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>cancer_libra=17%</v>
-      </c>
-      <c r="E37" t="str">
+        <v>4_7=17%</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>libra_cancer=17%</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7_4=17%</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
+        <f>VLOOKUP(A38,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <f>VLOOKUP(B38,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E38">
         <v>12</v>
       </c>
-      <c r="D38" t="str">
+      <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>cancer_escorpio=12%</v>
-      </c>
-      <c r="E38" t="str">
+        <v>4_8=12%</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>escorpio_cancer=12%</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8_4=12%</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
+        <f>VLOOKUP(A39,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
+        <f>VLOOKUP(B39,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E39">
         <v>57</v>
       </c>
-      <c r="D39" t="str">
+      <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>cancer_sagitario=57%</v>
-      </c>
-      <c r="E39" t="str">
+        <v>4_9=57%</v>
+      </c>
+      <c r="G39" t="str">
         <f t="shared" si="1"/>
-        <v>sagitario_cancer=57%</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9_4=57%</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
+        <f>VLOOKUP(A40,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D40" s="3">
+        <f>VLOOKUP(B40,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E40">
         <v>33</v>
       </c>
-      <c r="D40" t="str">
+      <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>cancer_capricornio=33%</v>
-      </c>
-      <c r="E40" t="str">
+        <v>4_10=33%</v>
+      </c>
+      <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>capricornio_cancer=33%</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10_4=33%</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
+        <f>VLOOKUP(A41,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D41" s="3">
+        <f>VLOOKUP(B41,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E41">
         <v>59</v>
       </c>
-      <c r="D41" t="str">
+      <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>cancer_acuario=59%</v>
-      </c>
-      <c r="E41" t="str">
+        <v>4_11=59%</v>
+      </c>
+      <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>acuario_cancer=59%</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11_4=59%</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
+        <f>VLOOKUP(A42,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D42" s="3">
+        <f>VLOOKUP(B42,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E42">
         <v>75</v>
       </c>
-      <c r="D42" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>cancer_piscis=75%</v>
-      </c>
-      <c r="E42" t="str">
+        <v>4_12=75%</v>
+      </c>
+      <c r="G42" t="str">
         <f t="shared" si="1"/>
-        <v>piscis_cancer=75%</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12_4=75%</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
+        <f>VLOOKUP(A43,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D43" s="3">
+        <f>VLOOKUP(B43,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E43">
         <v>18</v>
       </c>
-      <c r="D43" t="str">
+      <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>leo_leo=18%</v>
-      </c>
-      <c r="E43" t="str">
+        <v>5_5=18%</v>
+      </c>
+      <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>leo_leo=18%</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5_5=18%</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
+        <f>VLOOKUP(A44,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D44" s="3">
+        <f>VLOOKUP(B44,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E44">
         <v>39</v>
       </c>
-      <c r="D44" t="str">
+      <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>leo_virgo=39%</v>
-      </c>
-      <c r="E44" t="str">
+        <v>5_6=39%</v>
+      </c>
+      <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>virgo_leo=39%</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6_5=39%</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
+        <f>VLOOKUP(A45,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D45" s="3">
+        <f>VLOOKUP(B45,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E45">
         <v>50</v>
       </c>
-      <c r="D45" t="str">
+      <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>leo_libra=50%</v>
-      </c>
-      <c r="E45" t="str">
+        <v>5_7=50%</v>
+      </c>
+      <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>libra_leo=50%</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7_5=50%</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
+        <f>VLOOKUP(A46,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D46" s="3">
+        <f>VLOOKUP(B46,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E46">
         <v>21</v>
       </c>
-      <c r="D46" t="str">
+      <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>leo_escorpio=21%</v>
-      </c>
-      <c r="E46" t="str">
+        <v>5_8=21%</v>
+      </c>
+      <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>escorpio_leo=21%</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8_5=21%</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
+        <f>VLOOKUP(A47,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D47" s="3">
+        <f>VLOOKUP(B47,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E47">
         <v>57</v>
       </c>
-      <c r="D47" t="str">
+      <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>leo_sagitario=57%</v>
-      </c>
-      <c r="E47" t="str">
+        <v>5_9=57%</v>
+      </c>
+      <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>sagitario_leo=57%</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9_5=57%</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
+        <f>VLOOKUP(A48,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D48" s="3">
+        <f>VLOOKUP(B48,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E48">
         <v>87</v>
       </c>
-      <c r="D48" t="str">
+      <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>leo_capricornio=87%</v>
-      </c>
-      <c r="E48" t="str">
+        <v>5_10=87%</v>
+      </c>
+      <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>capricornio_leo=87%</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10_5=87%</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
+        <f>VLOOKUP(A49,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D49" s="3">
+        <f>VLOOKUP(B49,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E49">
         <v>29</v>
       </c>
-      <c r="D49" t="str">
+      <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>leo_acuario=29%</v>
-      </c>
-      <c r="E49" t="str">
+        <v>5_11=29%</v>
+      </c>
+      <c r="G49" t="str">
         <f t="shared" si="1"/>
-        <v>acuario_leo=29%</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11_5=29%</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
+        <f>VLOOKUP(A50,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D50" s="3">
+        <f>VLOOKUP(B50,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E50">
         <v>58</v>
       </c>
-      <c r="D50" t="str">
+      <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>leo_piscis=58%</v>
-      </c>
-      <c r="E50" t="str">
+        <v>5_12=58%</v>
+      </c>
+      <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>piscis_leo=58%</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12_5=58%</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
+        <f>VLOOKUP(A51,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D51" s="3">
+        <f>VLOOKUP(B51,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E51">
         <v>54</v>
       </c>
-      <c r="D51" t="str">
+      <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>virgo_virgo=54%</v>
-      </c>
-      <c r="E51" t="str">
+        <v>6_6=54%</v>
+      </c>
+      <c r="G51" t="str">
         <f t="shared" si="1"/>
-        <v>virgo_virgo=54%</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6_6=54%</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
+        <f>VLOOKUP(A52,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D52" s="3">
+        <f>VLOOKUP(B52,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E52">
         <v>87</v>
       </c>
-      <c r="D52" t="str">
+      <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>virgo_libra=87%</v>
-      </c>
-      <c r="E52" t="str">
+        <v>6_7=87%</v>
+      </c>
+      <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>libra_virgo=87%</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7_6=87%</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
+        <f>VLOOKUP(A53,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D53" s="3">
+        <f>VLOOKUP(B53,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E53">
         <v>42</v>
       </c>
-      <c r="D53" t="str">
+      <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>virgo_escorpio=42%</v>
-      </c>
-      <c r="E53" t="str">
+        <v>6_8=42%</v>
+      </c>
+      <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v>escorpio_virgo=42%</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8_6=42%</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
+        <f>VLOOKUP(A54,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D54" s="3">
+        <f>VLOOKUP(B54,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E54">
         <v>86</v>
       </c>
-      <c r="D54" t="str">
+      <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>virgo_sagitario=86%</v>
-      </c>
-      <c r="E54" t="str">
+        <v>6_9=86%</v>
+      </c>
+      <c r="G54" t="str">
         <f t="shared" si="1"/>
-        <v>sagitario_virgo=86%</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9_6=86%</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
+        <f>VLOOKUP(A55,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D55" s="3">
+        <f>VLOOKUP(B55,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E55">
         <v>77</v>
       </c>
-      <c r="D55" t="str">
+      <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>virgo_capricornio=77%</v>
-      </c>
-      <c r="E55" t="str">
+        <v>6_10=77%</v>
+      </c>
+      <c r="G55" t="str">
         <f t="shared" si="1"/>
-        <v>capricornio_virgo=77%</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10_6=77%</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
+        <f>VLOOKUP(A56,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D56" s="3">
+        <f>VLOOKUP(B56,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E56">
         <v>83</v>
       </c>
-      <c r="D56" t="str">
+      <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>virgo_acuario=83%</v>
-      </c>
-      <c r="E56" t="str">
+        <v>6_11=83%</v>
+      </c>
+      <c r="G56" t="str">
         <f t="shared" si="1"/>
-        <v>acuario_virgo=83%</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11_6=83%</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
+        <f>VLOOKUP(A57,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D57" s="3">
+        <f>VLOOKUP(B57,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E57">
         <v>32</v>
       </c>
-      <c r="D57" t="str">
+      <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>virgo_piscis=32%</v>
-      </c>
-      <c r="E57" t="str">
+        <v>6_12=32%</v>
+      </c>
+      <c r="G57" t="str">
         <f t="shared" si="1"/>
-        <v>piscis_virgo=32%</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12_6=32%</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
+        <f>VLOOKUP(A58,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D58" s="3">
+        <f>VLOOKUP(B58,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E58">
         <v>52</v>
       </c>
-      <c r="D58" t="str">
+      <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>libra_libra=52%</v>
-      </c>
-      <c r="E58" t="str">
+        <v>7_7=52%</v>
+      </c>
+      <c r="G58" t="str">
         <f t="shared" si="1"/>
-        <v>libra_libra=52%</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7_7=52%</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
+        <f>VLOOKUP(A59,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D59" s="3">
+        <f>VLOOKUP(B59,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E59">
         <v>32</v>
       </c>
-      <c r="D59" t="str">
+      <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>libra_escorpio=32%</v>
-      </c>
-      <c r="E59" t="str">
+        <v>7_8=32%</v>
+      </c>
+      <c r="G59" t="str">
         <f t="shared" si="1"/>
-        <v>escorpio_libra=32%</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8_7=32%</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
+        <f>VLOOKUP(A60,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D60" s="3">
+        <f>VLOOKUP(B60,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E60">
         <v>44</v>
       </c>
-      <c r="D60" t="str">
+      <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>libra_sagitario=44%</v>
-      </c>
-      <c r="E60" t="str">
+        <v>7_9=44%</v>
+      </c>
+      <c r="G60" t="str">
         <f t="shared" si="1"/>
-        <v>sagitario_libra=44%</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9_7=44%</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
+        <f>VLOOKUP(A61,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D61" s="3">
+        <f>VLOOKUP(B61,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E61">
         <v>1</v>
       </c>
-      <c r="D61" t="str">
+      <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>libra_capricornio=1%</v>
-      </c>
-      <c r="E61" t="str">
+        <v>7_10=1%</v>
+      </c>
+      <c r="G61" t="str">
         <f t="shared" si="1"/>
-        <v>capricornio_libra=1%</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10_7=1%</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
+        <f>VLOOKUP(A62,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D62" s="3">
+        <f>VLOOKUP(B62,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E62">
         <v>100</v>
       </c>
-      <c r="D62" t="str">
+      <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>libra_acuario=100%</v>
-      </c>
-      <c r="E62" t="str">
+        <v>7_11=100%</v>
+      </c>
+      <c r="G62" t="str">
         <f t="shared" si="1"/>
-        <v>acuario_libra=100%</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11_7=100%</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
+        <f>VLOOKUP(A63,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D63" s="3">
+        <f>VLOOKUP(B63,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E63">
         <v>96</v>
       </c>
-      <c r="D63" t="str">
+      <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>libra_piscis=96%</v>
-      </c>
-      <c r="E63" t="str">
+        <v>7_12=96%</v>
+      </c>
+      <c r="G63" t="str">
         <f t="shared" si="1"/>
-        <v>piscis_libra=96%</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12_7=96%</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
+        <f>VLOOKUP(A64,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D64" s="3">
+        <f>VLOOKUP(B64,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E64">
         <v>50</v>
       </c>
-      <c r="D64" t="str">
+      <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>escorpio_escorpio=50%</v>
-      </c>
-      <c r="E64" t="str">
+        <v>8_8=50%</v>
+      </c>
+      <c r="G64" t="str">
         <f t="shared" si="1"/>
-        <v>escorpio_escorpio=50%</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8_8=50%</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>8</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
+        <f>VLOOKUP(A65,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D65" s="3">
+        <f>VLOOKUP(B65,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E65">
         <v>54</v>
       </c>
-      <c r="D65" t="str">
+      <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>escorpio_sagitario=54%</v>
-      </c>
-      <c r="E65" t="str">
+        <v>8_9=54%</v>
+      </c>
+      <c r="G65" t="str">
         <f t="shared" si="1"/>
-        <v>sagitario_escorpio=54%</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9_8=54%</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
+        <f>VLOOKUP(A66,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D66" s="3">
+        <f>VLOOKUP(B66,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E66">
         <v>93</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" ref="D66:D78" si="2">A66&amp;"_"&amp;B66&amp;"="&amp;C66&amp;"%"</f>
-        <v>escorpio_capricornio=93%</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" ref="E66:E78" si="3">B66&amp;"_"&amp;A66&amp;"="&amp;C66&amp;"%"</f>
-        <v>capricornio_escorpio=93%</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="str">
+        <f t="shared" ref="F66:F78" si="2">C66&amp;"_"&amp;D66&amp;"="&amp;E66&amp;"%"</f>
+        <v>8_10=93%</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G78" si="3">D66&amp;"_"&amp;C66&amp;"="&amp;E66&amp;"%"</f>
+        <v>10_8=93%</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
+        <f>VLOOKUP(A67,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D67" s="3">
+        <f>VLOOKUP(B67,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E67">
         <v>41</v>
       </c>
-      <c r="D67" t="str">
+      <c r="F67" t="str">
         <f t="shared" si="2"/>
-        <v>escorpio_acuario=41%</v>
-      </c>
-      <c r="E67" t="str">
+        <v>8_11=41%</v>
+      </c>
+      <c r="G67" t="str">
         <f t="shared" si="3"/>
-        <v>acuario_escorpio=41%</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11_8=41%</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
+        <f>VLOOKUP(A68,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D68" s="3">
+        <f>VLOOKUP(B68,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E68">
         <v>100</v>
       </c>
-      <c r="D68" t="str">
+      <c r="F68" t="str">
         <f t="shared" si="2"/>
-        <v>escorpio_piscis=100%</v>
-      </c>
-      <c r="E68" t="str">
+        <v>8_12=100%</v>
+      </c>
+      <c r="G68" t="str">
         <f t="shared" si="3"/>
-        <v>piscis_escorpio=100%</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12_8=100%</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
+        <f>VLOOKUP(A69,signos1!$B$1:$E$12,4,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="D69" t="str">
+      <c r="D69" s="3">
+        <f>VLOOKUP(B69,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>9</v>
+      </c>
+      <c r="F69" t="str">
         <f t="shared" si="2"/>
-        <v>sagitario_sagitario=9%</v>
-      </c>
-      <c r="E69" t="str">
+        <v>9_9=9%</v>
+      </c>
+      <c r="G69" t="str">
         <f t="shared" si="3"/>
-        <v>sagitario_sagitario=9%</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9_9=9%</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
+        <f>VLOOKUP(A70,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D70" s="3">
+        <f>VLOOKUP(B70,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E70">
         <v>15</v>
       </c>
-      <c r="D70" t="str">
+      <c r="F70" t="str">
         <f t="shared" si="2"/>
-        <v>sagitario_capricornio=15%</v>
-      </c>
-      <c r="E70" t="str">
+        <v>9_10=15%</v>
+      </c>
+      <c r="G70" t="str">
         <f t="shared" si="3"/>
-        <v>capricornio_sagitario=15%</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10_9=15%</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
+        <f>VLOOKUP(A71,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D71" s="3">
+        <f>VLOOKUP(B71,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E71">
         <v>52</v>
       </c>
-      <c r="D71" t="str">
+      <c r="F71" t="str">
         <f t="shared" si="2"/>
-        <v>sagitario_acuario=52%</v>
-      </c>
-      <c r="E71" t="str">
+        <v>9_11=52%</v>
+      </c>
+      <c r="G71" t="str">
         <f t="shared" si="3"/>
-        <v>acuario_sagitario=52%</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11_9=52%</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
+        <f>VLOOKUP(A72,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D72" s="3">
+        <f>VLOOKUP(B72,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E72">
         <v>14</v>
       </c>
-      <c r="D72" t="str">
+      <c r="F72" t="str">
         <f t="shared" si="2"/>
-        <v>sagitario_piscis=14%</v>
-      </c>
-      <c r="E72" t="str">
+        <v>9_12=14%</v>
+      </c>
+      <c r="G72" t="str">
         <f t="shared" si="3"/>
-        <v>piscis_sagitario=14%</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12_9=14%</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
+        <f>VLOOKUP(A73,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D73" s="3">
+        <f>VLOOKUP(B73,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E73">
         <v>96</v>
       </c>
-      <c r="D73" t="str">
+      <c r="F73" t="str">
         <f t="shared" si="2"/>
-        <v>capricornio_capricornio=96%</v>
-      </c>
-      <c r="E73" t="str">
+        <v>10_10=96%</v>
+      </c>
+      <c r="G73" t="str">
         <f t="shared" si="3"/>
-        <v>capricornio_capricornio=96%</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10_10=96%</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
+        <f>VLOOKUP(A74,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D74" s="3">
+        <f>VLOOKUP(B74,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E74">
         <v>55</v>
       </c>
-      <c r="D74" t="str">
+      <c r="F74" t="str">
         <f t="shared" si="2"/>
-        <v>capricornio_acuario=55%</v>
-      </c>
-      <c r="E74" t="str">
+        <v>10_11=55%</v>
+      </c>
+      <c r="G74" t="str">
         <f t="shared" si="3"/>
-        <v>acuario_capricornio=55%</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11_10=55%</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
+        <f>VLOOKUP(A75,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D75" s="3">
+        <f>VLOOKUP(B75,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E75">
         <v>3</v>
       </c>
-      <c r="D75" t="str">
+      <c r="F75" t="str">
         <f t="shared" si="2"/>
-        <v>capricornio_piscis=3%</v>
-      </c>
-      <c r="E75" t="str">
+        <v>10_12=3%</v>
+      </c>
+      <c r="G75" t="str">
         <f t="shared" si="3"/>
-        <v>piscis_capricornio=3%</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12_10=3%</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
+        <f>VLOOKUP(A76,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D76" s="3">
+        <f>VLOOKUP(B76,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E76">
         <v>41</v>
       </c>
-      <c r="D76" t="str">
+      <c r="F76" t="str">
         <f t="shared" si="2"/>
-        <v>acuario_acuario=41%</v>
-      </c>
-      <c r="E76" t="str">
+        <v>11_11=41%</v>
+      </c>
+      <c r="G76" t="str">
         <f t="shared" si="3"/>
-        <v>acuario_acuario=41%</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11_11=41%</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
+        <f>VLOOKUP(A77,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D77" s="3">
+        <f>VLOOKUP(B77,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E77">
         <v>39</v>
       </c>
-      <c r="D77" t="str">
+      <c r="F77" t="str">
         <f t="shared" si="2"/>
-        <v>acuario_piscis=39%</v>
-      </c>
-      <c r="E77" t="str">
+        <v>11_12=39%</v>
+      </c>
+      <c r="G77" t="str">
         <f t="shared" si="3"/>
-        <v>piscis_acuario=39%</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12_11=39%</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
+        <f>VLOOKUP(A78,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="D78" s="3">
+        <f>VLOOKUP(B78,signos1!$B$1:$E$12,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E78">
         <v>83</v>
       </c>
-      <c r="D78" t="str">
+      <c r="F78" t="str">
         <f t="shared" si="2"/>
-        <v>piscis_piscis=83%</v>
-      </c>
-      <c r="E78" t="str">
+        <v>12_12=83%</v>
+      </c>
+      <c r="G78" t="str">
         <f t="shared" si="3"/>
-        <v>piscis_piscis=83%</v>
+        <v>12_12=83%</v>
       </c>
     </row>
   </sheetData>
@@ -9404,730 +10084,730 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A144"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection sqref="A1:A144"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A54" sqref="A1:A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>435</v>
+      <c r="A1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>436</v>
+      <c r="A2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>437</v>
+      <c r="A3" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>438</v>
+      <c r="A4" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>439</v>
+      <c r="A5" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>440</v>
+      <c r="A6" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>441</v>
+      <c r="A7" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>442</v>
+      <c r="A8" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>443</v>
+      <c r="A9" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>444</v>
+      <c r="A10" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>445</v>
+      <c r="A11" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>446</v>
+      <c r="A12" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>447</v>
+      <c r="A13" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>448</v>
+      <c r="A14" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>449</v>
+      <c r="A15" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>450</v>
+      <c r="A16" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>451</v>
+      <c r="A17" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>452</v>
+      <c r="A18" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>453</v>
+      <c r="A19" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>454</v>
+      <c r="A20" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>455</v>
+      <c r="A21" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>456</v>
+      <c r="A22" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>457</v>
+      <c r="A23" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>458</v>
+      <c r="A24" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>459</v>
+      <c r="A25" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>460</v>
+      <c r="A26" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>461</v>
+      <c r="A27" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>462</v>
+      <c r="A28" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>463</v>
+      <c r="A29" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>464</v>
+      <c r="A30" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>465</v>
+      <c r="A31" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>466</v>
+      <c r="A32" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>467</v>
+      <c r="A33" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>468</v>
+      <c r="A34" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>469</v>
+      <c r="A35" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>470</v>
+      <c r="A36" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>471</v>
+      <c r="A37" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>472</v>
+      <c r="A38" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>473</v>
+      <c r="A39" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>474</v>
+      <c r="A40" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>475</v>
+      <c r="A41" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>476</v>
+      <c r="A42" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>477</v>
+      <c r="A43" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>478</v>
+      <c r="A44" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>479</v>
+      <c r="A45" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>480</v>
+      <c r="A46" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>481</v>
+      <c r="A47" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>482</v>
+      <c r="A48" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>483</v>
+      <c r="A49" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>484</v>
+      <c r="A50" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>485</v>
+      <c r="A51" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>486</v>
+      <c r="A52" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>487</v>
+      <c r="A53" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>488</v>
+      <c r="A54" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>489</v>
+      <c r="A55" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>490</v>
+      <c r="A56" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>491</v>
+      <c r="A57" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>492</v>
+      <c r="A58" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>493</v>
+      <c r="A59" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>494</v>
+      <c r="A60" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>495</v>
+      <c r="A61" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>496</v>
+      <c r="A62" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>497</v>
+      <c r="A63" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>498</v>
+      <c r="A64" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>499</v>
+      <c r="A65" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>500</v>
+      <c r="A66" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>501</v>
+      <c r="A67" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>502</v>
+      <c r="A68" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>503</v>
+      <c r="A69" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>504</v>
+      <c r="A70" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>505</v>
+      <c r="A71" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>506</v>
+      <c r="A72" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>507</v>
+      <c r="A73" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>508</v>
+      <c r="A74" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>509</v>
+      <c r="A75" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>510</v>
+      <c r="A76" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>511</v>
+      <c r="A77" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>512</v>
+      <c r="A78" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>534</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>538</v>
+        <v>501</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>540</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>541</v>
+        <v>504</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -10176,15 +10856,15 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>4576</v>
+        <v>2821</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100000,999999)</f>
-        <v>930969</v>
+        <v>456203</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">A2&amp;","&amp;B2&amp;" y "&amp;C2&amp;"; "&amp;D2&amp;"; "&amp;E2</f>
-        <v>1,7 y 8; 4576; 930969</v>
+        <v>1,7 y 8; 2821; 456203</v>
       </c>
       <c r="K2" t="s">
         <v>434</v>
@@ -10193,7 +10873,7 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A62" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B62" ca="1" si="1">RANDBETWEEN(5,7)</f>
@@ -10201,19 +10881,19 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C62" ca="1" si="2">RANDBETWEEN(8,9)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D62" ca="1" si="3">RANDBETWEEN(1000,9999)</f>
-        <v>8088</v>
+        <v>5044</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E62" ca="1" si="4">RANDBETWEEN(100000,999999)</f>
-        <v>936655</v>
+        <v>738031</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F62" ca="1" si="5">A3&amp;","&amp;B3&amp;" y "&amp;C3&amp;"; "&amp;D3&amp;"; "&amp;E3</f>
-        <v>4,6 y 9; 8088; 936655</v>
+        <v>1,6 y 8; 5044; 738031</v>
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(H3,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10237,11 +10917,11 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
@@ -10249,15 +10929,15 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>9687</v>
+        <v>8246</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>203552</v>
+        <v>866338</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 9687; 203552</v>
+        <v>1,5 y 9; 8246; 866338</v>
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(H4,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10271,11 +10951,11 @@
         <v>aries</v>
       </c>
       <c r="J4" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="K4" t="str">
         <f ca="1">IF(J4="es","  "&amp;I4&amp;"_"&amp;J4&amp;"="&amp;VLOOKUP(I4&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J4="en","  "&amp;I4&amp;"_"&amp;J4&amp;"="&amp;VLOOKUP(I4&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J4="indice",$K$2&amp;"["&amp;H4&amp;"]",IF(J4="pnl","  pnl="&amp;G4,"  num="&amp;F4))))</f>
-        <v xml:space="preserve">  num=2,6 y 9; 9687; 203552</v>
+        <v xml:space="preserve">  num=1,5 y 9; 8246; 866338</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -10285,23 +10965,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>2805</v>
+        <v>8484</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>331014</v>
+        <v>311393</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 8; 2805; 331014</v>
+        <v>2,6 y 9; 8484; 311393</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(H5,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10315,7 +10995,7 @@
         <v>aries</v>
       </c>
       <c r="J5" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="K5" t="str">
         <f>IF(J5="es","  "&amp;I5&amp;"_"&amp;J5&amp;"="&amp;VLOOKUP(I5&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J5="en","  "&amp;I5&amp;"_"&amp;J5&amp;"="&amp;VLOOKUP(I5&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J5="indice",$K$2&amp;"["&amp;H5&amp;"]",IF(J5="pnl","  pnl="&amp;G5,"  num="&amp;F5))))</f>
@@ -10325,7 +11005,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
@@ -10337,15 +11017,15 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>1288</v>
+        <v>3169</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>128357</v>
+        <v>888738</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 8; 1288; 128357</v>
+        <v>3,5 y 8; 3169; 888738</v>
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(H6,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10369,27 +11049,27 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>5887</v>
+        <v>8679</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>506296</v>
+        <v>933305</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 8; 5887; 506296</v>
+        <v>3,7 y 9; 8679; 933305</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(H7,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10413,27 +11093,27 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>4286</v>
+        <v>7578</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>370196</v>
+        <v>255477</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 9; 4286; 370196</v>
+        <v>4,5 y 8; 7578; 255477</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(H8,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10457,27 +11137,27 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>7301</v>
+        <v>9396</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>389530</v>
+        <v>522879</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 8; 7301; 389530</v>
+        <v>3,6 y 9; 9396; 522879</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(H9,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10491,37 +11171,37 @@
         <v>tauro</v>
       </c>
       <c r="J9" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="K9" t="str">
         <f ca="1">IF(J9="es","  "&amp;I9&amp;"_"&amp;J9&amp;"="&amp;VLOOKUP(I9&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J9="en","  "&amp;I9&amp;"_"&amp;J9&amp;"="&amp;VLOOKUP(I9&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J9="indice",$K$2&amp;"["&amp;H9&amp;"]",IF(J9="pnl","  pnl="&amp;G9,"  num="&amp;F9))))</f>
-        <v xml:space="preserve">  num=1,5 y 8; 7301; 389530</v>
+        <v xml:space="preserve">  num=3,6 y 9; 9396; 522879</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>8167</v>
+        <v>8960</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>694183</v>
+        <v>577499</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 9; 8167; 694183</v>
+        <v>2,5 y 8; 8960; 577499</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(H10,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10535,7 +11215,7 @@
         <v>tauro</v>
       </c>
       <c r="J10" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="K10" t="str">
         <f>IF(J10="es","  "&amp;I10&amp;"_"&amp;J10&amp;"="&amp;VLOOKUP(I10&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J10="en","  "&amp;I10&amp;"_"&amp;J10&amp;"="&amp;VLOOKUP(I10&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J10="indice",$K$2&amp;"["&amp;H10&amp;"]",IF(J10="pnl","  pnl="&amp;G10,"  num="&amp;F10))))</f>
@@ -10557,15 +11237,15 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>4557</v>
+        <v>5083</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>400164</v>
+        <v>739892</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 8; 4557; 400164</v>
+        <v>4,7 y 8; 5083; 739892</v>
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(H11,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10589,7 +11269,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
@@ -10601,15 +11281,15 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>2947</v>
+        <v>9527</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>310157</v>
+        <v>266020</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 8; 2947; 310157</v>
+        <v>1,5 y 8; 9527; 266020</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(H12,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10633,7 +11313,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
@@ -10641,19 +11321,19 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>7057</v>
+        <v>4183</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>527353</v>
+        <v>927906</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 9; 7057; 527353</v>
+        <v>1,6 y 8; 4183; 927906</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(H13,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10677,27 +11357,27 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>7249</v>
+        <v>3576</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>685589</v>
+        <v>950149</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 7249; 685589</v>
+        <v>4,5 y 8; 3576; 950149</v>
       </c>
       <c r="G14" t="str">
         <f>VLOOKUP(H14,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10711,11 +11391,11 @@
         <v>geminis</v>
       </c>
       <c r="J14" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="K14" t="str">
         <f ca="1">IF(J14="es","  "&amp;I14&amp;"_"&amp;J14&amp;"="&amp;VLOOKUP(I14&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J14="en","  "&amp;I14&amp;"_"&amp;J14&amp;"="&amp;VLOOKUP(I14&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J14="indice",$K$2&amp;"["&amp;H14&amp;"]",IF(J14="pnl","  pnl="&amp;G14,"  num="&amp;F14))))</f>
-        <v xml:space="preserve">  num=1,6 y 9; 7249; 685589</v>
+        <v xml:space="preserve">  num=4,5 y 8; 3576; 950149</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -10725,7 +11405,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
@@ -10733,15 +11413,15 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>3029</v>
+        <v>5555</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>672550</v>
+        <v>350120</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 9; 3029; 672550</v>
+        <v>3,6 y 9; 5555; 350120</v>
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(H15,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10755,7 +11435,7 @@
         <v>geminis</v>
       </c>
       <c r="J15" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="K15" t="str">
         <f>IF(J15="es","  "&amp;I15&amp;"_"&amp;J15&amp;"="&amp;VLOOKUP(I15&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J15="en","  "&amp;I15&amp;"_"&amp;J15&amp;"="&amp;VLOOKUP(I15&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J15="indice",$K$2&amp;"["&amp;H15&amp;"]",IF(J15="pnl","  pnl="&amp;G15,"  num="&amp;F15))))</f>
@@ -10765,11 +11445,11 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
@@ -10777,15 +11457,15 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>4258</v>
+        <v>3911</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>131544</v>
+        <v>382491</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 8; 4258; 131544</v>
+        <v>4,5 y 8; 3911; 382491</v>
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(H16,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10809,11 +11489,11 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
@@ -10821,15 +11501,15 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>7672</v>
+        <v>8837</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>212514</v>
+        <v>298107</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 8; 7672; 212514</v>
+        <v>4,7 y 8; 8837; 298107</v>
       </c>
       <c r="G17" t="str">
         <f>VLOOKUP(H17,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10853,11 +11533,11 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
@@ -10865,15 +11545,15 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>9677</v>
+        <v>6308</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>395628</v>
+        <v>759721</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 9; 9677; 395628</v>
+        <v>3,7 y 9; 6308; 759721</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(H18,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10901,23 +11581,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>4095</v>
+        <v>9317</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>712141</v>
+        <v>517745</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 4095; 712141</v>
+        <v>2,7 y 8; 9317; 517745</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(H19,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10931,17 +11611,17 @@
         <v>cancer</v>
       </c>
       <c r="J19" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="K19" t="str">
         <f ca="1">IF(J19="es","  "&amp;I19&amp;"_"&amp;J19&amp;"="&amp;VLOOKUP(I19&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J19="en","  "&amp;I19&amp;"_"&amp;J19&amp;"="&amp;VLOOKUP(I19&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J19="indice",$K$2&amp;"["&amp;H19&amp;"]",IF(J19="pnl","  pnl="&amp;G19,"  num="&amp;F19))))</f>
-        <v xml:space="preserve">  num=2,6 y 9; 4095; 712141</v>
+        <v xml:space="preserve">  num=2,7 y 8; 9317; 517745</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
@@ -10949,19 +11629,19 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>4500</v>
+        <v>6045</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
-        <v>478699</v>
+        <v>644730</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 9; 4500; 478699</v>
+        <v>4,7 y 8; 6045; 644730</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP(H20,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10975,7 +11655,7 @@
         <v>cancer</v>
       </c>
       <c r="J20" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="K20" t="str">
         <f>IF(J20="es","  "&amp;I20&amp;"_"&amp;J20&amp;"="&amp;VLOOKUP(I20&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J20="en","  "&amp;I20&amp;"_"&amp;J20&amp;"="&amp;VLOOKUP(I20&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J20="indice",$K$2&amp;"["&amp;H20&amp;"]",IF(J20="pnl","  pnl="&amp;G20,"  num="&amp;F20))))</f>
@@ -10985,7 +11665,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
@@ -10997,15 +11677,15 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>2091</v>
+        <v>6028</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>277082</v>
+        <v>446007</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 9; 2091; 277082</v>
+        <v>2,6 y 9; 6028; 446007</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(H21,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11029,7 +11709,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
@@ -11041,15 +11721,15 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>5514</v>
+        <v>9732</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>226074</v>
+        <v>555378</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 9; 5514; 226074</v>
+        <v>1,5 y 9; 9732; 555378</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(H22,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11073,7 +11753,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
@@ -11085,15 +11765,15 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>6542</v>
+        <v>4025</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>430995</v>
+        <v>973276</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 9; 6542; 430995</v>
+        <v>4,6 y 9; 4025; 973276</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP(H23,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11125,19 +11805,19 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>9745</v>
+        <v>6936</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>885838</v>
+        <v>224415</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 8; 9745; 885838</v>
+        <v>2,6 y 9; 6936; 224415</v>
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP(H24,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11151,17 +11831,17 @@
         <v>leo</v>
       </c>
       <c r="J24" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="K24" t="str">
         <f ca="1">IF(J24="es","  "&amp;I24&amp;"_"&amp;J24&amp;"="&amp;VLOOKUP(I24&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J24="en","  "&amp;I24&amp;"_"&amp;J24&amp;"="&amp;VLOOKUP(I24&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J24="indice",$K$2&amp;"["&amp;H24&amp;"]",IF(J24="pnl","  pnl="&amp;G24,"  num="&amp;F24))))</f>
-        <v xml:space="preserve">  num=2,6 y 8; 9745; 885838</v>
+        <v xml:space="preserve">  num=2,6 y 9; 6936; 224415</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
@@ -11169,19 +11849,19 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>4840</v>
+        <v>1887</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>272613</v>
+        <v>764718</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 8; 4840; 272613</v>
+        <v>2,6 y 9; 1887; 764718</v>
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP(H25,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11195,7 +11875,7 @@
         <v>leo</v>
       </c>
       <c r="J25" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="K25" t="str">
         <f>IF(J25="es","  "&amp;I25&amp;"_"&amp;J25&amp;"="&amp;VLOOKUP(I25&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J25="en","  "&amp;I25&amp;"_"&amp;J25&amp;"="&amp;VLOOKUP(I25&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J25="indice",$K$2&amp;"["&amp;H25&amp;"]",IF(J25="pnl","  pnl="&amp;G25,"  num="&amp;F25))))</f>
@@ -11205,27 +11885,27 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>4412</v>
+        <v>4194</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>244504</v>
+        <v>985718</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 9; 4412; 244504</v>
+        <v>1,5 y 8; 4194; 985718</v>
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP(H26,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11249,27 +11929,27 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>9688</v>
+        <v>4182</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>761681</v>
+        <v>896316</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 9688; 761681</v>
+        <v>2,5 y 8; 4182; 896316</v>
       </c>
       <c r="G27" t="str">
         <f>VLOOKUP(H27,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11293,11 +11973,11 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
@@ -11305,15 +11985,15 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>6790</v>
+        <v>3781</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>157010</v>
+        <v>423910</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 9; 6790; 157010</v>
+        <v>2,7 y 9; 3781; 423910</v>
       </c>
       <c r="G28" t="str">
         <f>VLOOKUP(H28,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11337,7 +12017,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
@@ -11349,15 +12029,15 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>6954</v>
+        <v>4029</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>689506</v>
+        <v>197134</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 8; 6954; 689506</v>
+        <v>2,5 y 8; 4029; 197134</v>
       </c>
       <c r="G29" t="str">
         <f>VLOOKUP(H29,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11371,17 +12051,17 @@
         <v>virgo</v>
       </c>
       <c r="J29" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="K29" t="str">
         <f ca="1">IF(J29="es","  "&amp;I29&amp;"_"&amp;J29&amp;"="&amp;VLOOKUP(I29&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J29="en","  "&amp;I29&amp;"_"&amp;J29&amp;"="&amp;VLOOKUP(I29&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J29="indice",$K$2&amp;"["&amp;H29&amp;"]",IF(J29="pnl","  pnl="&amp;G29,"  num="&amp;F29))))</f>
-        <v xml:space="preserve">  num=4,5 y 8; 6954; 689506</v>
+        <v xml:space="preserve">  num=2,5 y 8; 4029; 197134</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
@@ -11389,19 +12069,19 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>2412</v>
+        <v>5211</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>994001</v>
+        <v>612930</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 8; 2412; 994001</v>
+        <v>3,7 y 9; 5211; 612930</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP(H30,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11415,7 +12095,7 @@
         <v>virgo</v>
       </c>
       <c r="J30" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="K30" t="str">
         <f>IF(J30="es","  "&amp;I30&amp;"_"&amp;J30&amp;"="&amp;VLOOKUP(I30&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J30="en","  "&amp;I30&amp;"_"&amp;J30&amp;"="&amp;VLOOKUP(I30&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J30="indice",$K$2&amp;"["&amp;H30&amp;"]",IF(J30="pnl","  pnl="&amp;G30,"  num="&amp;F30))))</f>
@@ -11429,7 +12109,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
@@ -11437,15 +12117,15 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>6320</v>
+        <v>5574</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>605151</v>
+        <v>553583</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 9; 6320; 605151</v>
+        <v>2,6 y 9; 5574; 553583</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP(H31,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11469,7 +12149,7 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
@@ -11477,19 +12157,19 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>1817</v>
+        <v>5485</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>954420</v>
+        <v>120552</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 8; 1817; 954420</v>
+        <v>3,6 y 9; 5485; 120552</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP(H32,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11517,23 +12197,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="3"/>
-        <v>1228</v>
+        <v>5537</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>404754</v>
+        <v>459203</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 8; 1228; 404754</v>
+        <v>1,7 y 9; 5537; 459203</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP(H33,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11557,11 +12237,11 @@
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
@@ -11569,15 +12249,15 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>6882</v>
+        <v>4084</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>182471</v>
+        <v>421592</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 9; 6882; 182471</v>
+        <v>4,5 y 9; 4084; 421592</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP(H34,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11591,17 +12271,17 @@
         <v>libra</v>
       </c>
       <c r="J34" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="K34" t="str">
         <f ca="1">IF(J34="es","  "&amp;I34&amp;"_"&amp;J34&amp;"="&amp;VLOOKUP(I34&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J34="en","  "&amp;I34&amp;"_"&amp;J34&amp;"="&amp;VLOOKUP(I34&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J34="indice",$K$2&amp;"["&amp;H34&amp;"]",IF(J34="pnl","  pnl="&amp;G34,"  num="&amp;F34))))</f>
-        <v xml:space="preserve">  num=1,7 y 9; 6882; 182471</v>
+        <v xml:space="preserve">  num=4,5 y 9; 4084; 421592</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
@@ -11609,19 +12289,19 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>3910</v>
+        <v>7646</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>787198</v>
+        <v>212938</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 9; 3910; 787198</v>
+        <v>1,7 y 8; 7646; 212938</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP(H35,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11635,7 +12315,7 @@
         <v>libra</v>
       </c>
       <c r="J35" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="K35" t="str">
         <f>IF(J35="es","  "&amp;I35&amp;"_"&amp;J35&amp;"="&amp;VLOOKUP(I35&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J35="en","  "&amp;I35&amp;"_"&amp;J35&amp;"="&amp;VLOOKUP(I35&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J35="indice",$K$2&amp;"["&amp;H35&amp;"]",IF(J35="pnl","  pnl="&amp;G35,"  num="&amp;F35))))</f>
@@ -11645,11 +12325,11 @@
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
@@ -11657,15 +12337,15 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>5716</v>
+        <v>2599</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>566102</v>
+        <v>707598</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 5716; 566102</v>
+        <v>2,7 y 9; 2599; 707598</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP(H36,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11689,7 +12369,7 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
@@ -11697,19 +12377,19 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>4013</v>
+        <v>8196</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>810761</v>
+        <v>216905</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 4013; 810761</v>
+        <v>2,5 y 8; 8196; 216905</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP(H37,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11733,11 +12413,11 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
@@ -11745,15 +12425,15 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>7234</v>
+        <v>3594</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>453072</v>
+        <v>143267</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 7234; 453072</v>
+        <v>2,5 y 9; 3594; 143267</v>
       </c>
       <c r="G38" t="str">
         <f>VLOOKUP(H38,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11781,23 +12461,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>5028</v>
+        <v>6839</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>366483</v>
+        <v>312234</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 9; 5028; 366483</v>
+        <v>1,5 y 8; 6839; 312234</v>
       </c>
       <c r="G39" t="str">
         <f>VLOOKUP(H39,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11811,21 +12491,21 @@
         <v>escorpio</v>
       </c>
       <c r="J39" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="K39" t="str">
         <f ca="1">IF(J39="es","  "&amp;I39&amp;"_"&amp;J39&amp;"="&amp;VLOOKUP(I39&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J39="en","  "&amp;I39&amp;"_"&amp;J39&amp;"="&amp;VLOOKUP(I39&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J39="indice",$K$2&amp;"["&amp;H39&amp;"]",IF(J39="pnl","  pnl="&amp;G39,"  num="&amp;F39))))</f>
-        <v xml:space="preserve">  num=1,7 y 9; 5028; 366483</v>
+        <v xml:space="preserve">  num=1,5 y 8; 6839; 312234</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
@@ -11833,15 +12513,15 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>9489</v>
+        <v>7569</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>165576</v>
+        <v>183725</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 9; 9489; 165576</v>
+        <v>1,5 y 9; 7569; 183725</v>
       </c>
       <c r="G40" t="str">
         <f>VLOOKUP(H40,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11855,7 +12535,7 @@
         <v>escorpio</v>
       </c>
       <c r="J40" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="K40" t="str">
         <f>IF(J40="es","  "&amp;I40&amp;"_"&amp;J40&amp;"="&amp;VLOOKUP(I40&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J40="en","  "&amp;I40&amp;"_"&amp;J40&amp;"="&amp;VLOOKUP(I40&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J40="indice",$K$2&amp;"["&amp;H40&amp;"]",IF(J40="pnl","  pnl="&amp;G40,"  num="&amp;F40))))</f>
@@ -11865,11 +12545,11 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
@@ -11877,15 +12557,15 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>1823</v>
+        <v>4641</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>313697</v>
+        <v>925978</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 8; 1823; 313697</v>
+        <v>1,6 y 8; 4641; 925978</v>
       </c>
       <c r="G41" t="str">
         <f>VLOOKUP(H41,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11913,7 +12593,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
@@ -11921,15 +12601,15 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>1890</v>
+        <v>6687</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>415815</v>
+        <v>852135</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 9; 1890; 415815</v>
+        <v>1,5 y 9; 6687; 852135</v>
       </c>
       <c r="G42" t="str">
         <f>VLOOKUP(H42,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11953,27 +12633,27 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>7034</v>
+        <v>8408</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>457712</v>
+        <v>866174</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 7034; 457712</v>
+        <v>4,7 y 8; 8408; 866174</v>
       </c>
       <c r="G43" t="str">
         <f>VLOOKUP(H43,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11997,27 +12677,27 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>3158</v>
+        <v>3882</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>233648</v>
+        <v>641068</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 3158; 233648</v>
+        <v>2,6 y 8; 3882; 641068</v>
       </c>
       <c r="G44" t="str">
         <f>VLOOKUP(H44,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12031,21 +12711,21 @@
         <v>sagitario</v>
       </c>
       <c r="J44" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="K44" t="str">
         <f ca="1">IF(J44="es","  "&amp;I44&amp;"_"&amp;J44&amp;"="&amp;VLOOKUP(I44&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J44="en","  "&amp;I44&amp;"_"&amp;J44&amp;"="&amp;VLOOKUP(I44&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J44="indice",$K$2&amp;"["&amp;H44&amp;"]",IF(J44="pnl","  pnl="&amp;G44,"  num="&amp;F44))))</f>
-        <v xml:space="preserve">  num=4,5 y 9; 3158; 233648</v>
+        <v xml:space="preserve">  num=2,6 y 8; 3882; 641068</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
@@ -12053,15 +12733,15 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>7192</v>
+        <v>7984</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>170951</v>
+        <v>895510</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 7192; 170951</v>
+        <v>2,5 y 9; 7984; 895510</v>
       </c>
       <c r="G45" t="str">
         <f>VLOOKUP(H45,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12075,7 +12755,7 @@
         <v>sagitario</v>
       </c>
       <c r="J45" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="K45" t="str">
         <f>IF(J45="es","  "&amp;I45&amp;"_"&amp;J45&amp;"="&amp;VLOOKUP(I45&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J45="en","  "&amp;I45&amp;"_"&amp;J45&amp;"="&amp;VLOOKUP(I45&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J45="indice",$K$2&amp;"["&amp;H45&amp;"]",IF(J45="pnl","  pnl="&amp;G45,"  num="&amp;F45))))</f>
@@ -12085,27 +12765,27 @@
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>7936</v>
+        <v>9073</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>200690</v>
+        <v>158266</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 9; 7936; 200690</v>
+        <v>2,6 y 8; 9073; 158266</v>
       </c>
       <c r="G46" t="str">
         <f>VLOOKUP(H46,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12129,7 +12809,7 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
@@ -12137,19 +12817,19 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>2776</v>
+        <v>7777</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>394756</v>
+        <v>105863</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 8; 2776; 394756</v>
+        <v>3,5 y 9; 7777; 105863</v>
       </c>
       <c r="G47" t="str">
         <f>VLOOKUP(H47,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12173,11 +12853,11 @@
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
@@ -12185,15 +12865,15 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>3106</v>
+        <v>4297</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>376488</v>
+        <v>406951</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 3106; 376488</v>
+        <v>4,5 y 9; 4297; 406951</v>
       </c>
       <c r="G48" t="str">
         <f>VLOOKUP(H48,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12229,15 +12909,15 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>8893</v>
+        <v>6593</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>518671</v>
+        <v>243733</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 8; 8893; 518671</v>
+        <v>3,7 y 8; 6593; 243733</v>
       </c>
       <c r="G49" t="str">
         <f>VLOOKUP(H49,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12251,37 +12931,37 @@
         <v>capricornio</v>
       </c>
       <c r="J49" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="K49" t="str">
         <f ca="1">IF(J49="es","  "&amp;I49&amp;"_"&amp;J49&amp;"="&amp;VLOOKUP(I49&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J49="en","  "&amp;I49&amp;"_"&amp;J49&amp;"="&amp;VLOOKUP(I49&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J49="indice",$K$2&amp;"["&amp;H49&amp;"]",IF(J49="pnl","  pnl="&amp;G49,"  num="&amp;F49))))</f>
-        <v xml:space="preserve">  num=3,7 y 8; 8893; 518671</v>
+        <v xml:space="preserve">  num=3,7 y 8; 6593; 243733</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>6109</v>
+        <v>6934</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>747900</v>
+        <v>433462</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 6109; 747900</v>
+        <v>3,7 y 8; 6934; 433462</v>
       </c>
       <c r="G50" t="str">
         <f>VLOOKUP(H50,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12295,7 +12975,7 @@
         <v>capricornio</v>
       </c>
       <c r="J50" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="K50" t="str">
         <f>IF(J50="es","  "&amp;I50&amp;"_"&amp;J50&amp;"="&amp;VLOOKUP(I50&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J50="en","  "&amp;I50&amp;"_"&amp;J50&amp;"="&amp;VLOOKUP(I50&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J50="indice",$K$2&amp;"["&amp;H50&amp;"]",IF(J50="pnl","  pnl="&amp;G50,"  num="&amp;F50))))</f>
@@ -12305,27 +12985,27 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="3"/>
-        <v>5271</v>
+        <v>2047</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>574183</v>
+        <v>579778</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 9; 5271; 574183</v>
+        <v>4,6 y 8; 2047; 579778</v>
       </c>
       <c r="G51" t="str">
         <f>VLOOKUP(H51,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12349,11 +13029,11 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
@@ -12361,15 +13041,15 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="3"/>
-        <v>5678</v>
+        <v>3744</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>495236</v>
+        <v>761765</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 8; 5678; 495236</v>
+        <v>3,5 y 8; 3744; 761765</v>
       </c>
       <c r="G52" t="str">
         <f>VLOOKUP(H52,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12397,23 +13077,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="3"/>
-        <v>4644</v>
+        <v>5454</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>142330</v>
+        <v>110271</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 4644; 142330</v>
+        <v>2,7 y 8; 5454; 110271</v>
       </c>
       <c r="G53" t="str">
         <f>VLOOKUP(H53,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12441,7 +13121,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
@@ -12449,15 +13129,15 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="3"/>
-        <v>2572</v>
+        <v>6052</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>727917</v>
+        <v>234614</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 9; 2572; 727917</v>
+        <v>3,7 y 9; 6052; 234614</v>
       </c>
       <c r="G54" t="str">
         <f>VLOOKUP(H54,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12471,21 +13151,21 @@
         <v>acuario</v>
       </c>
       <c r="J54" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="K54" t="str">
         <f ca="1">IF(J54="es","  "&amp;I54&amp;"_"&amp;J54&amp;"="&amp;VLOOKUP(I54&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J54="en","  "&amp;I54&amp;"_"&amp;J54&amp;"="&amp;VLOOKUP(I54&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J54="indice",$K$2&amp;"["&amp;H54&amp;"]",IF(J54="pnl","  pnl="&amp;G54,"  num="&amp;F54))))</f>
-        <v xml:space="preserve">  num=3,5 y 9; 2572; 727917</v>
+        <v xml:space="preserve">  num=3,7 y 9; 6052; 234614</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
@@ -12493,15 +13173,15 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="3"/>
-        <v>5020</v>
+        <v>5141</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>640923</v>
+        <v>797232</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 9; 5020; 640923</v>
+        <v>4,6 y 9; 5141; 797232</v>
       </c>
       <c r="G55" t="str">
         <f>VLOOKUP(H55,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12515,7 +13195,7 @@
         <v>acuario</v>
       </c>
       <c r="J55" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="K55" t="str">
         <f>IF(J55="es","  "&amp;I55&amp;"_"&amp;J55&amp;"="&amp;VLOOKUP(I55&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J55="en","  "&amp;I55&amp;"_"&amp;J55&amp;"="&amp;VLOOKUP(I55&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J55="indice",$K$2&amp;"["&amp;H55&amp;"]",IF(J55="pnl","  pnl="&amp;G55,"  num="&amp;F55))))</f>
@@ -12525,7 +13205,7 @@
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
@@ -12537,15 +13217,15 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="3"/>
-        <v>1389</v>
+        <v>6616</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>826046</v>
+        <v>248879</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 9; 1389; 826046</v>
+        <v>2,6 y 9; 6616; 248879</v>
       </c>
       <c r="G56" t="str">
         <f>VLOOKUP(H56,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12569,27 +13249,27 @@
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="3"/>
-        <v>7896</v>
+        <v>7116</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>720387</v>
+        <v>485575</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 9; 7896; 720387</v>
+        <v>3,5 y 8; 7116; 485575</v>
       </c>
       <c r="G57" t="str">
         <f>VLOOKUP(H57,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12613,27 +13293,27 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="3"/>
-        <v>9291</v>
+        <v>9633</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>479240</v>
+        <v>576200</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 9; 9291; 479240</v>
+        <v>2,5 y 8; 9633; 576200</v>
       </c>
       <c r="G58" t="str">
         <f>VLOOKUP(H58,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12657,11 +13337,11 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
@@ -12669,15 +13349,15 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="3"/>
-        <v>8673</v>
+        <v>3455</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>124735</v>
+        <v>202017</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 9; 8673; 124735</v>
+        <v>2,5 y 9; 3455; 202017</v>
       </c>
       <c r="G59" t="str">
         <f>VLOOKUP(H59,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12691,17 +13371,17 @@
         <v>piscis</v>
       </c>
       <c r="J59" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="K59" t="str">
         <f ca="1">IF(J59="es","  "&amp;I59&amp;"_"&amp;J59&amp;"="&amp;VLOOKUP(I59&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J59="en","  "&amp;I59&amp;"_"&amp;J59&amp;"="&amp;VLOOKUP(I59&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J59="indice",$K$2&amp;"["&amp;H59&amp;"]",IF(J59="pnl","  pnl="&amp;G59,"  num="&amp;F59))))</f>
-        <v xml:space="preserve">  num=1,6 y 9; 8673; 124735</v>
+        <v xml:space="preserve">  num=2,5 y 9; 3455; 202017</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
@@ -12709,19 +13389,19 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="3"/>
-        <v>5664</v>
+        <v>8639</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>667033</v>
+        <v>759856</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 8; 5664; 667033</v>
+        <v>4,6 y 9; 8639; 759856</v>
       </c>
       <c r="G60" t="str">
         <f>VLOOKUP(H60,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12735,7 +13415,7 @@
         <v>piscis</v>
       </c>
       <c r="J60" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="K60" t="str">
         <f>IF(J60="es","  "&amp;I60&amp;"_"&amp;J60&amp;"="&amp;VLOOKUP(I60&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J60="en","  "&amp;I60&amp;"_"&amp;J60&amp;"="&amp;VLOOKUP(I60&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J60="indice",$K$2&amp;"["&amp;H60&amp;"]",IF(J60="pnl","  pnl="&amp;G60,"  num="&amp;F60))))</f>
@@ -12745,11 +13425,11 @@
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
@@ -12757,15 +13437,15 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="3"/>
-        <v>7133</v>
+        <v>7380</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>996559</v>
+        <v>820792</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 9; 7133; 996559</v>
+        <v>3,7 y 9; 7380; 820792</v>
       </c>
       <c r="G61" t="str">
         <f>VLOOKUP(H61,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12789,7 +13469,7 @@
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
@@ -12801,15 +13481,15 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="3"/>
-        <v>4545</v>
+        <v>9129</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>830332</v>
+        <v>178612</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 9; 4545; 830332</v>
+        <v>4,5 y 9; 9129; 178612</v>
       </c>
       <c r="G62" t="str">
         <f>VLOOKUP(H62,signos1!$A$1:$C$12,3,FALSE)</f>

--- a/documentos/datos.xlsx
+++ b/documentos/datos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="2" r:id="rId1"/>
@@ -1341,6 +1341,438 @@
     <t>horoscopo</t>
   </si>
   <si>
+    <t>aries_aries=100%</t>
+  </si>
+  <si>
+    <t>aries_tauro=47%</t>
+  </si>
+  <si>
+    <t>aries_geminis=82%</t>
+  </si>
+  <si>
+    <t>aries_cancer=51%</t>
+  </si>
+  <si>
+    <t>aries_leo=63%</t>
+  </si>
+  <si>
+    <t>aries_virgo=28%</t>
+  </si>
+  <si>
+    <t>aries_libra=68%</t>
+  </si>
+  <si>
+    <t>aries_escorpio=18%</t>
+  </si>
+  <si>
+    <t>aries_sagitario=86%</t>
+  </si>
+  <si>
+    <t>aries_capricornio=51%</t>
+  </si>
+  <si>
+    <t>aries_acuario=35%</t>
+  </si>
+  <si>
+    <t>aries_piscis=47%</t>
+  </si>
+  <si>
+    <t>tauro_tauro=47%</t>
+  </si>
+  <si>
+    <t>tauro_geminis=28%</t>
+  </si>
+  <si>
+    <t>tauro_cancer=91%</t>
+  </si>
+  <si>
+    <t>tauro_leo=87%</t>
+  </si>
+  <si>
+    <t>tauro_virgo=57%</t>
+  </si>
+  <si>
+    <t>tauro_libra=34%</t>
+  </si>
+  <si>
+    <t>tauro_escorpio=2%</t>
+  </si>
+  <si>
+    <t>tauro_sagitario=73%</t>
+  </si>
+  <si>
+    <t>tauro_capricornio=77%</t>
+  </si>
+  <si>
+    <t>tauro_acuario=59%</t>
+  </si>
+  <si>
+    <t>tauro_piscis=56%</t>
+  </si>
+  <si>
+    <t>geminis_geminis=79%</t>
+  </si>
+  <si>
+    <t>geminis_cancer=86%</t>
+  </si>
+  <si>
+    <t>geminis_leo=93%</t>
+  </si>
+  <si>
+    <t>geminis_virgo=49%</t>
+  </si>
+  <si>
+    <t>geminis_libra=0%</t>
+  </si>
+  <si>
+    <t>geminis_escorpio=9%</t>
+  </si>
+  <si>
+    <t>geminis_sagitario=66%</t>
+  </si>
+  <si>
+    <t>geminis_capricornio=77%</t>
+  </si>
+  <si>
+    <t>geminis_acuario=17%</t>
+  </si>
+  <si>
+    <t>geminis_piscis=65%</t>
+  </si>
+  <si>
+    <t>cancer_cancer=82%</t>
+  </si>
+  <si>
+    <t>cancer_leo=80%</t>
+  </si>
+  <si>
+    <t>cancer_virgo=86%</t>
+  </si>
+  <si>
+    <t>cancer_libra=17%</t>
+  </si>
+  <si>
+    <t>cancer_escorpio=12%</t>
+  </si>
+  <si>
+    <t>cancer_sagitario=57%</t>
+  </si>
+  <si>
+    <t>cancer_capricornio=33%</t>
+  </si>
+  <si>
+    <t>cancer_acuario=59%</t>
+  </si>
+  <si>
+    <t>cancer_piscis=75%</t>
+  </si>
+  <si>
+    <t>leo_leo=18%</t>
+  </si>
+  <si>
+    <t>leo_virgo=39%</t>
+  </si>
+  <si>
+    <t>leo_libra=50%</t>
+  </si>
+  <si>
+    <t>leo_escorpio=21%</t>
+  </si>
+  <si>
+    <t>leo_sagitario=57%</t>
+  </si>
+  <si>
+    <t>leo_capricornio=87%</t>
+  </si>
+  <si>
+    <t>leo_acuario=29%</t>
+  </si>
+  <si>
+    <t>leo_piscis=58%</t>
+  </si>
+  <si>
+    <t>virgo_virgo=54%</t>
+  </si>
+  <si>
+    <t>virgo_libra=87%</t>
+  </si>
+  <si>
+    <t>virgo_escorpio=42%</t>
+  </si>
+  <si>
+    <t>virgo_sagitario=86%</t>
+  </si>
+  <si>
+    <t>virgo_capricornio=77%</t>
+  </si>
+  <si>
+    <t>virgo_acuario=83%</t>
+  </si>
+  <si>
+    <t>virgo_piscis=32%</t>
+  </si>
+  <si>
+    <t>libra_libra=52%</t>
+  </si>
+  <si>
+    <t>libra_escorpio=32%</t>
+  </si>
+  <si>
+    <t>libra_sagitario=44%</t>
+  </si>
+  <si>
+    <t>libra_capricornio=1%</t>
+  </si>
+  <si>
+    <t>libra_acuario=100%</t>
+  </si>
+  <si>
+    <t>libra_piscis=96%</t>
+  </si>
+  <si>
+    <t>escorpio_escorpio=50%</t>
+  </si>
+  <si>
+    <t>escorpio_sagitario=54%</t>
+  </si>
+  <si>
+    <t>escorpio_capricornio=93%</t>
+  </si>
+  <si>
+    <t>escorpio_acuario=41%</t>
+  </si>
+  <si>
+    <t>escorpio_piscis=100%</t>
+  </si>
+  <si>
+    <t>sagitario_sagitario=9%</t>
+  </si>
+  <si>
+    <t>sagitario_capricornio=15%</t>
+  </si>
+  <si>
+    <t>sagitario_acuario=52%</t>
+  </si>
+  <si>
+    <t>sagitario_piscis=14%</t>
+  </si>
+  <si>
+    <t>capricornio_capricornio=96%</t>
+  </si>
+  <si>
+    <t>capricornio_acuario=55%</t>
+  </si>
+  <si>
+    <t>capricornio_piscis=3%</t>
+  </si>
+  <si>
+    <t>acuario_acuario=41%</t>
+  </si>
+  <si>
+    <t>acuario_piscis=39%</t>
+  </si>
+  <si>
+    <t>piscis_piscis=83%</t>
+  </si>
+  <si>
+    <t>tauro_aries=47%</t>
+  </si>
+  <si>
+    <t>geminis_aries=82%</t>
+  </si>
+  <si>
+    <t>cancer_aries=51%</t>
+  </si>
+  <si>
+    <t>leo_aries=63%</t>
+  </si>
+  <si>
+    <t>virgo_aries=28%</t>
+  </si>
+  <si>
+    <t>libra_aries=68%</t>
+  </si>
+  <si>
+    <t>escorpio_aries=18%</t>
+  </si>
+  <si>
+    <t>sagitario_aries=86%</t>
+  </si>
+  <si>
+    <t>capricornio_aries=51%</t>
+  </si>
+  <si>
+    <t>acuario_aries=35%</t>
+  </si>
+  <si>
+    <t>piscis_aries=47%</t>
+  </si>
+  <si>
+    <t>geminis_tauro=28%</t>
+  </si>
+  <si>
+    <t>cancer_tauro=91%</t>
+  </si>
+  <si>
+    <t>leo_tauro=87%</t>
+  </si>
+  <si>
+    <t>virgo_tauro=57%</t>
+  </si>
+  <si>
+    <t>libra_tauro=34%</t>
+  </si>
+  <si>
+    <t>escorpio_tauro=2%</t>
+  </si>
+  <si>
+    <t>sagitario_tauro=73%</t>
+  </si>
+  <si>
+    <t>capricornio_tauro=77%</t>
+  </si>
+  <si>
+    <t>acuario_tauro=59%</t>
+  </si>
+  <si>
+    <t>piscis_tauro=56%</t>
+  </si>
+  <si>
+    <t>cancer_geminis=86%</t>
+  </si>
+  <si>
+    <t>leo_geminis=93%</t>
+  </si>
+  <si>
+    <t>virgo_geminis=49%</t>
+  </si>
+  <si>
+    <t>libra_geminis=0%</t>
+  </si>
+  <si>
+    <t>escorpio_geminis=9%</t>
+  </si>
+  <si>
+    <t>sagitario_geminis=66%</t>
+  </si>
+  <si>
+    <t>capricornio_geminis=77%</t>
+  </si>
+  <si>
+    <t>acuario_geminis=17%</t>
+  </si>
+  <si>
+    <t>piscis_geminis=65%</t>
+  </si>
+  <si>
+    <t>leo_cancer=80%</t>
+  </si>
+  <si>
+    <t>virgo_cancer=86%</t>
+  </si>
+  <si>
+    <t>libra_cancer=17%</t>
+  </si>
+  <si>
+    <t>escorpio_cancer=12%</t>
+  </si>
+  <si>
+    <t>sagitario_cancer=57%</t>
+  </si>
+  <si>
+    <t>capricornio_cancer=33%</t>
+  </si>
+  <si>
+    <t>acuario_cancer=59%</t>
+  </si>
+  <si>
+    <t>piscis_cancer=75%</t>
+  </si>
+  <si>
+    <t>virgo_leo=39%</t>
+  </si>
+  <si>
+    <t>libra_leo=50%</t>
+  </si>
+  <si>
+    <t>escorpio_leo=21%</t>
+  </si>
+  <si>
+    <t>sagitario_leo=57%</t>
+  </si>
+  <si>
+    <t>capricornio_leo=87%</t>
+  </si>
+  <si>
+    <t>acuario_leo=29%</t>
+  </si>
+  <si>
+    <t>piscis_leo=58%</t>
+  </si>
+  <si>
+    <t>libra_virgo=87%</t>
+  </si>
+  <si>
+    <t>escorpio_virgo=42%</t>
+  </si>
+  <si>
+    <t>sagitario_virgo=86%</t>
+  </si>
+  <si>
+    <t>capricornio_virgo=77%</t>
+  </si>
+  <si>
+    <t>acuario_virgo=83%</t>
+  </si>
+  <si>
+    <t>piscis_virgo=32%</t>
+  </si>
+  <si>
+    <t>escorpio_libra=32%</t>
+  </si>
+  <si>
+    <t>sagitario_libra=44%</t>
+  </si>
+  <si>
+    <t>capricornio_libra=1%</t>
+  </si>
+  <si>
+    <t>acuario_libra=100%</t>
+  </si>
+  <si>
+    <t>piscis_libra=96%</t>
+  </si>
+  <si>
+    <t>sagitario_escorpio=54%</t>
+  </si>
+  <si>
+    <t>capricornio_escorpio=93%</t>
+  </si>
+  <si>
+    <t>acuario_escorpio=41%</t>
+  </si>
+  <si>
+    <t>piscis_escorpio=100%</t>
+  </si>
+  <si>
+    <t>capricornio_sagitario=15%</t>
+  </si>
+  <si>
+    <t>acuario_sagitario=52%</t>
+  </si>
+  <si>
+    <t>piscis_sagitario=14%</t>
+  </si>
+  <si>
+    <t>acuario_capricornio=55%</t>
+  </si>
+  <si>
+    <t>piscis_capricornio=3%</t>
+  </si>
+  <si>
+    <t>piscis_acuario=39%</t>
+  </si>
+  <si>
     <t>compatibilidad.json</t>
   </si>
   <si>
@@ -1453,438 +1885,6 @@
   </si>
   <si>
     <t>pnl3;pnl4</t>
-  </si>
-  <si>
-    <t>1_1=100%</t>
-  </si>
-  <si>
-    <t>2_1=47%</t>
-  </si>
-  <si>
-    <t>3_1=82%</t>
-  </si>
-  <si>
-    <t>4_1=51%</t>
-  </si>
-  <si>
-    <t>5_1=63%</t>
-  </si>
-  <si>
-    <t>6_1=28%</t>
-  </si>
-  <si>
-    <t>7_1=68%</t>
-  </si>
-  <si>
-    <t>8_1=18%</t>
-  </si>
-  <si>
-    <t>9_1=86%</t>
-  </si>
-  <si>
-    <t>10_1=51%</t>
-  </si>
-  <si>
-    <t>11_1=35%</t>
-  </si>
-  <si>
-    <t>12_1=47%</t>
-  </si>
-  <si>
-    <t>2_2=47%</t>
-  </si>
-  <si>
-    <t>3_2=28%</t>
-  </si>
-  <si>
-    <t>4_2=91%</t>
-  </si>
-  <si>
-    <t>5_2=87%</t>
-  </si>
-  <si>
-    <t>6_2=57%</t>
-  </si>
-  <si>
-    <t>7_2=34%</t>
-  </si>
-  <si>
-    <t>8_2=2%</t>
-  </si>
-  <si>
-    <t>9_2=73%</t>
-  </si>
-  <si>
-    <t>10_2=77%</t>
-  </si>
-  <si>
-    <t>11_2=59%</t>
-  </si>
-  <si>
-    <t>12_2=56%</t>
-  </si>
-  <si>
-    <t>3_3=79%</t>
-  </si>
-  <si>
-    <t>4_3=86%</t>
-  </si>
-  <si>
-    <t>5_3=93%</t>
-  </si>
-  <si>
-    <t>6_3=49%</t>
-  </si>
-  <si>
-    <t>7_3=0%</t>
-  </si>
-  <si>
-    <t>8_3=9%</t>
-  </si>
-  <si>
-    <t>9_3=66%</t>
-  </si>
-  <si>
-    <t>10_3=77%</t>
-  </si>
-  <si>
-    <t>11_3=17%</t>
-  </si>
-  <si>
-    <t>12_3=65%</t>
-  </si>
-  <si>
-    <t>4_4=82%</t>
-  </si>
-  <si>
-    <t>5_4=80%</t>
-  </si>
-  <si>
-    <t>6_4=86%</t>
-  </si>
-  <si>
-    <t>7_4=17%</t>
-  </si>
-  <si>
-    <t>8_4=12%</t>
-  </si>
-  <si>
-    <t>9_4=57%</t>
-  </si>
-  <si>
-    <t>10_4=33%</t>
-  </si>
-  <si>
-    <t>11_4=59%</t>
-  </si>
-  <si>
-    <t>12_4=75%</t>
-  </si>
-  <si>
-    <t>5_5=18%</t>
-  </si>
-  <si>
-    <t>6_5=39%</t>
-  </si>
-  <si>
-    <t>7_5=50%</t>
-  </si>
-  <si>
-    <t>8_5=21%</t>
-  </si>
-  <si>
-    <t>9_5=57%</t>
-  </si>
-  <si>
-    <t>10_5=87%</t>
-  </si>
-  <si>
-    <t>11_5=29%</t>
-  </si>
-  <si>
-    <t>12_5=58%</t>
-  </si>
-  <si>
-    <t>6_6=54%</t>
-  </si>
-  <si>
-    <t>7_6=87%</t>
-  </si>
-  <si>
-    <t>8_6=42%</t>
-  </si>
-  <si>
-    <t>9_6=86%</t>
-  </si>
-  <si>
-    <t>10_6=77%</t>
-  </si>
-  <si>
-    <t>11_6=83%</t>
-  </si>
-  <si>
-    <t>12_6=32%</t>
-  </si>
-  <si>
-    <t>7_7=52%</t>
-  </si>
-  <si>
-    <t>8_7=32%</t>
-  </si>
-  <si>
-    <t>9_7=44%</t>
-  </si>
-  <si>
-    <t>10_7=1%</t>
-  </si>
-  <si>
-    <t>11_7=100%</t>
-  </si>
-  <si>
-    <t>12_7=96%</t>
-  </si>
-  <si>
-    <t>8_8=50%</t>
-  </si>
-  <si>
-    <t>9_8=54%</t>
-  </si>
-  <si>
-    <t>10_8=93%</t>
-  </si>
-  <si>
-    <t>11_8=41%</t>
-  </si>
-  <si>
-    <t>12_8=100%</t>
-  </si>
-  <si>
-    <t>9_9=9%</t>
-  </si>
-  <si>
-    <t>10_9=15%</t>
-  </si>
-  <si>
-    <t>11_9=52%</t>
-  </si>
-  <si>
-    <t>12_9=14%</t>
-  </si>
-  <si>
-    <t>10_10=96%</t>
-  </si>
-  <si>
-    <t>11_10=55%</t>
-  </si>
-  <si>
-    <t>12_10=3%</t>
-  </si>
-  <si>
-    <t>11_11=41%</t>
-  </si>
-  <si>
-    <t>12_11=39%</t>
-  </si>
-  <si>
-    <t>12_12=83%</t>
-  </si>
-  <si>
-    <t>1_2=47%</t>
-  </si>
-  <si>
-    <t>1_3=82%</t>
-  </si>
-  <si>
-    <t>1_4=51%</t>
-  </si>
-  <si>
-    <t>1_5=63%</t>
-  </si>
-  <si>
-    <t>1_6=28%</t>
-  </si>
-  <si>
-    <t>1_7=68%</t>
-  </si>
-  <si>
-    <t>1_8=18%</t>
-  </si>
-  <si>
-    <t>1_9=86%</t>
-  </si>
-  <si>
-    <t>1_10=51%</t>
-  </si>
-  <si>
-    <t>1_11=35%</t>
-  </si>
-  <si>
-    <t>1_12=47%</t>
-  </si>
-  <si>
-    <t>2_3=28%</t>
-  </si>
-  <si>
-    <t>2_4=91%</t>
-  </si>
-  <si>
-    <t>2_5=87%</t>
-  </si>
-  <si>
-    <t>2_6=57%</t>
-  </si>
-  <si>
-    <t>2_7=34%</t>
-  </si>
-  <si>
-    <t>2_8=2%</t>
-  </si>
-  <si>
-    <t>2_9=73%</t>
-  </si>
-  <si>
-    <t>2_10=77%</t>
-  </si>
-  <si>
-    <t>2_11=59%</t>
-  </si>
-  <si>
-    <t>2_12=56%</t>
-  </si>
-  <si>
-    <t>3_4=86%</t>
-  </si>
-  <si>
-    <t>3_5=93%</t>
-  </si>
-  <si>
-    <t>3_6=49%</t>
-  </si>
-  <si>
-    <t>3_7=0%</t>
-  </si>
-  <si>
-    <t>3_8=9%</t>
-  </si>
-  <si>
-    <t>3_9=66%</t>
-  </si>
-  <si>
-    <t>3_10=77%</t>
-  </si>
-  <si>
-    <t>3_11=17%</t>
-  </si>
-  <si>
-    <t>3_12=65%</t>
-  </si>
-  <si>
-    <t>4_5=80%</t>
-  </si>
-  <si>
-    <t>4_6=86%</t>
-  </si>
-  <si>
-    <t>4_7=17%</t>
-  </si>
-  <si>
-    <t>4_8=12%</t>
-  </si>
-  <si>
-    <t>4_9=57%</t>
-  </si>
-  <si>
-    <t>4_10=33%</t>
-  </si>
-  <si>
-    <t>4_11=59%</t>
-  </si>
-  <si>
-    <t>4_12=75%</t>
-  </si>
-  <si>
-    <t>5_6=39%</t>
-  </si>
-  <si>
-    <t>5_7=50%</t>
-  </si>
-  <si>
-    <t>5_8=21%</t>
-  </si>
-  <si>
-    <t>5_9=57%</t>
-  </si>
-  <si>
-    <t>5_10=87%</t>
-  </si>
-  <si>
-    <t>5_11=29%</t>
-  </si>
-  <si>
-    <t>5_12=58%</t>
-  </si>
-  <si>
-    <t>6_7=87%</t>
-  </si>
-  <si>
-    <t>6_8=42%</t>
-  </si>
-  <si>
-    <t>6_9=86%</t>
-  </si>
-  <si>
-    <t>6_10=77%</t>
-  </si>
-  <si>
-    <t>6_11=83%</t>
-  </si>
-  <si>
-    <t>6_12=32%</t>
-  </si>
-  <si>
-    <t>7_8=32%</t>
-  </si>
-  <si>
-    <t>7_9=44%</t>
-  </si>
-  <si>
-    <t>7_10=1%</t>
-  </si>
-  <si>
-    <t>7_11=100%</t>
-  </si>
-  <si>
-    <t>7_12=96%</t>
-  </si>
-  <si>
-    <t>8_9=54%</t>
-  </si>
-  <si>
-    <t>8_10=93%</t>
-  </si>
-  <si>
-    <t>8_11=41%</t>
-  </si>
-  <si>
-    <t>8_12=100%</t>
-  </si>
-  <si>
-    <t>9_10=15%</t>
-  </si>
-  <si>
-    <t>9_11=52%</t>
-  </si>
-  <si>
-    <t>9_12=14%</t>
-  </si>
-  <si>
-    <t>10_11=55%</t>
-  </si>
-  <si>
-    <t>10_12=3%</t>
-  </si>
-  <si>
-    <t>11_12=39%</t>
   </si>
 </sst>
 </file>
@@ -1952,8 +1952,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1981,7 +1991,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="31">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1992,6 +2002,11 @@
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -2002,6 +2017,11 @@
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4751,7 +4771,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E12"/>
+      <selection activeCell="B1" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4767,10 +4787,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D1" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E1">
         <f>A1+1</f>
@@ -4785,10 +4805,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D2" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E12" si="0">A2+1</f>
@@ -4803,10 +4823,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D3" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -4821,10 +4841,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D4" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -4839,10 +4859,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D5" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -4857,10 +4877,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D6" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -4875,10 +4895,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D7" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -4893,10 +4913,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D8" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -4911,10 +4931,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D9" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -4929,10 +4949,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D10" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -4947,10 +4967,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D11" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -4965,10 +4985,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D12" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -4977,6 +4997,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4999,10 +5020,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>448</v>
+        <v>592</v>
       </c>
       <c r="C1" t="s">
-        <v>435</v>
+        <v>579</v>
       </c>
       <c r="D1" t="str">
         <f>B1&amp;"["&amp;A1&amp;"]   archivo="&amp;C1</f>
@@ -5014,10 +5035,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>592</v>
       </c>
       <c r="C2" t="s">
-        <v>436</v>
+        <v>580</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D32" si="0">B2&amp;"["&amp;A2&amp;"]   archivo="&amp;C2</f>
@@ -5029,10 +5050,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C3" t="s">
-        <v>437</v>
+        <v>581</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -5044,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C4" t="s">
-        <v>438</v>
+        <v>582</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -5059,10 +5080,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C5" t="s">
-        <v>439</v>
+        <v>583</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -5074,10 +5095,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
-        <v>440</v>
+        <v>584</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -5089,10 +5110,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C7" t="s">
-        <v>441</v>
+        <v>585</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -5104,10 +5125,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C8" t="s">
-        <v>442</v>
+        <v>586</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -5119,10 +5140,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C9" t="s">
-        <v>443</v>
+        <v>587</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -5134,10 +5155,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C10" t="s">
-        <v>444</v>
+        <v>588</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -5149,10 +5170,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C11" t="s">
-        <v>445</v>
+        <v>589</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -5164,10 +5185,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
+        <v>590</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -5179,10 +5200,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C13" t="s">
-        <v>450</v>
+        <v>594</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -5194,10 +5215,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C14" t="s">
-        <v>447</v>
+        <v>591</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -5209,10 +5230,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C15" t="s">
-        <v>451</v>
+        <v>595</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -5224,10 +5245,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C16" t="s">
-        <v>452</v>
+        <v>596</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -5239,10 +5260,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C17" t="s">
-        <v>453</v>
+        <v>597</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -5254,10 +5275,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C18" t="s">
-        <v>454</v>
+        <v>598</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -5269,10 +5290,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C19" t="s">
-        <v>455</v>
+        <v>599</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -5284,10 +5305,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C20" t="s">
-        <v>456</v>
+        <v>600</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -5299,10 +5320,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C21" t="s">
-        <v>457</v>
+        <v>601</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -5314,10 +5335,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C22" t="s">
-        <v>458</v>
+        <v>602</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -5329,10 +5350,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C23" t="s">
-        <v>459</v>
+        <v>603</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -5344,10 +5365,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C24" t="s">
-        <v>460</v>
+        <v>604</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -5359,10 +5380,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C25" t="s">
-        <v>461</v>
+        <v>605</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -5374,10 +5395,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C26" t="s">
-        <v>462</v>
+        <v>606</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -5389,10 +5410,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C27" t="s">
-        <v>463</v>
+        <v>607</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -5404,10 +5425,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C28" t="s">
-        <v>464</v>
+        <v>608</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -5419,10 +5440,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C29" t="s">
-        <v>465</v>
+        <v>609</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -5434,10 +5455,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C30" t="s">
-        <v>466</v>
+        <v>610</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -5449,10 +5470,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C31" t="s">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -5464,10 +5485,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
       <c r="C32" t="s">
-        <v>468</v>
+        <v>612</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -7976,24 +7997,24 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
-        <f>VLOOKUP(A1,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D1" s="3">
-        <f>VLOOKUP(B1,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
+      <c r="C1" s="3" t="str">
+        <f>A1</f>
+        <v>aries</v>
+      </c>
+      <c r="D1" s="3" t="str">
+        <f>B1</f>
+        <v>aries</v>
       </c>
       <c r="E1">
         <v>100</v>
       </c>
       <c r="F1" t="str">
         <f>C1&amp;"_"&amp;D1&amp;"="&amp;E1&amp;"%"</f>
-        <v>1_1=100%</v>
+        <v>aries_aries=100%</v>
       </c>
       <c r="G1" t="str">
         <f>D1&amp;"_"&amp;C1&amp;"="&amp;E1&amp;"%"</f>
-        <v>1_1=100%</v>
+        <v>aries_aries=100%</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -8003,24 +8024,24 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <f>VLOOKUP(A2,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <f>VLOOKUP(B2,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
+      <c r="C2" s="3" t="str">
+        <f t="shared" ref="C2:C65" si="0">A2</f>
+        <v>aries</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" ref="D2:D65" si="1">B2</f>
+        <v>tauro</v>
       </c>
       <c r="E2">
         <v>47</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F65" si="0">C2&amp;"_"&amp;D2&amp;"="&amp;E2&amp;"%"</f>
-        <v>1_2=47%</v>
+        <f t="shared" ref="F2:F65" si="2">C2&amp;"_"&amp;D2&amp;"="&amp;E2&amp;"%"</f>
+        <v>aries_tauro=47%</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G65" si="1">D2&amp;"_"&amp;C2&amp;"="&amp;E2&amp;"%"</f>
-        <v>2_1=47%</v>
+        <f t="shared" ref="G2:G65" si="3">D2&amp;"_"&amp;C2&amp;"="&amp;E2&amp;"%"</f>
+        <v>tauro_aries=47%</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -8030,24 +8051,24 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <f>VLOOKUP(A3,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <f>VLOOKUP(B3,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>aries</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>geminis</v>
       </c>
       <c r="E3">
         <v>82</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>1_3=82%</v>
+        <f t="shared" si="2"/>
+        <v>aries_geminis=82%</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
-        <v>3_1=82%</v>
+        <f t="shared" si="3"/>
+        <v>geminis_aries=82%</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -8057,24 +8078,24 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
-        <f>VLOOKUP(A4,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <f>VLOOKUP(B4,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>aries</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>cancer</v>
       </c>
       <c r="E4">
         <v>51</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>1_4=51%</v>
+        <f t="shared" si="2"/>
+        <v>aries_cancer=51%</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
-        <v>4_1=51%</v>
+        <f t="shared" si="3"/>
+        <v>cancer_aries=51%</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -8084,24 +8105,24 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
-        <f>VLOOKUP(A5,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <f>VLOOKUP(B5,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>aries</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>leo</v>
       </c>
       <c r="E5">
         <v>63</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>1_5=63%</v>
+        <f t="shared" si="2"/>
+        <v>aries_leo=63%</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>5_1=63%</v>
+        <f t="shared" si="3"/>
+        <v>leo_aries=63%</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -8111,24 +8132,24 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
-        <f>VLOOKUP(A6,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <f>VLOOKUP(B6,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>aries</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>virgo</v>
       </c>
       <c r="E6">
         <v>28</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>1_6=28%</v>
+        <f t="shared" si="2"/>
+        <v>aries_virgo=28%</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>6_1=28%</v>
+        <f t="shared" si="3"/>
+        <v>virgo_aries=28%</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -8138,24 +8159,24 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
-        <f>VLOOKUP(A7,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <f>VLOOKUP(B7,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>aries</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>libra</v>
       </c>
       <c r="E7">
         <v>68</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>1_7=68%</v>
+        <f t="shared" si="2"/>
+        <v>aries_libra=68%</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>7_1=68%</v>
+        <f t="shared" si="3"/>
+        <v>libra_aries=68%</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -8165,24 +8186,24 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
-        <f>VLOOKUP(A8,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <f>VLOOKUP(B8,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>aries</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>escorpio</v>
       </c>
       <c r="E8">
         <v>18</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>1_8=18%</v>
+        <f t="shared" si="2"/>
+        <v>aries_escorpio=18%</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>8_1=18%</v>
+        <f t="shared" si="3"/>
+        <v>escorpio_aries=18%</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -8192,24 +8213,24 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
-        <f>VLOOKUP(A9,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <f>VLOOKUP(B9,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>aries</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sagitario</v>
       </c>
       <c r="E9">
         <v>86</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>1_9=86%</v>
+        <f t="shared" si="2"/>
+        <v>aries_sagitario=86%</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>9_1=86%</v>
+        <f t="shared" si="3"/>
+        <v>sagitario_aries=86%</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -8219,24 +8240,24 @@
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
-        <f>VLOOKUP(A10,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <f>VLOOKUP(B10,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>aries</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>capricornio</v>
       </c>
       <c r="E10">
         <v>51</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>1_10=51%</v>
+        <f t="shared" si="2"/>
+        <v>aries_capricornio=51%</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>10_1=51%</v>
+        <f t="shared" si="3"/>
+        <v>capricornio_aries=51%</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -8246,24 +8267,24 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
-        <f>VLOOKUP(A11,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <f>VLOOKUP(B11,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>aries</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>acuario</v>
       </c>
       <c r="E11">
         <v>35</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>1_11=35%</v>
+        <f t="shared" si="2"/>
+        <v>aries_acuario=35%</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>11_1=35%</v>
+        <f t="shared" si="3"/>
+        <v>acuario_aries=35%</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -8273,24 +8294,24 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
-        <f>VLOOKUP(A12,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <f>VLOOKUP(B12,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>aries</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>piscis</v>
       </c>
       <c r="E12">
         <v>47</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>1_12=47%</v>
+        <f t="shared" si="2"/>
+        <v>aries_piscis=47%</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>12_1=47%</v>
+        <f t="shared" si="3"/>
+        <v>piscis_aries=47%</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -8300,24 +8321,24 @@
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <f>VLOOKUP(A13,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <f>VLOOKUP(B13,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tauro</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>tauro</v>
       </c>
       <c r="E13">
         <v>47</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>2_2=47%</v>
+        <f t="shared" si="2"/>
+        <v>tauro_tauro=47%</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>2_2=47%</v>
+        <f t="shared" si="3"/>
+        <v>tauro_tauro=47%</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -8327,24 +8348,24 @@
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3">
-        <f>VLOOKUP(A14,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <f>VLOOKUP(B14,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tauro</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>geminis</v>
       </c>
       <c r="E14">
         <v>28</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>2_3=28%</v>
+        <f t="shared" si="2"/>
+        <v>tauro_geminis=28%</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>3_2=28%</v>
+        <f t="shared" si="3"/>
+        <v>geminis_tauro=28%</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -8354,24 +8375,24 @@
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="3">
-        <f>VLOOKUP(A15,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <f>VLOOKUP(B15,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tauro</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>cancer</v>
       </c>
       <c r="E15">
         <v>91</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>2_4=91%</v>
+        <f t="shared" si="2"/>
+        <v>tauro_cancer=91%</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>4_2=91%</v>
+        <f t="shared" si="3"/>
+        <v>cancer_tauro=91%</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -8381,24 +8402,24 @@
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3">
-        <f>VLOOKUP(A16,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
-        <f>VLOOKUP(B16,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tauro</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>leo</v>
       </c>
       <c r="E16">
         <v>87</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>2_5=87%</v>
+        <f t="shared" si="2"/>
+        <v>tauro_leo=87%</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>5_2=87%</v>
+        <f t="shared" si="3"/>
+        <v>leo_tauro=87%</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -8408,24 +8429,24 @@
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="3">
-        <f>VLOOKUP(A17,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <f>VLOOKUP(B17,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tauro</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>virgo</v>
       </c>
       <c r="E17">
         <v>57</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>2_6=57%</v>
+        <f t="shared" si="2"/>
+        <v>tauro_virgo=57%</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>6_2=57%</v>
+        <f t="shared" si="3"/>
+        <v>virgo_tauro=57%</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -8435,24 +8456,24 @@
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3">
-        <f>VLOOKUP(A18,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <f>VLOOKUP(B18,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tauro</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>libra</v>
       </c>
       <c r="E18">
         <v>34</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>2_7=34%</v>
+        <f t="shared" si="2"/>
+        <v>tauro_libra=34%</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>7_2=34%</v>
+        <f t="shared" si="3"/>
+        <v>libra_tauro=34%</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -8462,24 +8483,24 @@
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3">
-        <f>VLOOKUP(A19,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <f>VLOOKUP(B19,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tauro</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>escorpio</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>2_8=2%</v>
+        <f t="shared" si="2"/>
+        <v>tauro_escorpio=2%</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>8_2=2%</v>
+        <f t="shared" si="3"/>
+        <v>escorpio_tauro=2%</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -8489,24 +8510,24 @@
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3">
-        <f>VLOOKUP(A20,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <f>VLOOKUP(B20,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tauro</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sagitario</v>
       </c>
       <c r="E20">
         <v>73</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>2_9=73%</v>
+        <f t="shared" si="2"/>
+        <v>tauro_sagitario=73%</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>9_2=73%</v>
+        <f t="shared" si="3"/>
+        <v>sagitario_tauro=73%</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -8516,24 +8537,24 @@
       <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3">
-        <f>VLOOKUP(A21,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="3">
-        <f>VLOOKUP(B21,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tauro</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>capricornio</v>
       </c>
       <c r="E21">
         <v>77</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>2_10=77%</v>
+        <f t="shared" si="2"/>
+        <v>tauro_capricornio=77%</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>10_2=77%</v>
+        <f t="shared" si="3"/>
+        <v>capricornio_tauro=77%</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -8543,24 +8564,24 @@
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3">
-        <f>VLOOKUP(A22,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <f>VLOOKUP(B22,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tauro</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>acuario</v>
       </c>
       <c r="E22">
         <v>59</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>2_11=59%</v>
+        <f t="shared" si="2"/>
+        <v>tauro_acuario=59%</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>11_2=59%</v>
+        <f t="shared" si="3"/>
+        <v>acuario_tauro=59%</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -8570,24 +8591,24 @@
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="3">
-        <f>VLOOKUP(A23,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <f>VLOOKUP(B23,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tauro</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>piscis</v>
       </c>
       <c r="E23">
         <v>56</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>2_12=56%</v>
+        <f t="shared" si="2"/>
+        <v>tauro_piscis=56%</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>12_2=56%</v>
+        <f t="shared" si="3"/>
+        <v>piscis_tauro=56%</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -8597,24 +8618,24 @@
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3">
-        <f>VLOOKUP(A24,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <f>VLOOKUP(B24,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>geminis</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>geminis</v>
       </c>
       <c r="E24">
         <v>79</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>3_3=79%</v>
+        <f t="shared" si="2"/>
+        <v>geminis_geminis=79%</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>3_3=79%</v>
+        <f t="shared" si="3"/>
+        <v>geminis_geminis=79%</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -8624,24 +8645,24 @@
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <f>VLOOKUP(A25,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
-        <f>VLOOKUP(B25,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>geminis</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>cancer</v>
       </c>
       <c r="E25">
         <v>86</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>3_4=86%</v>
+        <f t="shared" si="2"/>
+        <v>geminis_cancer=86%</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>4_3=86%</v>
+        <f t="shared" si="3"/>
+        <v>cancer_geminis=86%</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -8651,24 +8672,24 @@
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="3">
-        <f>VLOOKUP(A26,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <f>VLOOKUP(B26,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>geminis</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>leo</v>
       </c>
       <c r="E26">
         <v>93</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>3_5=93%</v>
+        <f t="shared" si="2"/>
+        <v>geminis_leo=93%</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>5_3=93%</v>
+        <f t="shared" si="3"/>
+        <v>leo_geminis=93%</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -8678,24 +8699,24 @@
       <c r="B27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="3">
-        <f>VLOOKUP(A27,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <f>VLOOKUP(B27,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>geminis</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>virgo</v>
       </c>
       <c r="E27">
         <v>49</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>3_6=49%</v>
+        <f t="shared" si="2"/>
+        <v>geminis_virgo=49%</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>6_3=49%</v>
+        <f t="shared" si="3"/>
+        <v>virgo_geminis=49%</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -8705,24 +8726,24 @@
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="3">
-        <f>VLOOKUP(A28,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D28" s="3">
-        <f>VLOOKUP(B28,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>geminis</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>libra</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>3_7=0%</v>
+        <f t="shared" si="2"/>
+        <v>geminis_libra=0%</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>7_3=0%</v>
+        <f t="shared" si="3"/>
+        <v>libra_geminis=0%</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -8732,24 +8753,24 @@
       <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="3">
-        <f>VLOOKUP(A29,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D29" s="3">
-        <f>VLOOKUP(B29,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>geminis</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>escorpio</v>
       </c>
       <c r="E29">
         <v>9</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>3_8=9%</v>
+        <f t="shared" si="2"/>
+        <v>geminis_escorpio=9%</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v>8_3=9%</v>
+        <f t="shared" si="3"/>
+        <v>escorpio_geminis=9%</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -8759,24 +8780,24 @@
       <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="3">
-        <f>VLOOKUP(A30,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D30" s="3">
-        <f>VLOOKUP(B30,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>geminis</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sagitario</v>
       </c>
       <c r="E30">
         <v>66</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>3_9=66%</v>
+        <f t="shared" si="2"/>
+        <v>geminis_sagitario=66%</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>9_3=66%</v>
+        <f t="shared" si="3"/>
+        <v>sagitario_geminis=66%</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -8786,24 +8807,24 @@
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="3">
-        <f>VLOOKUP(A31,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D31" s="3">
-        <f>VLOOKUP(B31,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>geminis</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>capricornio</v>
       </c>
       <c r="E31">
         <v>77</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>3_10=77%</v>
+        <f t="shared" si="2"/>
+        <v>geminis_capricornio=77%</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>10_3=77%</v>
+        <f t="shared" si="3"/>
+        <v>capricornio_geminis=77%</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -8813,24 +8834,24 @@
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="3">
-        <f>VLOOKUP(A32,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D32" s="3">
-        <f>VLOOKUP(B32,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>geminis</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>acuario</v>
       </c>
       <c r="E32">
         <v>17</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>3_11=17%</v>
+        <f t="shared" si="2"/>
+        <v>geminis_acuario=17%</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>11_3=17%</v>
+        <f t="shared" si="3"/>
+        <v>acuario_geminis=17%</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -8840,24 +8861,24 @@
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="3">
-        <f>VLOOKUP(A33,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D33" s="3">
-        <f>VLOOKUP(B33,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>geminis</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>piscis</v>
       </c>
       <c r="E33">
         <v>65</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>3_12=65%</v>
+        <f t="shared" si="2"/>
+        <v>geminis_piscis=65%</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>12_3=65%</v>
+        <f t="shared" si="3"/>
+        <v>piscis_geminis=65%</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -8867,24 +8888,24 @@
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="3">
-        <f>VLOOKUP(A34,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D34" s="3">
-        <f>VLOOKUP(B34,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cancer</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>cancer</v>
       </c>
       <c r="E34">
         <v>82</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>4_4=82%</v>
+        <f t="shared" si="2"/>
+        <v>cancer_cancer=82%</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>4_4=82%</v>
+        <f t="shared" si="3"/>
+        <v>cancer_cancer=82%</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -8894,24 +8915,24 @@
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="3">
-        <f>VLOOKUP(A35,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D35" s="3">
-        <f>VLOOKUP(B35,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cancer</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>leo</v>
       </c>
       <c r="E35">
         <v>80</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>4_5=80%</v>
+        <f t="shared" si="2"/>
+        <v>cancer_leo=80%</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>5_4=80%</v>
+        <f t="shared" si="3"/>
+        <v>leo_cancer=80%</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -8921,24 +8942,24 @@
       <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="3">
-        <f>VLOOKUP(A36,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D36" s="3">
-        <f>VLOOKUP(B36,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cancer</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>virgo</v>
       </c>
       <c r="E36">
         <v>86</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>4_6=86%</v>
+        <f t="shared" si="2"/>
+        <v>cancer_virgo=86%</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="1"/>
-        <v>6_4=86%</v>
+        <f t="shared" si="3"/>
+        <v>virgo_cancer=86%</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -8948,24 +8969,24 @@
       <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="3">
-        <f>VLOOKUP(A37,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <f>VLOOKUP(B37,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cancer</v>
+      </c>
+      <c r="D37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>libra</v>
       </c>
       <c r="E37">
         <v>17</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>4_7=17%</v>
+        <f t="shared" si="2"/>
+        <v>cancer_libra=17%</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="1"/>
-        <v>7_4=17%</v>
+        <f t="shared" si="3"/>
+        <v>libra_cancer=17%</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -8975,24 +8996,24 @@
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="3">
-        <f>VLOOKUP(A38,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D38" s="3">
-        <f>VLOOKUP(B38,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cancer</v>
+      </c>
+      <c r="D38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>escorpio</v>
       </c>
       <c r="E38">
         <v>12</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>4_8=12%</v>
+        <f t="shared" si="2"/>
+        <v>cancer_escorpio=12%</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>8_4=12%</v>
+        <f t="shared" si="3"/>
+        <v>escorpio_cancer=12%</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -9002,24 +9023,24 @@
       <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="3">
-        <f>VLOOKUP(A39,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D39" s="3">
-        <f>VLOOKUP(B39,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cancer</v>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sagitario</v>
       </c>
       <c r="E39">
         <v>57</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>4_9=57%</v>
+        <f t="shared" si="2"/>
+        <v>cancer_sagitario=57%</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>9_4=57%</v>
+        <f t="shared" si="3"/>
+        <v>sagitario_cancer=57%</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -9029,24 +9050,24 @@
       <c r="B40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="3">
-        <f>VLOOKUP(A40,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D40" s="3">
-        <f>VLOOKUP(B40,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cancer</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>capricornio</v>
       </c>
       <c r="E40">
         <v>33</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>4_10=33%</v>
+        <f t="shared" si="2"/>
+        <v>cancer_capricornio=33%</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="1"/>
-        <v>10_4=33%</v>
+        <f t="shared" si="3"/>
+        <v>capricornio_cancer=33%</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -9056,24 +9077,24 @@
       <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="3">
-        <f>VLOOKUP(A41,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D41" s="3">
-        <f>VLOOKUP(B41,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cancer</v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>acuario</v>
       </c>
       <c r="E41">
         <v>59</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>4_11=59%</v>
+        <f t="shared" si="2"/>
+        <v>cancer_acuario=59%</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="1"/>
-        <v>11_4=59%</v>
+        <f t="shared" si="3"/>
+        <v>acuario_cancer=59%</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -9083,24 +9104,24 @@
       <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="3">
-        <f>VLOOKUP(A42,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D42" s="3">
-        <f>VLOOKUP(B42,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cancer</v>
+      </c>
+      <c r="D42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>piscis</v>
       </c>
       <c r="E42">
         <v>75</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>4_12=75%</v>
+        <f t="shared" si="2"/>
+        <v>cancer_piscis=75%</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="1"/>
-        <v>12_4=75%</v>
+        <f t="shared" si="3"/>
+        <v>piscis_cancer=75%</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -9110,24 +9131,24 @@
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="3">
-        <f>VLOOKUP(A43,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="D43" s="3">
-        <f>VLOOKUP(B43,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>leo</v>
+      </c>
+      <c r="D43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>leo</v>
       </c>
       <c r="E43">
         <v>18</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>5_5=18%</v>
+        <f t="shared" si="2"/>
+        <v>leo_leo=18%</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>5_5=18%</v>
+        <f t="shared" si="3"/>
+        <v>leo_leo=18%</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -9137,24 +9158,24 @@
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="3">
-        <f>VLOOKUP(A44,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="D44" s="3">
-        <f>VLOOKUP(B44,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>leo</v>
+      </c>
+      <c r="D44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>virgo</v>
       </c>
       <c r="E44">
         <v>39</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>5_6=39%</v>
+        <f t="shared" si="2"/>
+        <v>leo_virgo=39%</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>6_5=39%</v>
+        <f t="shared" si="3"/>
+        <v>virgo_leo=39%</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -9164,24 +9185,24 @@
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="3">
-        <f>VLOOKUP(A45,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="D45" s="3">
-        <f>VLOOKUP(B45,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
+      <c r="C45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>leo</v>
+      </c>
+      <c r="D45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>libra</v>
       </c>
       <c r="E45">
         <v>50</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>5_7=50%</v>
+        <f t="shared" si="2"/>
+        <v>leo_libra=50%</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="1"/>
-        <v>7_5=50%</v>
+        <f t="shared" si="3"/>
+        <v>libra_leo=50%</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -9191,24 +9212,24 @@
       <c r="B46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="3">
-        <f>VLOOKUP(A46,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="D46" s="3">
-        <f>VLOOKUP(B46,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
+      <c r="C46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>leo</v>
+      </c>
+      <c r="D46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>escorpio</v>
       </c>
       <c r="E46">
         <v>21</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>5_8=21%</v>
+        <f t="shared" si="2"/>
+        <v>leo_escorpio=21%</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="1"/>
-        <v>8_5=21%</v>
+        <f t="shared" si="3"/>
+        <v>escorpio_leo=21%</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -9218,24 +9239,24 @@
       <c r="B47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="3">
-        <f>VLOOKUP(A47,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="D47" s="3">
-        <f>VLOOKUP(B47,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
+      <c r="C47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>leo</v>
+      </c>
+      <c r="D47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sagitario</v>
       </c>
       <c r="E47">
         <v>57</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>5_9=57%</v>
+        <f t="shared" si="2"/>
+        <v>leo_sagitario=57%</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>9_5=57%</v>
+        <f t="shared" si="3"/>
+        <v>sagitario_leo=57%</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -9245,24 +9266,24 @@
       <c r="B48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="3">
-        <f>VLOOKUP(A48,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="D48" s="3">
-        <f>VLOOKUP(B48,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
+      <c r="C48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>leo</v>
+      </c>
+      <c r="D48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>capricornio</v>
       </c>
       <c r="E48">
         <v>87</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>5_10=87%</v>
+        <f t="shared" si="2"/>
+        <v>leo_capricornio=87%</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="1"/>
-        <v>10_5=87%</v>
+        <f t="shared" si="3"/>
+        <v>capricornio_leo=87%</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -9272,24 +9293,24 @@
       <c r="B49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="3">
-        <f>VLOOKUP(A49,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="D49" s="3">
-        <f>VLOOKUP(B49,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
+      <c r="C49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>leo</v>
+      </c>
+      <c r="D49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>acuario</v>
       </c>
       <c r="E49">
         <v>29</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>5_11=29%</v>
+        <f t="shared" si="2"/>
+        <v>leo_acuario=29%</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="1"/>
-        <v>11_5=29%</v>
+        <f t="shared" si="3"/>
+        <v>acuario_leo=29%</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -9299,24 +9320,24 @@
       <c r="B50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="3">
-        <f>VLOOKUP(A50,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="D50" s="3">
-        <f>VLOOKUP(B50,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
+      <c r="C50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>leo</v>
+      </c>
+      <c r="D50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>piscis</v>
       </c>
       <c r="E50">
         <v>58</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>5_12=58%</v>
+        <f t="shared" si="2"/>
+        <v>leo_piscis=58%</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="1"/>
-        <v>12_5=58%</v>
+        <f t="shared" si="3"/>
+        <v>piscis_leo=58%</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -9326,24 +9347,24 @@
       <c r="B51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="3">
-        <f>VLOOKUP(A51,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D51" s="3">
-        <f>VLOOKUP(B51,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
+      <c r="C51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>virgo</v>
+      </c>
+      <c r="D51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>virgo</v>
       </c>
       <c r="E51">
         <v>54</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>6_6=54%</v>
+        <f t="shared" si="2"/>
+        <v>virgo_virgo=54%</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="1"/>
-        <v>6_6=54%</v>
+        <f t="shared" si="3"/>
+        <v>virgo_virgo=54%</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -9353,24 +9374,24 @@
       <c r="B52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="3">
-        <f>VLOOKUP(A52,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D52" s="3">
-        <f>VLOOKUP(B52,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
+      <c r="C52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>virgo</v>
+      </c>
+      <c r="D52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>libra</v>
       </c>
       <c r="E52">
         <v>87</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>6_7=87%</v>
+        <f t="shared" si="2"/>
+        <v>virgo_libra=87%</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="1"/>
-        <v>7_6=87%</v>
+        <f t="shared" si="3"/>
+        <v>libra_virgo=87%</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -9380,24 +9401,24 @@
       <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="3">
-        <f>VLOOKUP(A53,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D53" s="3">
-        <f>VLOOKUP(B53,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
+      <c r="C53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>virgo</v>
+      </c>
+      <c r="D53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>escorpio</v>
       </c>
       <c r="E53">
         <v>42</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>6_8=42%</v>
+        <f t="shared" si="2"/>
+        <v>virgo_escorpio=42%</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="1"/>
-        <v>8_6=42%</v>
+        <f t="shared" si="3"/>
+        <v>escorpio_virgo=42%</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -9407,24 +9428,24 @@
       <c r="B54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="3">
-        <f>VLOOKUP(A54,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D54" s="3">
-        <f>VLOOKUP(B54,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
+      <c r="C54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>virgo</v>
+      </c>
+      <c r="D54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sagitario</v>
       </c>
       <c r="E54">
         <v>86</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>6_9=86%</v>
+        <f t="shared" si="2"/>
+        <v>virgo_sagitario=86%</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="1"/>
-        <v>9_6=86%</v>
+        <f t="shared" si="3"/>
+        <v>sagitario_virgo=86%</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -9434,24 +9455,24 @@
       <c r="B55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="3">
-        <f>VLOOKUP(A55,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D55" s="3">
-        <f>VLOOKUP(B55,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
+      <c r="C55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>virgo</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>capricornio</v>
       </c>
       <c r="E55">
         <v>77</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>6_10=77%</v>
+        <f t="shared" si="2"/>
+        <v>virgo_capricornio=77%</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="1"/>
-        <v>10_6=77%</v>
+        <f t="shared" si="3"/>
+        <v>capricornio_virgo=77%</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -9461,24 +9482,24 @@
       <c r="B56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="3">
-        <f>VLOOKUP(A56,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D56" s="3">
-        <f>VLOOKUP(B56,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
+      <c r="C56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>virgo</v>
+      </c>
+      <c r="D56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>acuario</v>
       </c>
       <c r="E56">
         <v>83</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>6_11=83%</v>
+        <f t="shared" si="2"/>
+        <v>virgo_acuario=83%</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="1"/>
-        <v>11_6=83%</v>
+        <f t="shared" si="3"/>
+        <v>acuario_virgo=83%</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -9488,24 +9509,24 @@
       <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="3">
-        <f>VLOOKUP(A57,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D57" s="3">
-        <f>VLOOKUP(B57,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
+      <c r="C57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>virgo</v>
+      </c>
+      <c r="D57" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>piscis</v>
       </c>
       <c r="E57">
         <v>32</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>6_12=32%</v>
+        <f t="shared" si="2"/>
+        <v>virgo_piscis=32%</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="1"/>
-        <v>12_6=32%</v>
+        <f t="shared" si="3"/>
+        <v>piscis_virgo=32%</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -9515,24 +9536,24 @@
       <c r="B58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="3">
-        <f>VLOOKUP(A58,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="D58" s="3">
-        <f>VLOOKUP(B58,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
+      <c r="C58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>libra</v>
+      </c>
+      <c r="D58" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>libra</v>
       </c>
       <c r="E58">
         <v>52</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>7_7=52%</v>
+        <f t="shared" si="2"/>
+        <v>libra_libra=52%</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="1"/>
-        <v>7_7=52%</v>
+        <f t="shared" si="3"/>
+        <v>libra_libra=52%</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -9542,24 +9563,24 @@
       <c r="B59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="3">
-        <f>VLOOKUP(A59,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="D59" s="3">
-        <f>VLOOKUP(B59,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
+      <c r="C59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>libra</v>
+      </c>
+      <c r="D59" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>escorpio</v>
       </c>
       <c r="E59">
         <v>32</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>7_8=32%</v>
+        <f t="shared" si="2"/>
+        <v>libra_escorpio=32%</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="1"/>
-        <v>8_7=32%</v>
+        <f t="shared" si="3"/>
+        <v>escorpio_libra=32%</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -9569,24 +9590,24 @@
       <c r="B60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="3">
-        <f>VLOOKUP(A60,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="D60" s="3">
-        <f>VLOOKUP(B60,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
+      <c r="C60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>libra</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sagitario</v>
       </c>
       <c r="E60">
         <v>44</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>7_9=44%</v>
+        <f t="shared" si="2"/>
+        <v>libra_sagitario=44%</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="1"/>
-        <v>9_7=44%</v>
+        <f t="shared" si="3"/>
+        <v>sagitario_libra=44%</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -9596,24 +9617,24 @@
       <c r="B61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="3">
-        <f>VLOOKUP(A61,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="D61" s="3">
-        <f>VLOOKUP(B61,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
+      <c r="C61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>libra</v>
+      </c>
+      <c r="D61" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>capricornio</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>7_10=1%</v>
+        <f t="shared" si="2"/>
+        <v>libra_capricornio=1%</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="1"/>
-        <v>10_7=1%</v>
+        <f t="shared" si="3"/>
+        <v>capricornio_libra=1%</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -9623,24 +9644,24 @@
       <c r="B62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="3">
-        <f>VLOOKUP(A62,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="D62" s="3">
-        <f>VLOOKUP(B62,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
+      <c r="C62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>libra</v>
+      </c>
+      <c r="D62" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>acuario</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>7_11=100%</v>
+        <f t="shared" si="2"/>
+        <v>libra_acuario=100%</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="1"/>
-        <v>11_7=100%</v>
+        <f t="shared" si="3"/>
+        <v>acuario_libra=100%</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -9650,24 +9671,24 @@
       <c r="B63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="3">
-        <f>VLOOKUP(A63,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="D63" s="3">
-        <f>VLOOKUP(B63,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
+      <c r="C63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>libra</v>
+      </c>
+      <c r="D63" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>piscis</v>
       </c>
       <c r="E63">
         <v>96</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>7_12=96%</v>
+        <f t="shared" si="2"/>
+        <v>libra_piscis=96%</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="1"/>
-        <v>12_7=96%</v>
+        <f t="shared" si="3"/>
+        <v>piscis_libra=96%</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -9677,24 +9698,24 @@
       <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="3">
-        <f>VLOOKUP(A64,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="D64" s="3">
-        <f>VLOOKUP(B64,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
+      <c r="C64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>escorpio</v>
+      </c>
+      <c r="D64" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>escorpio</v>
       </c>
       <c r="E64">
         <v>50</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>8_8=50%</v>
+        <f t="shared" si="2"/>
+        <v>escorpio_escorpio=50%</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="1"/>
-        <v>8_8=50%</v>
+        <f t="shared" si="3"/>
+        <v>escorpio_escorpio=50%</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -9704,24 +9725,24 @@
       <c r="B65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="3">
-        <f>VLOOKUP(A65,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="D65" s="3">
-        <f>VLOOKUP(B65,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
+      <c r="C65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>escorpio</v>
+      </c>
+      <c r="D65" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sagitario</v>
       </c>
       <c r="E65">
         <v>54</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>8_9=54%</v>
+        <f t="shared" si="2"/>
+        <v>escorpio_sagitario=54%</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="1"/>
-        <v>9_8=54%</v>
+        <f t="shared" si="3"/>
+        <v>sagitario_escorpio=54%</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -9731,24 +9752,24 @@
       <c r="B66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="3">
-        <f>VLOOKUP(A66,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="D66" s="3">
-        <f>VLOOKUP(B66,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
+      <c r="C66" s="3" t="str">
+        <f t="shared" ref="C66:C78" si="4">A66</f>
+        <v>escorpio</v>
+      </c>
+      <c r="D66" s="3" t="str">
+        <f t="shared" ref="D66:D78" si="5">B66</f>
+        <v>capricornio</v>
       </c>
       <c r="E66">
         <v>93</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" ref="F66:F78" si="2">C66&amp;"_"&amp;D66&amp;"="&amp;E66&amp;"%"</f>
-        <v>8_10=93%</v>
+        <f t="shared" ref="F66:F78" si="6">C66&amp;"_"&amp;D66&amp;"="&amp;E66&amp;"%"</f>
+        <v>escorpio_capricornio=93%</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G78" si="3">D66&amp;"_"&amp;C66&amp;"="&amp;E66&amp;"%"</f>
-        <v>10_8=93%</v>
+        <f t="shared" ref="G66:G78" si="7">D66&amp;"_"&amp;C66&amp;"="&amp;E66&amp;"%"</f>
+        <v>capricornio_escorpio=93%</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -9758,24 +9779,24 @@
       <c r="B67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="3">
-        <f>VLOOKUP(A67,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="D67" s="3">
-        <f>VLOOKUP(B67,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
+      <c r="C67" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>escorpio</v>
+      </c>
+      <c r="D67" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>acuario</v>
       </c>
       <c r="E67">
         <v>41</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="2"/>
-        <v>8_11=41%</v>
+        <f t="shared" si="6"/>
+        <v>escorpio_acuario=41%</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="3"/>
-        <v>11_8=41%</v>
+        <f t="shared" si="7"/>
+        <v>acuario_escorpio=41%</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -9785,24 +9806,24 @@
       <c r="B68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="3">
-        <f>VLOOKUP(A68,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="D68" s="3">
-        <f>VLOOKUP(B68,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
+      <c r="C68" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>escorpio</v>
+      </c>
+      <c r="D68" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>piscis</v>
       </c>
       <c r="E68">
         <v>100</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="2"/>
-        <v>8_12=100%</v>
+        <f t="shared" si="6"/>
+        <v>escorpio_piscis=100%</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="3"/>
-        <v>12_8=100%</v>
+        <f t="shared" si="7"/>
+        <v>piscis_escorpio=100%</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -9812,24 +9833,24 @@
       <c r="B69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="3">
-        <f>VLOOKUP(A69,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="D69" s="3">
-        <f>VLOOKUP(B69,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
+      <c r="C69" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>sagitario</v>
+      </c>
+      <c r="D69" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>sagitario</v>
       </c>
       <c r="E69">
         <v>9</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="2"/>
-        <v>9_9=9%</v>
+        <f t="shared" si="6"/>
+        <v>sagitario_sagitario=9%</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="3"/>
-        <v>9_9=9%</v>
+        <f t="shared" si="7"/>
+        <v>sagitario_sagitario=9%</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -9839,24 +9860,24 @@
       <c r="B70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="3">
-        <f>VLOOKUP(A70,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="D70" s="3">
-        <f>VLOOKUP(B70,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
+      <c r="C70" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>sagitario</v>
+      </c>
+      <c r="D70" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>capricornio</v>
       </c>
       <c r="E70">
         <v>15</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="2"/>
-        <v>9_10=15%</v>
+        <f t="shared" si="6"/>
+        <v>sagitario_capricornio=15%</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="3"/>
-        <v>10_9=15%</v>
+        <f t="shared" si="7"/>
+        <v>capricornio_sagitario=15%</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -9866,24 +9887,24 @@
       <c r="B71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="3">
-        <f>VLOOKUP(A71,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="D71" s="3">
-        <f>VLOOKUP(B71,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
+      <c r="C71" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>sagitario</v>
+      </c>
+      <c r="D71" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>acuario</v>
       </c>
       <c r="E71">
         <v>52</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="2"/>
-        <v>9_11=52%</v>
+        <f t="shared" si="6"/>
+        <v>sagitario_acuario=52%</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="3"/>
-        <v>11_9=52%</v>
+        <f t="shared" si="7"/>
+        <v>acuario_sagitario=52%</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -9893,24 +9914,24 @@
       <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="3">
-        <f>VLOOKUP(A72,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="D72" s="3">
-        <f>VLOOKUP(B72,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
+      <c r="C72" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>sagitario</v>
+      </c>
+      <c r="D72" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>piscis</v>
       </c>
       <c r="E72">
         <v>14</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="2"/>
-        <v>9_12=14%</v>
+        <f t="shared" si="6"/>
+        <v>sagitario_piscis=14%</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="3"/>
-        <v>12_9=14%</v>
+        <f t="shared" si="7"/>
+        <v>piscis_sagitario=14%</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -9920,24 +9941,24 @@
       <c r="B73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="3">
-        <f>VLOOKUP(A73,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="D73" s="3">
-        <f>VLOOKUP(B73,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
+      <c r="C73" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>capricornio</v>
+      </c>
+      <c r="D73" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>capricornio</v>
       </c>
       <c r="E73">
         <v>96</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="2"/>
-        <v>10_10=96%</v>
+        <f t="shared" si="6"/>
+        <v>capricornio_capricornio=96%</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="3"/>
-        <v>10_10=96%</v>
+        <f t="shared" si="7"/>
+        <v>capricornio_capricornio=96%</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -9947,24 +9968,24 @@
       <c r="B74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="3">
-        <f>VLOOKUP(A74,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="D74" s="3">
-        <f>VLOOKUP(B74,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
+      <c r="C74" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>capricornio</v>
+      </c>
+      <c r="D74" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>acuario</v>
       </c>
       <c r="E74">
         <v>55</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="2"/>
-        <v>10_11=55%</v>
+        <f t="shared" si="6"/>
+        <v>capricornio_acuario=55%</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="3"/>
-        <v>11_10=55%</v>
+        <f t="shared" si="7"/>
+        <v>acuario_capricornio=55%</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -9974,24 +9995,24 @@
       <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="3">
-        <f>VLOOKUP(A75,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="D75" s="3">
-        <f>VLOOKUP(B75,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
+      <c r="C75" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>capricornio</v>
+      </c>
+      <c r="D75" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>piscis</v>
       </c>
       <c r="E75">
         <v>3</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="2"/>
-        <v>10_12=3%</v>
+        <f t="shared" si="6"/>
+        <v>capricornio_piscis=3%</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="3"/>
-        <v>12_10=3%</v>
+        <f t="shared" si="7"/>
+        <v>piscis_capricornio=3%</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -10001,24 +10022,24 @@
       <c r="B76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="3">
-        <f>VLOOKUP(A76,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="D76" s="3">
-        <f>VLOOKUP(B76,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
+      <c r="C76" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>acuario</v>
+      </c>
+      <c r="D76" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>acuario</v>
       </c>
       <c r="E76">
         <v>41</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="2"/>
-        <v>11_11=41%</v>
+        <f t="shared" si="6"/>
+        <v>acuario_acuario=41%</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="3"/>
-        <v>11_11=41%</v>
+        <f t="shared" si="7"/>
+        <v>acuario_acuario=41%</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -10028,24 +10049,24 @@
       <c r="B77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="3">
-        <f>VLOOKUP(A77,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="D77" s="3">
-        <f>VLOOKUP(B77,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
+      <c r="C77" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>acuario</v>
+      </c>
+      <c r="D77" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>piscis</v>
       </c>
       <c r="E77">
         <v>39</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="2"/>
-        <v>11_12=39%</v>
+        <f t="shared" si="6"/>
+        <v>acuario_piscis=39%</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="3"/>
-        <v>12_11=39%</v>
+        <f t="shared" si="7"/>
+        <v>piscis_acuario=39%</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -10055,24 +10076,24 @@
       <c r="B78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="3">
-        <f>VLOOKUP(A78,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="D78" s="3">
-        <f>VLOOKUP(B78,signos1!$B$1:$E$12,4,FALSE)</f>
-        <v>12</v>
+      <c r="C78" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>piscis</v>
+      </c>
+      <c r="D78" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>piscis</v>
       </c>
       <c r="E78">
         <v>83</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="2"/>
-        <v>12_12=83%</v>
+        <f t="shared" si="6"/>
+        <v>piscis_piscis=83%</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="3"/>
-        <v>12_12=83%</v>
+        <f t="shared" si="7"/>
+        <v>piscis_piscis=83%</v>
       </c>
     </row>
   </sheetData>
@@ -10084,730 +10105,730 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A54" sqref="A1:A156"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>613</v>
-      </c>
-    </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>545</v>
+      <c r="A73" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>614</v>
+      <c r="A74" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>615</v>
+      <c r="A75" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>548</v>
+      <c r="A76" s="3" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>616</v>
+      <c r="A77" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>550</v>
+      <c r="A78" s="3" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>486</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>487</v>
+        <v>525</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>489</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>494</v>
+        <v>532</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>495</v>
+        <v>533</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>526</v>
+        <v>560</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -10819,8 +10840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10844,7 +10865,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(5,7)</f>
@@ -10856,15 +10877,15 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>2821</v>
+        <v>6463</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100000,999999)</f>
-        <v>456203</v>
+        <v>474215</v>
       </c>
       <c r="F2" t="str">
-        <f ca="1">A2&amp;","&amp;B2&amp;" y "&amp;C2&amp;"; "&amp;D2&amp;"; "&amp;E2</f>
-        <v>1,7 y 8; 2821; 456203</v>
+        <f ca="1">A2&amp;", "&amp;B2&amp;" y "&amp;C2&amp;"; "&amp;D2&amp;"; "&amp;E2</f>
+        <v>2, 7 y 8; 6463; 474215</v>
       </c>
       <c r="K2" t="s">
         <v>434</v>
@@ -10873,27 +10894,27 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A62" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B62" ca="1" si="1">RANDBETWEEN(5,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C62" ca="1" si="2">RANDBETWEEN(8,9)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D62" ca="1" si="3">RANDBETWEEN(1000,9999)</f>
-        <v>5044</v>
+        <v>1556</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E62" ca="1" si="4">RANDBETWEEN(100000,999999)</f>
-        <v>738031</v>
+        <v>483363</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F62" ca="1" si="5">A3&amp;","&amp;B3&amp;" y "&amp;C3&amp;"; "&amp;D3&amp;"; "&amp;E3</f>
-        <v>1,6 y 8; 5044; 738031</v>
+        <f t="shared" ref="F3:F62" ca="1" si="5">A3&amp;", "&amp;B3&amp;" y "&amp;C3&amp;"; "&amp;D3&amp;"; "&amp;E3</f>
+        <v>2, 7 y 9; 1556; 483363</v>
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(H3,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10902,9 +10923,9 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="str">
-        <f>VLOOKUP(H3,signos1!$A$1:$B$12,2,FALSE)</f>
-        <v>aries</v>
+      <c r="I3">
+        <f>H3+1</f>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>433</v>
@@ -10917,11 +10938,11 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
@@ -10929,15 +10950,15 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>8246</v>
+        <v>1396</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>866338</v>
+        <v>807642</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 9; 8246; 866338</v>
+        <v>3, 7 y 9; 1396; 807642</v>
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(H4,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10951,17 +10972,17 @@
         <v>aries</v>
       </c>
       <c r="J4" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="K4" t="str">
         <f ca="1">IF(J4="es","  "&amp;I4&amp;"_"&amp;J4&amp;"="&amp;VLOOKUP(I4&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J4="en","  "&amp;I4&amp;"_"&amp;J4&amp;"="&amp;VLOOKUP(I4&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J4="indice",$K$2&amp;"["&amp;H4&amp;"]",IF(J4="pnl","  pnl="&amp;G4,"  num="&amp;F4))))</f>
-        <v xml:space="preserve">  num=1,5 y 9; 8246; 866338</v>
+        <v xml:space="preserve">  num=3, 7 y 9; 1396; 807642</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
@@ -10969,19 +10990,19 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>8484</v>
+        <v>5347</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>311393</v>
+        <v>400095</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 8484; 311393</v>
+        <v>3, 6 y 8; 5347; 400095</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(H5,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -10995,7 +11016,7 @@
         <v>aries</v>
       </c>
       <c r="J5" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="K5" t="str">
         <f>IF(J5="es","  "&amp;I5&amp;"_"&amp;J5&amp;"="&amp;VLOOKUP(I5&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J5="en","  "&amp;I5&amp;"_"&amp;J5&amp;"="&amp;VLOOKUP(I5&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J5="indice",$K$2&amp;"["&amp;H5&amp;"]",IF(J5="pnl","  pnl="&amp;G5,"  num="&amp;F5))))</f>
@@ -11005,7 +11026,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
@@ -11017,15 +11038,15 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>3169</v>
+        <v>8947</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>888738</v>
+        <v>593911</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 8; 3169; 888738</v>
+        <v>4, 5 y 8; 8947; 593911</v>
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(H6,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11053,23 +11074,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>8679</v>
+        <v>5284</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>933305</v>
+        <v>604695</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 9; 8679; 933305</v>
+        <v>3, 5 y 8; 5284; 604695</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(H7,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11093,7 +11114,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
@@ -11105,15 +11126,15 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>7578</v>
+        <v>2504</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>255477</v>
+        <v>905737</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 8; 7578; 255477</v>
+        <v>1, 5 y 8; 2504; 905737</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(H8,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11137,7 +11158,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
@@ -11145,19 +11166,19 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>9396</v>
+        <v>8316</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>522879</v>
+        <v>593336</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 9; 9396; 522879</v>
+        <v>1, 6 y 8; 8316; 593336</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(H9,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11171,21 +11192,21 @@
         <v>tauro</v>
       </c>
       <c r="J9" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="K9" t="str">
         <f ca="1">IF(J9="es","  "&amp;I9&amp;"_"&amp;J9&amp;"="&amp;VLOOKUP(I9&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J9="en","  "&amp;I9&amp;"_"&amp;J9&amp;"="&amp;VLOOKUP(I9&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J9="indice",$K$2&amp;"["&amp;H9&amp;"]",IF(J9="pnl","  pnl="&amp;G9,"  num="&amp;F9))))</f>
-        <v xml:space="preserve">  num=3,6 y 9; 9396; 522879</v>
+        <v xml:space="preserve">  num=1, 6 y 8; 8316; 593336</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
@@ -11193,15 +11214,15 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>8960</v>
+        <v>8927</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>577499</v>
+        <v>163219</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 8; 8960; 577499</v>
+        <v>1, 6 y 8; 8927; 163219</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(H10,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11215,7 +11236,7 @@
         <v>tauro</v>
       </c>
       <c r="J10" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="K10" t="str">
         <f>IF(J10="es","  "&amp;I10&amp;"_"&amp;J10&amp;"="&amp;VLOOKUP(I10&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J10="en","  "&amp;I10&amp;"_"&amp;J10&amp;"="&amp;VLOOKUP(I10&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J10="indice",$K$2&amp;"["&amp;H10&amp;"]",IF(J10="pnl","  pnl="&amp;G10,"  num="&amp;F10))))</f>
@@ -11225,11 +11246,11 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
@@ -11237,15 +11258,15 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>5083</v>
+        <v>2283</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>739892</v>
+        <v>191835</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 8; 5083; 739892</v>
+        <v>1, 6 y 8; 2283; 191835</v>
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(H11,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11273,7 +11294,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
@@ -11281,15 +11302,15 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>9527</v>
+        <v>1879</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>266020</v>
+        <v>442594</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 8; 9527; 266020</v>
+        <v>1, 6 y 8; 1879; 442594</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(H12,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11313,11 +11334,11 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
@@ -11325,15 +11346,15 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>4183</v>
+        <v>1695</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>927906</v>
+        <v>825684</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 8; 4183; 927906</v>
+        <v>3, 7 y 8; 1695; 825684</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(H13,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11357,11 +11378,11 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
@@ -11369,15 +11390,15 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>3576</v>
+        <v>7706</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>950149</v>
+        <v>658753</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 8; 3576; 950149</v>
+        <v>1, 6 y 8; 7706; 658753</v>
       </c>
       <c r="G14" t="str">
         <f>VLOOKUP(H14,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11391,17 +11412,17 @@
         <v>geminis</v>
       </c>
       <c r="J14" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="K14" t="str">
         <f ca="1">IF(J14="es","  "&amp;I14&amp;"_"&amp;J14&amp;"="&amp;VLOOKUP(I14&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J14="en","  "&amp;I14&amp;"_"&amp;J14&amp;"="&amp;VLOOKUP(I14&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J14="indice",$K$2&amp;"["&amp;H14&amp;"]",IF(J14="pnl","  pnl="&amp;G14,"  num="&amp;F14))))</f>
-        <v xml:space="preserve">  num=4,5 y 8; 3576; 950149</v>
+        <v xml:space="preserve">  num=1, 6 y 8; 7706; 658753</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
@@ -11409,19 +11430,19 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>5555</v>
+        <v>7095</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>350120</v>
+        <v>426521</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 9; 5555; 350120</v>
+        <v>4, 6 y 8; 7095; 426521</v>
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(H15,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11435,7 +11456,7 @@
         <v>geminis</v>
       </c>
       <c r="J15" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="K15" t="str">
         <f>IF(J15="es","  "&amp;I15&amp;"_"&amp;J15&amp;"="&amp;VLOOKUP(I15&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J15="en","  "&amp;I15&amp;"_"&amp;J15&amp;"="&amp;VLOOKUP(I15&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J15="indice",$K$2&amp;"["&amp;H15&amp;"]",IF(J15="pnl","  pnl="&amp;G15,"  num="&amp;F15))))</f>
@@ -11457,15 +11478,15 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>3911</v>
+        <v>7188</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>382491</v>
+        <v>836133</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 8; 3911; 382491</v>
+        <v>4, 5 y 8; 7188; 836133</v>
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(H16,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11489,7 +11510,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
@@ -11501,15 +11522,15 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>8837</v>
+        <v>3241</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>298107</v>
+        <v>215060</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 8; 8837; 298107</v>
+        <v>1, 7 y 8; 3241; 215060</v>
       </c>
       <c r="G17" t="str">
         <f>VLOOKUP(H17,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11533,11 +11554,11 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
@@ -11545,15 +11566,15 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>6308</v>
+        <v>3644</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>759721</v>
+        <v>429943</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 9; 6308; 759721</v>
+        <v>4, 5 y 9; 3644; 429943</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(H18,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11577,11 +11598,11 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
@@ -11589,15 +11610,15 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>9317</v>
+        <v>9641</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>517745</v>
+        <v>442152</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 8; 9317; 517745</v>
+        <v>1, 6 y 8; 9641; 442152</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(H19,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11611,21 +11632,21 @@
         <v>cancer</v>
       </c>
       <c r="J19" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="K19" t="str">
         <f ca="1">IF(J19="es","  "&amp;I19&amp;"_"&amp;J19&amp;"="&amp;VLOOKUP(I19&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J19="en","  "&amp;I19&amp;"_"&amp;J19&amp;"="&amp;VLOOKUP(I19&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J19="indice",$K$2&amp;"["&amp;H19&amp;"]",IF(J19="pnl","  pnl="&amp;G19,"  num="&amp;F19))))</f>
-        <v xml:space="preserve">  num=2,7 y 8; 9317; 517745</v>
+        <v xml:space="preserve">  num=1, 6 y 8; 9641; 442152</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
@@ -11633,15 +11654,15 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>6045</v>
+        <v>4276</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
-        <v>644730</v>
+        <v>282681</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 8; 6045; 644730</v>
+        <v>1, 6 y 8; 4276; 282681</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP(H20,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11655,7 +11676,7 @@
         <v>cancer</v>
       </c>
       <c r="J20" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="K20" t="str">
         <f>IF(J20="es","  "&amp;I20&amp;"_"&amp;J20&amp;"="&amp;VLOOKUP(I20&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J20="en","  "&amp;I20&amp;"_"&amp;J20&amp;"="&amp;VLOOKUP(I20&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J20="indice",$K$2&amp;"["&amp;H20&amp;"]",IF(J20="pnl","  pnl="&amp;G20,"  num="&amp;F20))))</f>
@@ -11669,23 +11690,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>6028</v>
+        <v>3986</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>446007</v>
+        <v>115770</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 6028; 446007</v>
+        <v>2, 5 y 8; 3986; 115770</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(H21,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11709,7 +11730,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
@@ -11717,19 +11738,19 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>9732</v>
+        <v>2402</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>555378</v>
+        <v>316403</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 9; 9732; 555378</v>
+        <v>2, 5 y 8; 2402; 316403</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(H22,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11753,7 +11774,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
@@ -11765,15 +11786,15 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>4025</v>
+        <v>1941</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>973276</v>
+        <v>955341</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 9; 4025; 973276</v>
+        <v>2, 6 y 9; 1941; 955341</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP(H23,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11797,11 +11818,11 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
@@ -11809,15 +11830,15 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>6936</v>
+        <v>4081</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>224415</v>
+        <v>470220</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 6936; 224415</v>
+        <v>3, 5 y 9; 4081; 470220</v>
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP(H24,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11831,37 +11852,37 @@
         <v>leo</v>
       </c>
       <c r="J24" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="K24" t="str">
         <f ca="1">IF(J24="es","  "&amp;I24&amp;"_"&amp;J24&amp;"="&amp;VLOOKUP(I24&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J24="en","  "&amp;I24&amp;"_"&amp;J24&amp;"="&amp;VLOOKUP(I24&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J24="indice",$K$2&amp;"["&amp;H24&amp;"]",IF(J24="pnl","  pnl="&amp;G24,"  num="&amp;F24))))</f>
-        <v xml:space="preserve">  num=2,6 y 9; 6936; 224415</v>
+        <v xml:space="preserve">  num=3, 5 y 9; 4081; 470220</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>1887</v>
+        <v>2826</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>764718</v>
+        <v>417095</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 1887; 764718</v>
+        <v>3, 5 y 8; 2826; 417095</v>
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP(H25,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11875,7 +11896,7 @@
         <v>leo</v>
       </c>
       <c r="J25" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="K25" t="str">
         <f>IF(J25="es","  "&amp;I25&amp;"_"&amp;J25&amp;"="&amp;VLOOKUP(I25&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J25="en","  "&amp;I25&amp;"_"&amp;J25&amp;"="&amp;VLOOKUP(I25&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J25="indice",$K$2&amp;"["&amp;H25&amp;"]",IF(J25="pnl","  pnl="&amp;G25,"  num="&amp;F25))))</f>
@@ -11885,27 +11906,27 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>4194</v>
+        <v>5315</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>985718</v>
+        <v>569069</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 8; 4194; 985718</v>
+        <v>3, 6 y 9; 5315; 569069</v>
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP(H26,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11933,7 +11954,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
@@ -11941,15 +11962,15 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>4182</v>
+        <v>5101</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>896316</v>
+        <v>505588</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 8; 4182; 896316</v>
+        <v>2, 7 y 8; 5101; 505588</v>
       </c>
       <c r="G27" t="str">
         <f>VLOOKUP(H27,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -11973,7 +11994,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
@@ -11981,19 +12002,19 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>3781</v>
+        <v>2493</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>423910</v>
+        <v>978689</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 9; 3781; 423910</v>
+        <v>3, 7 y 8; 2493; 978689</v>
       </c>
       <c r="G28" t="str">
         <f>VLOOKUP(H28,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12021,7 +12042,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
@@ -12029,15 +12050,15 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>4029</v>
+        <v>8661</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>197134</v>
+        <v>490848</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 8; 4029; 197134</v>
+        <v>2, 6 y 8; 8661; 490848</v>
       </c>
       <c r="G29" t="str">
         <f>VLOOKUP(H29,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12051,37 +12072,37 @@
         <v>virgo</v>
       </c>
       <c r="J29" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="K29" t="str">
         <f ca="1">IF(J29="es","  "&amp;I29&amp;"_"&amp;J29&amp;"="&amp;VLOOKUP(I29&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J29="en","  "&amp;I29&amp;"_"&amp;J29&amp;"="&amp;VLOOKUP(I29&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J29="indice",$K$2&amp;"["&amp;H29&amp;"]",IF(J29="pnl","  pnl="&amp;G29,"  num="&amp;F29))))</f>
-        <v xml:space="preserve">  num=2,5 y 8; 4029; 197134</v>
+        <v xml:space="preserve">  num=2, 6 y 8; 8661; 490848</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>5211</v>
+        <v>4390</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>612930</v>
+        <v>493542</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 9; 5211; 612930</v>
+        <v>2, 6 y 8; 4390; 493542</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP(H30,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12095,7 +12116,7 @@
         <v>virgo</v>
       </c>
       <c r="J30" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="K30" t="str">
         <f>IF(J30="es","  "&amp;I30&amp;"_"&amp;J30&amp;"="&amp;VLOOKUP(I30&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J30="en","  "&amp;I30&amp;"_"&amp;J30&amp;"="&amp;VLOOKUP(I30&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J30="indice",$K$2&amp;"["&amp;H30&amp;"]",IF(J30="pnl","  pnl="&amp;G30,"  num="&amp;F30))))</f>
@@ -12105,11 +12126,11 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
@@ -12117,15 +12138,15 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>5574</v>
+        <v>5814</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>553583</v>
+        <v>325671</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 5574; 553583</v>
+        <v>1, 7 y 9; 5814; 325671</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP(H31,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12149,11 +12170,11 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
@@ -12161,15 +12182,15 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>5485</v>
+        <v>3980</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>120552</v>
+        <v>274298</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,6 y 9; 5485; 120552</v>
+        <v>1, 5 y 9; 3980; 274298</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP(H32,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12193,11 +12214,11 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
@@ -12205,15 +12226,15 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="3"/>
-        <v>5537</v>
+        <v>6915</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>459203</v>
+        <v>404065</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 9; 5537; 459203</v>
+        <v>4, 5 y 9; 6915; 404065</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP(H33,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12237,27 +12258,27 @@
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>4084</v>
+        <v>7029</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>421592</v>
+        <v>540389</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 4084; 421592</v>
+        <v>2, 6 y 8; 7029; 540389</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP(H34,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12271,37 +12292,37 @@
         <v>libra</v>
       </c>
       <c r="J34" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="K34" t="str">
         <f ca="1">IF(J34="es","  "&amp;I34&amp;"_"&amp;J34&amp;"="&amp;VLOOKUP(I34&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J34="en","  "&amp;I34&amp;"_"&amp;J34&amp;"="&amp;VLOOKUP(I34&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J34="indice",$K$2&amp;"["&amp;H34&amp;"]",IF(J34="pnl","  pnl="&amp;G34,"  num="&amp;F34))))</f>
-        <v xml:space="preserve">  num=4,5 y 9; 4084; 421592</v>
+        <v xml:space="preserve">  num=2, 6 y 8; 7029; 540389</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>7646</v>
+        <v>9640</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>212938</v>
+        <v>706706</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,7 y 8; 7646; 212938</v>
+        <v>2, 5 y 9; 9640; 706706</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP(H35,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12315,7 +12336,7 @@
         <v>libra</v>
       </c>
       <c r="J35" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="K35" t="str">
         <f>IF(J35="es","  "&amp;I35&amp;"_"&amp;J35&amp;"="&amp;VLOOKUP(I35&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J35="en","  "&amp;I35&amp;"_"&amp;J35&amp;"="&amp;VLOOKUP(I35&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J35="indice",$K$2&amp;"["&amp;H35&amp;"]",IF(J35="pnl","  pnl="&amp;G35,"  num="&amp;F35))))</f>
@@ -12329,23 +12350,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>2599</v>
+        <v>6521</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>707598</v>
+        <v>659464</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 9; 2599; 707598</v>
+        <v>2, 6 y 8; 6521; 659464</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP(H36,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12369,27 +12390,27 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>8196</v>
+        <v>6945</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>216905</v>
+        <v>814322</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 8; 8196; 216905</v>
+        <v>1, 6 y 9; 6945; 814322</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP(H37,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12413,27 +12434,27 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>3594</v>
+        <v>1556</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>143267</v>
+        <v>212178</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 9; 3594; 143267</v>
+        <v>1, 7 y 8; 1556; 212178</v>
       </c>
       <c r="G38" t="str">
         <f>VLOOKUP(H38,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12457,7 +12478,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
@@ -12465,19 +12486,19 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>6839</v>
+        <v>6563</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>312234</v>
+        <v>511006</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 8; 6839; 312234</v>
+        <v>3, 5 y 9; 6563; 511006</v>
       </c>
       <c r="G39" t="str">
         <f>VLOOKUP(H39,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12491,17 +12512,17 @@
         <v>escorpio</v>
       </c>
       <c r="J39" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="K39" t="str">
         <f ca="1">IF(J39="es","  "&amp;I39&amp;"_"&amp;J39&amp;"="&amp;VLOOKUP(I39&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J39="en","  "&amp;I39&amp;"_"&amp;J39&amp;"="&amp;VLOOKUP(I39&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J39="indice",$K$2&amp;"["&amp;H39&amp;"]",IF(J39="pnl","  pnl="&amp;G39,"  num="&amp;F39))))</f>
-        <v xml:space="preserve">  num=1,5 y 8; 6839; 312234</v>
+        <v xml:space="preserve">  num=3, 5 y 9; 6563; 511006</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
@@ -12513,15 +12534,15 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>7569</v>
+        <v>8406</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>183725</v>
+        <v>432397</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 9; 7569; 183725</v>
+        <v>4, 5 y 9; 8406; 432397</v>
       </c>
       <c r="G40" t="str">
         <f>VLOOKUP(H40,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12535,7 +12556,7 @@
         <v>escorpio</v>
       </c>
       <c r="J40" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="K40" t="str">
         <f>IF(J40="es","  "&amp;I40&amp;"_"&amp;J40&amp;"="&amp;VLOOKUP(I40&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J40="en","  "&amp;I40&amp;"_"&amp;J40&amp;"="&amp;VLOOKUP(I40&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J40="indice",$K$2&amp;"["&amp;H40&amp;"]",IF(J40="pnl","  pnl="&amp;G40,"  num="&amp;F40))))</f>
@@ -12553,19 +12574,19 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>4641</v>
+        <v>2587</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>925978</v>
+        <v>758137</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,6 y 8; 4641; 925978</v>
+        <v>1, 6 y 9; 2587; 758137</v>
       </c>
       <c r="G41" t="str">
         <f>VLOOKUP(H41,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12593,23 +12614,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>6687</v>
+        <v>3619</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>852135</v>
+        <v>913879</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1,5 y 9; 6687; 852135</v>
+        <v>1, 7 y 8; 3619; 913879</v>
       </c>
       <c r="G42" t="str">
         <f>VLOOKUP(H42,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12641,19 +12662,19 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>8408</v>
+        <v>1656</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>866174</v>
+        <v>265229</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,7 y 8; 8408; 866174</v>
+        <v>4, 7 y 9; 1656; 265229</v>
       </c>
       <c r="G43" t="str">
         <f>VLOOKUP(H43,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12677,27 +12698,27 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>3882</v>
+        <v>5605</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>641068</v>
+        <v>475118</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 8; 3882; 641068</v>
+        <v>1, 5 y 9; 5605; 475118</v>
       </c>
       <c r="G44" t="str">
         <f>VLOOKUP(H44,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12711,37 +12732,37 @@
         <v>sagitario</v>
       </c>
       <c r="J44" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="K44" t="str">
         <f ca="1">IF(J44="es","  "&amp;I44&amp;"_"&amp;J44&amp;"="&amp;VLOOKUP(I44&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J44="en","  "&amp;I44&amp;"_"&amp;J44&amp;"="&amp;VLOOKUP(I44&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J44="indice",$K$2&amp;"["&amp;H44&amp;"]",IF(J44="pnl","  pnl="&amp;G44,"  num="&amp;F44))))</f>
-        <v xml:space="preserve">  num=2,6 y 8; 3882; 641068</v>
+        <v xml:space="preserve">  num=1, 5 y 9; 5605; 475118</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>7984</v>
+        <v>7280</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>895510</v>
+        <v>614835</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 9; 7984; 895510</v>
+        <v>1, 7 y 8; 7280; 614835</v>
       </c>
       <c r="G45" t="str">
         <f>VLOOKUP(H45,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12755,7 +12776,7 @@
         <v>sagitario</v>
       </c>
       <c r="J45" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="K45" t="str">
         <f>IF(J45="es","  "&amp;I45&amp;"_"&amp;J45&amp;"="&amp;VLOOKUP(I45&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J45="en","  "&amp;I45&amp;"_"&amp;J45&amp;"="&amp;VLOOKUP(I45&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J45="indice",$K$2&amp;"["&amp;H45&amp;"]",IF(J45="pnl","  pnl="&amp;G45,"  num="&amp;F45))))</f>
@@ -12765,7 +12786,7 @@
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
@@ -12773,19 +12794,19 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>9073</v>
+        <v>2718</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>158266</v>
+        <v>776732</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 8; 9073; 158266</v>
+        <v>3, 6 y 9; 2718; 776732</v>
       </c>
       <c r="G46" t="str">
         <f>VLOOKUP(H46,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12809,7 +12830,7 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
@@ -12817,19 +12838,19 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>7777</v>
+        <v>5850</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>105863</v>
+        <v>137112</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 9; 7777; 105863</v>
+        <v>4, 5 y 8; 5850; 137112</v>
       </c>
       <c r="G47" t="str">
         <f>VLOOKUP(H47,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12853,27 +12874,27 @@
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>4297</v>
+        <v>6182</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>406951</v>
+        <v>457552</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 4297; 406951</v>
+        <v>2, 7 y 8; 6182; 457552</v>
       </c>
       <c r="G48" t="str">
         <f>VLOOKUP(H48,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12901,23 +12922,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>6593</v>
+        <v>3887</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>243733</v>
+        <v>278961</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 8; 6593; 243733</v>
+        <v>3, 5 y 9; 3887; 278961</v>
       </c>
       <c r="G49" t="str">
         <f>VLOOKUP(H49,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12931,21 +12952,21 @@
         <v>capricornio</v>
       </c>
       <c r="J49" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="K49" t="str">
         <f ca="1">IF(J49="es","  "&amp;I49&amp;"_"&amp;J49&amp;"="&amp;VLOOKUP(I49&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J49="en","  "&amp;I49&amp;"_"&amp;J49&amp;"="&amp;VLOOKUP(I49&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J49="indice",$K$2&amp;"["&amp;H49&amp;"]",IF(J49="pnl","  pnl="&amp;G49,"  num="&amp;F49))))</f>
-        <v xml:space="preserve">  num=3,7 y 8; 6593; 243733</v>
+        <v xml:space="preserve">  num=3, 5 y 9; 3887; 278961</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
@@ -12953,15 +12974,15 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>6934</v>
+        <v>7090</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>433462</v>
+        <v>224880</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 8; 6934; 433462</v>
+        <v>4, 5 y 8; 7090; 224880</v>
       </c>
       <c r="G50" t="str">
         <f>VLOOKUP(H50,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -12975,7 +12996,7 @@
         <v>capricornio</v>
       </c>
       <c r="J50" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="K50" t="str">
         <f>IF(J50="es","  "&amp;I50&amp;"_"&amp;J50&amp;"="&amp;VLOOKUP(I50&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J50="en","  "&amp;I50&amp;"_"&amp;J50&amp;"="&amp;VLOOKUP(I50&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J50="indice",$K$2&amp;"["&amp;H50&amp;"]",IF(J50="pnl","  pnl="&amp;G50,"  num="&amp;F50))))</f>
@@ -12989,23 +13010,23 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="3"/>
-        <v>2047</v>
+        <v>6070</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>579778</v>
+        <v>542471</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 8; 2047; 579778</v>
+        <v>4, 7 y 9; 6070; 542471</v>
       </c>
       <c r="G51" t="str">
         <f>VLOOKUP(H51,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -13029,11 +13050,11 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
@@ -13041,15 +13062,15 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="3"/>
-        <v>3744</v>
+        <v>6147</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>761765</v>
+        <v>984834</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 8; 3744; 761765</v>
+        <v>4, 6 y 8; 6147; 984834</v>
       </c>
       <c r="G52" t="str">
         <f>VLOOKUP(H52,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -13077,23 +13098,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="3"/>
-        <v>5454</v>
+        <v>8299</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>110271</v>
+        <v>376404</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,7 y 8; 5454; 110271</v>
+        <v>2, 5 y 9; 8299; 376404</v>
       </c>
       <c r="G53" t="str">
         <f>VLOOKUP(H53,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -13121,23 +13142,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="3"/>
-        <v>6052</v>
+        <v>6519</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>234614</v>
+        <v>411336</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 9; 6052; 234614</v>
+        <v>3, 5 y 8; 6519; 411336</v>
       </c>
       <c r="G54" t="str">
         <f>VLOOKUP(H54,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -13151,17 +13172,17 @@
         <v>acuario</v>
       </c>
       <c r="J54" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="K54" t="str">
         <f ca="1">IF(J54="es","  "&amp;I54&amp;"_"&amp;J54&amp;"="&amp;VLOOKUP(I54&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J54="en","  "&amp;I54&amp;"_"&amp;J54&amp;"="&amp;VLOOKUP(I54&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J54="indice",$K$2&amp;"["&amp;H54&amp;"]",IF(J54="pnl","  pnl="&amp;G54,"  num="&amp;F54))))</f>
-        <v xml:space="preserve">  num=3,7 y 9; 6052; 234614</v>
+        <v xml:space="preserve">  num=3, 5 y 8; 6519; 411336</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
@@ -13173,15 +13194,15 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="3"/>
-        <v>5141</v>
+        <v>5227</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>797232</v>
+        <v>363654</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 9; 5141; 797232</v>
+        <v>1, 6 y 9; 5227; 363654</v>
       </c>
       <c r="G55" t="str">
         <f>VLOOKUP(H55,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -13195,7 +13216,7 @@
         <v>acuario</v>
       </c>
       <c r="J55" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="K55" t="str">
         <f>IF(J55="es","  "&amp;I55&amp;"_"&amp;J55&amp;"="&amp;VLOOKUP(I55&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J55="en","  "&amp;I55&amp;"_"&amp;J55&amp;"="&amp;VLOOKUP(I55&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J55="indice",$K$2&amp;"["&amp;H55&amp;"]",IF(J55="pnl","  pnl="&amp;G55,"  num="&amp;F55))))</f>
@@ -13209,7 +13230,7 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
@@ -13217,15 +13238,15 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="3"/>
-        <v>6616</v>
+        <v>4779</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>248879</v>
+        <v>598126</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,6 y 9; 6616; 248879</v>
+        <v>2, 5 y 9; 4779; 598126</v>
       </c>
       <c r="G56" t="str">
         <f>VLOOKUP(H56,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -13249,27 +13270,27 @@
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="3"/>
-        <v>7116</v>
+        <v>2572</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>485575</v>
+        <v>240046</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,5 y 8; 7116; 485575</v>
+        <v>4, 7 y 9; 2572; 240046</v>
       </c>
       <c r="G57" t="str">
         <f>VLOOKUP(H57,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -13293,27 +13314,27 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="3"/>
-        <v>9633</v>
+        <v>5553</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>576200</v>
+        <v>326089</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 8; 9633; 576200</v>
+        <v>4, 7 y 9; 5553; 326089</v>
       </c>
       <c r="G58" t="str">
         <f>VLOOKUP(H58,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -13337,27 +13358,27 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="3"/>
-        <v>3455</v>
+        <v>7919</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>202017</v>
+        <v>425673</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2,5 y 9; 3455; 202017</v>
+        <v>4, 6 y 8; 7919; 425673</v>
       </c>
       <c r="G59" t="str">
         <f>VLOOKUP(H59,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -13371,17 +13392,17 @@
         <v>piscis</v>
       </c>
       <c r="J59" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="K59" t="str">
         <f ca="1">IF(J59="es","  "&amp;I59&amp;"_"&amp;J59&amp;"="&amp;VLOOKUP(I59&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J59="en","  "&amp;I59&amp;"_"&amp;J59&amp;"="&amp;VLOOKUP(I59&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J59="indice",$K$2&amp;"["&amp;H59&amp;"]",IF(J59="pnl","  pnl="&amp;G59,"  num="&amp;F59))))</f>
-        <v xml:space="preserve">  num=2,5 y 9; 3455; 202017</v>
+        <v xml:space="preserve">  num=4, 6 y 8; 7919; 425673</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
@@ -13393,15 +13414,15 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="3"/>
-        <v>8639</v>
+        <v>7460</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>759856</v>
+        <v>628281</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,6 y 9; 8639; 759856</v>
+        <v>1, 6 y 9; 7460; 628281</v>
       </c>
       <c r="G60" t="str">
         <f>VLOOKUP(H60,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -13415,7 +13436,7 @@
         <v>piscis</v>
       </c>
       <c r="J60" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="K60" t="str">
         <f>IF(J60="es","  "&amp;I60&amp;"_"&amp;J60&amp;"="&amp;VLOOKUP(I60&amp;"_"&amp;"diario",es!$A$3:$B$154,2,FALSE),IF(J60="en","  "&amp;I60&amp;"_"&amp;J60&amp;"="&amp;VLOOKUP(I60&amp;"_"&amp;"diario",en!$A$1:$B$152,2,FALSE),IF(J60="indice",$K$2&amp;"["&amp;H60&amp;"]",IF(J60="pnl","  pnl="&amp;G60,"  num="&amp;F60))))</f>
@@ -13429,23 +13450,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="3"/>
-        <v>7380</v>
+        <v>4248</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>820792</v>
+        <v>615964</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3,7 y 9; 7380; 820792</v>
+        <v>3, 5 y 8; 4248; 615964</v>
       </c>
       <c r="G61" t="str">
         <f>VLOOKUP(H61,signos1!$A$1:$C$12,3,FALSE)</f>
@@ -13469,7 +13490,7 @@
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
@@ -13481,15 +13502,15 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="3"/>
-        <v>9129</v>
+        <v>7164</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>178612</v>
+        <v>855397</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4,5 y 9; 9129; 178612</v>
+        <v>1, 5 y 9; 7164; 855397</v>
       </c>
       <c r="G62" t="str">
         <f>VLOOKUP(H62,signos1!$A$1:$C$12,3,FALSE)</f>
